--- a/PS-VRP/Dati_output/output.xlsx
+++ b/PS-VRP/Dati_output/output.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S75"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,41 +542,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251219</v>
+        <v>243569</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>107.5</v>
+        <v>21.675</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>05-06-2025 12:00:00</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>05-06-2025 12:36:00</t>
+          <t>08-07-2025 07:17:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05-06-2025 12:36:00</t>
+          <t>08-07-2025 07:17:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>05-06-2025 14:23:30</t>
+          <t>08-07-2025 07:38:40</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6880</v>
+        <v>2601</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -585,75 +585,70 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>76</v>
       </c>
-      <c r="N2" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>09-05-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.5996527777777778</v>
+        <v>-295.3185243055556</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251362</v>
+        <v>252207</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>39.140625</v>
+        <v>51.55</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>05-06-2025 14:23:30</t>
+          <t>08-07-2025 07:38:40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>05-06-2025 14:44:30</t>
+          <t>08-07-2025 07:53:40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>05-06-2025 14:44:30</t>
+          <t>08-07-2025 07:53:40</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>06-06-2025 07:23:38</t>
+          <t>08-07-2025 08:45:13</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2505</v>
+        <v>6186</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -662,7 +657,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -671,66 +666,61 @@
       <c r="M3" t="n">
         <v>76</v>
       </c>
-      <c r="N3" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>24-04-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.308083767361111</v>
+        <v>-12.36473958333333</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251186</v>
+        <v>252371</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>398.625</v>
+        <v>50.04166666666666</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>06-06-2025 07:23:38</t>
+          <t>08-07-2025 08:45:13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>06-06-2025 07:55:38</t>
+          <t>08-07-2025 09:02:13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>06-06-2025 07:55:38</t>
+          <t>08-07-2025 09:02:13</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>06-06-2025 14:34:15</t>
+          <t>08-07-2025 09:52:16</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>25512</v>
+        <v>6005</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -739,14 +729,14 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -756,11 +746,11 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>30-05-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-7.60712890625</v>
+        <v>-8.411296296296296</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -768,41 +758,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>245623</v>
+        <v>252298</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>412.796875</v>
+        <v>70.76666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>06-06-2025 14:34:15</t>
+          <t>08-07-2025 09:52:16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09-06-2025 07:08:15</t>
+          <t>08-07-2025 10:11:16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>09-06-2025 07:08:15</t>
+          <t>08-07-2025 10:11:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>09-06-2025 14:01:03</t>
+          <t>08-07-2025 11:22:02</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>26419</v>
+        <v>8492</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -811,14 +801,14 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -828,53 +818,53 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00:00</t>
+          <t>23-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-135.5840711805556</v>
+        <v>-15.47363425925926</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251798</v>
+        <v>252546</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>353.828125</v>
+        <v>54.63333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09-06-2025 14:01:03</t>
+          <t>08-07-2025 11:22:02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>09-06-2025 14:35:03</t>
+          <t>08-07-2025 11:43:02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>09-06-2025 14:35:03</t>
+          <t>08-07-2025 11:43:02</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>10-06-2025 12:28:53</t>
+          <t>08-07-2025 12:37:40</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>22645</v>
+        <v>6556</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -883,11 +873,11 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>76</v>
@@ -900,53 +890,53 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>15-06-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0</v>
+        <v>-7.526157407407408</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251762</v>
+        <v>252087</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>81.375</v>
+        <v>35.5</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10-06-2025 12:28:53</t>
+          <t>08-07-2025 12:37:40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10-06-2025 13:00:53</t>
+          <t>08-07-2025 13:07:40</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10-06-2025 13:00:53</t>
+          <t>08-07-2025 13:07:40</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>10-06-2025 14:22:15</t>
+          <t>08-07-2025 13:43:10</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>5208</v>
+        <v>4260</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -955,7 +945,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -972,53 +962,53 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>21-05-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-20.59879557291667</v>
+        <v>-9.571643518518519</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251943</v>
+        <v>252237</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>92.234375</v>
+        <v>84.95</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10-06-2025 14:22:15</t>
+          <t>08-07-2025 13:43:10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10-06-2025 14:39:15</t>
+          <t>08-07-2025 14:15:10</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10-06-2025 14:39:15</t>
+          <t>08-07-2025 14:15:10</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>11-06-2025 08:11:30</t>
+          <t>09-07-2025 07:40:07</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>5903</v>
+        <v>10194</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1027,14 +1017,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1044,53 +1034,53 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>30-05-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-12.34131944444444</v>
+        <v>-8.319525462962963</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252042</v>
+        <v>252999</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
-        <v>120.0625</v>
+        <v>325.8416666666666</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-06-2025 08:11:30</t>
+          <t>09-07-2025 07:40:07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>11-06-2025 08:30:30</t>
+          <t>09-07-2025 08:14:07</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11-06-2025 08:30:30</t>
+          <t>09-07-2025 08:14:07</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11-06-2025 10:30:33</t>
+          <t>09-07-2025 13:39:57</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>7684</v>
+        <v>39101</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,7 +1089,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1116,53 +1106,53 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>30-05-2025 00:00:00</t>
+          <t>06-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-12.437890625</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251905</v>
+        <v>245089</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D10" t="n">
-        <v>216.265625</v>
+        <v>1022.208333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-06-2025 10:30:33</t>
+          <t>09-07-2025 13:39:57</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>11-06-2025 11:08:33</t>
+          <t>09-07-2025 14:13:57</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>11-06-2025 11:08:33</t>
+          <t>09-07-2025 14:13:57</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>11-06-2025 14:44:49</t>
+          <t>14-07-2025 07:16:10</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>13841</v>
+        <v>122665</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1171,11 +1161,11 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>76</v>
@@ -1188,53 +1178,53 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>28-05-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-14.61446397569444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>252121</v>
+        <v>252755</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>194.578125</v>
+        <v>109.575</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-06-2025 14:44:49</t>
+          <t>14-07-2025 07:16:10</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>12-06-2025 07:22:49</t>
+          <t>14-07-2025 07:46:10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12-06-2025 07:22:49</t>
+          <t>14-07-2025 07:46:10</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>12-06-2025 10:37:24</t>
+          <t>14-07-2025 09:35:44</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>12453</v>
+        <v>13149</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1243,11 +1233,11 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1260,53 +1250,53 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251680</v>
+        <v>252899</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>264.15625</v>
+        <v>180.5666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-06-2025 10:37:24</t>
+          <t>14-07-2025 09:35:44</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>12-06-2025 11:00:24</t>
+          <t>14-07-2025 09:52:44</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12-06-2025 11:00:24</t>
+          <t>14-07-2025 09:52:44</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>13-06-2025 07:24:33</t>
+          <t>14-07-2025 12:53:18</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>16906</v>
+        <v>21668</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1315,11 +1305,11 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1332,19 +1322,19 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252108</v>
+        <v>243525</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1352,33 +1342,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D13" t="n">
-        <v>234.4426229508197</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>05-06-2025 07:00:00</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>05-06-2025 07:40:00</t>
+          <t>08-07-2025 07:44:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>05-06-2025 07:40:00</t>
+          <t>08-07-2025 07:44:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>05-06-2025 11:34:26</t>
+          <t>08-07-2025 09:53:59</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>14301</v>
+        <v>15598</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1387,14 +1377,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1404,11 +1394,11 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>06-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-4.412488425925926</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -1416,7 +1406,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252058</v>
+        <v>250284</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1424,33 +1414,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>86.88524590163935</v>
+        <v>146.35</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>05-06-2025 11:34:26</t>
+          <t>08-07-2025 09:53:59</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>05-06-2025 12:03:26</t>
+          <t>08-07-2025 10:43:59</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>05-06-2025 12:03:26</t>
+          <t>08-07-2025 10:43:59</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>05-06-2025 13:30:19</t>
+          <t>08-07-2025 13:10:20</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>5300</v>
+        <v>17562</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1459,11 +1449,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1476,19 +1466,19 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>09-06-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-118.5488425925926</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251897</v>
+        <v>252636</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1499,30 +1489,30 @@
         <v>35</v>
       </c>
       <c r="D15" t="n">
-        <v>305.0327868852459</v>
+        <v>11.275</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>05-06-2025 13:30:19</t>
+          <t>08-07-2025 13:10:20</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>05-06-2025 14:05:19</t>
+          <t>08-07-2025 13:45:20</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>05-06-2025 14:05:19</t>
+          <t>08-07-2025 13:45:20</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>06-06-2025 11:10:21</t>
+          <t>08-07-2025 13:56:36</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>18607</v>
+        <v>1353</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1531,43 +1521,36 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39891</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>26-05-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-11.46552823314815</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251958</v>
+        <v>252085</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1575,33 +1558,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
-        <v>142.3114754098361</v>
+        <v>28.55</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>06-06-2025 11:10:21</t>
+          <t>08-07-2025 13:56:36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>06-06-2025 12:02:21</t>
+          <t>08-07-2025 14:23:36</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>06-06-2025 12:02:21</t>
+          <t>08-07-2025 14:23:36</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>06-06-2025 14:24:40</t>
+          <t>08-07-2025 14:52:09</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>8681</v>
+        <v>3426</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1610,14 +1593,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1627,19 +1610,19 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>09-06-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-20.61955439814815</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251445</v>
+        <v>252665</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1647,33 +1630,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
-        <v>445.4754098360656</v>
+        <v>48.875</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>06-06-2025 14:24:40</t>
+          <t>08-07-2025 14:52:09</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09-06-2025 07:06:40</t>
+          <t>09-07-2025 07:21:09</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>09-06-2025 07:06:40</t>
+          <t>09-07-2025 07:21:09</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>09-06-2025 14:32:08</t>
+          <t>09-07-2025 08:10:02</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>27174</v>
+        <v>5865</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1682,11 +1665,11 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1699,11 +1682,11 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>04-06-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-5.60565801457176</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>7</v>
@@ -1711,7 +1694,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>243569</v>
+        <v>252244</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1719,33 +1702,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D18" t="n">
-        <v>42.63934426229508</v>
+        <v>107.575</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09-06-2025 14:32:08</t>
+          <t>09-07-2025 08:10:02</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10-06-2025 07:12:08</t>
+          <t>09-07-2025 08:54:02</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10-06-2025 07:12:08</t>
+          <t>09-07-2025 08:54:02</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>10-06-2025 07:54:47</t>
+          <t>09-07-2025 10:41:36</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2601</v>
+        <v>12909</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1754,11 +1737,11 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>76</v>
@@ -1771,19 +1754,19 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-267.3297131147569</v>
+        <v>-2.445561342592593</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251879</v>
+        <v>252784</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1791,33 +1774,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D19" t="n">
-        <v>98.47540983606558</v>
+        <v>26.975</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-06-2025 07:54:47</t>
+          <t>09-07-2025 10:41:36</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10-06-2025 08:34:47</t>
+          <t>09-07-2025 11:25:36</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10-06-2025 08:34:47</t>
+          <t>09-07-2025 11:25:36</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>10-06-2025 10:13:15</t>
+          <t>09-07-2025 11:52:35</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>6007</v>
+        <v>3237</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1826,11 +1809,11 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1843,19 +1826,19 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>30-05-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-11.42587659380787</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251935</v>
+        <v>252723</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1863,33 +1846,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D20" t="n">
-        <v>109.655737704918</v>
+        <v>153.9583333333333</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-06-2025 10:13:15</t>
+          <t>09-07-2025 11:52:35</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10-06-2025 10:40:15</t>
+          <t>09-07-2025 12:38:35</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10-06-2025 10:40:15</t>
+          <t>09-07-2025 12:38:35</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10-06-2025 12:29:55</t>
+          <t>10-07-2025 07:12:32</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>6689</v>
+        <v>18475</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1898,14 +1881,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1915,53 +1898,53 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>05-06-2025 00:00:00</t>
+          <t>31-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-5.520776411655092</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251752</v>
+        <v>252350</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>04-06-2025 12:00:00</t>
+          <t>10-07-2025 07:12:32</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>04-06-2025 12:17:00</t>
+          <t>10-07-2025 07:54:32</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>04-06-2025 12:17:00</t>
+          <t>10-07-2025 07:54:32</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>04-06-2025 12:17:00</t>
+          <t>10-07-2025 08:46:25</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>6226</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1970,33 +1953,28 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
-      </c>
-      <c r="N21" t="n">
-        <v>39846</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39846</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>20-05-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.5118055555555555</v>
+        <v>-2.365572916666667</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2004,41 +1982,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251972</v>
+        <v>252638</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D22" t="n">
-        <v>68.28169014084507</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>04-06-2025 12:17:00</t>
+          <t>10-07-2025 08:46:25</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>04-06-2025 12:34:00</t>
+          <t>10-07-2025 09:17:25</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>04-06-2025 12:34:00</t>
+          <t>10-07-2025 09:17:25</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>04-06-2025 13:42:16</t>
+          <t>10-07-2025 10:18:55</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>4848</v>
+        <v>7379</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2047,14 +2025,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2064,53 +2042,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>30-05-2025 00:00:00</t>
+          <t>06-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-5.571028951481481</v>
+        <v>-4.429803240740741</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251565</v>
+        <v>252456</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>176.7464788732394</v>
+        <v>144.4583333333333</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>04-06-2025 13:42:16</t>
+          <t>10-07-2025 10:18:55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>04-06-2025 14:16:16</t>
+          <t>10-07-2025 10:43:55</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>04-06-2025 14:16:16</t>
+          <t>10-07-2025 10:43:55</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>05-06-2025 09:13:01</t>
+          <t>10-07-2025 13:08:22</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>12549</v>
+        <v>17335</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2119,75 +2097,70 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="N23" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>10-06-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.3840473395949074</v>
+        <v>-0.5474826388888889</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251895</v>
+        <v>252549</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>249.2112676056338</v>
+        <v>92.59166666666667</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>05-06-2025 09:13:01</t>
+          <t>10-07-2025 13:08:22</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>05-06-2025 09:44:01</t>
+          <t>10-07-2025 13:37:22</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>05-06-2025 09:44:01</t>
+          <t>10-07-2025 13:37:22</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>05-06-2025 13:53:14</t>
+          <t>11-07-2025 07:09:58</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>17694</v>
+        <v>11111</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2196,35 +2169,28 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O24" t="n">
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>39891</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>26-05-2025 00:00:00</t>
+          <t>20-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-10.57863849765046</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>4</v>
@@ -2232,41 +2198,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251218</v>
+        <v>252336</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
-        <v>96.90140845070422</v>
+        <v>120.275</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>05-06-2025 13:53:14</t>
+          <t>11-07-2025 07:09:58</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>05-06-2025 14:31:14</t>
+          <t>11-07-2025 07:38:58</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>05-06-2025 14:31:14</t>
+          <t>11-07-2025 07:38:58</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>06-06-2025 08:08:08</t>
+          <t>11-07-2025 09:39:14</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>6880</v>
+        <v>14433</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2275,75 +2241,70 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
-      </c>
-      <c r="N25" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>09-05-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.338986697962963</v>
+        <v>-7.402251157407408</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251792</v>
+        <v>252547</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>129.6338028169014</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>06-06-2025 08:08:08</t>
+          <t>11-07-2025 09:39:14</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>06-06-2025 08:29:08</t>
+          <t>11-07-2025 10:04:14</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>06-06-2025 08:29:08</t>
+          <t>11-07-2025 10:04:14</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>06-06-2025 10:38:46</t>
+          <t>11-07-2025 11:25:24</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>9204</v>
+        <v>9740</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2352,14 +2313,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2369,53 +2330,53 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>26-05-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-11.44359350547454</v>
+        <v>-7.47597800925926</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252195</v>
+        <v>252157</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D27" t="n">
-        <v>503.5633802816901</v>
+        <v>396.825</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>06-06-2025 10:38:46</t>
+          <t>11-07-2025 11:25:24</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>06-06-2025 11:08:46</t>
+          <t>11-07-2025 11:58:24</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>06-06-2025 11:08:46</t>
+          <t>11-07-2025 11:58:24</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>09-06-2025 11:32:20</t>
+          <t>14-07-2025 10:35:14</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>35753</v>
+        <v>47619</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2424,11 +2385,11 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
@@ -2441,53 +2402,53 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>13-06-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-26.44113425925926</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>252082</v>
+        <v>252790</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D28" t="n">
-        <v>632.2253521126761</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09-06-2025 11:32:20</t>
+          <t>14-07-2025 10:35:14</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-06-2025 11:49:20</t>
+          <t>14-07-2025 11:08:14</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09-06-2025 11:49:20</t>
+          <t>14-07-2025 11:08:14</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>10-06-2025 14:21:33</t>
+          <t>14-07-2025 11:20:20</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>44888</v>
+        <v>1453</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2496,11 +2457,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2513,11 +2474,11 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>10-06-2025 00:00:00</t>
+          <t>25-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-0.5983079029745371</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>2</v>
@@ -2525,41 +2486,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251741</v>
+        <v>252467</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>76.54929577464789</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-06-2025 14:21:33</t>
+          <t>14-07-2025 11:20:20</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10-06-2025 14:40:33</t>
+          <t>14-07-2025 11:45:20</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10-06-2025 14:40:33</t>
+          <t>14-07-2025 11:45:20</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>11-06-2025 07:57:06</t>
+          <t>14-07-2025 13:06:30</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5435</v>
+        <v>9740</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2568,11 +2529,11 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2585,19 +2546,19 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>28-05-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-14.33132824725695</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251978</v>
+        <v>252230</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2605,33 +2566,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D30" t="n">
-        <v>440.1408450704225</v>
+        <v>63.125</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-06-2025 07:57:06</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>11-06-2025 08:14:06</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>11-06-2025 08:14:06</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>12-06-2025 07:34:15</t>
+          <t>08-07-2025 08:24:07</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>31250</v>
+        <v>7575</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2640,14 +2601,14 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
         <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2657,11 +2618,11 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>03-06-2025 00:00:00</t>
+          <t>13-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-9.315453834120369</v>
+        <v>-25.35008680555556</v>
       </c>
       <c r="S30" t="n">
         <v>7</v>
@@ -2669,7 +2630,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252196</v>
+        <v>252063</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2677,33 +2638,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D31" t="n">
-        <v>663.2253521126761</v>
+        <v>79.94166666666666</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-06-2025 07:34:15</t>
+          <t>08-07-2025 08:24:07</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>12-06-2025 07:53:15</t>
+          <t>08-07-2025 08:39:07</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12-06-2025 07:53:15</t>
+          <t>08-07-2025 08:39:07</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>13-06-2025 10:56:28</t>
+          <t>08-07-2025 09:59:04</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>47089</v>
+        <v>9593</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2712,14 +2673,14 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2729,11 +2690,11 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>13-06-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-0.455888106412037</v>
+        <v>-7.416018518518518</v>
       </c>
       <c r="S31" t="n">
         <v>1</v>
@@ -2741,7 +2702,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251684</v>
+        <v>251798</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2752,30 +2713,30 @@
         <v>17</v>
       </c>
       <c r="D32" t="n">
-        <v>212.4366197183099</v>
+        <v>123.2916666666667</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>13-06-2025 10:56:28</t>
+          <t>08-07-2025 09:59:04</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>13-06-2025 11:13:28</t>
+          <t>08-07-2025 10:16:04</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>13-06-2025 11:13:28</t>
+          <t>08-07-2025 10:16:04</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>13-06-2025 14:45:54</t>
+          <t>08-07-2025 12:19:21</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>15083</v>
+        <v>14795</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2784,14 +2745,14 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2808,46 +2769,46 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251070</v>
+        <v>243529</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>36.5</v>
+        <v>17</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>05-06-2025 07:00:00</t>
+          <t>08-07-2025 12:19:21</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>05-06-2025 07:36:30</t>
+          <t>08-07-2025 12:36:21</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>05-06-2025 07:36:30</t>
+          <t>08-07-2025 12:36:21</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>05-06-2025 07:36:30</t>
+          <t>08-07-2025 14:46:20</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>15598</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2856,75 +2817,70 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>70</v>
-      </c>
-      <c r="N33" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>28-03-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-0.3170138888888889</v>
+        <v>-4.615515046296296</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251773</v>
+        <v>252476</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>32.5</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>05-06-2025 07:36:30</t>
+          <t>08-07-2025 14:46:20</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>05-06-2025 08:09:00</t>
+          <t>09-07-2025 07:16:20</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>05-06-2025 08:09:00</t>
+          <t>09-07-2025 07:16:20</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>05-06-2025 08:09:00</t>
+          <t>09-07-2025 08:28:41</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>8681</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2933,75 +2889,70 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
       </c>
-      <c r="N34" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O34" t="n">
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>25-05-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-0.3395833333333333</v>
+        <v>-2.353252314814815</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>244023</v>
+        <v>252814</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="D35" t="n">
-        <v>18.12727272727273</v>
+        <v>50.08333333333334</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>05-06-2025 08:09:00</t>
+          <t>09-07-2025 08:28:41</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>05-06-2025 08:41:30</t>
+          <t>09-07-2025 09:00:41</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>05-06-2025 08:41:30</t>
+          <t>09-07-2025 09:00:41</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>05-06-2025 08:59:37</t>
+          <t>09-07-2025 09:50:46</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>997</v>
+        <v>6010</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3010,14 +2961,14 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -3027,53 +2978,53 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-248.3747411616204</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251500</v>
+        <v>252243</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>34.5</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
-        <v>179.9272727272727</v>
+        <v>96.70833333333333</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>05-06-2025 08:59:37</t>
+          <t>09-07-2025 09:50:46</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>05-06-2025 09:34:07</t>
+          <t>09-07-2025 10:05:46</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>05-06-2025 09:34:07</t>
+          <t>09-07-2025 10:05:46</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>05-06-2025 12:34:03</t>
+          <t>09-07-2025 11:42:28</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>9896</v>
+        <v>11605</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3082,75 +3033,70 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
         <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>70</v>
-      </c>
-      <c r="N36" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>26-05-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-0.5236489898958334</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252156</v>
+        <v>252785</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>32.5</v>
+        <v>34</v>
       </c>
       <c r="D37" t="n">
-        <v>934</v>
+        <v>55.75</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>05-06-2025 12:34:03</t>
+          <t>09-07-2025 11:42:28</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>05-06-2025 13:06:33</t>
+          <t>09-07-2025 12:16:28</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>05-06-2025 13:06:33</t>
+          <t>09-07-2025 12:16:28</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>09-06-2025 12:40:33</t>
+          <t>09-07-2025 13:12:13</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>51370</v>
+        <v>6690</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3159,11 +3105,11 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3176,53 +3122,53 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>12-06-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252111</v>
+        <v>241783</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>34.5</v>
+        <v>36</v>
       </c>
       <c r="D38" t="n">
-        <v>330.6727272727273</v>
+        <v>43.325</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-06-2025 12:40:33</t>
+          <t>09-07-2025 13:12:13</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-06-2025 13:15:03</t>
+          <t>09-07-2025 13:48:13</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09-06-2025 13:15:03</t>
+          <t>09-07-2025 13:48:13</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>10-06-2025 10:45:43</t>
+          <t>09-07-2025 14:31:33</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>18187</v>
+        <v>5199</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3231,14 +3177,14 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
         <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3248,11 +3194,11 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>05-06-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-5.448421717175925</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>1</v>
@@ -3260,7 +3206,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251979</v>
+        <v>252345</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3268,33 +3214,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="D39" t="n">
-        <v>374.1090909090909</v>
+        <v>43.325</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-06-2025 10:45:43</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>10-06-2025 11:18:13</t>
+          <t>08-07-2025 07:34:30</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10-06-2025 11:18:13</t>
+          <t>08-07-2025 07:34:30</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>11-06-2025 09:32:20</t>
+          <t>08-07-2025 08:17:49</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>20576</v>
+        <v>5199</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3303,11 +3249,11 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3320,19 +3266,19 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>05-06-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-6.397455808078704</v>
+        <v>-0.3457118055555555</v>
       </c>
       <c r="S39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251747</v>
+        <v>252347</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3343,30 +3289,30 @@
         <v>32.5</v>
       </c>
       <c r="D40" t="n">
-        <v>282.8363636363636</v>
+        <v>92.28333333333333</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-06-2025 09:32:20</t>
+          <t>08-07-2025 08:17:49</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>11-06-2025 10:04:50</t>
+          <t>08-07-2025 08:50:19</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11-06-2025 10:04:50</t>
+          <t>08-07-2025 08:50:19</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>11-06-2025 14:47:40</t>
+          <t>08-07-2025 10:22:36</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>15556</v>
+        <v>11074</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3375,11 +3321,11 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -3392,19 +3338,19 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
+        <v>-0.4323668981481482</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251916</v>
+        <v>252220</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3412,33 +3358,33 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="D41" t="n">
-        <v>852.2727272727273</v>
+        <v>80.51666666666667</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-06-2025 14:47:40</t>
+          <t>08-07-2025 10:22:36</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>12-06-2025 07:20:10</t>
+          <t>08-07-2025 10:57:06</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>12-06-2025 07:20:10</t>
+          <t>08-07-2025 10:57:06</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>13-06-2025 13:32:26</t>
+          <t>08-07-2025 12:17:37</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>46875</v>
+        <v>9662</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3447,7 +3393,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -3464,19 +3410,19 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>13-06-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-0.5641982323263889</v>
+        <v>-22.51223958333333</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251780</v>
+        <v>252652</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3487,30 +3433,30 @@
         <v>32.5</v>
       </c>
       <c r="D42" t="n">
-        <v>441.8</v>
+        <v>186.0083333333333</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13-06-2025 13:32:26</t>
+          <t>08-07-2025 12:17:37</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>13-06-2025 14:04:56</t>
+          <t>08-07-2025 12:50:07</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>13-06-2025 14:04:56</t>
+          <t>08-07-2025 12:50:07</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>16-06-2025 13:26:44</t>
+          <t>09-07-2025 07:56:08</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>24299</v>
+        <v>22321</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3519,7 +3465,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -3528,68 +3474,61 @@
       <c r="M42" t="n">
         <v>70</v>
       </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>39887</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251180</v>
+        <v>251674</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>30</v>
+        <v>52.5</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>147.125</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>04-06-2025 07:00:00</t>
+          <t>09-07-2025 07:56:08</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>04-06-2025 07:30:00</t>
+          <t>09-07-2025 08:48:38</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>04-06-2025 07:30:00</t>
+          <t>09-07-2025 08:48:38</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>04-06-2025 07:30:00</t>
+          <t>09-07-2025 11:15:45</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>17655</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3598,77 +3537,70 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O43" t="n">
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>39887</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>20-05-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-15.3125</v>
+        <v>-2.46927662037037</v>
       </c>
       <c r="S43" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>252282</v>
+        <v>251685</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>25</v>
+        <v>46.5</v>
       </c>
       <c r="D44" t="n">
-        <v>44.88524590163934</v>
+        <v>98.75833333333334</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>04-06-2025 07:30:00</t>
+          <t>09-07-2025 11:15:45</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>04-06-2025 07:55:00</t>
+          <t>09-07-2025 12:02:15</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>04-06-2025 07:55:00</t>
+          <t>09-07-2025 12:02:15</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>04-06-2025 08:39:53</t>
+          <t>09-07-2025 13:41:01</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2738</v>
+        <v>11851</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3677,29 +3609,24 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="N44" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>09-06-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
@@ -3711,41 +3638,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251984</v>
+        <v>252783</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="D45" t="n">
-        <v>338.327868852459</v>
+        <v>11.95</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>04-06-2025 08:39:53</t>
+          <t>09-07-2025 13:41:01</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>04-06-2025 09:09:53</t>
+          <t>09-07-2025 14:11:31</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>04-06-2025 09:09:53</t>
+          <t>09-07-2025 14:11:31</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>04-06-2025 14:48:12</t>
+          <t>09-07-2025 14:23:28</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>20638</v>
+        <v>1434</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3754,29 +3681,24 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
       </c>
-      <c r="N45" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O45" t="n">
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>10-06-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
@@ -3788,41 +3710,41 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251772</v>
+        <v>252047</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D46" t="n">
-        <v>741.672131147541</v>
+        <v>70.88333333333334</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>04-06-2025 14:48:12</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>05-06-2025 07:13:12</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>05-06-2025 07:13:12</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>06-06-2025 11:34:53</t>
+          <t>08-07-2025 08:50:53</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>45242</v>
+        <v>8506</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3831,14 +3753,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3848,53 +3770,53 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>05-06-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-1.482559198541667</v>
+        <v>-9.368668981481482</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252084</v>
+        <v>252152</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>30</v>
       </c>
       <c r="D47" t="n">
-        <v>641</v>
+        <v>27.36666666666667</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>06-06-2025 11:34:53</t>
+          <t>08-07-2025 08:50:53</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>06-06-2025 12:04:53</t>
+          <t>08-07-2025 09:20:53</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>06-06-2025 12:04:53</t>
+          <t>08-07-2025 09:20:53</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>09-06-2025 14:45:53</t>
+          <t>08-07-2025 09:48:15</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>39101</v>
+        <v>3284</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3903,75 +3825,70 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
-      </c>
-      <c r="N47" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-4.615198087430556</v>
+        <v>-18.40850694444444</v>
       </c>
       <c r="S47" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251519</v>
+        <v>252402</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
-        <v>215.983606557377</v>
+        <v>25.075</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09-06-2025 14:45:53</t>
+          <t>08-07-2025 09:48:15</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>10-06-2025 07:05:53</t>
+          <t>08-07-2025 10:18:15</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10-06-2025 07:05:53</t>
+          <t>08-07-2025 10:18:15</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>10-06-2025 10:41:52</t>
+          <t>08-07-2025 10:43:19</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>13175</v>
+        <v>3009</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3980,14 +3897,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M48" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3997,11 +3914,11 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>10-06-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-0.4457422586574074</v>
+        <v>-11.44675347222222</v>
       </c>
       <c r="S48" t="n">
         <v>7</v>
@@ -4009,41 +3926,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251679</v>
+        <v>252146</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D49" t="n">
-        <v>260</v>
+        <v>66.63333333333334</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-06-2025 10:41:52</t>
+          <t>08-07-2025 10:43:19</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>10-06-2025 11:21:52</t>
+          <t>08-07-2025 11:18:19</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10-06-2025 11:21:52</t>
+          <t>08-07-2025 11:18:19</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>11-06-2025 07:41:52</t>
+          <t>08-07-2025 12:24:57</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>15860</v>
+        <v>7996</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4052,14 +3969,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M49" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4069,53 +3986,53 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0</v>
+        <v>-9.517332175925926</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251631</v>
+        <v>251632</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="D50" t="n">
-        <v>146.056338028169</v>
+        <v>588.5083333333333</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>05-06-2025 07:00:00</t>
+          <t>08-07-2025 12:24:57</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>05-06-2025 07:17:00</t>
+          <t>08-07-2025 13:54:57</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>05-06-2025 07:17:00</t>
+          <t>08-07-2025 13:54:57</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>05-06-2025 09:43:03</t>
+          <t>10-07-2025 07:43:28</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>10370</v>
+        <v>70621</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4124,41 +4041,36 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M50" t="n">
-        <v>76</v>
-      </c>
-      <c r="N50" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>09-05-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-0.4049002347453703</v>
+        <v>-3.321851851851852</v>
       </c>
       <c r="S50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251237</v>
+        <v>252201</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4166,33 +4078,33 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>565.3521126760563</v>
+        <v>34.10833333333333</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>05-06-2025 09:43:03</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>05-06-2025 10:19:03</t>
+          <t>08-07-2025 07:15:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>05-06-2025 10:19:03</t>
+          <t>08-07-2025 07:15:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>06-06-2025 11:44:24</t>
+          <t>08-07-2025 07:49:06</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>40140</v>
+        <v>4093</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4201,41 +4113,36 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>100</v>
-      </c>
-      <c r="N51" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>05-05-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-1.489172535208333</v>
+        <v>-18.32576967592593</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>245089</v>
+        <v>252978</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4243,33 +4150,33 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D52" t="n">
-        <v>1727.676056338028</v>
+        <v>23.3</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>06-06-2025 11:44:24</t>
+          <t>08-07-2025 07:49:06</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>06-06-2025 12:18:24</t>
+          <t>08-07-2025 08:04:06</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>06-06-2025 12:18:24</t>
+          <t>08-07-2025 08:04:06</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>12-06-2025 09:06:05</t>
+          <t>08-07-2025 08:27:24</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>122665</v>
+        <v>2796</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4278,11 +4185,11 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M52" t="n">
         <v>76</v>
@@ -4295,19 +4202,19 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0</v>
+        <v>-22.35236689814815</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>252235</v>
+        <v>243335</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4315,33 +4222,33 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D53" t="n">
-        <v>341.6619718309859</v>
+        <v>275.0333333333334</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>12-06-2025 09:06:05</t>
+          <t>08-07-2025 08:27:24</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>12-06-2025 09:29:05</t>
+          <t>08-07-2025 08:59:24</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>12-06-2025 09:29:05</t>
+          <t>08-07-2025 08:59:24</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>13-06-2025 07:10:44</t>
+          <t>08-07-2025 13:34:26</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>24258</v>
+        <v>33004</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4350,14 +4257,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4367,53 +4274,53 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>15-06-2025 00:00:00</t>
+          <t>02-08-2024 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0</v>
+        <v>-340.5655844907407</v>
       </c>
       <c r="S53" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252112</v>
+        <v>245623</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D54" t="n">
-        <v>254.1428571428571</v>
+        <v>220.1583333333333</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>04-06-2025 07:00:00</t>
+          <t>08-07-2025 13:34:26</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>04-06-2025 07:40:00</t>
+          <t>08-07-2025 13:53:26</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>04-06-2025 07:40:00</t>
+          <t>08-07-2025 13:53:26</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>04-06-2025 11:54:08</t>
+          <t>09-07-2025 09:33:36</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>12453</v>
+        <v>26419</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4422,75 +4329,70 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
         <v>2</v>
       </c>
       <c r="M54" t="n">
-        <v>70</v>
-      </c>
-      <c r="N54" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>06-06-2025 00:00:00</t>
+          <t>25-01-2025 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0</v>
+        <v>-165.3983333333333</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251917</v>
+        <v>252686</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D55" t="n">
-        <v>46.75510204081633</v>
+        <v>329.15</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>04-06-2025 11:54:08</t>
+          <t>09-07-2025 09:33:36</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>04-06-2025 12:44:08</t>
+          <t>09-07-2025 09:50:36</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>04-06-2025 12:44:08</t>
+          <t>09-07-2025 09:50:36</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>04-06-2025 13:30:53</t>
+          <t>10-07-2025 07:19:45</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2291</v>
+        <v>39498</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4499,14 +4401,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4516,7 +4418,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>21-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
@@ -4528,41 +4430,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251911</v>
+        <v>252997</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D56" t="n">
-        <v>191.3265306122449</v>
+        <v>40.01666666666667</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>04-06-2025 13:30:53</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>04-06-2025 14:10:53</t>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>04-06-2025 14:10:53</t>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>05-06-2025 09:22:13</t>
+          <t>08-07-2025 08:10:01</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>9375</v>
+        <v>4802</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4571,14 +4473,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4588,53 +4490,53 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>28-05-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-8.390433673472222</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251390</v>
+        <v>244023</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D57" t="n">
-        <v>43.97959183673469</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>05-06-2025 09:22:13</t>
+          <t>08-07-2025 08:10:01</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>05-06-2025 09:57:13</t>
+          <t>08-07-2025 08:50:01</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>05-06-2025 09:57:13</t>
+          <t>08-07-2025 08:50:01</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>05-06-2025 10:41:12</t>
+          <t>08-07-2025 08:58:19</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2155</v>
+        <v>997</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4643,11 +4545,11 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M57" t="n">
         <v>70</v>
@@ -4660,53 +4562,53 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>09-06-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0</v>
+        <v>-281.3738368055556</v>
       </c>
       <c r="S57" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251910</v>
+        <v>252144</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D58" t="n">
-        <v>270.2448979591837</v>
+        <v>54.13333333333333</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>05-06-2025 10:41:12</t>
+          <t>08-07-2025 08:58:19</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>05-06-2025 11:16:12</t>
+          <t>08-07-2025 09:43:19</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>05-06-2025 11:16:12</t>
+          <t>08-07-2025 09:43:19</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>06-06-2025 07:46:26</t>
+          <t>08-07-2025 10:37:27</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>13242</v>
+        <v>6496</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4715,14 +4617,14 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -4732,11 +4634,11 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>28-05-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-9.323922902500001</v>
+        <v>-9.442679398148147</v>
       </c>
       <c r="S58" t="n">
         <v>7</v>
@@ -4744,41 +4646,41 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251992</v>
+        <v>251790</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D59" t="n">
-        <v>92.34693877551021</v>
+        <v>235.0583333333333</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>06-06-2025 07:46:26</t>
+          <t>08-07-2025 10:37:27</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>06-06-2025 08:31:26</t>
+          <t>08-07-2025 11:02:27</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>06-06-2025 08:31:26</t>
+          <t>08-07-2025 11:02:27</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>06-06-2025 10:03:47</t>
+          <t>08-07-2025 14:57:31</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>4525</v>
+        <v>28207</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4787,14 +4689,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4804,53 +4706,53 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>04-06-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-2.419302721087963</v>
+        <v>-8.623275462962964</v>
       </c>
       <c r="S59" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251993</v>
+        <v>252364</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D60" t="n">
-        <v>248.0204081632653</v>
+        <v>94.55</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>06-06-2025 10:03:47</t>
+          <t>08-07-2025 14:57:31</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>06-06-2025 10:48:47</t>
+          <t>09-07-2025 07:32:31</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>06-06-2025 10:48:47</t>
+          <t>09-07-2025 07:32:31</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>06-06-2025 14:56:48</t>
+          <t>09-07-2025 09:07:04</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>12153</v>
+        <v>11346</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4859,7 +4761,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -4876,11 +4778,11 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>09-06-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-12.37990740740741</v>
       </c>
       <c r="S60" t="n">
         <v>4</v>
@@ -4888,41 +4790,41 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251898</v>
+        <v>252071</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D61" t="n">
-        <v>134.7959183673469</v>
+        <v>45.73333333333333</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>06-06-2025 14:56:48</t>
+          <t>09-07-2025 09:07:04</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>09-06-2025 07:33:48</t>
+          <t>09-07-2025 09:42:04</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>09-06-2025 07:33:48</t>
+          <t>09-07-2025 09:42:04</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>09-06-2025 09:48:36</t>
+          <t>09-07-2025 10:27:48</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>6605</v>
+        <v>5488</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4931,11 +4833,11 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M61" t="n">
         <v>76</v>
@@ -4948,11 +4850,11 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>06-06-2025 00:00:00</t>
+          <t>12-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-3.408758503402777</v>
+        <v>-27.43597222222222</v>
       </c>
       <c r="S61" t="n">
         <v>2</v>
@@ -4960,41 +4862,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>252110</v>
+        <v>252713</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>130.8163265306123</v>
+        <v>907.7666666666667</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-06-2025 09:48:36</t>
+          <t>09-07-2025 10:27:48</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>09-06-2025 10:30:36</t>
+          <t>09-07-2025 10:57:48</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>09-06-2025 10:30:36</t>
+          <t>09-07-2025 10:57:48</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>09-06-2025 12:41:25</t>
+          <t>11-07-2025 10:05:34</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>6410</v>
+        <v>108932</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5003,11 +4905,11 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
@@ -5020,7 +4922,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>17-06-2025 00:00:00</t>
+          <t>18-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
@@ -5032,41 +4934,41 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252410</v>
+        <v>251926</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D63" t="n">
-        <v>153.8979591836735</v>
+        <v>78.91666666666667</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-06-2025 12:41:25</t>
+          <t>11-07-2025 10:05:34</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>09-06-2025 13:31:25</t>
+          <t>11-07-2025 10:35:34</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>09-06-2025 13:31:25</t>
+          <t>11-07-2025 10:35:34</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>10-06-2025 08:05:19</t>
+          <t>11-07-2025 11:54:29</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>7541</v>
+        <v>9470</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5075,11 +4977,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5092,53 +4994,53 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>0</v>
+        <v>-2.496168981481481</v>
       </c>
       <c r="S63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252337</v>
+        <v>251495</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D64" t="n">
-        <v>1943.632653061225</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-06-2025 08:05:19</t>
+          <t>11-07-2025 11:54:29</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>10-06-2025 08:40:19</t>
+          <t>11-07-2025 12:24:29</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10-06-2025 08:40:19</t>
+          <t>11-07-2025 12:24:29</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>16-06-2025 09:03:57</t>
+          <t>11-07-2025 13:36:49</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>95238</v>
+        <v>8681</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5147,11 +5049,11 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5164,53 +5066,53 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>02-07-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>0</v>
+        <v>-2.567239583333333</v>
       </c>
       <c r="S64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251681</v>
+        <v>252470</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D65" t="n">
-        <v>81.32653061224489</v>
+        <v>62.5</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>16-06-2025 09:03:57</t>
+          <t>11-07-2025 13:36:49</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>16-06-2025 09:43:57</t>
+          <t>11-07-2025 14:06:49</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>16-06-2025 09:43:57</t>
+          <t>11-07-2025 14:06:49</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>16-06-2025 11:05:17</t>
+          <t>14-07-2025 07:09:19</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>3985</v>
+        <v>7500</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5219,11 +5121,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5236,53 +5138,53 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>0</v>
+        <v>-10.29814236111111</v>
       </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>252293</v>
+        <v>252334</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D66" t="n">
-        <v>46.75510204081633</v>
+        <v>486.5916666666666</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>16-06-2025 11:05:17</t>
+          <t>14-07-2025 07:09:19</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>16-06-2025 11:40:17</t>
+          <t>14-07-2025 07:39:19</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>16-06-2025 11:40:17</t>
+          <t>14-07-2025 07:39:19</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>16-06-2025 12:27:02</t>
+          <t>15-07-2025 07:45:55</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2291</v>
+        <v>58391</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5291,7 +5193,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -5308,53 +5210,53 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>0</v>
+        <v>-11.32355324074074</v>
       </c>
       <c r="S66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251655</v>
+        <v>251919</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>40</v>
       </c>
       <c r="D67" t="n">
-        <v>1617.211267605634</v>
+        <v>140.05</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>05-06-2025 07:00:00</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>05-06-2025 07:40:00</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>05-06-2025 07:40:00</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>10-06-2025 10:37:12</t>
+          <t>08-07-2025 10:00:03</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>114822</v>
+        <v>16806</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5363,41 +5265,36 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M67" t="n">
-        <v>70</v>
-      </c>
-      <c r="N67" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>15-04-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-5.442507824722222</v>
+        <v>-22.41670138888889</v>
       </c>
       <c r="S67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251573</v>
+        <v>244828</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5408,30 +5305,30 @@
         <v>35</v>
       </c>
       <c r="D68" t="n">
-        <v>89.89855072463769</v>
+        <v>43.35833333333333</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>06-06-2025 07:00:00</t>
+          <t>08-07-2025 10:00:03</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>06-06-2025 07:35:00</t>
+          <t>08-07-2025 10:35:03</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>06-06-2025 07:35:00</t>
+          <t>08-07-2025 10:35:03</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>06-06-2025 09:04:53</t>
+          <t>08-07-2025 11:18:24</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>6203</v>
+        <v>5203</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5440,7 +5337,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -5449,24 +5346,19 @@
       <c r="M68" t="n">
         <v>100</v>
       </c>
-      <c r="N68" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O68" t="n">
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>26-05-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-1.378401771331018</v>
+        <v>-1.471116898148148</v>
       </c>
       <c r="S68" t="n">
         <v>1</v>
@@ -5474,7 +5366,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>243335</v>
+        <v>243524</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5482,33 +5374,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D69" t="n">
-        <v>478.3188405797101</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>06-06-2025 09:04:53</t>
+          <t>08-07-2025 11:18:24</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>06-06-2025 09:34:53</t>
+          <t>08-07-2025 11:53:24</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>06-06-2025 09:34:53</t>
+          <t>08-07-2025 11:53:24</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>09-06-2025 09:33:13</t>
+          <t>08-07-2025 13:00:01</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>33004</v>
+        <v>7994</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5517,14 +5409,14 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M69" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -5534,451 +5426,14 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>02-08-2024 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-311.3980676328472</v>
+        <v>-4.541684027777777</v>
       </c>
       <c r="S69" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>251944</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>35</v>
-      </c>
-      <c r="D70" t="n">
-        <v>590.8405797101449</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>09-06-2025 09:33:13</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>09-06-2025 10:08:13</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>09-06-2025 10:08:13</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>10-06-2025 11:59:03</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>40768</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>5</v>
-      </c>
-      <c r="M70" t="n">
-        <v>70</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>26-05-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R70" s="1" t="n">
-        <v>-15.49934581320602</v>
-      </c>
-      <c r="S70" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>252395</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>45</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1301.260869565217</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>10-06-2025 11:59:03</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>10-06-2025 12:44:03</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>10-06-2025 12:44:03</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>13-06-2025 10:25:19</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>89787</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>2</v>
-      </c>
-      <c r="M71" t="n">
-        <v>76</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>04-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R71" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S71" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>252325</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>50</v>
-      </c>
-      <c r="D72" t="n">
-        <v>262.3188405797101</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>13-06-2025 10:25:19</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>13-06-2025 11:15:19</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>13-06-2025 11:15:19</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>16-06-2025 07:37:38</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>18100</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>6</v>
-      </c>
-      <c r="M72" t="n">
-        <v>70</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>18-06-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>252326</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>25</v>
-      </c>
-      <c r="D73" t="n">
-        <v>371.6086956521739</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>16-06-2025 07:37:38</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>16-06-2025 08:02:38</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>16-06-2025 08:02:38</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>16-06-2025 14:14:14</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>25641</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>6</v>
-      </c>
-      <c r="M73" t="n">
-        <v>70</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>05-07-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R73" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>251082</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>05-06-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>05-06-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>05-06-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>05-06-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>T1 ;T2 ;T8</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P74" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>12-05-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R74" s="1" t="n">
-        <v>-0.2916666666666667</v>
-      </c>
-      <c r="S74" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>252375</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>99.2063492063492</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>05-06-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>05-06-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>05-06-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>05-06-2025 08:39:12</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>6250</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>T1 ;T2 ;T8</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>04-07-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R75" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S75" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/output.xlsx
+++ b/PS-VRP/Dati_output/output.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>243569</v>
+        <v>243524</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>21.675</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -572,11 +572,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:38:40</t>
+          <t>08-07-2025 08:23:37</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2601</v>
+        <v>7994</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -602,19 +602,19 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-295.3185243055556</v>
+        <v>-4.349733796296296</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252207</v>
+        <v>252978</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -625,30 +625,30 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>51.55</v>
+        <v>23.3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:38:40</t>
+          <t>08-07-2025 08:23:37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:53:40</t>
+          <t>08-07-2025 08:38:37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:53:40</t>
+          <t>08-07-2025 08:38:37</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:45:13</t>
+          <t>08-07-2025 09:01:55</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>6186</v>
+        <v>2796</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -674,19 +674,19 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-12.36473958333333</v>
+        <v>-22.37633101851852</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>252371</v>
+        <v>250284</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -694,33 +694,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>50.04166666666666</v>
+        <v>146.35</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08-07-2025 08:45:13</t>
+          <t>08-07-2025 09:01:55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-07-2025 09:02:13</t>
+          <t>08-07-2025 09:41:55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-07-2025 09:02:13</t>
+          <t>08-07-2025 09:41:55</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-07-2025 09:52:16</t>
+          <t>08-07-2025 12:08:16</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6005</v>
+        <v>17562</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -729,14 +729,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="N4" t="n">
+        <v>40046</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -746,19 +749,19 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-8.411296296296296</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>252298</v>
+        <v>243569</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -766,33 +769,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>70.76666666666667</v>
+        <v>21.675</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>08-07-2025 09:52:16</t>
+          <t>08-07-2025 12:08:16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-07-2025 10:11:16</t>
+          <t>08-07-2025 12:48:16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-07-2025 10:11:16</t>
+          <t>08-07-2025 12:48:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-07-2025 11:22:02</t>
+          <t>08-07-2025 13:09:56</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8492</v>
+        <v>2601</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -801,15 +804,18 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>76</v>
       </c>
+      <c r="N5" t="n">
+        <v>40025</v>
+      </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
@@ -818,19 +824,19 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-15.47363425925926</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252546</v>
+        <v>251919</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -838,33 +844,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>54.63333333333333</v>
+        <v>140.05</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>08-07-2025 11:22:02</t>
+          <t>08-07-2025 13:09:56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-07-2025 11:43:02</t>
+          <t>08-07-2025 13:39:56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-07-2025 11:43:02</t>
+          <t>08-07-2025 13:39:56</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-07-2025 12:37:40</t>
+          <t>09-07-2025 07:59:59</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6556</v>
+        <v>16806</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -873,14 +879,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -890,11 +896,11 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-7.526157407407408</v>
+        <v>-23.3333275462963</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -902,7 +908,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252087</v>
+        <v>252220</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -910,33 +916,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>35.5</v>
+        <v>80.51666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:37:40</t>
+          <t>09-07-2025 07:59:59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-07-2025 13:07:40</t>
+          <t>09-07-2025 08:31:59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08-07-2025 13:07:40</t>
+          <t>09-07-2025 08:31:59</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-07-2025 13:43:10</t>
+          <t>09-07-2025 09:52:30</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>4260</v>
+        <v>9662</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -949,7 +955,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
@@ -962,19 +968,19 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-9.571643518518519</v>
+        <v>-23.41146412037037</v>
       </c>
       <c r="S7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252237</v>
+        <v>252686</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -985,30 +991,30 @@
         <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>84.95</v>
+        <v>329.15</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>08-07-2025 13:43:10</t>
+          <t>09-07-2025 09:52:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>08-07-2025 14:15:10</t>
+          <t>09-07-2025 10:24:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>08-07-2025 14:15:10</t>
+          <t>09-07-2025 10:24:30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-07-2025 07:40:07</t>
+          <t>10-07-2025 07:53:39</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10194</v>
+        <v>39498</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1017,14 +1023,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1034,11 +1040,11 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>21-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-8.319525462962963</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1046,7 +1052,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252999</v>
+        <v>252207</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1054,33 +1060,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>325.8416666666666</v>
+        <v>51.55</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-07-2025 07:40:07</t>
+          <t>10-07-2025 07:53:39</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-07-2025 08:14:07</t>
+          <t>10-07-2025 08:23:39</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09-07-2025 08:14:07</t>
+          <t>10-07-2025 08:23:39</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-07-2025 13:39:57</t>
+          <t>10-07-2025 09:15:12</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>39101</v>
+        <v>6186</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1089,14 +1095,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N9" t="n">
+        <v>40046</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1106,53 +1115,53 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>06-08-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>245089</v>
+        <v>252298</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>1022.208333333333</v>
+        <v>70.76666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-07-2025 13:39:57</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-07-2025 14:13:57</t>
+          <t>08-07-2025 07:50:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09-07-2025 14:13:57</t>
+          <t>08-07-2025 07:50:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14-07-2025 07:16:10</t>
+          <t>08-07-2025 09:00:46</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>122665</v>
+        <v>8492</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1161,11 +1170,11 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>76</v>
@@ -1178,53 +1187,53 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>23-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-15.37553240740741</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>252755</v>
+        <v>252371</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
-        <v>109.575</v>
+        <v>50.04166666666666</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>14-07-2025 07:16:10</t>
+          <t>08-07-2025 09:00:46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>14-07-2025 07:46:10</t>
+          <t>08-07-2025 09:29:46</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>14-07-2025 07:46:10</t>
+          <t>08-07-2025 09:29:46</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>14-07-2025 09:35:44</t>
+          <t>08-07-2025 10:19:48</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>13149</v>
+        <v>6005</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1233,14 +1242,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
         <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N11" t="n">
+        <v>40046</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1250,53 +1262,53 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252899</v>
+        <v>252230</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>180.5666666666667</v>
+        <v>63.125</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>14-07-2025 09:35:44</t>
+          <t>08-07-2025 10:19:48</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>14-07-2025 09:52:44</t>
+          <t>08-07-2025 10:46:48</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>14-07-2025 09:52:44</t>
+          <t>08-07-2025 10:46:48</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>14-07-2025 12:53:18</t>
+          <t>08-07-2025 11:49:56</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>21668</v>
+        <v>7575</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1305,14 +1317,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1322,19 +1334,19 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>13-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-25.49300925925926</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>243525</v>
+        <v>252347</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1342,33 +1354,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" t="n">
-        <v>129.9833333333333</v>
+        <v>92.28333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 11:49:56</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>08-07-2025 07:44:00</t>
+          <t>08-07-2025 12:31:56</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08-07-2025 07:44:00</t>
+          <t>08-07-2025 12:31:56</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>08-07-2025 09:53:59</t>
+          <t>08-07-2025 14:04:13</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>15598</v>
+        <v>11074</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1377,14 +1389,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="N13" t="n">
+        <v>40025</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1394,11 +1409,11 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-4.412488425925926</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -1406,7 +1421,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250284</v>
+        <v>252087</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1414,33 +1429,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>146.35</v>
+        <v>35.5</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>08-07-2025 09:53:59</t>
+          <t>08-07-2025 14:04:13</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>08-07-2025 10:43:59</t>
+          <t>08-07-2025 14:31:13</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08-07-2025 10:43:59</t>
+          <t>08-07-2025 14:31:13</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:20</t>
+          <t>09-07-2025 07:06:43</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>17562</v>
+        <v>4260</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1453,7 +1468,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1466,19 +1481,19 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-118.5488425925926</v>
+        <v>-10.29633101851852</v>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252636</v>
+        <v>252063</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1486,33 +1501,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D15" t="n">
-        <v>11.275</v>
+        <v>79.94166666666666</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:20</t>
+          <t>09-07-2025 07:06:43</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>08-07-2025 13:45:20</t>
+          <t>09-07-2025 07:46:43</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08-07-2025 13:45:20</t>
+          <t>09-07-2025 07:46:43</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08-07-2025 13:56:36</t>
+          <t>09-07-2025 09:06:39</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1353</v>
+        <v>9593</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1521,14 +1536,14 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
         <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1538,19 +1553,19 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-8.379623842592592</v>
       </c>
       <c r="S15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252085</v>
+        <v>252144</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1558,33 +1573,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>28.55</v>
+        <v>54.13333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>08-07-2025 13:56:36</t>
+          <t>09-07-2025 09:06:39</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08-07-2025 14:23:36</t>
+          <t>09-07-2025 09:31:39</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08-07-2025 14:23:36</t>
+          <t>09-07-2025 09:31:39</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08-07-2025 14:52:09</t>
+          <t>09-07-2025 10:25:47</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3426</v>
+        <v>6496</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1593,14 +1608,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1610,14 +1625,14 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-20.61955439814815</v>
+        <v>-10.4345775462963</v>
       </c>
       <c r="S16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1630,29 +1645,29 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D17" t="n">
         <v>48.875</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>08-07-2025 14:52:09</t>
+          <t>09-07-2025 10:25:47</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09-07-2025 07:21:09</t>
+          <t>09-07-2025 11:07:47</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>09-07-2025 07:21:09</t>
+          <t>09-07-2025 11:07:47</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>09-07-2025 08:10:02</t>
+          <t>09-07-2025 11:56:40</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1694,7 +1709,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>252244</v>
+        <v>245623</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1702,33 +1717,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D18" t="n">
-        <v>107.575</v>
+        <v>220.1583333333333</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09-07-2025 08:10:02</t>
+          <t>09-07-2025 11:56:40</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09-07-2025 08:54:02</t>
+          <t>09-07-2025 12:36:40</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>09-07-2025 08:54:02</t>
+          <t>09-07-2025 12:36:40</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>09-07-2025 10:41:36</t>
+          <t>10-07-2025 08:16:49</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>12909</v>
+        <v>26419</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1737,14 +1752,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1754,19 +1769,19 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>25-01-2025 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-2.445561342592593</v>
+        <v>-166.3450173611111</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252784</v>
+        <v>252456</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1774,33 +1789,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D19" t="n">
-        <v>26.975</v>
+        <v>144.4583333333333</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09-07-2025 10:41:36</t>
+          <t>10-07-2025 08:16:49</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-07-2025 11:25:36</t>
+          <t>10-07-2025 09:02:49</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09-07-2025 11:25:36</t>
+          <t>10-07-2025 09:02:49</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>09-07-2025 11:52:35</t>
+          <t>10-07-2025 11:27:17</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3237</v>
+        <v>17335</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1813,7 +1828,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1826,19 +1841,19 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-0.4772800925925926</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252723</v>
+        <v>243335</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1846,33 +1861,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D20" t="n">
-        <v>153.9583333333333</v>
+        <v>275.0333333333334</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09-07-2025 11:52:35</t>
+          <t>10-07-2025 11:27:17</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-07-2025 12:38:35</t>
+          <t>10-07-2025 12:09:17</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09-07-2025 12:38:35</t>
+          <t>10-07-2025 12:09:17</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10-07-2025 07:12:32</t>
+          <t>11-07-2025 08:44:19</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>18475</v>
+        <v>33004</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1881,14 +1896,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>152</v>
+      </c>
+      <c r="N20" t="n">
+        <v>40046</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1898,11 +1916,11 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>02-08-2024 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-0.3641087962962963</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -1910,41 +1928,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252350</v>
+        <v>251231</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>51.88333333333333</v>
+        <v>312.3083333333333</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-07-2025 07:12:32</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10-07-2025 07:54:32</t>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10-07-2025 07:54:32</t>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>10-07-2025 08:46:25</t>
+          <t>08-07-2025 12:42:18</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6226</v>
+        <v>37477</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1957,24 +1975,31 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>40034 (esterno)</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>40034</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>03-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-2.365572916666667</v>
+        <v>-5.529380787037037</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -1982,41 +2007,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>252638</v>
+        <v>252244</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
-        <v>61.49166666666667</v>
+        <v>107.575</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-07-2025 08:46:25</t>
+          <t>08-07-2025 12:42:18</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10-07-2025 09:17:25</t>
+          <t>08-07-2025 13:16:18</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10-07-2025 09:17:25</t>
+          <t>08-07-2025 13:16:18</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>10-07-2025 10:18:55</t>
+          <t>09-07-2025 07:03:53</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>7379</v>
+        <v>12909</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2025,14 +2050,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N22" t="n">
+        <v>40046</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2042,53 +2070,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>06-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-4.429803240740741</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252456</v>
+        <v>252201</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>144.4583333333333</v>
+        <v>34.10833333333333</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-07-2025 10:18:55</t>
+          <t>09-07-2025 07:03:53</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10-07-2025 10:43:55</t>
+          <t>09-07-2025 07:20:53</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10-07-2025 10:43:55</t>
+          <t>09-07-2025 07:20:53</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>10-07-2025 13:08:22</t>
+          <t>09-07-2025 07:54:59</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>17335</v>
+        <v>4093</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2097,14 +2125,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N23" t="n">
+        <v>40025</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2114,53 +2145,53 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.5474826388888889</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>252549</v>
+        <v>252476</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>92.59166666666667</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-07-2025 13:08:22</t>
+          <t>09-07-2025 07:54:59</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10-07-2025 13:37:22</t>
+          <t>09-07-2025 08:24:59</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10-07-2025 13:37:22</t>
+          <t>09-07-2025 08:24:59</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>11-07-2025 07:09:58</t>
+          <t>09-07-2025 09:37:20</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>11111</v>
+        <v>8681</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2186,11 +2217,11 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>20-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0</v>
+        <v>-2.400925925925926</v>
       </c>
       <c r="S24" t="n">
         <v>4</v>
@@ -2198,41 +2229,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>252336</v>
+        <v>243525</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>120.275</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-07-2025 07:09:58</t>
+          <t>09-07-2025 09:37:20</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>11-07-2025 07:38:58</t>
+          <t>09-07-2025 10:07:20</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11-07-2025 07:38:58</t>
+          <t>09-07-2025 10:07:20</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>11-07-2025 09:39:14</t>
+          <t>09-07-2025 12:17:19</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>14433</v>
+        <v>15598</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2241,14 +2272,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2262,49 +2293,49 @@
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-7.402251157407408</v>
+        <v>-5.512025462962963</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>252547</v>
+        <v>252785</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D26" t="n">
-        <v>81.16666666666667</v>
+        <v>55.75</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-07-2025 09:39:14</t>
+          <t>09-07-2025 12:17:19</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>11-07-2025 10:04:14</t>
+          <t>09-07-2025 12:53:19</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>11-07-2025 10:04:14</t>
+          <t>09-07-2025 12:53:19</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>11-07-2025 11:25:24</t>
+          <t>09-07-2025 13:49:04</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>9740</v>
+        <v>6690</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2317,7 +2348,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2330,11 +2361,11 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-7.47597800925926</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
@@ -2342,41 +2373,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252157</v>
+        <v>252638</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>396.825</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-07-2025 11:25:24</t>
+          <t>09-07-2025 13:49:04</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>11-07-2025 11:58:24</t>
+          <t>09-07-2025 14:06:04</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>11-07-2025 11:58:24</t>
+          <t>09-07-2025 14:06:04</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>14-07-2025 10:35:14</t>
+          <t>10-07-2025 07:07:33</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>47619</v>
+        <v>7379</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2389,7 +2420,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
@@ -2402,11 +2433,11 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>06-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-26.44113425925926</v>
+        <v>-4.296915509259259</v>
       </c>
       <c r="S27" t="n">
         <v>7</v>
@@ -2414,41 +2445,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>252790</v>
+        <v>252350</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D28" t="n">
-        <v>12.10833333333333</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>14-07-2025 10:35:14</t>
+          <t>10-07-2025 07:07:33</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>14-07-2025 11:08:14</t>
+          <t>10-07-2025 07:28:33</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>14-07-2025 11:08:14</t>
+          <t>10-07-2025 07:28:33</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>14-07-2025 11:20:20</t>
+          <t>10-07-2025 08:20:26</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1453</v>
+        <v>6226</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2457,11 +2488,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2474,53 +2505,53 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>25-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-2.347528935185185</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>252467</v>
+        <v>252277</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>34.5</v>
       </c>
       <c r="D29" t="n">
-        <v>81.16666666666667</v>
+        <v>144.925</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>14-07-2025 11:20:20</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>14-07-2025 11:45:20</t>
+          <t>08-07-2025 07:34:30</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>14-07-2025 11:45:20</t>
+          <t>08-07-2025 07:34:30</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>14-07-2025 13:06:30</t>
+          <t>08-07-2025 09:59:25</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>9740</v>
+        <v>17391</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2533,66 +2564,73 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>40024 (esterno)</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>40024</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0</v>
+        <v>-18.41626736111111</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>252230</v>
+        <v>251674</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>21</v>
+        <v>52.5</v>
       </c>
       <c r="D30" t="n">
-        <v>63.125</v>
+        <v>147.125</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 09:59:25</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>08-07-2025 10:51:55</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>08-07-2025 10:51:55</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>08-07-2025 08:24:07</t>
+          <t>08-07-2025 13:19:03</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>7575</v>
+        <v>17655</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2601,14 +2639,14 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M30" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2618,53 +2656,53 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>13-06-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-25.35008680555556</v>
+        <v>-1.554895833333333</v>
       </c>
       <c r="S30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252063</v>
+        <v>252636</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>52.5</v>
       </c>
       <c r="D31" t="n">
-        <v>79.94166666666666</v>
+        <v>11.275</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>08-07-2025 08:24:07</t>
+          <t>08-07-2025 13:19:03</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>08-07-2025 08:39:07</t>
+          <t>08-07-2025 14:11:33</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08-07-2025 08:39:07</t>
+          <t>08-07-2025 14:11:33</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>08-07-2025 09:59:04</t>
+          <t>08-07-2025 14:22:49</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>9593</v>
+        <v>1353</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2673,14 +2711,14 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
         <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2690,53 +2728,53 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-7.416018518518518</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251798</v>
+        <v>252345</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>17</v>
+        <v>30.5</v>
       </c>
       <c r="D32" t="n">
-        <v>123.2916666666667</v>
+        <v>43.325</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>08-07-2025 09:59:04</t>
+          <t>08-07-2025 14:22:49</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>08-07-2025 10:16:04</t>
+          <t>08-07-2025 14:53:19</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08-07-2025 10:16:04</t>
+          <t>08-07-2025 14:53:19</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>08-07-2025 12:19:21</t>
+          <t>09-07-2025 07:36:39</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>14795</v>
+        <v>5199</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2745,14 +2783,17 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="N32" t="n">
+        <v>40025</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2762,53 +2803,53 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>243529</v>
+        <v>252085</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D33" t="n">
-        <v>129.9833333333333</v>
+        <v>28.55</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>08-07-2025 12:19:21</t>
+          <t>09-07-2025 07:36:39</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>08-07-2025 12:36:21</t>
+          <t>09-07-2025 08:09:09</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08-07-2025 12:36:21</t>
+          <t>09-07-2025 08:09:09</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>08-07-2025 14:46:20</t>
+          <t>09-07-2025 08:37:42</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>15598</v>
+        <v>3426</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2817,14 +2858,14 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2834,53 +2875,53 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-4.615515046296296</v>
+        <v>-21.35951388888889</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>252476</v>
+        <v>251685</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>30</v>
+        <v>34.5</v>
       </c>
       <c r="D34" t="n">
-        <v>72.34166666666667</v>
+        <v>98.75833333333334</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>08-07-2025 14:46:20</t>
+          <t>09-07-2025 08:37:42</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-07-2025 07:16:20</t>
+          <t>09-07-2025 09:12:12</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>09-07-2025 07:16:20</t>
+          <t>09-07-2025 09:12:12</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>09-07-2025 08:28:41</t>
+          <t>09-07-2025 10:50:57</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>8681</v>
+        <v>11851</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2893,7 +2934,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2906,53 +2947,53 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-2.353252314814815</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252814</v>
+        <v>252652</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>32</v>
+        <v>36.5</v>
       </c>
       <c r="D35" t="n">
-        <v>50.08333333333334</v>
+        <v>186.0083333333333</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09-07-2025 08:28:41</t>
+          <t>09-07-2025 10:50:57</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09-07-2025 09:00:41</t>
+          <t>09-07-2025 11:27:27</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09-07-2025 09:00:41</t>
+          <t>09-07-2025 11:27:27</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>09-07-2025 09:50:46</t>
+          <t>09-07-2025 14:33:28</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>6010</v>
+        <v>22321</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2961,14 +3002,14 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2978,53 +3019,53 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>252243</v>
+        <v>252549</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>30.5</v>
       </c>
       <c r="D36" t="n">
-        <v>96.70833333333333</v>
+        <v>92.59166666666667</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09-07-2025 09:50:46</t>
+          <t>09-07-2025 14:33:28</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-07-2025 10:05:46</t>
+          <t>10-07-2025 07:03:58</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09-07-2025 10:05:46</t>
+          <t>10-07-2025 07:03:58</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>09-07-2025 11:42:28</t>
+          <t>10-07-2025 08:36:33</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>11605</v>
+        <v>11111</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3033,70 +3074,70 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
+        <v>3</v>
+      </c>
+      <c r="M36" t="n">
+        <v>70</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>20-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
         <v>4</v>
-      </c>
-      <c r="M36" t="n">
-        <v>76</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>14-07-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252785</v>
+        <v>252402</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D37" t="n">
-        <v>55.75</v>
+        <v>25.075</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09-07-2025 11:42:28</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-07-2025 12:16:28</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09-07-2025 12:16:28</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>09-07-2025 13:12:13</t>
+          <t>08-07-2025 08:05:04</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>6690</v>
+        <v>3009</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3105,14 +3146,14 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3122,53 +3163,53 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>0</v>
+        <v>-11.33685763888889</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>241783</v>
+        <v>252071</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D38" t="n">
-        <v>43.325</v>
+        <v>45.73333333333333</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-07-2025 13:12:13</t>
+          <t>08-07-2025 08:05:04</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-07-2025 13:48:13</t>
+          <t>08-07-2025 08:30:04</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09-07-2025 13:48:13</t>
+          <t>08-07-2025 08:30:04</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>09-07-2025 14:31:33</t>
+          <t>08-07-2025 09:15:48</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>5199</v>
+        <v>5488</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3181,7 +3222,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
         <v>76</v>
@@ -3194,53 +3235,53 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>12-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0</v>
+        <v>-26.38597800925926</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252345</v>
+        <v>252152</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>34.5</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>43.325</v>
+        <v>27.36666666666667</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 09:15:48</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:30</t>
+          <t>08-07-2025 09:45:48</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:30</t>
+          <t>08-07-2025 09:45:48</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>08-07-2025 08:17:49</t>
+          <t>08-07-2025 10:13:10</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>5199</v>
+        <v>3284</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3249,14 +3290,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3266,53 +3307,53 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-0.3457118055555555</v>
+        <v>-18.42581597222222</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>252347</v>
+        <v>251632</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>32.5</v>
+        <v>85</v>
       </c>
       <c r="D40" t="n">
-        <v>92.28333333333333</v>
+        <v>588.5083333333333</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>08-07-2025 08:17:49</t>
+          <t>08-07-2025 10:13:10</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>08-07-2025 08:50:19</t>
+          <t>08-07-2025 11:38:10</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08-07-2025 08:50:19</t>
+          <t>08-07-2025 11:38:10</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>08-07-2025 10:22:36</t>
+          <t>09-07-2025 13:26:41</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>11074</v>
+        <v>70621</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3321,11 +3362,11 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -3338,53 +3379,53 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-0.4323668981481482</v>
+        <v>-2.560196759259259</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252220</v>
+        <v>252783</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>34.5</v>
+        <v>65</v>
       </c>
       <c r="D41" t="n">
-        <v>80.51666666666667</v>
+        <v>11.95</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>08-07-2025 10:22:36</t>
+          <t>09-07-2025 13:26:41</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>08-07-2025 10:57:06</t>
+          <t>09-07-2025 14:31:41</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08-07-2025 10:57:06</t>
+          <t>09-07-2025 14:31:41</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>08-07-2025 12:17:37</t>
+          <t>09-07-2025 14:43:38</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>9662</v>
+        <v>1434</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3397,7 +3438,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
@@ -3410,53 +3451,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-22.51223958333333</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252652</v>
+        <v>243529</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>32.5</v>
+        <v>15</v>
       </c>
       <c r="D42" t="n">
-        <v>186.0083333333333</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>08-07-2025 12:17:37</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>08-07-2025 12:50:07</t>
+          <t>08-07-2025 07:15:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08-07-2025 12:50:07</t>
+          <t>08-07-2025 07:15:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>09-07-2025 07:56:08</t>
+          <t>08-07-2025 09:24:59</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>22321</v>
+        <v>15598</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3465,14 +3506,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
         <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3482,11 +3523,11 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
+        <v>-4.392349537037037</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
@@ -3494,41 +3535,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251674</v>
+        <v>244828</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>52.5</v>
+        <v>32</v>
       </c>
       <c r="D43" t="n">
-        <v>147.125</v>
+        <v>43.35833333333333</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-07-2025 07:56:08</t>
+          <t>08-07-2025 09:24:59</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09-07-2025 08:48:38</t>
+          <t>08-07-2025 09:56:59</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09-07-2025 08:48:38</t>
+          <t>08-07-2025 09:56:59</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>09-07-2025 11:15:45</t>
+          <t>08-07-2025 10:40:20</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>17655</v>
+        <v>5203</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3537,14 +3578,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3558,49 +3599,49 @@
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-2.46927662037037</v>
+        <v>-1.444681712962963</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251685</v>
+        <v>252723</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>46.5</v>
+        <v>32</v>
       </c>
       <c r="D44" t="n">
-        <v>98.75833333333334</v>
+        <v>153.9583333333333</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-07-2025 11:15:45</t>
+          <t>08-07-2025 10:40:20</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09-07-2025 12:02:15</t>
+          <t>08-07-2025 11:12:20</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09-07-2025 12:02:15</t>
+          <t>08-07-2025 11:12:20</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>09-07-2025 13:41:01</t>
+          <t>08-07-2025 13:46:18</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>11851</v>
+        <v>18475</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3609,14 +3650,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N44" t="n">
+        <v>40046</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3626,7 +3670,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>31-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
@@ -3638,41 +3682,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252783</v>
+        <v>252814</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30.5</v>
+        <v>17</v>
       </c>
       <c r="D45" t="n">
-        <v>11.95</v>
+        <v>50.08333333333334</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-07-2025 13:41:01</t>
+          <t>08-07-2025 13:46:18</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09-07-2025 14:11:31</t>
+          <t>08-07-2025 14:03:18</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09-07-2025 14:11:31</t>
+          <t>08-07-2025 14:03:18</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>09-07-2025 14:23:28</t>
+          <t>08-07-2025 14:53:23</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1434</v>
+        <v>6010</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3681,14 +3725,14 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3698,53 +3742,53 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252047</v>
+        <v>251790</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D46" t="n">
-        <v>70.88333333333334</v>
+        <v>235.0583333333333</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 14:53:23</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 07:10:23</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 07:10:23</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>08-07-2025 08:50:53</t>
+          <t>09-07-2025 11:05:26</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>8506</v>
+        <v>28207</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3770,53 +3814,53 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-9.368668981481482</v>
+        <v>-9.462112268518519</v>
       </c>
       <c r="S46" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252152</v>
+        <v>241783</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D47" t="n">
-        <v>27.36666666666667</v>
+        <v>43.325</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>08-07-2025 08:50:53</t>
+          <t>09-07-2025 11:05:26</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>08-07-2025 09:20:53</t>
+          <t>09-07-2025 11:20:26</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08-07-2025 09:20:53</t>
+          <t>09-07-2025 11:20:26</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>08-07-2025 09:48:15</t>
+          <t>09-07-2025 12:03:46</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>3284</v>
+        <v>5199</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3829,7 +3873,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
         <v>76</v>
@@ -3842,53 +3886,53 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-18.40850694444444</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>252402</v>
+        <v>245089</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D48" t="n">
-        <v>25.075</v>
+        <v>1022.208333333333</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>08-07-2025 09:48:15</t>
+          <t>09-07-2025 12:03:46</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>08-07-2025 10:18:15</t>
+          <t>09-07-2025 12:20:46</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08-07-2025 10:18:15</t>
+          <t>09-07-2025 12:20:46</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>08-07-2025 10:43:19</t>
+          <t>11-07-2025 13:22:58</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3009</v>
+        <v>122665</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3897,11 +3941,11 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
         <v>76</v>
@@ -3914,14 +3958,14 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-11.44675347222222</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -3930,33 +3974,33 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
         <v>66.63333333333334</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>08-07-2025 10:43:19</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>08-07-2025 11:18:19</t>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08-07-2025 11:18:19</t>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>08-07-2025 12:24:57</t>
+          <t>08-07-2025 08:36:38</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -3990,7 +4034,7 @@
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-9.517332175925926</v>
+        <v>-9.358773148148147</v>
       </c>
       <c r="S49" t="n">
         <v>7</v>
@@ -3998,41 +4042,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251632</v>
+        <v>252470</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="D50" t="n">
-        <v>588.5083333333333</v>
+        <v>62.5</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>08-07-2025 12:24:57</t>
+          <t>08-07-2025 08:36:38</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>08-07-2025 13:54:57</t>
+          <t>08-07-2025 09:11:38</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>08-07-2025 13:54:57</t>
+          <t>08-07-2025 09:11:38</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>10-07-2025 07:43:28</t>
+          <t>08-07-2025 10:14:08</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>70621</v>
+        <v>7500</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4041,11 +4085,11 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4058,11 +4102,11 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-3.321851851851852</v>
+        <v>-4.426481481481481</v>
       </c>
       <c r="S50" t="n">
         <v>4</v>
@@ -4070,41 +4114,41 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>252201</v>
+        <v>244023</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D51" t="n">
-        <v>34.10833333333333</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 10:14:08</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>08-07-2025 07:15:00</t>
+          <t>08-07-2025 10:49:08</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08-07-2025 07:15:00</t>
+          <t>08-07-2025 10:49:08</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>08-07-2025 07:49:06</t>
+          <t>08-07-2025 10:57:26</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>4093</v>
+        <v>997</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4113,14 +4157,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M51" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -4130,53 +4174,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-18.32576967592593</v>
+        <v>-281.4565567129629</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>252978</v>
+        <v>252237</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D52" t="n">
-        <v>23.3</v>
+        <v>84.95</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>08-07-2025 07:49:06</t>
+          <t>08-07-2025 10:57:26</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>08-07-2025 08:04:06</t>
+          <t>08-07-2025 11:37:26</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08-07-2025 08:04:06</t>
+          <t>08-07-2025 11:37:26</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>08-07-2025 08:27:24</t>
+          <t>08-07-2025 13:02:23</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2796</v>
+        <v>10194</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4185,14 +4229,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M52" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4202,53 +4246,53 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-22.35236689814815</v>
+        <v>-7.543327546296296</v>
       </c>
       <c r="S52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>243335</v>
+        <v>252364</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D53" t="n">
-        <v>275.0333333333334</v>
+        <v>94.55</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>08-07-2025 08:27:24</t>
+          <t>08-07-2025 13:02:23</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>08-07-2025 08:59:24</t>
+          <t>08-07-2025 13:32:23</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08-07-2025 08:59:24</t>
+          <t>08-07-2025 13:32:23</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>08-07-2025 13:34:26</t>
+          <t>09-07-2025 07:06:56</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>33004</v>
+        <v>11346</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4257,14 +4301,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
         <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4274,53 +4318,53 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>02-08-2024 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-340.5655844907407</v>
+        <v>-12.29648726851852</v>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>245623</v>
+        <v>252713</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D54" t="n">
-        <v>220.1583333333333</v>
+        <v>907.7666666666667</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>08-07-2025 13:34:26</t>
+          <t>09-07-2025 07:06:56</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>08-07-2025 13:53:26</t>
+          <t>09-07-2025 07:36:56</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08-07-2025 13:53:26</t>
+          <t>09-07-2025 07:36:56</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>09-07-2025 09:33:36</t>
+          <t>10-07-2025 14:44:42</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>26419</v>
+        <v>108932</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4329,14 +4373,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M54" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4346,53 +4390,53 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00:00</t>
+          <t>18-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-165.3983333333333</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252686</v>
+        <v>252157</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D55" t="n">
-        <v>329.15</v>
+        <v>396.825</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-07-2025 09:33:36</t>
+          <t>10-07-2025 14:44:42</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>09-07-2025 09:50:36</t>
+          <t>11-07-2025 07:29:42</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09-07-2025 09:50:36</t>
+          <t>11-07-2025 07:29:42</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>10-07-2025 07:19:45</t>
+          <t>11-07-2025 14:06:32</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>39498</v>
+        <v>47619</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4401,14 +4445,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M55" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4418,19 +4462,19 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
+        <v>-23.58787037037037</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>252997</v>
+        <v>252243</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4438,33 +4482,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D56" t="n">
-        <v>40.01666666666667</v>
+        <v>96.70833333333333</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>11-07-2025 14:06:32</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>14-07-2025 07:01:32</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>14-07-2025 07:01:32</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>08-07-2025 08:10:01</t>
+          <t>14-07-2025 08:38:14</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4802</v>
+        <v>11605</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4473,14 +4517,17 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>152</v>
+        <v>76</v>
+      </c>
+      <c r="N56" t="n">
+        <v>40046</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4490,11 +4537,11 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
+        <v>-0.3598900462962963</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
@@ -4502,7 +4549,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>244023</v>
+        <v>251926</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4510,33 +4557,33 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D57" t="n">
-        <v>8.308333333333334</v>
+        <v>78.91666666666667</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>08-07-2025 08:10:01</t>
+          <t>14-07-2025 08:38:14</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>08-07-2025 08:50:01</t>
+          <t>14-07-2025 09:08:14</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08-07-2025 08:50:01</t>
+          <t>14-07-2025 09:08:14</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>08-07-2025 08:58:19</t>
+          <t>14-07-2025 10:27:09</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>997</v>
+        <v>9470</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4549,7 +4596,7 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
         <v>70</v>
@@ -4562,19 +4609,19 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-281.3738368055556</v>
+        <v>-5.43552662037037</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>252144</v>
+        <v>251495</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4582,33 +4629,33 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
-        <v>54.13333333333333</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>08-07-2025 08:58:19</t>
+          <t>14-07-2025 10:27:09</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>08-07-2025 09:43:19</t>
+          <t>14-07-2025 10:57:09</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>08-07-2025 09:43:19</t>
+          <t>14-07-2025 10:57:09</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>08-07-2025 10:37:27</t>
+          <t>14-07-2025 12:09:30</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>6496</v>
+        <v>8681</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4617,14 +4664,14 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M58" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -4634,19 +4681,19 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-9.442679398148147</v>
+        <v>-5.506597222222222</v>
       </c>
       <c r="S58" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251790</v>
+        <v>252336</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4657,30 +4704,30 @@
         <v>25</v>
       </c>
       <c r="D59" t="n">
-        <v>235.0583333333333</v>
+        <v>120.275</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>08-07-2025 10:37:27</t>
+          <t>14-07-2025 12:09:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>08-07-2025 11:02:27</t>
+          <t>14-07-2025 12:34:30</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>08-07-2025 11:02:27</t>
+          <t>14-07-2025 12:34:30</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>08-07-2025 14:57:31</t>
+          <t>14-07-2025 14:34:46</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>28207</v>
+        <v>14433</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4689,14 +4736,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M59" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4706,19 +4753,19 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-8.623275462962964</v>
+        <v>-10.60748263888889</v>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252364</v>
+        <v>252334</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4726,33 +4773,33 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D60" t="n">
-        <v>94.55</v>
+        <v>486.5916666666666</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>08-07-2025 14:57:31</t>
+          <t>14-07-2025 14:34:46</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>09-07-2025 07:32:31</t>
+          <t>14-07-2025 14:59:46</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>09-07-2025 07:32:31</t>
+          <t>14-07-2025 14:59:46</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>09-07-2025 09:07:04</t>
+          <t>16-07-2025 07:06:22</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>11346</v>
+        <v>58391</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4765,7 +4812,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M60" t="n">
         <v>70</v>
@@ -4778,19 +4825,19 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-12.37990740740741</v>
+        <v>-12.29608796296296</v>
       </c>
       <c r="S60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>252071</v>
+        <v>252755</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4798,33 +4845,33 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
-        <v>45.73333333333333</v>
+        <v>109.575</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-07-2025 09:07:04</t>
+          <t>16-07-2025 07:06:22</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>09-07-2025 09:42:04</t>
+          <t>16-07-2025 07:36:22</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>09-07-2025 09:42:04</t>
+          <t>16-07-2025 07:36:22</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>09-07-2025 10:27:48</t>
+          <t>16-07-2025 09:25:56</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>5488</v>
+        <v>13149</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4833,14 +4880,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M61" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -4850,11 +4897,11 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>12-06-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-27.43597222222222</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
         <v>2</v>
@@ -4862,7 +4909,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>252713</v>
+        <v>252899</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4873,30 +4920,30 @@
         <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>907.7666666666667</v>
+        <v>180.5666666666667</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-07-2025 10:27:48</t>
+          <t>16-07-2025 09:25:56</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>09-07-2025 10:57:48</t>
+          <t>16-07-2025 09:55:56</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>09-07-2025 10:57:48</t>
+          <t>16-07-2025 09:55:56</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>11-07-2025 10:05:34</t>
+          <t>16-07-2025 12:56:30</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>108932</v>
+        <v>21668</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4905,11 +4952,11 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
@@ -4922,19 +4969,19 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>18-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251926</v>
+        <v>252790</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4942,33 +4989,33 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D63" t="n">
-        <v>78.91666666666667</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-07-2025 10:05:34</t>
+          <t>16-07-2025 12:56:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>11-07-2025 10:35:34</t>
+          <t>16-07-2025 13:31:30</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>11-07-2025 10:35:34</t>
+          <t>16-07-2025 13:31:30</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>11-07-2025 11:54:29</t>
+          <t>16-07-2025 13:43:37</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>9470</v>
+        <v>1453</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -4981,7 +5028,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -4994,19 +5041,19 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>25-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-2.496168981481481</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251495</v>
+        <v>252467</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5014,33 +5061,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D64" t="n">
-        <v>72.34166666666667</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-07-2025 11:54:29</t>
+          <t>16-07-2025 13:43:37</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>11-07-2025 12:24:29</t>
+          <t>16-07-2025 14:08:37</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>11-07-2025 12:24:29</t>
+          <t>16-07-2025 14:08:37</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>11-07-2025 13:36:49</t>
+          <t>17-07-2025 07:29:47</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>8681</v>
+        <v>9740</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5066,53 +5113,53 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-2.567239583333333</v>
+        <v>-0.3123495370370371</v>
       </c>
       <c r="S64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252470</v>
+        <v>251849</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D65" t="n">
-        <v>62.5</v>
+        <v>33.38333333333333</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-07-2025 13:36:49</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>11-07-2025 14:06:49</t>
+          <t>08-07-2025 07:45:00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>11-07-2025 14:06:49</t>
+          <t>08-07-2025 07:45:00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>14-07-2025 07:09:19</t>
+          <t>08-07-2025 08:18:23</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>7500</v>
+        <v>4006</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5125,24 +5172,31 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="O65" t="n">
-        <v>0</v>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>40042 (esterno)</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>40042</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>25-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-10.29814236111111</v>
+        <v>-13.34609953703704</v>
       </c>
       <c r="S65" t="n">
         <v>4</v>
@@ -5150,41 +5204,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>252334</v>
+        <v>252047</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D66" t="n">
-        <v>486.5916666666666</v>
+        <v>70.88333333333334</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>14-07-2025 07:09:19</t>
+          <t>08-07-2025 08:18:23</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>14-07-2025 07:39:19</t>
+          <t>08-07-2025 08:58:23</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>14-07-2025 07:39:19</t>
+          <t>08-07-2025 08:58:23</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>15-07-2025 07:45:55</t>
+          <t>08-07-2025 10:09:16</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>58391</v>
+        <v>8506</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5193,14 +5247,14 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M66" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -5210,19 +5264,19 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-11.32355324074074</v>
+        <v>-9.423101851851852</v>
       </c>
       <c r="S66" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251919</v>
+        <v>252546</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5230,33 +5284,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D67" t="n">
-        <v>140.05</v>
+        <v>54.63333333333333</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 10:09:16</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>08-07-2025 10:34:16</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>08-07-2025 10:34:16</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>08-07-2025 10:00:03</t>
+          <t>08-07-2025 11:28:54</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>16806</v>
+        <v>6556</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5265,14 +5319,17 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
         <v>3</v>
       </c>
       <c r="M67" t="n">
-        <v>152</v>
+        <v>76</v>
+      </c>
+      <c r="N67" t="n">
+        <v>40046</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -5282,11 +5339,11 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-22.41670138888889</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
         <v>1</v>
@@ -5294,7 +5351,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>244828</v>
+        <v>252997</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5305,30 +5362,30 @@
         <v>35</v>
       </c>
       <c r="D68" t="n">
-        <v>43.35833333333333</v>
+        <v>40.01666666666667</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-07-2025 10:00:03</t>
+          <t>08-07-2025 11:28:54</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08-07-2025 10:35:03</t>
+          <t>08-07-2025 12:03:54</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08-07-2025 10:35:03</t>
+          <t>08-07-2025 12:03:54</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>08-07-2025 11:18:24</t>
+          <t>08-07-2025 12:43:55</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>5203</v>
+        <v>4802</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5337,14 +5394,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
         <v>4</v>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>152</v>
+      </c>
+      <c r="N68" t="n">
+        <v>40046</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -5354,11 +5414,11 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-1.471116898148148</v>
+        <v>0</v>
       </c>
       <c r="S68" t="n">
         <v>1</v>
@@ -5366,7 +5426,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>243524</v>
+        <v>251798</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5374,33 +5434,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D69" t="n">
-        <v>66.61666666666666</v>
+        <v>123.2916666666667</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-07-2025 11:18:24</t>
+          <t>08-07-2025 12:43:55</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-07-2025 11:53:24</t>
+          <t>08-07-2025 13:13:55</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>08-07-2025 11:53:24</t>
+          <t>08-07-2025 13:13:55</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>08-07-2025 13:00:01</t>
+          <t>09-07-2025 07:17:12</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>7994</v>
+        <v>14795</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5413,7 +5473,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M69" t="n">
         <v>76</v>
@@ -5426,13 +5486,229 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
+          <t>15-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>252999</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>40</v>
+      </c>
+      <c r="D70" t="n">
+        <v>325.8416666666666</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:17:12</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:57:12</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:57:12</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>09-07-2025 13:23:03</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>39101</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>2</v>
+      </c>
+      <c r="M70" t="n">
+        <v>70</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>06-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>252784</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>45</v>
+      </c>
+      <c r="D71" t="n">
+        <v>26.975</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>09-07-2025 13:23:03</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>09-07-2025 14:08:03</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>09-07-2025 14:08:03</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>09-07-2025 14:35:01</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>3237</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>6</v>
+      </c>
+      <c r="M71" t="n">
+        <v>70</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>24-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>252547</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>30</v>
+      </c>
+      <c r="D72" t="n">
+        <v>81.16666666666667</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>09-07-2025 14:35:01</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>10-07-2025 07:05:01</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>10-07-2025 07:05:01</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>10-07-2025 08:26:11</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>9740</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>5</v>
+      </c>
+      <c r="M72" t="n">
+        <v>70</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
           <t>04-07-2025 00:00:00</t>
         </is>
       </c>
-      <c r="R69" s="1" t="n">
-        <v>-4.541684027777777</v>
-      </c>
-      <c r="S69" t="n">
+      <c r="R72" s="1" t="n">
+        <v>-6.351521990740741</v>
+      </c>
+      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/output.xlsx
+++ b/PS-VRP/Dati_output/output.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>243569</v>
+        <v>252207</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -553,30 +553,30 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>21.675</v>
+        <v>51.55</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>08-07-2025 12:17:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>08-07-2025 12:17:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:38:40</t>
+          <t>08-07-2025 13:08:33</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2601</v>
+        <v>6186</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -602,19 +602,19 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-295.3185243055556</v>
+        <v>-12.54760416666667</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252207</v>
+        <v>252362</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -622,33 +622,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>51.55</v>
+        <v>39.95</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:38:40</t>
+          <t>08-07-2025 13:08:33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:53:40</t>
+          <t>08-07-2025 13:27:33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:53:40</t>
+          <t>08-07-2025 13:27:33</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:45:13</t>
+          <t>08-07-2025 14:07:30</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>6186</v>
+        <v>4794</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>76</v>
@@ -674,19 +674,19 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-12.36473958333333</v>
+        <v>-4.588541666666667</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>252371</v>
+        <v>235572</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -694,33 +694,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>50.04166666666666</v>
+        <v>82.98333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08-07-2025 08:45:13</t>
+          <t>08-07-2025 14:07:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-07-2025 09:02:13</t>
+          <t>08-07-2025 14:37:30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-07-2025 09:02:13</t>
+          <t>08-07-2025 14:37:30</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-07-2025 09:52:16</t>
+          <t>09-07-2025 08:00:29</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6005</v>
+        <v>9958</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -729,36 +729,39 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>70</v>
+      </c>
+      <c r="N4" t="n">
+        <v>40055</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>06-11-2023 00:00:00</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>-0.3336689814814815</v>
+      </c>
+      <c r="S4" t="n">
         <v>4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>76</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>30-06-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R4" s="1" t="n">
-        <v>-8.411296296296296</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>252298</v>
+        <v>251849</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -766,33 +769,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>70.76666666666667</v>
+        <v>33.38333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>08-07-2025 09:52:16</t>
+          <t>09-07-2025 08:00:29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-07-2025 10:11:16</t>
+          <t>09-07-2025 08:15:29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-07-2025 10:11:16</t>
+          <t>09-07-2025 08:15:29</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-07-2025 11:22:02</t>
+          <t>09-07-2025 08:48:52</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8492</v>
+        <v>4006</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -801,28 +804,35 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>40042 (esterno)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>40042</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>25-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-15.47363425925926</v>
+        <v>-14.36726851851852</v>
       </c>
       <c r="S5" t="n">
         <v>4</v>
@@ -830,7 +840,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252546</v>
+        <v>252890</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -838,33 +848,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>54.63333333333333</v>
+        <v>51.7</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>08-07-2025 11:22:02</t>
+          <t>09-07-2025 08:48:52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-07-2025 11:43:02</t>
+          <t>09-07-2025 09:22:52</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-07-2025 11:43:02</t>
+          <t>09-07-2025 09:22:52</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-07-2025 12:37:40</t>
+          <t>09-07-2025 10:14:34</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6556</v>
+        <v>6204</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -890,19 +900,19 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>01-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-7.526157407407408</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252087</v>
+        <v>252371</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -910,33 +920,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>35.5</v>
+        <v>50.04166666666666</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:37:40</t>
+          <t>09-07-2025 10:14:34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-07-2025 13:07:40</t>
+          <t>09-07-2025 10:31:34</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08-07-2025 13:07:40</t>
+          <t>09-07-2025 10:31:34</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-07-2025 13:43:10</t>
+          <t>09-07-2025 11:21:36</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>4260</v>
+        <v>6005</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,14 +955,14 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -962,19 +972,19 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-9.571643518518519</v>
+        <v>-9.473339120370371</v>
       </c>
       <c r="S7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252237</v>
+        <v>243535</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -982,33 +992,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>84.95</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>08-07-2025 13:43:10</t>
+          <t>09-07-2025 11:21:36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>08-07-2025 14:15:10</t>
+          <t>09-07-2025 11:38:36</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>08-07-2025 14:15:10</t>
+          <t>09-07-2025 11:38:36</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-07-2025 07:40:07</t>
+          <t>09-07-2025 12:45:13</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10194</v>
+        <v>7994</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1017,28 +1027,33 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N8" t="n">
+        <v>40054</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>40054</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>11-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-8.319525462962963</v>
+        <v>-0.53140625</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1046,7 +1061,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252999</v>
+        <v>251685</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1054,33 +1069,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" t="n">
-        <v>325.8416666666666</v>
+        <v>98.75833333333334</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-07-2025 07:40:07</t>
+          <t>09-07-2025 12:45:13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-07-2025 08:14:07</t>
+          <t>09-07-2025 13:21:13</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09-07-2025 08:14:07</t>
+          <t>09-07-2025 13:21:13</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-07-2025 13:39:57</t>
+          <t>09-07-2025 14:59:59</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>39101</v>
+        <v>11851</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1089,36 +1104,41 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
+      <c r="N9" t="n">
+        <v>40054</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>40054</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>06-08-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-0.624988425925926</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>245089</v>
+        <v>252638</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1126,33 +1146,33 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>1022.208333333333</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-07-2025 13:39:57</t>
+          <t>09-07-2025 14:59:59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-07-2025 14:13:57</t>
+          <t>10-07-2025 07:16:59</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09-07-2025 14:13:57</t>
+          <t>10-07-2025 07:16:59</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14-07-2025 07:16:10</t>
+          <t>10-07-2025 08:18:28</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>122665</v>
+        <v>7379</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1161,14 +1181,14 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1178,19 +1198,19 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>06-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-4.346163194444444</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>252755</v>
+        <v>252549</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1198,33 +1218,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>109.575</v>
+        <v>92.59166666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>14-07-2025 07:16:10</t>
+          <t>10-07-2025 08:18:28</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>14-07-2025 07:46:10</t>
+          <t>10-07-2025 08:37:28</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>14-07-2025 07:46:10</t>
+          <t>10-07-2025 08:37:28</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>14-07-2025 09:35:44</t>
+          <t>10-07-2025 10:10:04</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>13149</v>
+        <v>11111</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1237,7 +1257,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1250,19 +1270,19 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>20-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252899</v>
+        <v>252662</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1273,30 +1293,30 @@
         <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>180.5666666666667</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>14-07-2025 09:35:44</t>
+          <t>10-07-2025 10:10:04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>14-07-2025 09:52:44</t>
+          <t>10-07-2025 10:27:04</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>14-07-2025 09:52:44</t>
+          <t>10-07-2025 10:27:04</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>14-07-2025 12:53:18</t>
+          <t>10-07-2025 13:36:56</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>21668</v>
+        <v>22784</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1305,11 +1325,11 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1322,7 +1342,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>31-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
@@ -1334,41 +1354,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>243525</v>
+        <v>252157</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D13" t="n">
-        <v>129.9833333333333</v>
+        <v>396.825</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>10-07-2025 13:36:56</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>08-07-2025 07:44:00</t>
+          <t>10-07-2025 14:05:56</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08-07-2025 07:44:00</t>
+          <t>10-07-2025 14:05:56</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>08-07-2025 09:53:59</t>
+          <t>11-07-2025 12:42:45</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>15598</v>
+        <v>47619</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1377,14 +1397,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1394,53 +1414,53 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-4.412488425925926</v>
+        <v>-23.52969328703704</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250284</v>
+        <v>251926</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>146.35</v>
+        <v>78.91666666666667</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>08-07-2025 09:53:59</t>
+          <t>11-07-2025 12:42:45</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>08-07-2025 10:43:59</t>
+          <t>11-07-2025 13:07:45</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08-07-2025 10:43:59</t>
+          <t>11-07-2025 13:07:45</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:20</t>
+          <t>11-07-2025 14:26:40</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>17562</v>
+        <v>9470</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1453,7 +1473,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1466,53 +1486,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-118.5488425925926</v>
+        <v>-2.601857638888889</v>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252636</v>
+        <v>252470</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>11.275</v>
+        <v>62.5</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:20</t>
+          <t>11-07-2025 14:26:40</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>08-07-2025 13:45:20</t>
+          <t>11-07-2025 14:41:40</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08-07-2025 13:45:20</t>
+          <t>11-07-2025 14:41:40</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08-07-2025 13:56:36</t>
+          <t>14-07-2025 07:44:10</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1353</v>
+        <v>7500</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1525,7 +1545,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1538,53 +1558,53 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-10.32234375</v>
       </c>
       <c r="S15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252085</v>
+        <v>251495</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>28.55</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>08-07-2025 13:56:36</t>
+          <t>14-07-2025 07:44:10</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08-07-2025 14:23:36</t>
+          <t>14-07-2025 08:01:10</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08-07-2025 14:23:36</t>
+          <t>14-07-2025 08:01:10</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08-07-2025 14:52:09</t>
+          <t>14-07-2025 09:13:31</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3426</v>
+        <v>8681</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1597,7 +1617,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1610,53 +1630,53 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-20.61955439814815</v>
+        <v>-5.384386574074074</v>
       </c>
       <c r="S16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>252665</v>
+        <v>252426</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D17" t="n">
-        <v>48.875</v>
+        <v>184.2833333333333</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>08-07-2025 14:52:09</t>
+          <t>14-07-2025 09:13:31</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09-07-2025 07:21:09</t>
+          <t>14-07-2025 09:34:31</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>09-07-2025 07:21:09</t>
+          <t>14-07-2025 09:34:31</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>09-07-2025 08:10:02</t>
+          <t>14-07-2025 12:38:48</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5865</v>
+        <v>22114</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1682,53 +1702,53 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>02-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-12.52694444444444</v>
       </c>
       <c r="S17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>252244</v>
+        <v>252336</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
-        <v>107.575</v>
+        <v>120.275</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09-07-2025 08:10:02</t>
+          <t>14-07-2025 12:38:48</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09-07-2025 08:54:02</t>
+          <t>14-07-2025 12:59:48</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>09-07-2025 08:54:02</t>
+          <t>14-07-2025 12:59:48</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>09-07-2025 10:41:36</t>
+          <t>15-07-2025 07:00:04</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>12909</v>
+        <v>14433</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1737,14 +1757,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1754,53 +1774,53 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-2.445561342592593</v>
+        <v>-11.29171875</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252784</v>
+        <v>252334</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>26.975</v>
+        <v>486.5916666666666</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09-07-2025 10:41:36</t>
+          <t>15-07-2025 07:00:04</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-07-2025 11:25:36</t>
+          <t>15-07-2025 07:15:04</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09-07-2025 11:25:36</t>
+          <t>15-07-2025 07:15:04</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>09-07-2025 11:52:35</t>
+          <t>16-07-2025 07:21:40</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3237</v>
+        <v>58391</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1813,7 +1833,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1826,53 +1846,53 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-12.30671296296296</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252723</v>
+        <v>252598</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D20" t="n">
-        <v>153.9583333333333</v>
+        <v>149.625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09-07-2025 11:52:35</t>
+          <t>16-07-2025 07:21:40</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-07-2025 12:38:35</t>
+          <t>16-07-2025 07:42:40</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09-07-2025 12:38:35</t>
+          <t>16-07-2025 07:42:40</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10-07-2025 07:12:32</t>
+          <t>16-07-2025 10:12:17</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>18475</v>
+        <v>17955</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1881,14 +1901,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1898,53 +1918,53 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-6.425202546296297</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252350</v>
+        <v>252656</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>51.88333333333333</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-07-2025 07:12:32</t>
+          <t>16-07-2025 10:12:17</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10-07-2025 07:54:32</t>
+          <t>16-07-2025 10:27:17</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10-07-2025 07:54:32</t>
+          <t>16-07-2025 10:27:17</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>10-07-2025 08:46:25</t>
+          <t>16-07-2025 13:37:09</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6226</v>
+        <v>22784</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1970,53 +1990,53 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-2.365572916666667</v>
+        <v>-2.567471064814815</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>252638</v>
+        <v>252576</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>61.49166666666667</v>
+        <v>374.0666666666667</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-07-2025 08:46:25</t>
+          <t>16-07-2025 13:37:09</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10-07-2025 09:17:25</t>
+          <t>16-07-2025 13:52:09</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10-07-2025 09:17:25</t>
+          <t>16-07-2025 13:52:09</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>10-07-2025 10:18:55</t>
+          <t>17-07-2025 12:06:13</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>7379</v>
+        <v>44888</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2025,11 +2045,11 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -2042,53 +2062,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>06-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-4.429803240740741</v>
+        <v>-2.504322916666667</v>
       </c>
       <c r="S22" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252456</v>
+        <v>252755</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>144.4583333333333</v>
+        <v>109.575</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-07-2025 10:18:55</t>
+          <t>17-07-2025 12:06:13</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10-07-2025 10:43:55</t>
+          <t>17-07-2025 12:25:13</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10-07-2025 10:43:55</t>
+          <t>17-07-2025 12:25:13</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>10-07-2025 13:08:22</t>
+          <t>17-07-2025 14:14:48</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>17335</v>
+        <v>13149</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2101,7 +2121,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -2114,53 +2134,53 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.5474826388888889</v>
+        <v>-0.5936111111111111</v>
       </c>
       <c r="S23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>252549</v>
+        <v>252517</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
-        <v>92.59166666666667</v>
+        <v>240.2083333333333</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-07-2025 13:08:22</t>
+          <t>17-07-2025 14:14:48</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10-07-2025 13:37:22</t>
+          <t>17-07-2025 14:48:48</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10-07-2025 13:37:22</t>
+          <t>17-07-2025 14:48:48</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>11-07-2025 07:09:58</t>
+          <t>18-07-2025 10:49:00</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>11111</v>
+        <v>28825</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2169,14 +2189,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2186,53 +2206,53 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>20-07-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0</v>
+        <v>-18.45070023148148</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>252336</v>
+        <v>252779</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D25" t="n">
-        <v>120.275</v>
+        <v>184.2833333333333</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-07-2025 07:09:58</t>
+          <t>18-07-2025 10:49:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>11-07-2025 07:38:58</t>
+          <t>18-07-2025 11:27:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11-07-2025 07:38:58</t>
+          <t>18-07-2025 11:27:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>11-07-2025 09:39:14</t>
+          <t>18-07-2025 14:31:17</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>14433</v>
+        <v>22114</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2241,11 +2261,11 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
@@ -2258,11 +2278,11 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>21-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-7.402251157407408</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>2</v>
@@ -2270,41 +2290,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>252547</v>
+        <v>252899</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>81.16666666666667</v>
+        <v>180.5666666666667</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-07-2025 09:39:14</t>
+          <t>18-07-2025 14:31:17</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>11-07-2025 10:04:14</t>
+          <t>18-07-2025 14:48:17</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>11-07-2025 10:04:14</t>
+          <t>18-07-2025 14:48:17</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>11-07-2025 11:25:24</t>
+          <t>21-07-2025 09:48:51</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>9740</v>
+        <v>21668</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2317,7 +2337,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2330,53 +2350,53 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-7.47597800925926</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252157</v>
+        <v>252790</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D27" t="n">
-        <v>396.825</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-07-2025 11:25:24</t>
+          <t>21-07-2025 09:48:51</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>11-07-2025 11:58:24</t>
+          <t>21-07-2025 10:07:51</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>11-07-2025 11:58:24</t>
+          <t>21-07-2025 10:07:51</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>14-07-2025 10:35:14</t>
+          <t>21-07-2025 10:19:58</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>47619</v>
+        <v>1453</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2389,7 +2409,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
@@ -2402,53 +2422,53 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>25-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-26.44113425925926</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>252790</v>
+        <v>252547</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>12.10833333333333</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>14-07-2025 10:35:14</t>
+          <t>21-07-2025 10:19:58</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>14-07-2025 11:08:14</t>
+          <t>21-07-2025 10:34:58</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>14-07-2025 11:08:14</t>
+          <t>21-07-2025 10:34:58</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>14-07-2025 11:20:20</t>
+          <t>21-07-2025 11:56:08</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1453</v>
+        <v>9740</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2474,14 +2494,14 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>25-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-17.49731481481481</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2490,33 +2510,33 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
         <v>81.16666666666667</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>14-07-2025 11:20:20</t>
+          <t>21-07-2025 11:56:08</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>14-07-2025 11:45:20</t>
+          <t>21-07-2025 12:11:08</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>14-07-2025 11:45:20</t>
+          <t>21-07-2025 12:11:08</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>14-07-2025 13:06:30</t>
+          <t>21-07-2025 13:32:18</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2550,7 +2570,7 @@
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0</v>
+        <v>-4.564097222222222</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -2558,41 +2578,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>252230</v>
+        <v>252778</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>63.125</v>
+        <v>160.9916666666667</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>21-07-2025 13:32:18</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>21-07-2025 13:49:18</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>21-07-2025 13:49:18</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>08-07-2025 08:24:07</t>
+          <t>22-07-2025 08:30:17</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>7575</v>
+        <v>19319</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2601,14 +2621,14 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2618,53 +2638,53 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>13-06-2025 00:00:00</t>
+          <t>21-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-25.35008680555556</v>
+        <v>-1.354369212962963</v>
       </c>
       <c r="S30" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252063</v>
+        <v>243569</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D31" t="n">
-        <v>79.94166666666666</v>
+        <v>21.675</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>08-07-2025 08:24:07</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>08-07-2025 08:39:07</t>
+          <t>08-07-2025 12:27:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08-07-2025 08:39:07</t>
+          <t>08-07-2025 12:27:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>08-07-2025 09:59:04</t>
+          <t>08-07-2025 12:48:40</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>9593</v>
+        <v>2601</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2673,7 +2693,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -2682,6 +2702,9 @@
       <c r="M31" t="n">
         <v>76</v>
       </c>
+      <c r="N31" t="n">
+        <v>40055</v>
+      </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
@@ -2690,53 +2713,53 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-7.416018518518518</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251798</v>
+        <v>252350</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D32" t="n">
-        <v>123.2916666666667</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>08-07-2025 09:59:04</t>
+          <t>08-07-2025 12:48:40</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>08-07-2025 10:16:04</t>
+          <t>08-07-2025 13:30:40</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08-07-2025 10:16:04</t>
+          <t>08-07-2025 13:30:40</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>08-07-2025 12:19:21</t>
+          <t>08-07-2025 14:22:33</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>14795</v>
+        <v>6226</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2745,70 +2768,75 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
-        <v>76</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N32" t="n">
+        <v>40055</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>40055</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>243529</v>
+        <v>245623</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D33" t="n">
-        <v>129.9833333333333</v>
+        <v>220.1583333333333</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>08-07-2025 12:19:21</t>
+          <t>08-07-2025 14:22:33</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>08-07-2025 12:36:21</t>
+          <t>09-07-2025 07:02:33</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08-07-2025 12:36:21</t>
+          <t>09-07-2025 07:02:33</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>08-07-2025 14:46:20</t>
+          <t>09-07-2025 10:42:43</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>15598</v>
+        <v>26419</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2817,14 +2845,14 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2834,53 +2862,53 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>25-01-2025 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-4.615515046296296</v>
+        <v>-165.4463310185185</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>252476</v>
+        <v>252085</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D34" t="n">
-        <v>72.34166666666667</v>
+        <v>28.55</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>08-07-2025 14:46:20</t>
+          <t>09-07-2025 10:42:43</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-07-2025 07:16:20</t>
+          <t>09-07-2025 11:26:43</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>09-07-2025 07:16:20</t>
+          <t>09-07-2025 11:26:43</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>09-07-2025 08:28:41</t>
+          <t>09-07-2025 11:55:16</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>8681</v>
+        <v>3426</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2893,7 +2921,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2906,53 +2934,53 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-2.353252314814815</v>
+        <v>-21.49671296296296</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252814</v>
+        <v>252456</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D35" t="n">
-        <v>50.08333333333334</v>
+        <v>144.4583333333333</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09-07-2025 08:28:41</t>
+          <t>09-07-2025 11:55:16</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09-07-2025 09:00:41</t>
+          <t>09-07-2025 12:22:16</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09-07-2025 09:00:41</t>
+          <t>09-07-2025 12:22:16</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>09-07-2025 09:50:46</t>
+          <t>09-07-2025 14:46:43</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>6010</v>
+        <v>17335</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2961,70 +2989,75 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>76</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N35" t="n">
+        <v>40051</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>40051</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>252243</v>
+        <v>251790</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D36" t="n">
-        <v>96.70833333333333</v>
+        <v>235.0583333333333</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09-07-2025 09:50:46</t>
+          <t>09-07-2025 14:46:43</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-07-2025 10:05:46</t>
+          <t>10-07-2025 07:30:43</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09-07-2025 10:05:46</t>
+          <t>10-07-2025 07:30:43</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>09-07-2025 11:42:28</t>
+          <t>10-07-2025 11:25:47</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>11605</v>
+        <v>28207</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3037,24 +3070,29 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
         <v>76</v>
       </c>
-      <c r="O36" t="n">
-        <v>0</v>
+      <c r="N36" t="n">
+        <v>40054</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>40054</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>0</v>
+        <v>-1.476238425925926</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
@@ -3062,41 +3100,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252785</v>
+        <v>252220</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D37" t="n">
-        <v>55.75</v>
+        <v>80.51666666666667</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09-07-2025 11:42:28</t>
+          <t>10-07-2025 11:25:47</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-07-2025 12:16:28</t>
+          <t>10-07-2025 12:07:47</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09-07-2025 12:16:28</t>
+          <t>10-07-2025 12:07:47</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>09-07-2025 13:12:13</t>
+          <t>10-07-2025 13:28:18</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>6690</v>
+        <v>9662</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3109,7 +3147,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3122,53 +3160,53 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>0</v>
+        <v>-24.56131944444444</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>241783</v>
+        <v>252201</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D38" t="n">
-        <v>43.325</v>
+        <v>34.10833333333333</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-07-2025 13:12:13</t>
+          <t>10-07-2025 13:28:18</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-07-2025 13:48:13</t>
+          <t>10-07-2025 14:10:18</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09-07-2025 13:48:13</t>
+          <t>10-07-2025 14:10:18</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>09-07-2025 14:31:33</t>
+          <t>10-07-2025 14:44:24</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>5199</v>
+        <v>4093</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3186,6 +3224,9 @@
       <c r="M38" t="n">
         <v>76</v>
       </c>
+      <c r="N38" t="n">
+        <v>40055</v>
+      </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
@@ -3194,53 +3235,53 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0</v>
+        <v>-1.614172453703704</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252345</v>
+        <v>252495</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>34.5</v>
+        <v>27</v>
       </c>
       <c r="D39" t="n">
-        <v>43.325</v>
+        <v>70.77500000000001</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>10-07-2025 14:44:24</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:30</t>
+          <t>11-07-2025 07:11:24</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:30</t>
+          <t>11-07-2025 07:11:24</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>08-07-2025 08:17:49</t>
+          <t>11-07-2025 08:22:11</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>5199</v>
+        <v>8493</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3249,14 +3290,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3266,53 +3307,53 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-0.3457118055555555</v>
+        <v>-4.348738425925926</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>252347</v>
+        <v>252665</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>32.5</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>92.28333333333333</v>
+        <v>48.875</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>08-07-2025 08:17:49</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>08-07-2025 08:50:19</t>
+          <t>08-07-2025 12:30:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08-07-2025 08:50:19</t>
+          <t>08-07-2025 12:30:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>08-07-2025 10:22:36</t>
+          <t>08-07-2025 13:18:52</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>11074</v>
+        <v>5865</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3338,53 +3379,53 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-0.4323668981481482</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252220</v>
+        <v>244023</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>34.5</v>
+        <v>23</v>
       </c>
       <c r="D41" t="n">
-        <v>80.51666666666667</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>08-07-2025 10:22:36</t>
+          <t>08-07-2025 13:18:52</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>08-07-2025 10:57:06</t>
+          <t>08-07-2025 13:41:52</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08-07-2025 10:57:06</t>
+          <t>08-07-2025 13:41:52</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>08-07-2025 12:17:37</t>
+          <t>08-07-2025 13:50:11</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>9662</v>
+        <v>997</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3397,11 +3438,14 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
+      <c r="N41" t="n">
+        <v>40054</v>
+      </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
@@ -3410,53 +3454,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-22.51223958333333</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252652</v>
+        <v>252978</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>32.5</v>
+        <v>36</v>
       </c>
       <c r="D42" t="n">
-        <v>186.0083333333333</v>
+        <v>23.3</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>08-07-2025 12:17:37</t>
+          <t>08-07-2025 13:50:11</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>08-07-2025 12:50:07</t>
+          <t>08-07-2025 14:26:11</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08-07-2025 12:50:07</t>
+          <t>08-07-2025 14:26:11</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>09-07-2025 07:56:08</t>
+          <t>08-07-2025 14:49:29</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>22321</v>
+        <v>2796</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3465,14 +3509,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
         <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N42" t="n">
+        <v>40049</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3482,53 +3529,53 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251674</v>
+        <v>252814</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>52.5</v>
+        <v>17</v>
       </c>
       <c r="D43" t="n">
-        <v>147.125</v>
+        <v>50.08333333333334</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-07-2025 07:56:08</t>
+          <t>08-07-2025 14:49:29</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09-07-2025 08:48:38</t>
+          <t>09-07-2025 07:06:29</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09-07-2025 08:48:38</t>
+          <t>09-07-2025 07:06:29</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>09-07-2025 11:15:45</t>
+          <t>09-07-2025 07:56:34</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>17655</v>
+        <v>6010</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3537,14 +3584,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3554,53 +3601,53 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-2.46927662037037</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251685</v>
+        <v>251231</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>46.5</v>
+        <v>34</v>
       </c>
       <c r="D44" t="n">
-        <v>98.75833333333334</v>
+        <v>312.3083333333333</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-07-2025 11:15:45</t>
+          <t>09-07-2025 07:56:34</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09-07-2025 12:02:15</t>
+          <t>09-07-2025 08:30:34</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09-07-2025 12:02:15</t>
+          <t>09-07-2025 08:30:34</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>09-07-2025 13:41:01</t>
+          <t>09-07-2025 13:42:52</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>11851</v>
+        <v>37477</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3609,7 +3656,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -3618,19 +3665,26 @@
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>40034 (esterno)</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>40034</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>03-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
+        <v>-6.571440972222222</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -3638,41 +3692,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252783</v>
+        <v>252369</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30.5</v>
+        <v>36</v>
       </c>
       <c r="D45" t="n">
-        <v>11.95</v>
+        <v>19.2</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-07-2025 13:41:01</t>
+          <t>09-07-2025 13:42:52</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09-07-2025 14:11:31</t>
+          <t>09-07-2025 14:18:52</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09-07-2025 14:11:31</t>
+          <t>09-07-2025 14:18:52</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>09-07-2025 14:23:28</t>
+          <t>09-07-2025 14:38:04</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1434</v>
+        <v>2304</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3681,14 +3735,14 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3698,53 +3752,53 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0</v>
+        <v>-12.60977430555556</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252047</v>
+        <v>252298</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D46" t="n">
-        <v>70.88333333333334</v>
+        <v>70.76666666666667</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 14:38:04</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 14:59:04</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 14:59:04</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>08-07-2025 08:50:53</t>
+          <t>10-07-2025 08:09:50</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>8506</v>
+        <v>8492</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3757,7 +3811,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M46" t="n">
         <v>76</v>
@@ -3770,53 +3824,53 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>23-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-9.368668981481482</v>
+        <v>-17.34016782407408</v>
       </c>
       <c r="S46" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252152</v>
+        <v>252476</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D47" t="n">
-        <v>27.36666666666667</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>08-07-2025 08:50:53</t>
+          <t>10-07-2025 08:09:50</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>08-07-2025 09:20:53</t>
+          <t>10-07-2025 08:45:50</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08-07-2025 09:20:53</t>
+          <t>10-07-2025 08:45:50</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>08-07-2025 09:48:15</t>
+          <t>10-07-2025 09:58:11</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>3284</v>
+        <v>8681</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3825,14 +3879,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3842,11 +3896,11 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-18.40850694444444</v>
+        <v>-3.415405092592593</v>
       </c>
       <c r="S47" t="n">
         <v>4</v>
@@ -3854,41 +3908,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>252402</v>
+        <v>252784</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D48" t="n">
-        <v>25.075</v>
+        <v>26.975</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>08-07-2025 09:48:15</t>
+          <t>10-07-2025 09:58:11</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>08-07-2025 10:18:15</t>
+          <t>10-07-2025 10:19:11</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08-07-2025 10:18:15</t>
+          <t>10-07-2025 10:19:11</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>08-07-2025 10:43:19</t>
+          <t>10-07-2025 10:46:09</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3009</v>
+        <v>3237</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3897,70 +3951,75 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M48" t="n">
-        <v>76</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N48" t="n">
+        <v>40055</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>40055</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-11.44675347222222</v>
+        <v>-1.448721064814815</v>
       </c>
       <c r="S48" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>252146</v>
+        <v>252713</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>35</v>
+        <v>34.5</v>
       </c>
       <c r="D49" t="n">
-        <v>66.63333333333334</v>
+        <v>907.7666666666667</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>08-07-2025 10:43:19</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>08-07-2025 11:18:19</t>
+          <t>08-07-2025 12:34:30</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08-07-2025 11:18:19</t>
+          <t>08-07-2025 12:34:30</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>08-07-2025 12:24:57</t>
+          <t>10-07-2025 11:42:16</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>7996</v>
+        <v>108932</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3969,14 +4028,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M49" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3986,19 +4045,19 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>18-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-9.517332175925926</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251632</v>
+        <v>252364</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4006,33 +4065,33 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D50" t="n">
-        <v>588.5083333333333</v>
+        <v>116.4833333333333</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>08-07-2025 12:24:57</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>08-07-2025 13:54:57</t>
+          <t>08-07-2025 13:10:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>08-07-2025 13:54:57</t>
+          <t>08-07-2025 13:10:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>10-07-2025 07:43:28</t>
+          <t>09-07-2025 07:06:29</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>70621</v>
+        <v>13978</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4041,11 +4100,11 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4058,11 +4117,11 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-3.321851851851852</v>
+        <v>-12.29616898148148</v>
       </c>
       <c r="S50" t="n">
         <v>4</v>
@@ -4070,41 +4129,41 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>252201</v>
+        <v>251812</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D51" t="n">
-        <v>34.10833333333333</v>
+        <v>33.875</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 07:06:29</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>08-07-2025 07:15:00</t>
+          <t>09-07-2025 07:46:29</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08-07-2025 07:15:00</t>
+          <t>09-07-2025 07:46:29</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>08-07-2025 07:49:06</t>
+          <t>09-07-2025 08:20:21</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>4093</v>
+        <v>4065</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4130,53 +4189,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>23-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-18.32576967592593</v>
+        <v>-16.34747106481482</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>252978</v>
+        <v>252723</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D52" t="n">
-        <v>23.3</v>
+        <v>153.9583333333333</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>08-07-2025 07:49:06</t>
+          <t>09-07-2025 08:20:21</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>08-07-2025 08:04:06</t>
+          <t>09-07-2025 08:45:21</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08-07-2025 08:04:06</t>
+          <t>09-07-2025 08:45:21</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>08-07-2025 08:27:24</t>
+          <t>09-07-2025 11:19:19</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2796</v>
+        <v>18475</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4185,7 +4244,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -4202,53 +4261,53 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>31-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-22.35236689814815</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>243335</v>
+        <v>243526</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D53" t="n">
-        <v>275.0333333333334</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>08-07-2025 08:27:24</t>
+          <t>09-07-2025 11:19:19</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>08-07-2025 08:59:24</t>
+          <t>09-07-2025 11:44:19</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08-07-2025 08:59:24</t>
+          <t>09-07-2025 11:44:19</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>08-07-2025 13:34:26</t>
+          <t>09-07-2025 12:50:56</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>33004</v>
+        <v>7994</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4257,28 +4316,33 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M53" t="n">
-        <v>152</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N53" t="n">
+        <v>40054</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>40054</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>02-08-2024 00:00:00</t>
+          <t>11-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-340.5655844907407</v>
+        <v>-0.5353703703703704</v>
       </c>
       <c r="S53" t="n">
         <v>1</v>
@@ -4286,41 +4350,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>245623</v>
+        <v>252785</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D54" t="n">
-        <v>220.1583333333333</v>
+        <v>58.34166666666667</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>08-07-2025 13:34:26</t>
+          <t>09-07-2025 12:50:56</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>08-07-2025 13:53:26</t>
+          <t>09-07-2025 13:40:56</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08-07-2025 13:53:26</t>
+          <t>09-07-2025 13:40:56</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>09-07-2025 09:33:36</t>
+          <t>09-07-2025 14:39:16</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>26419</v>
+        <v>7001</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4329,70 +4393,75 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M54" t="n">
-        <v>152</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N54" t="n">
+        <v>40055</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>40055</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-165.3983333333333</v>
+        <v>-0.6106076388888889</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252686</v>
+        <v>252277</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D55" t="n">
-        <v>329.15</v>
+        <v>144.925</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-07-2025 09:33:36</t>
+          <t>09-07-2025 14:39:16</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>09-07-2025 09:50:36</t>
+          <t>10-07-2025 07:19:16</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09-07-2025 09:50:36</t>
+          <t>10-07-2025 07:19:16</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>10-07-2025 07:19:45</t>
+          <t>10-07-2025 09:44:12</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>39498</v>
+        <v>17391</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4401,70 +4470,75 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
         <v>3</v>
       </c>
       <c r="M55" t="n">
-        <v>152</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N55" t="n">
+        <v>40024</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>40024</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
+        <v>-20.40569444444445</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>252997</v>
+        <v>252210</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D56" t="n">
-        <v>40.01666666666667</v>
+        <v>29.2</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>10-07-2025 09:44:12</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>10-07-2025 10:19:12</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>10-07-2025 10:19:12</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>08-07-2025 08:10:01</t>
+          <t>10-07-2025 10:48:24</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4802</v>
+        <v>3504</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4473,14 +4547,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M56" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4490,11 +4564,11 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
+        <v>-14.45027777777778</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
@@ -4502,41 +4576,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>244023</v>
+        <v>243523</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>8.308333333333334</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>08-07-2025 08:10:01</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>08-07-2025 08:50:01</t>
+          <t>08-07-2025 12:15:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08-07-2025 08:50:01</t>
+          <t>08-07-2025 12:15:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>08-07-2025 08:58:19</t>
+          <t>08-07-2025 13:21:37</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>997</v>
+        <v>7994</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4545,28 +4619,33 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>70</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N57" t="n">
+        <v>40054</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>40054</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>11-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-281.3738368055556</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
         <v>1</v>
@@ -4574,41 +4653,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>252144</v>
+        <v>252209</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D58" t="n">
-        <v>54.13333333333333</v>
+        <v>29.19166666666667</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>08-07-2025 08:58:19</t>
+          <t>08-07-2025 13:21:37</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>08-07-2025 09:43:19</t>
+          <t>08-07-2025 13:36:37</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>08-07-2025 09:43:19</t>
+          <t>08-07-2025 13:36:37</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>08-07-2025 10:37:27</t>
+          <t>08-07-2025 14:05:48</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>6496</v>
+        <v>3503</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4634,53 +4713,53 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-9.442679398148147</v>
+        <v>-12.58736689814815</v>
       </c>
       <c r="S58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251790</v>
+        <v>243527</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>235.0583333333333</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>08-07-2025 10:37:27</t>
+          <t>08-07-2025 14:05:48</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>08-07-2025 11:02:27</t>
+          <t>08-07-2025 14:20:48</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>08-07-2025 11:02:27</t>
+          <t>08-07-2025 14:20:48</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>08-07-2025 14:57:31</t>
+          <t>09-07-2025 07:27:25</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>28207</v>
+        <v>7994</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4698,19 +4777,24 @@
       <c r="M59" t="n">
         <v>76</v>
       </c>
-      <c r="O59" t="n">
-        <v>0</v>
+      <c r="N59" t="n">
+        <v>40054</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>40054</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>11-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-8.623275462962964</v>
+        <v>-0.3107118055555556</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>
@@ -4718,41 +4802,41 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252364</v>
+        <v>243536</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D60" t="n">
-        <v>94.55</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>08-07-2025 14:57:31</t>
+          <t>09-07-2025 07:27:25</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>09-07-2025 07:32:31</t>
+          <t>09-07-2025 07:42:25</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>09-07-2025 07:32:31</t>
+          <t>09-07-2025 07:42:25</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>09-07-2025 09:07:04</t>
+          <t>09-07-2025 08:49:02</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>11346</v>
+        <v>7994</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4761,70 +4845,75 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>70</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N60" t="n">
+        <v>40054</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>40054</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>11-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-12.37990740740741</v>
+        <v>-0.3673900462962963</v>
       </c>
       <c r="S60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>252071</v>
+        <v>251919</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
-        <v>45.73333333333333</v>
+        <v>140.05</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-07-2025 09:07:04</t>
+          <t>09-07-2025 08:49:02</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>09-07-2025 09:42:04</t>
+          <t>09-07-2025 09:19:02</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>09-07-2025 09:42:04</t>
+          <t>09-07-2025 09:19:02</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>09-07-2025 10:27:48</t>
+          <t>09-07-2025 11:39:05</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>5488</v>
+        <v>16806</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4833,14 +4922,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -4850,53 +4939,53 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>12-06-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-27.43597222222222</v>
+        <v>-23.48548032407408</v>
       </c>
       <c r="S61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>252713</v>
+        <v>252680</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D62" t="n">
-        <v>907.7666666666667</v>
+        <v>254.7</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-07-2025 10:27:48</t>
+          <t>09-07-2025 11:39:05</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>09-07-2025 10:57:48</t>
+          <t>09-07-2025 12:11:05</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>09-07-2025 10:57:48</t>
+          <t>09-07-2025 12:11:05</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>11-07-2025 10:05:34</t>
+          <t>10-07-2025 08:25:47</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>108932</v>
+        <v>30564</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4905,14 +4994,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M62" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -4922,7 +5011,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>18-07-2025 00:00:00</t>
+          <t>30-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
@@ -4934,41 +5023,41 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251926</v>
+        <v>245089</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D63" t="n">
-        <v>78.91666666666667</v>
+        <v>1022.208333333333</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-07-2025 10:05:34</t>
+          <t>10-07-2025 08:25:47</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>11-07-2025 10:35:34</t>
+          <t>10-07-2025 08:44:47</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>11-07-2025 10:35:34</t>
+          <t>10-07-2025 08:44:47</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>11-07-2025 11:54:29</t>
+          <t>14-07-2025 09:47:00</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>9470</v>
+        <v>122665</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -4977,14 +5066,14 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
         <v>4</v>
       </c>
       <c r="M63" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -4994,19 +5083,19 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-2.496168981481481</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251495</v>
+        <v>252087</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5017,30 +5106,30 @@
         <v>30</v>
       </c>
       <c r="D64" t="n">
-        <v>72.34166666666667</v>
+        <v>35.5</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-07-2025 11:54:29</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>11-07-2025 12:24:29</t>
+          <t>08-07-2025 12:30:00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>11-07-2025 12:24:29</t>
+          <t>08-07-2025 12:30:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>11-07-2025 13:36:49</t>
+          <t>08-07-2025 13:05:30</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>8681</v>
+        <v>4260</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5053,7 +5142,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5066,19 +5155,19 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-2.567239583333333</v>
+        <v>-9.545486111111112</v>
       </c>
       <c r="S64" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252470</v>
+        <v>252378</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5086,33 +5175,33 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>62.5</v>
+        <v>37.55833333333333</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-07-2025 13:36:49</t>
+          <t>08-07-2025 13:05:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>11-07-2025 14:06:49</t>
+          <t>08-07-2025 13:45:30</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>11-07-2025 14:06:49</t>
+          <t>08-07-2025 13:45:30</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>14-07-2025 07:09:19</t>
+          <t>08-07-2025 14:23:03</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>7500</v>
+        <v>4507</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5121,14 +5210,14 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M65" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -5142,15 +5231,15 @@
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-10.29814236111111</v>
+        <v>-4.599346064814815</v>
       </c>
       <c r="S65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>252334</v>
+        <v>250284</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5158,33 +5247,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D66" t="n">
-        <v>486.5916666666666</v>
+        <v>146.35</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>14-07-2025 07:09:19</t>
+          <t>08-07-2025 14:23:03</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>14-07-2025 07:39:19</t>
+          <t>09-07-2025 07:08:03</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>14-07-2025 07:39:19</t>
+          <t>09-07-2025 07:08:03</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>15-07-2025 07:45:55</t>
+          <t>09-07-2025 09:34:24</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>58391</v>
+        <v>17562</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5197,7 +5286,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5210,53 +5299,53 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-11.32355324074074</v>
+        <v>-119.3988946759259</v>
       </c>
       <c r="S66" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251919</v>
+        <v>252686</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D67" t="n">
-        <v>140.05</v>
+        <v>329.15</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 09:34:24</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 10:29:24</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 10:29:24</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>08-07-2025 10:00:03</t>
+          <t>10-07-2025 07:58:33</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>16806</v>
+        <v>39498</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5282,11 +5371,11 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>21-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-22.41670138888889</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
         <v>1</v>
@@ -5294,41 +5383,41 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>244828</v>
+        <v>252473</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>35</v>
       </c>
       <c r="D68" t="n">
-        <v>43.35833333333333</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-07-2025 10:00:03</t>
+          <t>10-07-2025 07:58:33</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08-07-2025 10:35:03</t>
+          <t>10-07-2025 08:33:33</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08-07-2025 10:35:03</t>
+          <t>10-07-2025 08:33:33</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>08-07-2025 11:18:24</t>
+          <t>10-07-2025 11:43:25</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>5203</v>
+        <v>22784</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5337,14 +5426,14 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -5354,19 +5443,19 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-1.471116898148148</v>
+        <v>-9.488489583333333</v>
       </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>243524</v>
+        <v>250383</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5374,33 +5463,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D69" t="n">
-        <v>66.61666666666666</v>
+        <v>24.925</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-07-2025 11:18:24</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-07-2025 11:53:24</t>
+          <t>08-07-2025 12:40:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>08-07-2025 11:53:24</t>
+          <t>08-07-2025 12:40:00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>08-07-2025 13:00:01</t>
+          <t>08-07-2025 13:04:55</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>7994</v>
+        <v>2991</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5413,7 +5502,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M69" t="n">
         <v>76</v>
@@ -5426,13 +5515,306 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
+          <t>15-06-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R69" s="1" t="n">
+        <v>-23.54508680555556</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>252783</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>35</v>
+      </c>
+      <c r="D70" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:04:55</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:39:55</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:39:55</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:51:52</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1434</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>6</v>
+      </c>
+      <c r="M70" t="n">
+        <v>70</v>
+      </c>
+      <c r="N70" t="n">
+        <v>40055</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>40055</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>24-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>252999</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>45</v>
+      </c>
+      <c r="D71" t="n">
+        <v>325.8416666666666</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:51:52</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:36:52</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:36:52</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>09-07-2025 12:02:43</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>39101</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>2</v>
+      </c>
+      <c r="M71" t="n">
+        <v>70</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>06-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>252519</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>35</v>
+      </c>
+      <c r="D72" t="n">
+        <v>11.475</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>09-07-2025 12:02:43</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>09-07-2025 12:37:43</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>09-07-2025 12:37:43</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>09-07-2025 12:49:11</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1377</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>3</v>
+      </c>
+      <c r="M72" t="n">
+        <v>76</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
           <t>04-07-2025 00:00:00</t>
         </is>
       </c>
-      <c r="R69" s="1" t="n">
-        <v>-4.541684027777777</v>
-      </c>
-      <c r="S69" t="n">
+      <c r="R72" s="1" t="n">
+        <v>-5.53416087962963</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>252245</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>35</v>
+      </c>
+      <c r="D73" t="n">
+        <v>489.7583333333333</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>09-07-2025 12:49:11</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>09-07-2025 13:24:11</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>09-07-2025 13:24:11</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>10-07-2025 13:33:57</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>58771</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>4</v>
+      </c>
+      <c r="M73" t="n">
+        <v>152</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>27-06-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R73" s="1" t="n">
+        <v>-13.56524305555556</v>
+      </c>
+      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/output.xlsx
+++ b/PS-VRP/Dati_output/output.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,22 +557,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:17:00</t>
+          <t>08-07-2025 07:17:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:17:00</t>
+          <t>08-07-2025 07:17:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-07-2025 13:08:33</t>
+          <t>08-07-2025 08:08:33</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-12.54760416666667</v>
+        <v>-12.33927083333333</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252362</v>
+        <v>252546</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -625,30 +625,30 @@
         <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>39.95</v>
+        <v>54.63333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08-07-2025 13:08:33</t>
+          <t>08-07-2025 08:08:33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-07-2025 13:27:33</t>
+          <t>08-07-2025 08:27:33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-07-2025 13:27:33</t>
+          <t>08-07-2025 08:27:33</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-07-2025 14:07:30</t>
+          <t>08-07-2025 09:22:11</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>4794</v>
+        <v>6556</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>76</v>
@@ -674,19 +674,19 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-4.588541666666667</v>
+        <v>-7.390405092592593</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>235572</v>
+        <v>252144</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -694,33 +694,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>82.98333333333333</v>
+        <v>54.13333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08-07-2025 14:07:30</t>
+          <t>08-07-2025 09:22:11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-07-2025 14:37:30</t>
+          <t>08-07-2025 09:41:11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-07-2025 14:37:30</t>
+          <t>08-07-2025 09:41:11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>09-07-2025 08:00:29</t>
+          <t>08-07-2025 10:35:19</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>9958</v>
+        <v>6496</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -729,17 +729,14 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
-      </c>
-      <c r="N4" t="n">
-        <v>40055</v>
+        <v>76</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -749,19 +746,19 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>06-11-2023 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.3336689814814815</v>
+        <v>-9.441192129629629</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251849</v>
+        <v>252230</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -769,33 +766,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>33.38333333333333</v>
+        <v>63.125</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09-07-2025 08:00:29</t>
+          <t>08-07-2025 10:35:19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09-07-2025 08:15:29</t>
+          <t>08-07-2025 10:54:19</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>09-07-2025 08:15:29</t>
+          <t>08-07-2025 10:54:19</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>09-07-2025 08:48:52</t>
+          <t>08-07-2025 11:57:26</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>4006</v>
+        <v>7575</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -804,43 +801,36 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>40042 (esterno)</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>40042</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>25-06-2025 00:00:00</t>
+          <t>13-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-14.36726851851852</v>
+        <v>-25.49822337962963</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252890</v>
+        <v>243525</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -848,33 +838,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>51.7</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09-07-2025 08:48:52</t>
+          <t>08-07-2025 11:57:26</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>09-07-2025 09:22:52</t>
+          <t>08-07-2025 12:16:26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>09-07-2025 09:22:52</t>
+          <t>08-07-2025 12:16:26</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>09-07-2025 10:14:34</t>
+          <t>08-07-2025 14:26:25</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6204</v>
+        <v>15598</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -900,19 +890,19 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>01-08-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0</v>
+        <v>-4.601684027777778</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252371</v>
+        <v>252047</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -920,33 +910,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>50.04166666666666</v>
+        <v>70.88333333333334</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09-07-2025 10:14:34</t>
+          <t>08-07-2025 14:26:25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-07-2025 10:31:34</t>
+          <t>08-07-2025 14:45:25</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09-07-2025 10:31:34</t>
+          <t>08-07-2025 14:45:25</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09-07-2025 11:21:36</t>
+          <t>09-07-2025 07:56:18</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>6005</v>
+        <v>8506</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -955,11 +945,11 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>76</v>
@@ -972,19 +962,19 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-9.473339120370371</v>
+        <v>-10.33076967592593</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>243535</v>
+        <v>252686</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -992,33 +982,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
-        <v>66.61666666666666</v>
+        <v>329.15</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09-07-2025 11:21:36</t>
+          <t>09-07-2025 07:56:18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-07-2025 11:38:36</t>
+          <t>09-07-2025 08:30:18</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09-07-2025 11:38:36</t>
+          <t>09-07-2025 08:30:18</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-07-2025 12:45:13</t>
+          <t>09-07-2025 13:59:27</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>7994</v>
+        <v>39498</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1027,33 +1017,28 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
         <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
-      </c>
-      <c r="N8" t="n">
-        <v>40054</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>11-07-2025 00:00:00</t>
+          <t>21-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.53140625</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1061,7 +1046,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251685</v>
+        <v>252652</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1069,33 +1054,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
-        <v>98.75833333333334</v>
+        <v>186.0083333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-07-2025 12:45:13</t>
+          <t>09-07-2025 13:59:27</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-07-2025 13:21:13</t>
+          <t>09-07-2025 14:33:27</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09-07-2025 13:21:13</t>
+          <t>09-07-2025 14:33:27</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-07-2025 14:59:59</t>
+          <t>10-07-2025 09:39:28</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>11851</v>
+        <v>22321</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1108,29 +1093,24 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>40054</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O9" t="n">
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.624988425925926</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1138,41 +1118,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252638</v>
+        <v>252636</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D10" t="n">
-        <v>61.49166666666667</v>
+        <v>11.275</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-07-2025 14:59:59</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10-07-2025 07:16:59</t>
+          <t>08-07-2025 07:44:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10-07-2025 07:16:59</t>
+          <t>08-07-2025 07:44:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10-07-2025 08:18:28</t>
+          <t>08-07-2025 07:55:16</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>7379</v>
+        <v>1353</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1185,7 +1165,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1198,11 +1178,11 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>06-07-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-4.346163194444444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>7</v>
@@ -1210,41 +1190,41 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>252549</v>
+        <v>252371</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D11" t="n">
-        <v>92.59166666666667</v>
+        <v>50.04166666666666</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-07-2025 08:18:28</t>
+          <t>08-07-2025 07:55:16</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10-07-2025 08:37:28</t>
+          <t>08-07-2025 08:37:16</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10-07-2025 08:37:28</t>
+          <t>08-07-2025 08:37:16</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10-07-2025 10:10:04</t>
+          <t>08-07-2025 09:27:19</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>11111</v>
+        <v>6005</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1253,14 +1233,14 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1270,53 +1250,53 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>20-07-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-8.393969907407408</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252662</v>
+        <v>252063</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>189.8666666666667</v>
+        <v>79.94166666666666</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-07-2025 10:10:04</t>
+          <t>08-07-2025 09:27:19</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10-07-2025 10:27:04</t>
+          <t>08-07-2025 09:54:19</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10-07-2025 10:27:04</t>
+          <t>08-07-2025 09:54:19</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10-07-2025 13:36:56</t>
+          <t>08-07-2025 11:14:15</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>22784</v>
+        <v>9593</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1325,14 +1305,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1342,53 +1322,53 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-7.468234953703703</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252157</v>
+        <v>252244</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>396.825</v>
+        <v>107.575</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-07-2025 13:36:56</t>
+          <t>08-07-2025 11:14:15</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10-07-2025 14:05:56</t>
+          <t>08-07-2025 11:41:15</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10-07-2025 14:05:56</t>
+          <t>08-07-2025 11:41:15</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>11-07-2025 12:42:45</t>
+          <t>08-07-2025 13:28:50</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>47619</v>
+        <v>12909</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1397,14 +1377,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1414,53 +1394,53 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-23.52969328703704</v>
+        <v>-1.561689814814815</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251926</v>
+        <v>243569</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>78.91666666666667</v>
+        <v>21.675</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-07-2025 12:42:45</t>
+          <t>08-07-2025 13:28:50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>11-07-2025 13:07:45</t>
+          <t>08-07-2025 13:55:50</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11-07-2025 13:07:45</t>
+          <t>08-07-2025 13:55:50</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>11-07-2025 14:26:40</t>
+          <t>08-07-2025 14:17:30</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>9470</v>
+        <v>2601</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1469,14 +1449,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1486,53 +1466,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-2.601857638888889</v>
+        <v>-295.5954918981482</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252470</v>
+        <v>252402</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
-        <v>62.5</v>
+        <v>25.075</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-07-2025 14:26:40</t>
+          <t>08-07-2025 14:17:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>11-07-2025 14:41:40</t>
+          <t>08-07-2025 14:46:30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11-07-2025 14:41:40</t>
+          <t>08-07-2025 14:46:30</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>14-07-2025 07:44:10</t>
+          <t>09-07-2025 07:11:35</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>7500</v>
+        <v>3009</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1541,14 +1521,14 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1558,53 +1538,53 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-10.32234375</v>
+        <v>-12.29971064814815</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251495</v>
+        <v>252723</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>72.34166666666667</v>
+        <v>153.9583333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>14-07-2025 07:44:10</t>
+          <t>09-07-2025 07:11:35</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>14-07-2025 08:01:10</t>
+          <t>09-07-2025 07:40:35</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>14-07-2025 08:01:10</t>
+          <t>09-07-2025 07:40:35</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>14-07-2025 09:13:31</t>
+          <t>09-07-2025 10:14:32</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>8681</v>
+        <v>18475</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1613,14 +1593,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1630,53 +1610,53 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>31-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-5.384386574074074</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>252426</v>
+        <v>252997</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D17" t="n">
-        <v>184.2833333333333</v>
+        <v>40.01666666666667</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>14-07-2025 09:13:31</t>
+          <t>09-07-2025 10:14:32</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>14-07-2025 09:34:31</t>
+          <t>09-07-2025 10:56:32</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>14-07-2025 09:34:31</t>
+          <t>09-07-2025 10:56:32</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>14-07-2025 12:38:48</t>
+          <t>09-07-2025 11:36:33</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>22114</v>
+        <v>4802</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1685,14 +1665,14 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1702,53 +1682,53 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>02-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-12.52694444444444</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>252336</v>
+        <v>252784</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D18" t="n">
-        <v>120.275</v>
+        <v>26.975</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>14-07-2025 12:38:48</t>
+          <t>09-07-2025 11:36:33</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>14-07-2025 12:59:48</t>
+          <t>09-07-2025 12:20:33</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>14-07-2025 12:59:48</t>
+          <t>09-07-2025 12:20:33</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>15-07-2025 07:00:04</t>
+          <t>09-07-2025 12:47:32</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>14433</v>
+        <v>3237</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1761,7 +1741,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1774,53 +1754,53 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-11.29171875</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252334</v>
+        <v>252364</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
-        <v>486.5916666666666</v>
+        <v>94.55</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15-07-2025 07:00:04</t>
+          <t>09-07-2025 12:47:32</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>15-07-2025 07:15:04</t>
+          <t>09-07-2025 13:16:32</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15-07-2025 07:15:04</t>
+          <t>09-07-2025 13:16:32</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>16-07-2025 07:21:40</t>
+          <t>09-07-2025 14:51:05</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>58391</v>
+        <v>11346</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1833,7 +1813,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1846,53 +1826,53 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-12.30671296296296</v>
+        <v>-12.61880787037037</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252598</v>
+        <v>245623</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D20" t="n">
-        <v>149.625</v>
+        <v>220.1583333333333</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>16-07-2025 07:21:40</t>
+          <t>09-07-2025 14:51:05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>16-07-2025 07:42:40</t>
+          <t>10-07-2025 07:35:05</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>16-07-2025 07:42:40</t>
+          <t>10-07-2025 07:35:05</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>16-07-2025 10:12:17</t>
+          <t>10-07-2025 11:15:14</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>17955</v>
+        <v>26419</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1901,14 +1881,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
         <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1918,11 +1898,11 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>25-01-2025 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-6.425202546296297</v>
+        <v>-166.4689178240741</v>
       </c>
       <c r="S20" t="n">
         <v>2</v>
@@ -1930,41 +1910,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252656</v>
+        <v>252547</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D21" t="n">
-        <v>189.8666666666667</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>16-07-2025 10:12:17</t>
+          <t>10-07-2025 11:15:14</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>16-07-2025 10:27:17</t>
+          <t>10-07-2025 12:01:14</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>16-07-2025 10:27:17</t>
+          <t>10-07-2025 12:01:14</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>16-07-2025 13:37:09</t>
+          <t>10-07-2025 13:22:24</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>22784</v>
+        <v>9740</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1973,11 +1953,11 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -1990,53 +1970,53 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-2.567471064814815</v>
+        <v>-6.557228009259259</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>252576</v>
+        <v>243524</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>374.0666666666667</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>16-07-2025 13:37:09</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>16-07-2025 13:52:09</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>16-07-2025 13:52:09</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>17-07-2025 12:06:13</t>
+          <t>08-07-2025 08:27:37</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>44888</v>
+        <v>7994</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2045,14 +2025,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2062,53 +2042,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-2.504322916666667</v>
+        <v>-4.352511574074074</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252755</v>
+        <v>251849</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D23" t="n">
-        <v>109.575</v>
+        <v>33.38333333333333</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>17-07-2025 12:06:13</t>
+          <t>08-07-2025 08:27:37</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>17-07-2025 12:25:13</t>
+          <t>08-07-2025 09:01:37</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>17-07-2025 12:25:13</t>
+          <t>08-07-2025 09:01:37</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>17-07-2025 14:14:48</t>
+          <t>08-07-2025 09:35:00</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>13149</v>
+        <v>4006</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2121,66 +2101,73 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>40042 (esterno)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>40042</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>25-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.5936111111111111</v>
+        <v>-13.39930555555556</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>252517</v>
+        <v>251919</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>34</v>
       </c>
       <c r="D24" t="n">
-        <v>240.2083333333333</v>
+        <v>140.05</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>17-07-2025 14:14:48</t>
+          <t>08-07-2025 09:35:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>17-07-2025 14:48:48</t>
+          <t>08-07-2025 10:09:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>17-07-2025 14:48:48</t>
+          <t>08-07-2025 10:09:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>18-07-2025 10:49:00</t>
+          <t>08-07-2025 12:29:03</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>28825</v>
+        <v>16806</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2189,14 +2176,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2206,53 +2193,53 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-18.45070023148148</v>
+        <v>-22.52017361111111</v>
       </c>
       <c r="S24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>252779</v>
+        <v>252085</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
-        <v>184.2833333333333</v>
+        <v>28.55</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18-07-2025 10:49:00</t>
+          <t>08-07-2025 12:29:03</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>18-07-2025 11:27:00</t>
+          <t>08-07-2025 13:01:03</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>18-07-2025 11:27:00</t>
+          <t>08-07-2025 13:01:03</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>18-07-2025 14:31:17</t>
+          <t>08-07-2025 13:29:36</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>22114</v>
+        <v>3426</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2261,11 +2248,11 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
@@ -2278,53 +2265,53 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0</v>
+        <v>-20.56222222222222</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>252899</v>
+        <v>252665</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>180.5666666666667</v>
+        <v>48.875</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18-07-2025 14:31:17</t>
+          <t>08-07-2025 13:29:36</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>18-07-2025 14:48:17</t>
+          <t>08-07-2025 13:48:36</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>18-07-2025 14:48:17</t>
+          <t>08-07-2025 13:48:36</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>21-07-2025 09:48:51</t>
+          <t>08-07-2025 14:37:28</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>21668</v>
+        <v>5865</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2333,11 +2320,11 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2350,53 +2337,53 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252790</v>
+        <v>252243</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D27" t="n">
-        <v>12.10833333333333</v>
+        <v>96.70833333333333</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-07-2025 09:48:51</t>
+          <t>08-07-2025 14:37:28</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>21-07-2025 10:07:51</t>
+          <t>09-07-2025 07:11:28</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>21-07-2025 10:07:51</t>
+          <t>09-07-2025 07:11:28</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>21-07-2025 10:19:58</t>
+          <t>09-07-2025 08:48:11</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1453</v>
+        <v>11605</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2405,14 +2392,14 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2422,53 +2409,53 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>25-07-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>252547</v>
+        <v>252220</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D28" t="n">
-        <v>81.16666666666667</v>
+        <v>80.51666666666667</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>21-07-2025 10:19:58</t>
+          <t>09-07-2025 08:48:11</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>21-07-2025 10:34:58</t>
+          <t>09-07-2025 09:24:11</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>21-07-2025 10:34:58</t>
+          <t>09-07-2025 09:24:11</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>21-07-2025 11:56:08</t>
+          <t>09-07-2025 10:44:42</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>9740</v>
+        <v>9662</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2481,7 +2468,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2494,53 +2481,53 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-17.49731481481481</v>
+        <v>-23.44770833333333</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>252467</v>
+        <v>252298</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D29" t="n">
-        <v>81.16666666666667</v>
+        <v>70.76666666666667</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>21-07-2025 11:56:08</t>
+          <t>09-07-2025 10:44:42</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>21-07-2025 12:11:08</t>
+          <t>09-07-2025 11:18:42</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>21-07-2025 12:11:08</t>
+          <t>09-07-2025 11:18:42</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>21-07-2025 13:32:18</t>
+          <t>09-07-2025 12:29:28</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>9740</v>
+        <v>8492</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2549,14 +2536,14 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2566,53 +2553,53 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>23-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-4.564097222222222</v>
+        <v>-16.52046296296296</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>252778</v>
+        <v>252785</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D30" t="n">
-        <v>160.9916666666667</v>
+        <v>55.75</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>21-07-2025 13:32:18</t>
+          <t>09-07-2025 12:29:28</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>21-07-2025 13:49:18</t>
+          <t>09-07-2025 13:09:28</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>21-07-2025 13:49:18</t>
+          <t>09-07-2025 13:09:28</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>22-07-2025 08:30:17</t>
+          <t>09-07-2025 14:05:13</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>19319</v>
+        <v>6690</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2625,7 +2612,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2638,11 +2625,11 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-1.354369212962963</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
@@ -2650,41 +2637,41 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>243569</v>
+        <v>252476</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D31" t="n">
-        <v>21.675</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>09-07-2025 14:05:13</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>08-07-2025 12:27:00</t>
+          <t>09-07-2025 14:26:13</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08-07-2025 12:27:00</t>
+          <t>09-07-2025 14:26:13</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>08-07-2025 12:48:40</t>
+          <t>10-07-2025 07:38:33</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2601</v>
+        <v>8681</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2693,17 +2680,14 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
         <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>76</v>
-      </c>
-      <c r="N31" t="n">
-        <v>40055</v>
+        <v>70</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2713,53 +2697,53 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>0</v>
+        <v>-3.318443287037037</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>252350</v>
+        <v>252277</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>51.88333333333333</v>
+        <v>144.925</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>08-07-2025 12:48:40</t>
+          <t>10-07-2025 07:38:33</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>08-07-2025 13:30:40</t>
+          <t>10-07-2025 07:57:33</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08-07-2025 13:30:40</t>
+          <t>10-07-2025 07:57:33</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>08-07-2025 14:22:33</t>
+          <t>10-07-2025 10:22:29</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>6226</v>
+        <v>17391</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2768,17 +2752,19 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
       </c>
-      <c r="N32" t="n">
-        <v>40055</v>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>40024 (esterno)</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2786,57 +2772,57 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>40055</v>
+        <v>40024</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0</v>
+        <v>-20.43228009259259</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>245623</v>
+        <v>252152</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>220.1583333333333</v>
+        <v>27.36666666666667</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>08-07-2025 14:22:33</t>
+          <t>10-07-2025 10:22:29</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09-07-2025 07:02:33</t>
+          <t>10-07-2025 10:54:29</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>09-07-2025 07:02:33</t>
+          <t>10-07-2025 10:54:29</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>09-07-2025 10:42:43</t>
+          <t>10-07-2025 11:21:51</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>26419</v>
+        <v>3284</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2845,14 +2831,14 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2862,53 +2848,53 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-165.4463310185185</v>
+        <v>-20.47350694444444</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>252085</v>
+        <v>252814</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D34" t="n">
-        <v>28.55</v>
+        <v>50.08333333333334</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09-07-2025 10:42:43</t>
+          <t>10-07-2025 11:21:51</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-07-2025 11:26:43</t>
+          <t>10-07-2025 11:42:51</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>09-07-2025 11:26:43</t>
+          <t>10-07-2025 11:42:51</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>09-07-2025 11:55:16</t>
+          <t>10-07-2025 12:32:56</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>3426</v>
+        <v>6010</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2917,14 +2903,14 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
         <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2934,53 +2920,53 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-21.49671296296296</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252456</v>
+        <v>251685</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>144.4583333333333</v>
+        <v>98.75833333333334</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09-07-2025 11:55:16</t>
+          <t>10-07-2025 12:32:56</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09-07-2025 12:22:16</t>
+          <t>10-07-2025 13:06:56</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09-07-2025 12:22:16</t>
+          <t>10-07-2025 13:06:56</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>09-07-2025 14:46:43</t>
+          <t>10-07-2025 14:45:41</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>17335</v>
+        <v>11851</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2993,71 +2979,66 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
-      <c r="N35" t="n">
-        <v>40051</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O35" t="n">
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>40051</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251790</v>
+        <v>252783</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D36" t="n">
-        <v>235.0583333333333</v>
+        <v>11.95</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09-07-2025 14:46:43</t>
+          <t>10-07-2025 14:45:41</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>10-07-2025 07:30:43</t>
+          <t>11-07-2025 07:10:41</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10-07-2025 07:30:43</t>
+          <t>11-07-2025 07:10:41</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>10-07-2025 11:25:47</t>
+          <t>11-07-2025 07:22:38</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>28207</v>
+        <v>1434</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3066,33 +3047,28 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M36" t="n">
-        <v>76</v>
-      </c>
-      <c r="N36" t="n">
-        <v>40054</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-1.476238425925926</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
@@ -3100,41 +3076,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252220</v>
+        <v>244023</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>42</v>
+        <v>40.5</v>
       </c>
       <c r="D37" t="n">
-        <v>80.51666666666667</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-07-2025 11:25:47</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>10-07-2025 12:07:47</t>
+          <t>08-07-2025 07:40:30</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10-07-2025 12:07:47</t>
+          <t>08-07-2025 07:40:30</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>10-07-2025 13:28:18</t>
+          <t>08-07-2025 07:48:48</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>9662</v>
+        <v>997</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3147,7 +3123,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3160,53 +3136,53 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-24.56131944444444</v>
+        <v>-281.3255613425926</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252201</v>
+        <v>252345</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>42</v>
+        <v>36.5</v>
       </c>
       <c r="D38" t="n">
-        <v>34.10833333333333</v>
+        <v>43.325</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-07-2025 13:28:18</t>
+          <t>08-07-2025 07:48:48</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>10-07-2025 14:10:18</t>
+          <t>08-07-2025 08:25:18</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10-07-2025 14:10:18</t>
+          <t>08-07-2025 08:25:18</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>10-07-2025 14:44:24</t>
+          <t>08-07-2025 09:08:38</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>4093</v>
+        <v>5199</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3215,17 +3191,14 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
         <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>76</v>
-      </c>
-      <c r="N38" t="n">
-        <v>40055</v>
+        <v>70</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3235,53 +3208,53 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-1.614172453703704</v>
+        <v>-0.3809953703703703</v>
       </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252495</v>
+        <v>252347</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>27</v>
+        <v>32.5</v>
       </c>
       <c r="D39" t="n">
-        <v>70.77500000000001</v>
+        <v>92.28333333333333</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-07-2025 14:44:24</t>
+          <t>08-07-2025 09:08:38</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>11-07-2025 07:11:24</t>
+          <t>08-07-2025 09:41:08</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>11-07-2025 07:11:24</t>
+          <t>08-07-2025 09:41:08</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>11-07-2025 08:22:11</t>
+          <t>08-07-2025 11:13:25</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>8493</v>
+        <v>11074</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3290,14 +3263,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3307,53 +3280,53 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-4.348738425925926</v>
+        <v>-0.467650462962963</v>
       </c>
       <c r="S39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>252665</v>
+        <v>251674</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>54.5</v>
       </c>
       <c r="D40" t="n">
-        <v>48.875</v>
+        <v>147.125</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>08-07-2025 11:13:25</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>08-07-2025 12:30:00</t>
+          <t>08-07-2025 12:07:55</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08-07-2025 12:30:00</t>
+          <t>08-07-2025 12:07:55</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>08-07-2025 13:18:52</t>
+          <t>08-07-2025 14:35:02</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>5865</v>
+        <v>17655</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3362,11 +3335,11 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -3379,53 +3352,53 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
+        <v>-1.607667824074074</v>
       </c>
       <c r="S40" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>244023</v>
+        <v>251231</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>23</v>
+        <v>46.5</v>
       </c>
       <c r="D41" t="n">
-        <v>8.308333333333334</v>
+        <v>312.3083333333333</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>08-07-2025 13:18:52</t>
+          <t>08-07-2025 14:35:02</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>08-07-2025 13:41:52</t>
+          <t>09-07-2025 07:21:32</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08-07-2025 13:41:52</t>
+          <t>09-07-2025 07:21:32</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>08-07-2025 13:50:11</t>
+          <t>09-07-2025 12:33:51</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>997</v>
+        <v>37477</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3434,7 +3407,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -3443,22 +3416,26 @@
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="N41" t="n">
-        <v>40054</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>40034 (esterno)</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>40034</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>03-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>0</v>
+        <v>-6.523506944444445</v>
       </c>
       <c r="S41" t="n">
         <v>1</v>
@@ -3466,41 +3443,41 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252978</v>
+        <v>250284</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>36</v>
+        <v>34.5</v>
       </c>
       <c r="D42" t="n">
-        <v>23.3</v>
+        <v>146.35</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>08-07-2025 13:50:11</t>
+          <t>09-07-2025 12:33:51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>08-07-2025 14:26:11</t>
+          <t>09-07-2025 13:08:21</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08-07-2025 14:26:11</t>
+          <t>09-07-2025 13:08:21</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>08-07-2025 14:49:29</t>
+          <t>10-07-2025 07:34:42</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2796</v>
+        <v>17562</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3509,17 +3486,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M42" t="n">
-        <v>76</v>
-      </c>
-      <c r="N42" t="n">
-        <v>40049</v>
+        <v>70</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3529,53 +3503,53 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
+        <v>-120.3157638888889</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252814</v>
+        <v>252456</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>17</v>
+        <v>36.5</v>
       </c>
       <c r="D43" t="n">
-        <v>50.08333333333334</v>
+        <v>144.4583333333333</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>08-07-2025 14:49:29</t>
+          <t>10-07-2025 07:34:42</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09-07-2025 07:06:29</t>
+          <t>10-07-2025 08:11:12</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09-07-2025 07:06:29</t>
+          <t>10-07-2025 08:11:12</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>09-07-2025 07:56:34</t>
+          <t>10-07-2025 10:35:39</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>6010</v>
+        <v>17335</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3584,14 +3558,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3601,53 +3575,53 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0</v>
+        <v>-0.4414293981481481</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251231</v>
+        <v>252350</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>34</v>
+        <v>36.5</v>
       </c>
       <c r="D44" t="n">
-        <v>312.3083333333333</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09-07-2025 07:56:34</t>
+          <t>10-07-2025 10:35:39</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09-07-2025 08:30:34</t>
+          <t>10-07-2025 11:12:09</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09-07-2025 08:30:34</t>
+          <t>10-07-2025 11:12:09</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>09-07-2025 13:42:52</t>
+          <t>10-07-2025 12:04:02</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>37477</v>
+        <v>6226</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3660,31 +3634,24 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>40034 (esterno)</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>40034</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-6.571440972222222</v>
+        <v>-2.502806712962963</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -3692,41 +3659,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252369</v>
+        <v>252071</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D45" t="n">
-        <v>19.2</v>
+        <v>45.73333333333333</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09-07-2025 13:42:52</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09-07-2025 14:18:52</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09-07-2025 14:18:52</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>09-07-2025 14:38:04</t>
+          <t>08-07-2025 08:25:44</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2304</v>
+        <v>5488</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3739,7 +3706,7 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M45" t="n">
         <v>76</v>
@@ -3752,11 +3719,11 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>12-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-12.60977430555556</v>
+        <v>-26.3512037037037</v>
       </c>
       <c r="S45" t="n">
         <v>2</v>
@@ -3764,41 +3731,41 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252298</v>
+        <v>252336</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D46" t="n">
-        <v>70.76666666666667</v>
+        <v>120.275</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-07-2025 14:38:04</t>
+          <t>08-07-2025 08:25:44</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>09-07-2025 14:59:04</t>
+          <t>08-07-2025 09:20:44</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09-07-2025 14:59:04</t>
+          <t>08-07-2025 09:20:44</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>10-07-2025 08:09:50</t>
+          <t>08-07-2025 11:21:00</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>8492</v>
+        <v>14433</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3807,14 +3774,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M46" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3824,53 +3791,53 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-17.34016782407408</v>
+        <v>-4.472922453703704</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252476</v>
+        <v>252713</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D47" t="n">
-        <v>72.34166666666667</v>
+        <v>907.7666666666667</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-07-2025 08:09:50</t>
+          <t>08-07-2025 11:21:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>10-07-2025 08:45:50</t>
+          <t>08-07-2025 12:06:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10-07-2025 08:45:50</t>
+          <t>08-07-2025 12:06:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>10-07-2025 09:58:11</t>
+          <t>10-07-2025 11:13:46</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>8681</v>
+        <v>108932</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3879,11 +3846,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
@@ -3896,53 +3863,53 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>18-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-3.415405092592593</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>252784</v>
+        <v>251632</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D48" t="n">
-        <v>26.975</v>
+        <v>588.5083333333333</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-07-2025 09:58:11</t>
+          <t>10-07-2025 11:13:46</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>10-07-2025 10:19:11</t>
+          <t>10-07-2025 12:23:46</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10-07-2025 10:19:11</t>
+          <t>10-07-2025 12:23:46</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>10-07-2025 10:46:09</t>
+          <t>11-07-2025 14:12:17</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3237</v>
+        <v>70621</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3951,75 +3918,70 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
       </c>
-      <c r="N48" t="n">
-        <v>40055</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>40055</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-1.448721064814815</v>
+        <v>-4.591863425925926</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>252713</v>
+        <v>252755</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>34.5</v>
+        <v>75</v>
       </c>
       <c r="D49" t="n">
-        <v>907.7666666666667</v>
+        <v>109.575</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>11-07-2025 14:12:17</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>08-07-2025 12:34:30</t>
+          <t>14-07-2025 07:27:17</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08-07-2025 12:34:30</t>
+          <t>14-07-2025 07:27:17</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>10-07-2025 11:42:16</t>
+          <t>14-07-2025 09:16:51</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>108932</v>
+        <v>13149</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4028,11 +3990,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4045,19 +4007,19 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>18-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>252364</v>
+        <v>252899</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4065,33 +4027,33 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
-        <v>116.4833333333333</v>
+        <v>180.5666666666667</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>14-07-2025 09:16:51</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:00</t>
+          <t>14-07-2025 09:46:51</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:00</t>
+          <t>14-07-2025 09:46:51</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>09-07-2025 07:06:29</t>
+          <t>14-07-2025 12:47:25</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>13978</v>
+        <v>21668</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4104,7 +4066,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4117,19 +4079,19 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-12.29616898148148</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251812</v>
+        <v>252790</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4137,33 +4099,33 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D51" t="n">
-        <v>33.875</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-07-2025 07:06:29</t>
+          <t>14-07-2025 12:47:25</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>09-07-2025 07:46:29</t>
+          <t>14-07-2025 13:22:25</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09-07-2025 07:46:29</t>
+          <t>14-07-2025 13:22:25</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>09-07-2025 08:20:21</t>
+          <t>14-07-2025 13:34:32</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>4065</v>
+        <v>1453</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4172,14 +4134,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M51" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -4189,19 +4151,19 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>25-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-16.34747106481482</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>252723</v>
+        <v>252467</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4212,30 +4174,30 @@
         <v>25</v>
       </c>
       <c r="D52" t="n">
-        <v>153.9583333333333</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-07-2025 08:20:21</t>
+          <t>14-07-2025 13:34:32</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>09-07-2025 08:45:21</t>
+          <t>14-07-2025 13:59:32</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>09-07-2025 08:45:21</t>
+          <t>14-07-2025 13:59:32</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>09-07-2025 11:19:19</t>
+          <t>15-07-2025 07:20:42</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>18475</v>
+        <v>9740</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4244,14 +4206,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M52" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4261,7 +4223,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
@@ -4273,41 +4235,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>243526</v>
+        <v>243335</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D53" t="n">
-        <v>66.61666666666666</v>
+        <v>275.0333333333334</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-07-2025 11:19:19</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>09-07-2025 11:44:19</t>
+          <t>08-07-2025 07:32:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>09-07-2025 11:44:19</t>
+          <t>08-07-2025 07:32:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>09-07-2025 12:50:56</t>
+          <t>08-07-2025 12:07:02</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>7994</v>
+        <v>33004</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4316,33 +4278,28 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
-      </c>
-      <c r="N53" t="n">
-        <v>40054</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>11-07-2025 00:00:00</t>
+          <t>02-08-2024 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-0.5353703703703704</v>
+        <v>-340.5048842592593</v>
       </c>
       <c r="S53" t="n">
         <v>1</v>
@@ -4350,41 +4307,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252785</v>
+        <v>251798</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D54" t="n">
-        <v>58.34166666666667</v>
+        <v>123.2916666666667</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-07-2025 12:50:56</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>09-07-2025 13:40:56</t>
+          <t>08-07-2025 07:35:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>09-07-2025 13:40:56</t>
+          <t>08-07-2025 07:35:00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>09-07-2025 14:39:16</t>
+          <t>08-07-2025 09:38:17</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>7001</v>
+        <v>14795</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4393,75 +4350,70 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>70</v>
-      </c>
-      <c r="N54" t="n">
-        <v>40055</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>40055</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-0.6106076388888889</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252277</v>
+        <v>252146</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D55" t="n">
-        <v>144.925</v>
+        <v>66.63333333333334</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-07-2025 14:39:16</t>
+          <t>08-07-2025 09:38:17</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>10-07-2025 07:19:16</t>
+          <t>08-07-2025 10:08:17</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10-07-2025 07:19:16</t>
+          <t>08-07-2025 10:08:17</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>10-07-2025 09:44:12</t>
+          <t>08-07-2025 11:14:55</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>17391</v>
+        <v>7996</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4470,33 +4422,28 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
         <v>3</v>
       </c>
       <c r="M55" t="n">
-        <v>70</v>
-      </c>
-      <c r="N55" t="n">
-        <v>40024</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>40024</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-20.40569444444445</v>
+        <v>-9.468697916666667</v>
       </c>
       <c r="S55" t="n">
         <v>7</v>
@@ -4504,41 +4451,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>252210</v>
+        <v>252087</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D56" t="n">
-        <v>29.2</v>
+        <v>35.5</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-07-2025 09:44:12</t>
+          <t>08-07-2025 11:14:55</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>10-07-2025 10:19:12</t>
+          <t>08-07-2025 11:54:55</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>10-07-2025 10:19:12</t>
+          <t>08-07-2025 11:54:55</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>10-07-2025 10:48:24</t>
+          <t>08-07-2025 12:30:25</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>3504</v>
+        <v>4260</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4547,14 +4494,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
         <v>3</v>
       </c>
       <c r="M56" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4564,53 +4511,53 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-14.45027777777778</v>
+        <v>-9.521128472222221</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>243523</v>
+        <v>252237</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D57" t="n">
-        <v>66.61666666666666</v>
+        <v>84.95</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>08-07-2025 12:30:25</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>08-07-2025 12:15:00</t>
+          <t>08-07-2025 13:05:25</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08-07-2025 12:15:00</t>
+          <t>08-07-2025 13:05:25</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>08-07-2025 13:21:37</t>
+          <t>08-07-2025 14:30:22</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>7994</v>
+        <v>10194</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4619,33 +4566,28 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>76</v>
-      </c>
-      <c r="N57" t="n">
-        <v>40054</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>11-07-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0</v>
+        <v>-7.604427083333333</v>
       </c>
       <c r="S57" t="n">
         <v>1</v>
@@ -4653,41 +4595,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>252209</v>
+        <v>244828</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D58" t="n">
-        <v>29.19166666666667</v>
+        <v>43.35833333333333</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>08-07-2025 13:21:37</t>
+          <t>08-07-2025 14:30:22</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>08-07-2025 13:36:37</t>
+          <t>08-07-2025 14:55:22</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>08-07-2025 13:36:37</t>
+          <t>08-07-2025 14:55:22</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>08-07-2025 14:05:48</t>
+          <t>09-07-2025 07:38:44</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3503</v>
+        <v>5203</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4696,14 +4638,14 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -4713,11 +4655,11 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-12.58736689814815</v>
+        <v>-2.318564814814815</v>
       </c>
       <c r="S58" t="n">
         <v>1</v>
@@ -4725,41 +4667,41 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>243527</v>
+        <v>241783</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D59" t="n">
-        <v>66.61666666666666</v>
+        <v>43.325</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>08-07-2025 14:05:48</t>
+          <t>09-07-2025 07:38:44</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>08-07-2025 14:20:48</t>
+          <t>09-07-2025 08:13:44</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>08-07-2025 14:20:48</t>
+          <t>09-07-2025 08:13:44</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>09-07-2025 07:27:25</t>
+          <t>09-07-2025 08:57:03</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>7994</v>
+        <v>5199</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4777,24 +4719,19 @@
       <c r="M59" t="n">
         <v>76</v>
       </c>
-      <c r="N59" t="n">
-        <v>40054</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>11-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-0.3107118055555556</v>
+        <v>0</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>
@@ -4802,41 +4739,41 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>243536</v>
+        <v>252999</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D60" t="n">
-        <v>66.61666666666666</v>
+        <v>325.8416666666666</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-07-2025 07:27:25</t>
+          <t>09-07-2025 08:57:03</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>09-07-2025 07:42:25</t>
+          <t>09-07-2025 09:32:03</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>09-07-2025 07:42:25</t>
+          <t>09-07-2025 09:32:03</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>09-07-2025 08:49:02</t>
+          <t>09-07-2025 14:57:54</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>7994</v>
+        <v>39101</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4845,75 +4782,70 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M60" t="n">
-        <v>76</v>
-      </c>
-      <c r="N60" t="n">
-        <v>40054</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>11-07-2025 00:00:00</t>
+          <t>06-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-0.3673900462962963</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251919</v>
+        <v>252638</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D61" t="n">
-        <v>140.05</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-07-2025 08:49:02</t>
+          <t>09-07-2025 14:57:54</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>09-07-2025 09:19:02</t>
+          <t>10-07-2025 07:37:54</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>09-07-2025 09:19:02</t>
+          <t>10-07-2025 07:37:54</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>09-07-2025 11:39:05</t>
+          <t>10-07-2025 08:39:23</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>16806</v>
+        <v>7379</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4922,14 +4854,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M61" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -4939,53 +4871,53 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>06-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-23.48548032407408</v>
+        <v>-4.360688657407407</v>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>252680</v>
+        <v>252549</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D62" t="n">
-        <v>254.7</v>
+        <v>92.59166666666667</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-07-2025 11:39:05</t>
+          <t>10-07-2025 08:39:23</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>09-07-2025 12:11:05</t>
+          <t>10-07-2025 09:14:23</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>09-07-2025 12:11:05</t>
+          <t>10-07-2025 09:14:23</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>10-07-2025 08:25:47</t>
+          <t>10-07-2025 10:46:59</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>30564</v>
+        <v>11111</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4994,14 +4926,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -5011,14 +4943,14 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>30-07-2025 00:00:00</t>
+          <t>20-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -5027,33 +4959,33 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D63" t="n">
         <v>1022.208333333333</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-07-2025 08:25:47</t>
+          <t>10-07-2025 10:46:59</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>10-07-2025 08:44:47</t>
+          <t>10-07-2025 11:21:59</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10-07-2025 08:44:47</t>
+          <t>10-07-2025 11:21:59</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>14-07-2025 09:47:00</t>
+          <t>14-07-2025 12:24:11</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5095,7 +5027,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252087</v>
+        <v>252470</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5103,33 +5035,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D64" t="n">
-        <v>35.5</v>
+        <v>62.5</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>14-07-2025 12:24:11</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>08-07-2025 12:30:00</t>
+          <t>14-07-2025 13:09:11</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08-07-2025 12:30:00</t>
+          <t>14-07-2025 13:09:11</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>08-07-2025 13:05:30</t>
+          <t>14-07-2025 14:11:41</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4260</v>
+        <v>7500</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5142,7 +5074,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5155,19 +5087,19 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-9.545486111111112</v>
+        <v>-10.5914525462963</v>
       </c>
       <c r="S64" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252378</v>
+        <v>252157</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5175,33 +5107,33 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D65" t="n">
-        <v>37.55833333333333</v>
+        <v>396.825</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-07-2025 13:05:30</t>
+          <t>14-07-2025 14:11:41</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>08-07-2025 13:45:30</t>
+          <t>15-07-2025 07:01:41</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>08-07-2025 13:45:30</t>
+          <t>15-07-2025 07:01:41</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>08-07-2025 14:23:03</t>
+          <t>15-07-2025 13:38:31</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>4507</v>
+        <v>47619</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5210,14 +5142,14 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M65" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -5227,19 +5159,19 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-4.599346064814815</v>
+        <v>-27.56841435185185</v>
       </c>
       <c r="S65" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>250284</v>
+        <v>251926</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5247,33 +5179,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D66" t="n">
-        <v>146.35</v>
+        <v>78.91666666666667</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>08-07-2025 14:23:03</t>
+          <t>15-07-2025 13:38:31</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>09-07-2025 07:08:03</t>
+          <t>15-07-2025 14:28:31</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>09-07-2025 07:08:03</t>
+          <t>15-07-2025 14:28:31</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>09-07-2025 09:34:24</t>
+          <t>16-07-2025 07:47:26</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>17562</v>
+        <v>9470</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5286,7 +5218,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5299,19 +5231,19 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-119.3988946759259</v>
+        <v>-7.324606481481482</v>
       </c>
       <c r="S66" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>252686</v>
+        <v>251495</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5319,33 +5251,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D67" t="n">
-        <v>329.15</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-07-2025 09:34:24</t>
+          <t>16-07-2025 07:47:26</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>09-07-2025 10:29:24</t>
+          <t>16-07-2025 08:17:26</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>09-07-2025 10:29:24</t>
+          <t>16-07-2025 08:17:26</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>10-07-2025 07:58:33</t>
+          <t>16-07-2025 09:29:46</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>39498</v>
+        <v>8681</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5354,14 +5286,14 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M67" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -5371,19 +5303,19 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
+        <v>-7.395677083333333</v>
       </c>
       <c r="S67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>252473</v>
+        <v>252334</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5391,33 +5323,33 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D68" t="n">
-        <v>189.8666666666667</v>
+        <v>486.5916666666666</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-07-2025 07:58:33</t>
+          <t>16-07-2025 09:29:46</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>10-07-2025 08:33:33</t>
+          <t>16-07-2025 10:14:46</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10-07-2025 08:33:33</t>
+          <t>16-07-2025 10:14:46</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>10-07-2025 11:43:25</t>
+          <t>17-07-2025 10:21:22</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>22784</v>
+        <v>58391</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5426,11 +5358,11 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
@@ -5443,11 +5375,11 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-9.488489583333333</v>
+        <v>-13.43150462962963</v>
       </c>
       <c r="S68" t="n">
         <v>2</v>
@@ -5455,7 +5387,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>250383</v>
+        <v>243529</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5466,30 +5398,30 @@
         <v>40</v>
       </c>
       <c r="D69" t="n">
-        <v>24.925</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-07-2025 12:40:00</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>08-07-2025 12:40:00</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>08-07-2025 13:04:55</t>
+          <t>08-07-2025 09:49:59</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2991</v>
+        <v>15598</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5502,7 +5434,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M69" t="n">
         <v>76</v>
@@ -5515,19 +5447,19 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>15-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-23.54508680555556</v>
+        <v>-4.409710648148148</v>
       </c>
       <c r="S69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>252783</v>
+        <v>252978</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5538,30 +5470,30 @@
         <v>35</v>
       </c>
       <c r="D70" t="n">
-        <v>11.95</v>
+        <v>23.3</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-07-2025 13:04:55</t>
+          <t>08-07-2025 09:49:59</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-07-2025 13:39:55</t>
+          <t>08-07-2025 10:24:59</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08-07-2025 13:39:55</t>
+          <t>08-07-2025 10:24:59</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>08-07-2025 13:51:52</t>
+          <t>08-07-2025 10:48:17</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1434</v>
+        <v>2796</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5570,41 +5502,36 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M70" t="n">
-        <v>70</v>
-      </c>
-      <c r="N70" t="n">
-        <v>40055</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>40055</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>0</v>
+        <v>-22.45019675925926</v>
       </c>
       <c r="S70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>252999</v>
+        <v>252201</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5612,33 +5539,33 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D71" t="n">
-        <v>325.8416666666666</v>
+        <v>34.10833333333333</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-07-2025 13:51:52</t>
+          <t>08-07-2025 10:48:17</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-07-2025 14:36:52</t>
+          <t>08-07-2025 11:23:17</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08-07-2025 14:36:52</t>
+          <t>08-07-2025 11:23:17</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>09-07-2025 12:02:43</t>
+          <t>08-07-2025 11:57:23</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>39101</v>
+        <v>4093</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5647,36 +5574,36 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
+        <v>3</v>
+      </c>
+      <c r="M71" t="n">
+        <v>76</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>20-06-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R71" s="1" t="n">
+        <v>-18.49818865740741</v>
+      </c>
+      <c r="S71" t="n">
         <v>2</v>
-      </c>
-      <c r="M71" t="n">
-        <v>70</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>06-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R71" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S71" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>252519</v>
+        <v>251790</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5687,30 +5614,30 @@
         <v>35</v>
       </c>
       <c r="D72" t="n">
-        <v>11.475</v>
+        <v>235.0583333333333</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-07-2025 12:02:43</t>
+          <t>08-07-2025 11:57:23</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>09-07-2025 12:37:43</t>
+          <t>08-07-2025 12:32:23</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>09-07-2025 12:37:43</t>
+          <t>08-07-2025 12:32:23</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>09-07-2025 12:49:11</t>
+          <t>09-07-2025 08:27:27</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1377</v>
+        <v>28207</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5736,85 +5663,13 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-5.53416087962963</v>
+        <v>-9.352395833333333</v>
       </c>
       <c r="S72" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>252245</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>35</v>
-      </c>
-      <c r="D73" t="n">
-        <v>489.7583333333333</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>09-07-2025 12:49:11</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>09-07-2025 13:24:11</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>09-07-2025 13:24:11</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>10-07-2025 13:33:57</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>58771</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>4</v>
-      </c>
-      <c r="M73" t="n">
-        <v>152</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>27-06-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R73" s="1" t="n">
-        <v>-13.56524305555556</v>
-      </c>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/output.xlsx
+++ b/PS-VRP/Dati_output/output.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251790</v>
+        <v>252085</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>235.0583333333333</v>
+        <v>28.55</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -562,21 +562,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>08-07-2025 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>08-07-2025 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-07-2025 11:12:03</t>
+          <t>08-07-2025 08:02:33</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>28207</v>
+        <v>3426</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -585,14 +585,14 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -602,53 +602,53 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-8.466707175925926</v>
+        <v>-20.33510416666667</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252686</v>
+        <v>252636</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>329.15</v>
+        <v>11.275</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 08:02:33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:44:00</t>
+          <t>08-07-2025 08:19:33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:44:00</t>
+          <t>08-07-2025 08:19:33</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-07-2025 13:13:09</t>
+          <t>08-07-2025 08:30:49</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>39498</v>
+        <v>1353</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -657,14 +657,14 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -674,53 +674,53 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>252071</v>
+        <v>252978</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>45.73333333333333</v>
+        <v>23.3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 08:30:49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>08-07-2025 09:04:49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>08-07-2025 09:04:49</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-07-2025 08:02:44</t>
+          <t>08-07-2025 09:28:07</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5488</v>
+        <v>2796</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -729,11 +729,11 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>76</v>
@@ -746,11 +746,11 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>12-06-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-26.33523148148148</v>
+        <v>-22.39453125</v>
       </c>
       <c r="S4" t="n">
         <v>2</v>
@@ -758,41 +758,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251919</v>
+        <v>252371</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>140.05</v>
+        <v>50.04166666666666</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>08-07-2025 08:02:44</t>
+          <t>08-07-2025 09:28:07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-07-2025 08:36:44</t>
+          <t>08-07-2025 09:45:07</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-07-2025 08:36:44</t>
+          <t>08-07-2025 09:45:07</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-07-2025 10:56:47</t>
+          <t>08-07-2025 10:35:10</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>16806</v>
+        <v>6005</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -818,11 +818,11 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-22.45609953703704</v>
+        <v>-8.441087962962962</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -830,41 +830,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252087</v>
+        <v>252546</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>35.5</v>
+        <v>54.63333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>08-07-2025 10:56:47</t>
+          <t>08-07-2025 10:35:10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-07-2025 11:30:47</t>
+          <t>08-07-2025 10:52:10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-07-2025 11:30:47</t>
+          <t>08-07-2025 10:52:10</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-07-2025 12:06:17</t>
+          <t>08-07-2025 11:46:48</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>4260</v>
+        <v>6556</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -873,14 +873,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -890,53 +890,53 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-9.504363425925925</v>
+        <v>-7.490833333333334</v>
       </c>
       <c r="S6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252636</v>
+        <v>252063</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>11.275</v>
+        <v>79.94166666666666</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:06:17</t>
+          <t>08-07-2025 11:46:48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:25:17</t>
+          <t>08-07-2025 12:01:48</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:25:17</t>
+          <t>08-07-2025 12:01:48</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:36:33</t>
+          <t>08-07-2025 13:21:44</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1353</v>
+        <v>9593</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,14 +945,14 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -962,53 +962,53 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-7.556765046296296</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252152</v>
+        <v>252244</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>27.36666666666667</v>
+        <v>107.575</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>08-07-2025 12:36:33</t>
+          <t>08-07-2025 13:21:44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>08-07-2025 13:08:33</t>
+          <t>08-07-2025 13:38:44</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>08-07-2025 13:08:33</t>
+          <t>08-07-2025 13:38:44</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>08-07-2025 13:35:55</t>
+          <t>09-07-2025 07:26:19</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3284</v>
+        <v>12909</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1034,53 +1034,53 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-18.56661458333333</v>
+        <v>-2.30994212962963</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252201</v>
+        <v>252298</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>34.10833333333333</v>
+        <v>70.76666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>08-07-2025 13:35:55</t>
+          <t>09-07-2025 07:26:19</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>08-07-2025 13:52:55</t>
+          <t>09-07-2025 07:45:19</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>08-07-2025 13:52:55</t>
+          <t>09-07-2025 07:45:19</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>08-07-2025 14:27:02</t>
+          <t>09-07-2025 08:56:05</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>4093</v>
+        <v>8492</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>76</v>
@@ -1106,53 +1106,53 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>23-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-18.60210648148148</v>
+        <v>-16.37228009259259</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252402</v>
+        <v>252230</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>25.075</v>
+        <v>63.125</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>08-07-2025 14:27:02</t>
+          <t>09-07-2025 08:56:05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>08-07-2025 14:46:02</t>
+          <t>09-07-2025 09:17:05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>08-07-2025 14:46:02</t>
+          <t>09-07-2025 09:17:05</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09-07-2025 07:11:06</t>
+          <t>09-07-2025 10:20:12</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>3009</v>
+        <v>7575</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>76</v>
@@ -1178,11 +1178,11 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>13-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-12.29938078703704</v>
+        <v>-26.43070023148148</v>
       </c>
       <c r="S10" t="n">
         <v>7</v>
@@ -1190,41 +1190,41 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>252298</v>
+        <v>243569</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>70.76666666666667</v>
+        <v>21.675</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09-07-2025 07:11:06</t>
+          <t>09-07-2025 10:20:12</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-07-2025 07:28:06</t>
+          <t>09-07-2025 10:39:12</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09-07-2025 07:28:06</t>
+          <t>09-07-2025 10:39:12</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>09-07-2025 08:38:52</t>
+          <t>09-07-2025 11:00:53</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>8492</v>
+        <v>2601</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1233,11 +1233,11 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>76</v>
@@ -1250,53 +1250,53 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-16.36032986111111</v>
+        <v>-296.4589467592593</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252085</v>
+        <v>252144</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>28.55</v>
+        <v>54.13333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09-07-2025 08:38:52</t>
+          <t>09-07-2025 11:00:53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09-07-2025 09:12:52</t>
+          <t>09-07-2025 11:19:53</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>09-07-2025 09:12:52</t>
+          <t>09-07-2025 11:19:53</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>09-07-2025 09:41:25</t>
+          <t>09-07-2025 12:14:01</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3426</v>
+        <v>6496</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1305,14 +1305,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1322,53 +1322,53 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-21.40376736111111</v>
+        <v>-10.5097337962963</v>
       </c>
       <c r="S12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251849</v>
+        <v>251790</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D13" t="n">
-        <v>33.38333333333333</v>
+        <v>235.0583333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09-07-2025 09:41:25</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09-07-2025 09:58:25</t>
+          <t>08-07-2025 07:44:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>09-07-2025 09:58:25</t>
+          <t>08-07-2025 07:44:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>09-07-2025 10:31:48</t>
+          <t>08-07-2025 11:39:03</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>4006</v>
+        <v>28207</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1377,77 +1377,70 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>40042 (esterno)</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>40042</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>25-06-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-14.43875578703704</v>
+        <v>-8.485457175925927</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252220</v>
+        <v>252814</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>80.51666666666667</v>
+        <v>50.08333333333334</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09-07-2025 10:31:48</t>
+          <t>08-07-2025 11:39:03</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09-07-2025 10:48:48</t>
+          <t>08-07-2025 12:06:03</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>09-07-2025 10:48:48</t>
+          <t>08-07-2025 12:06:03</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>09-07-2025 12:09:19</t>
+          <t>08-07-2025 12:56:08</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>9662</v>
+        <v>6010</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1456,14 +1449,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1473,53 +1466,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-23.50647569444444</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252999</v>
+        <v>251849</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D15" t="n">
-        <v>325.8416666666666</v>
+        <v>33.38333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09-07-2025 12:09:19</t>
+          <t>08-07-2025 12:56:08</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09-07-2025 12:28:19</t>
+          <t>08-07-2025 13:38:08</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>09-07-2025 12:28:19</t>
+          <t>08-07-2025 13:38:08</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10-07-2025 09:54:10</t>
+          <t>08-07-2025 14:11:31</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>39101</v>
+        <v>4006</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1528,70 +1521,77 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>40042 (esterno)</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>40042</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>06-08-2025 00:00:00</t>
+          <t>25-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-13.59133680555555</v>
       </c>
       <c r="S15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252456</v>
+        <v>252345</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>144.4583333333333</v>
+        <v>43.325</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-07-2025 09:54:10</t>
+          <t>08-07-2025 14:11:31</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10-07-2025 10:15:10</t>
+          <t>08-07-2025 14:40:31</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10-07-2025 10:15:10</t>
+          <t>08-07-2025 14:40:31</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>10-07-2025 12:39:37</t>
+          <t>09-07-2025 07:23:51</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>17335</v>
+        <v>5199</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1617,53 +1617,53 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.5275173611111111</v>
+        <v>-1.308229166666667</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>245623</v>
+        <v>252665</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
-        <v>220.1583333333333</v>
+        <v>48.875</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-07-2025 12:39:37</t>
+          <t>09-07-2025 07:23:51</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10-07-2025 13:15:37</t>
+          <t>09-07-2025 07:50:51</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10-07-2025 13:15:37</t>
+          <t>09-07-2025 07:50:51</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11-07-2025 08:55:47</t>
+          <t>09-07-2025 08:39:43</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>26419</v>
+        <v>5865</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1672,14 +1672,14 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
         <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1689,53 +1689,53 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-167.3720717592593</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>252157</v>
+        <v>251231</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>396.825</v>
+        <v>312.3083333333333</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-07-2025 08:55:47</t>
+          <t>09-07-2025 08:39:43</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>11-07-2025 09:39:47</t>
+          <t>09-07-2025 09:12:43</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11-07-2025 09:39:47</t>
+          <t>09-07-2025 09:12:43</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>14-07-2025 08:16:36</t>
+          <t>09-07-2025 14:25:02</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>47619</v>
+        <v>37477</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1744,70 +1744,77 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>40034 (esterno)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>40034</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>03-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-26.34486689814815</v>
+        <v>-6.600717592592592</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251926</v>
+        <v>252277</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D19" t="n">
-        <v>78.91666666666667</v>
+        <v>144.925</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>14-07-2025 08:16:36</t>
+          <t>09-07-2025 14:25:02</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>14-07-2025 08:41:36</t>
+          <t>09-07-2025 14:56:02</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>14-07-2025 08:41:36</t>
+          <t>09-07-2025 14:56:02</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>14-07-2025 10:00:31</t>
+          <t>10-07-2025 09:20:57</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>9470</v>
+        <v>17391</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1820,66 +1827,73 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>40024 (esterno)</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>40024</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-5.41703125</v>
+        <v>-20.38955439814815</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252790</v>
+        <v>252638</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
-        <v>12.10833333333333</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>14-07-2025 10:00:31</t>
+          <t>10-07-2025 09:20:57</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>14-07-2025 10:17:31</t>
+          <t>10-07-2025 09:49:57</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>14-07-2025 10:17:31</t>
+          <t>10-07-2025 09:49:57</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>14-07-2025 10:29:38</t>
+          <t>10-07-2025 10:51:27</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1453</v>
+        <v>7379</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1905,53 +1919,53 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>25-07-2025 00:00:00</t>
+          <t>06-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-4.452395833333333</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252755</v>
+        <v>252547</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D21" t="n">
-        <v>109.575</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14-07-2025 10:29:38</t>
+          <t>10-07-2025 10:51:27</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>14-07-2025 10:46:38</t>
+          <t>10-07-2025 11:24:27</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>14-07-2025 10:46:38</t>
+          <t>10-07-2025 11:24:27</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>14-07-2025 12:36:12</t>
+          <t>10-07-2025 12:45:37</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>13149</v>
+        <v>9740</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1964,7 +1978,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -1977,53 +1991,53 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
+        <v>-6.531678240740741</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>252476</v>
+        <v>252243</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>34.5</v>
+        <v>42</v>
       </c>
       <c r="D22" t="n">
-        <v>72.34166666666667</v>
+        <v>96.70833333333333</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>10-07-2025 12:45:37</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:30</t>
+          <t>10-07-2025 13:27:37</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:30</t>
+          <t>10-07-2025 13:27:37</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>08-07-2025 08:46:50</t>
+          <t>11-07-2025 07:04:19</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>8681</v>
+        <v>11605</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2032,14 +2046,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2049,53 +2063,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.365862268518518</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252364</v>
+        <v>252402</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>94.55</v>
+        <v>25.075</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>08-07-2025 08:46:50</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>08-07-2025 09:19:20</t>
+          <t>08-07-2025 07:17:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08-07-2025 09:19:20</t>
+          <t>08-07-2025 07:17:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>08-07-2025 10:53:53</t>
+          <t>08-07-2025 07:42:04</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>11346</v>
+        <v>3009</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2104,14 +2118,14 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2125,49 +2139,49 @@
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-11.45409143518519</v>
+        <v>-11.32088541666667</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>252784</v>
+        <v>252201</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>34.5</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>26.975</v>
+        <v>34.10833333333333</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>08-07-2025 10:53:53</t>
+          <t>08-07-2025 07:42:04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>08-07-2025 11:28:23</t>
+          <t>08-07-2025 08:01:04</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08-07-2025 11:28:23</t>
+          <t>08-07-2025 08:01:04</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08-07-2025 11:55:22</t>
+          <t>08-07-2025 08:35:11</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3237</v>
+        <v>4093</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2176,14 +2190,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2193,53 +2207,53 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0</v>
+        <v>-18.3577662037037</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>252547</v>
+        <v>243529</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32.5</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>81.16666666666667</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>08-07-2025 11:55:22</t>
+          <t>08-07-2025 08:35:11</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:27:52</t>
+          <t>08-07-2025 08:54:11</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:27:52</t>
+          <t>08-07-2025 08:54:11</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08-07-2025 13:49:02</t>
+          <t>08-07-2025 11:04:10</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>9740</v>
+        <v>15598</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2248,14 +2262,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2269,7 +2283,7 @@
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-4.575717592592593</v>
+        <v>-4.461226851851852</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -2277,41 +2291,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251632</v>
+        <v>251919</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>48.5</v>
+        <v>34</v>
       </c>
       <c r="D26" t="n">
-        <v>588.5083333333333</v>
+        <v>140.05</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>08-07-2025 13:49:02</t>
+          <t>08-07-2025 11:04:10</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>08-07-2025 14:37:32</t>
+          <t>08-07-2025 11:38:10</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08-07-2025 14:37:32</t>
+          <t>08-07-2025 11:38:10</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>10-07-2025 08:26:02</t>
+          <t>08-07-2025 13:58:13</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>70621</v>
+        <v>16806</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2320,14 +2334,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2337,53 +2351,53 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-3.351417824074074</v>
+        <v>-22.58209490740741</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252638</v>
+        <v>251685</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>48.5</v>
+        <v>36</v>
       </c>
       <c r="D27" t="n">
-        <v>61.49166666666667</v>
+        <v>98.75833333333334</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-07-2025 08:26:02</t>
+          <t>08-07-2025 13:58:13</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>10-07-2025 09:14:32</t>
+          <t>08-07-2025 14:34:13</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10-07-2025 09:14:32</t>
+          <t>08-07-2025 14:34:13</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>10-07-2025 10:16:02</t>
+          <t>09-07-2025 08:12:58</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>7379</v>
+        <v>11851</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2396,7 +2410,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
@@ -2409,53 +2423,53 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>06-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-4.427800925925926</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251685</v>
+        <v>252783</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>98.75833333333334</v>
+        <v>11.95</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-07-2025 10:16:02</t>
+          <t>09-07-2025 08:12:58</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>10-07-2025 10:48:32</t>
+          <t>09-07-2025 08:37:58</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10-07-2025 10:48:32</t>
+          <t>09-07-2025 08:37:58</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>10-07-2025 12:27:17</t>
+          <t>09-07-2025 08:49:55</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>11851</v>
+        <v>1434</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2481,7 +2495,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
@@ -2493,41 +2507,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251674</v>
+        <v>250284</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>46.5</v>
+        <v>19</v>
       </c>
       <c r="D29" t="n">
-        <v>147.125</v>
+        <v>146.35</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-07-2025 12:27:17</t>
+          <t>09-07-2025 08:49:55</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10-07-2025 13:13:47</t>
+          <t>09-07-2025 09:08:55</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10-07-2025 13:13:47</t>
+          <t>09-07-2025 09:08:55</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>11-07-2025 07:40:55</t>
+          <t>09-07-2025 11:35:16</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>17655</v>
+        <v>17562</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2536,11 +2550,11 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2553,53 +2567,53 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-4.320081018518518</v>
+        <v>-119.4828298611111</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>241783</v>
+        <v>244023</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D30" t="n">
-        <v>43.325</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 11:35:16</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 11:54:16</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 11:54:16</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>08-07-2025 08:23:19</t>
+          <t>09-07-2025 12:02:35</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>5199</v>
+        <v>997</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2608,14 +2622,14 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2625,11 +2639,11 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-282.5017939814815</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
@@ -2637,41 +2651,41 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252047</v>
+        <v>252476</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D31" t="n">
-        <v>70.88333333333334</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>08-07-2025 08:23:19</t>
+          <t>09-07-2025 12:02:35</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>08-07-2025 08:58:19</t>
+          <t>09-07-2025 12:23:35</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08-07-2025 08:58:19</t>
+          <t>09-07-2025 12:23:35</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>08-07-2025 10:09:12</t>
+          <t>09-07-2025 13:35:55</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>8506</v>
+        <v>8681</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2680,14 +2694,14 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
         <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2697,53 +2711,53 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-9.423061342592593</v>
+        <v>-2.566614583333333</v>
       </c>
       <c r="S31" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251798</v>
+        <v>252784</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D32" t="n">
-        <v>123.2916666666667</v>
+        <v>26.975</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>08-07-2025 10:09:12</t>
+          <t>09-07-2025 13:35:55</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>08-07-2025 10:39:12</t>
+          <t>09-07-2025 13:56:55</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08-07-2025 10:39:12</t>
+          <t>09-07-2025 13:56:55</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>08-07-2025 12:42:30</t>
+          <t>09-07-2025 14:23:54</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>14795</v>
+        <v>3237</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2752,14 +2766,14 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M32" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2769,53 +2783,53 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>252713</v>
+        <v>252347</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D33" t="n">
-        <v>907.7666666666667</v>
+        <v>92.28333333333333</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>08-07-2025 12:42:30</t>
+          <t>09-07-2025 14:23:54</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>08-07-2025 13:22:30</t>
+          <t>09-07-2025 14:46:54</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08-07-2025 13:22:30</t>
+          <t>09-07-2025 14:46:54</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>10-07-2025 12:30:16</t>
+          <t>10-07-2025 08:19:11</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>108932</v>
+        <v>11074</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2824,11 +2838,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2841,11 +2855,11 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>18-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>0</v>
+        <v>-2.346655092592592</v>
       </c>
       <c r="S33" t="n">
         <v>1</v>
@@ -2853,41 +2867,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>252652</v>
+        <v>245089</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" t="n">
-        <v>186.0083333333333</v>
+        <v>1022.208333333333</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-07-2025 12:30:16</t>
+          <t>10-07-2025 08:19:11</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>10-07-2025 13:05:16</t>
+          <t>10-07-2025 08:53:11</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10-07-2025 13:05:16</t>
+          <t>10-07-2025 08:53:11</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>11-07-2025 08:11:16</t>
+          <t>14-07-2025 09:55:23</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>22321</v>
+        <v>122665</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2896,14 +2910,14 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2913,7 +2927,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
@@ -2925,41 +2939,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252467</v>
+        <v>252456</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D35" t="n">
-        <v>81.16666666666667</v>
+        <v>144.4583333333333</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-07-2025 08:11:16</t>
+          <t>14-07-2025 09:55:23</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>11-07-2025 08:46:16</t>
+          <t>14-07-2025 10:27:23</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>11-07-2025 08:46:16</t>
+          <t>14-07-2025 10:27:23</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>11-07-2025 10:07:26</t>
+          <t>14-07-2025 12:51:51</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>9740</v>
+        <v>17335</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2985,53 +2999,53 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>0</v>
+        <v>-4.536006944444445</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>252336</v>
+        <v>251926</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D36" t="n">
-        <v>120.275</v>
+        <v>78.91666666666667</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-07-2025 10:07:26</t>
+          <t>14-07-2025 12:51:51</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>11-07-2025 10:32:26</t>
+          <t>14-07-2025 13:08:51</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>11-07-2025 10:32:26</t>
+          <t>14-07-2025 13:08:51</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>11-07-2025 12:32:43</t>
+          <t>14-07-2025 14:27:46</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>14433</v>
+        <v>9470</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3044,7 +3058,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3057,53 +3071,53 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-7.522719907407407</v>
+        <v>-5.602615740740741</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252785</v>
+        <v>252334</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D37" t="n">
-        <v>55.75</v>
+        <v>486.5916666666666</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-07-2025 12:32:43</t>
+          <t>14-07-2025 14:27:46</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>11-07-2025 13:02:43</t>
+          <t>14-07-2025 14:44:46</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>11-07-2025 13:02:43</t>
+          <t>14-07-2025 14:44:46</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>11-07-2025 13:58:28</t>
+          <t>15-07-2025 14:51:21</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>6690</v>
+        <v>58391</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3116,7 +3130,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3129,53 +3143,53 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>0</v>
+        <v>-11.61899884259259</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251495</v>
+        <v>252899</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D38" t="n">
-        <v>72.34166666666667</v>
+        <v>180.5666666666667</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-07-2025 13:58:28</t>
+          <t>15-07-2025 14:51:21</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>11-07-2025 14:28:28</t>
+          <t>16-07-2025 07:10:21</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>11-07-2025 14:28:28</t>
+          <t>16-07-2025 07:10:21</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>14-07-2025 07:40:48</t>
+          <t>16-07-2025 10:10:55</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>8681</v>
+        <v>21668</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3188,7 +3202,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3201,30 +3215,30 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-5.320005787037037</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252063</v>
+        <v>252652</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>19</v>
+        <v>34.5</v>
       </c>
       <c r="D39" t="n">
-        <v>79.94166666666666</v>
+        <v>186.0083333333333</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3233,21 +3247,21 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>08-07-2025 07:34:30</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>08-07-2025 07:34:30</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>08-07-2025 08:38:56</t>
+          <t>08-07-2025 10:40:30</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>9593</v>
+        <v>22321</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3256,14 +3270,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
         <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3273,11 +3287,11 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-7.360376157407408</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>1</v>
@@ -3285,41 +3299,41 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>252978</v>
+        <v>252790</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>23.3</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>08-07-2025 08:38:56</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>08-07-2025 08:57:56</t>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08-07-2025 08:57:56</t>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>08-07-2025 09:21:14</t>
+          <t>08-07-2025 07:42:06</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2796</v>
+        <v>1453</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3328,14 +3342,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3345,11 +3359,11 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>25-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-22.38975115740741</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>2</v>
@@ -3357,41 +3371,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>243525</v>
+        <v>251632</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D41" t="n">
-        <v>129.9833333333333</v>
+        <v>588.5083333333333</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>08-07-2025 09:21:14</t>
+          <t>08-07-2025 07:42:06</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>08-07-2025 09:40:14</t>
+          <t>08-07-2025 08:52:06</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08-07-2025 09:40:14</t>
+          <t>08-07-2025 08:52:06</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>08-07-2025 11:50:13</t>
+          <t>09-07-2025 10:40:37</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>15598</v>
+        <v>70621</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3400,14 +3414,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M41" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3417,53 +3431,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-4.493211805555555</v>
+        <v>-2.444872685185185</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>243524</v>
+        <v>251674</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>66.61666666666666</v>
+        <v>147.125</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>08-07-2025 11:50:13</t>
+          <t>09-07-2025 10:40:37</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>08-07-2025 12:05:13</t>
+          <t>09-07-2025 11:05:37</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08-07-2025 12:05:13</t>
+          <t>09-07-2025 11:05:37</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>08-07-2025 13:11:50</t>
+          <t>09-07-2025 13:32:44</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>7994</v>
+        <v>17655</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3472,14 +3486,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M42" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3489,53 +3503,53 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-4.549890046296296</v>
+        <v>-2.564403935185185</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252146</v>
+        <v>252157</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D43" t="n">
-        <v>66.63333333333334</v>
+        <v>396.825</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>08-07-2025 13:11:50</t>
+          <t>09-07-2025 13:32:44</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>08-07-2025 13:30:50</t>
+          <t>09-07-2025 14:22:44</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08-07-2025 13:30:50</t>
+          <t>09-07-2025 14:22:44</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>08-07-2025 14:37:28</t>
+          <t>10-07-2025 12:59:34</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>7996</v>
+        <v>47619</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3544,14 +3558,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M43" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3561,11 +3575,11 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-9.609357638888889</v>
+        <v>-22.54136574074074</v>
       </c>
       <c r="S43" t="n">
         <v>7</v>
@@ -3573,41 +3587,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>245089</v>
+        <v>252785</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D44" t="n">
-        <v>1022.208333333333</v>
+        <v>55.75</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>08-07-2025 14:37:28</t>
+          <t>10-07-2025 12:59:34</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>08-07-2025 14:54:28</t>
+          <t>10-07-2025 13:39:34</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08-07-2025 14:54:28</t>
+          <t>10-07-2025 13:39:34</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>11-07-2025 07:56:41</t>
+          <t>10-07-2025 14:35:19</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>122665</v>
+        <v>6690</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3616,14 +3630,14 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M44" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3633,7 +3647,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
@@ -3645,41 +3659,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>244023</v>
+        <v>252713</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
-        <v>8.308333333333334</v>
+        <v>907.7666666666667</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>10-07-2025 14:35:19</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>08-07-2025 07:45:00</t>
+          <t>11-07-2025 07:05:19</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08-07-2025 07:45:00</t>
+          <t>11-07-2025 07:05:19</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>08-07-2025 07:53:18</t>
+          <t>14-07-2025 14:13:05</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>997</v>
+        <v>108932</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3688,11 +3702,11 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
@@ -3705,11 +3719,11 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>18-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-281.3286863425926</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>1</v>
@@ -3717,41 +3731,41 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252230</v>
+        <v>252755</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
-        <v>63.125</v>
+        <v>109.575</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>08-07-2025 07:53:18</t>
+          <t>14-07-2025 14:13:05</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>08-07-2025 08:38:18</t>
+          <t>14-07-2025 14:43:05</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>08-07-2025 08:38:18</t>
+          <t>14-07-2025 14:43:05</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>08-07-2025 09:41:26</t>
+          <t>15-07-2025 08:32:39</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>7575</v>
+        <v>13149</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3760,14 +3774,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3777,53 +3791,53 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>13-06-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-25.40377314814815</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>243529</v>
+        <v>251495</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D47" t="n">
-        <v>129.9833333333333</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>08-07-2025 09:41:26</t>
+          <t>15-07-2025 08:32:39</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>08-07-2025 10:16:26</t>
+          <t>15-07-2025 09:02:39</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08-07-2025 10:16:26</t>
+          <t>15-07-2025 09:02:39</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>08-07-2025 12:26:25</t>
+          <t>15-07-2025 10:15:00</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>15598</v>
+        <v>8681</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3832,14 +3846,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M47" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3849,53 +3863,53 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-4.518344907407408</v>
+        <v>-6.427083333333333</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>252144</v>
+        <v>252470</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
-        <v>54.13333333333333</v>
+        <v>62.5</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>08-07-2025 12:26:25</t>
+          <t>15-07-2025 10:15:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>08-07-2025 13:01:25</t>
+          <t>15-07-2025 10:45:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08-07-2025 13:01:25</t>
+          <t>15-07-2025 10:45:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>08-07-2025 13:55:33</t>
+          <t>15-07-2025 11:47:30</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>6496</v>
+        <v>7500</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3904,14 +3918,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3921,53 +3935,53 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-9.580243055555556</v>
+        <v>-11.49131944444444</v>
       </c>
       <c r="S48" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>252783</v>
+        <v>252336</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
-        <v>11.95</v>
+        <v>120.275</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>08-07-2025 13:55:33</t>
+          <t>15-07-2025 11:47:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>08-07-2025 14:40:33</t>
+          <t>15-07-2025 12:17:30</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08-07-2025 14:40:33</t>
+          <t>15-07-2025 12:17:30</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>08-07-2025 14:52:30</t>
+          <t>15-07-2025 14:17:46</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1434</v>
+        <v>14433</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3980,7 +3994,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -3993,53 +4007,53 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0</v>
+        <v>-11.59567708333333</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>252814</v>
+        <v>252467</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D50" t="n">
-        <v>50.08333333333334</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>08-07-2025 14:52:30</t>
+          <t>15-07-2025 14:17:46</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>09-07-2025 07:32:30</t>
+          <t>15-07-2025 14:42:46</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09-07-2025 07:32:30</t>
+          <t>15-07-2025 14:42:46</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>09-07-2025 08:22:35</t>
+          <t>16-07-2025 08:03:56</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>6010</v>
+        <v>9740</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4048,14 +4062,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M50" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -4065,53 +4079,53 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251231</v>
+        <v>252152</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D51" t="n">
-        <v>312.3083333333333</v>
+        <v>27.36666666666667</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-07-2025 08:22:35</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>09-07-2025 09:02:35</t>
+          <t>08-07-2025 07:17:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09-07-2025 09:02:35</t>
+          <t>08-07-2025 07:17:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>09-07-2025 14:14:53</t>
+          <t>08-07-2025 07:44:22</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>37477</v>
+        <v>3284</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4120,77 +4134,70 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>70</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>40034 (esterno)</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>40034</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-6.593674768518518</v>
+        <v>-18.32247685185185</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>252549</v>
+        <v>243524</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>92.59166666666667</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-07-2025 14:14:53</t>
+          <t>08-07-2025 07:44:22</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>09-07-2025 14:54:53</t>
+          <t>08-07-2025 08:01:22</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>09-07-2025 14:54:53</t>
+          <t>08-07-2025 08:01:22</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>10-07-2025 08:27:29</t>
+          <t>08-07-2025 09:07:59</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>11111</v>
+        <v>7994</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4199,14 +4206,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
         <v>3</v>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4216,53 +4223,53 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>20-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0</v>
+        <v>-4.380543981481481</v>
       </c>
       <c r="S52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>252350</v>
+        <v>252237</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D53" t="n">
-        <v>51.88333333333333</v>
+        <v>84.95</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-07-2025 08:27:29</t>
+          <t>08-07-2025 09:07:59</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>10-07-2025 08:57:29</t>
+          <t>08-07-2025 09:39:59</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10-07-2025 08:57:29</t>
+          <t>08-07-2025 09:39:59</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>10-07-2025 09:49:22</t>
+          <t>08-07-2025 11:04:56</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>6226</v>
+        <v>10194</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4271,14 +4278,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4288,11 +4295,11 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-2.409282407407408</v>
+        <v>-7.461759259259259</v>
       </c>
       <c r="S53" t="n">
         <v>1</v>
@@ -4300,41 +4307,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252277</v>
+        <v>241783</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D54" t="n">
-        <v>144.925</v>
+        <v>43.325</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-07-2025 09:49:22</t>
+          <t>08-07-2025 11:04:56</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>10-07-2025 10:19:22</t>
+          <t>08-07-2025 11:36:56</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10-07-2025 10:19:22</t>
+          <t>08-07-2025 11:36:56</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>10-07-2025 12:44:17</t>
+          <t>08-07-2025 12:20:15</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>17391</v>
+        <v>5199</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4343,77 +4350,70 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
         <v>3</v>
       </c>
       <c r="M54" t="n">
-        <v>70</v>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>40024 (esterno)</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>40024</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-20.53075810185185</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252665</v>
+        <v>252207</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D55" t="n">
-        <v>48.875</v>
+        <v>51.55</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 12:20:15</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>08-07-2025 12:39:15</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>08-07-2025 12:39:15</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>08-07-2025 08:18:52</t>
+          <t>08-07-2025 13:30:48</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>5865</v>
+        <v>6186</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4422,14 +4422,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4439,53 +4439,53 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
+        <v>-12.56306134259259</v>
       </c>
       <c r="S55" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>244828</v>
+        <v>251798</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D56" t="n">
-        <v>43.35833333333333</v>
+        <v>123.2916666666667</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>08-07-2025 08:18:52</t>
+          <t>08-07-2025 13:30:48</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>08-07-2025 08:58:52</t>
+          <t>08-07-2025 13:47:48</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08-07-2025 08:58:52</t>
+          <t>08-07-2025 13:47:48</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>08-07-2025 09:42:14</t>
+          <t>09-07-2025 07:51:06</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>5203</v>
+        <v>14795</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4494,14 +4494,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4511,85 +4511,1165 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-1.404328703703704</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>252237</v>
+        <v>252071</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>17</v>
+      </c>
+      <c r="D57" t="n">
+        <v>45.73333333333333</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:51:06</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:08:06</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:08:06</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:53:50</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>5488</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>5</v>
+      </c>
+      <c r="M57" t="n">
+        <v>76</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>12-06-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R57" s="1" t="n">
+        <v>-27.37071759259259</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>252146</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>19</v>
+      </c>
+      <c r="D58" t="n">
+        <v>66.63333333333334</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:53:50</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:12:50</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:12:50</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>09-07-2025 10:19:28</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>7996</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>3</v>
+      </c>
+      <c r="M58" t="n">
+        <v>76</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>29-06-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R58" s="1" t="n">
+        <v>-10.43018518518518</v>
+      </c>
+      <c r="S58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>252997</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>32</v>
+      </c>
+      <c r="D59" t="n">
+        <v>40.01666666666667</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>09-07-2025 10:19:28</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>09-07-2025 10:51:28</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>09-07-2025 10:51:28</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>09-07-2025 11:31:29</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>4802</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>4</v>
+      </c>
+      <c r="M59" t="n">
+        <v>152</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>15-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>252686</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>17</v>
+      </c>
+      <c r="D60" t="n">
+        <v>329.15</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>09-07-2025 11:31:29</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>09-07-2025 11:48:29</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>09-07-2025 11:48:29</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>10-07-2025 09:17:38</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>39498</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>3</v>
+      </c>
+      <c r="M60" t="n">
+        <v>152</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>21-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>245623</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>17</v>
+      </c>
+      <c r="D61" t="n">
+        <v>220.1583333333333</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>10-07-2025 09:17:38</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>10-07-2025 09:34:38</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>10-07-2025 09:34:38</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>10-07-2025 13:14:47</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>26419</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>152</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>25-01-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R61" s="1" t="n">
+        <v>-166.5519386574074</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>243335</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>30</v>
+      </c>
+      <c r="D62" t="n">
+        <v>275.0333333333334</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:30:00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:30:00</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:05:02</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>33004</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>4</v>
+      </c>
+      <c r="M62" t="n">
+        <v>152</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>02-08-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="R62" s="1" t="n">
+        <v>-340.5034953703704</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>252350</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>40</v>
+      </c>
+      <c r="D63" t="n">
+        <v>51.88333333333333</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:05:02</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:45:02</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:45:02</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:36:55</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>6226</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>2</v>
+      </c>
+      <c r="M63" t="n">
+        <v>70</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>08-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R63" s="1" t="n">
+        <v>-0.5673032407407408</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>252087</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>30</v>
+      </c>
+      <c r="D64" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:36:55</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:06:55</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:06:55</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:42:25</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>4260</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>3</v>
+      </c>
+      <c r="M64" t="n">
+        <v>70</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>29-06-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R64" s="1" t="n">
+        <v>-9.612789351851852</v>
+      </c>
+      <c r="S64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>252220</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>30</v>
+      </c>
+      <c r="D65" t="n">
+        <v>80.51666666666667</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:42:25</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:12:25</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:12:25</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:32:56</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>9662</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>4</v>
+      </c>
+      <c r="M65" t="n">
+        <v>70</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>16-06-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R65" s="1" t="n">
+        <v>-23.3562037037037</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>252999</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>35</v>
+      </c>
+      <c r="D66" t="n">
+        <v>325.8416666666666</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:32:56</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:07:56</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>09-07-2025 09:07:56</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>09-07-2025 14:33:46</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>39101</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" t="n">
+        <v>70</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>06-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>252549</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>30</v>
+      </c>
+      <c r="D67" t="n">
+        <v>92.59166666666667</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>09-07-2025 14:33:46</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>10-07-2025 07:03:46</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>10-07-2025 07:03:46</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>10-07-2025 08:36:22</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>11111</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>3</v>
+      </c>
+      <c r="M67" t="n">
+        <v>70</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>20-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>244828</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>35</v>
+      </c>
+      <c r="D68" t="n">
+        <v>43.35833333333333</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>10-07-2025 08:36:22</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>10-07-2025 09:11:22</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>10-07-2025 09:11:22</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>10-07-2025 09:54:43</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>5203</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>4</v>
+      </c>
+      <c r="M68" t="n">
+        <v>100</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>07-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R68" s="1" t="n">
+        <v>-3.413003472222222</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>252047</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>25</v>
-      </c>
-      <c r="D57" t="n">
-        <v>84.95</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>08-07-2025 09:42:14</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>08-07-2025 10:07:14</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>08-07-2025 10:07:14</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>08-07-2025 11:32:11</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>10194</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
+      <c r="C69" t="n">
+        <v>40</v>
+      </c>
+      <c r="D69" t="n">
+        <v>70.88333333333334</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:40:00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:40:00</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:50:53</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>8506</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>3</v>
+      </c>
+      <c r="M69" t="n">
+        <v>76</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>29-06-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R69" s="1" t="n">
+        <v>-9.368668981481482</v>
+      </c>
+      <c r="S69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>243525</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>35</v>
+      </c>
+      <c r="D70" t="n">
+        <v>129.9833333333333</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>08-07-2025 08:50:53</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:25:53</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>08-07-2025 09:25:53</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>08-07-2025 11:35:52</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>15598</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>3</v>
+      </c>
+      <c r="M70" t="n">
+        <v>76</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>04-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R70" s="1" t="n">
+        <v>-4.483240740740741</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>252364</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>35</v>
+      </c>
+      <c r="D71" t="n">
+        <v>94.55</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>08-07-2025 11:35:52</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:10:52</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>08-07-2025 12:10:52</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:45:25</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>11346</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
         <v>4</v>
       </c>
-      <c r="M57" t="n">
-        <v>100</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>01-07-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R57" s="1" t="n">
-        <v>-7.48068287037037</v>
-      </c>
-      <c r="S57" t="n">
+      <c r="M71" t="n">
+        <v>70</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>27-06-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R71" s="1" t="n">
+        <v>-11.57320601851852</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>252723</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>35</v>
+      </c>
+      <c r="D72" t="n">
+        <v>153.9583333333333</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:45:25</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:20:25</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:20:25</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:54:22</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>18475</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>3</v>
+      </c>
+      <c r="M72" t="n">
+        <v>76</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>31-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/output.xlsx
+++ b/PS-VRP/Dati_output/output.xlsx
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252085</v>
+        <v>251790</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>28.55</v>
+        <v>235.0583333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -562,21 +562,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:00</t>
+          <t>08-07-2025 07:17:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:00</t>
+          <t>08-07-2025 07:17:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:02:33</t>
+          <t>08-07-2025 11:12:03</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>3426</v>
+        <v>28207</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -585,14 +585,14 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -602,19 +602,19 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-20.33510416666667</v>
+        <v>-8.466707175925926</v>
       </c>
       <c r="S2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252636</v>
+        <v>244023</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -622,33 +622,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>11.275</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:02:33</t>
+          <t>08-07-2025 11:12:03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:19:33</t>
+          <t>08-07-2025 11:48:03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:19:33</t>
+          <t>08-07-2025 11:48:03</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:30:49</t>
+          <t>08-07-2025 11:56:22</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1353</v>
+        <v>997</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
@@ -674,19 +674,19 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
+        <v>-281.4974768518518</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>252978</v>
+        <v>252298</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -694,33 +694,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>23.3</v>
+        <v>70.76666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08-07-2025 08:30:49</t>
+          <t>08-07-2025 11:56:22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-07-2025 09:04:49</t>
+          <t>08-07-2025 12:36:22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-07-2025 09:04:49</t>
+          <t>08-07-2025 12:36:22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-07-2025 09:28:07</t>
+          <t>08-07-2025 13:47:08</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2796</v>
+        <v>8492</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -729,11 +729,11 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>76</v>
@@ -746,19 +746,19 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>23-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-22.39453125</v>
+        <v>-15.57439814814815</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>252371</v>
+        <v>251849</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -766,33 +766,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>50.04166666666666</v>
+        <v>33.38333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>08-07-2025 09:28:07</t>
+          <t>08-07-2025 13:47:08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-07-2025 09:45:07</t>
+          <t>08-07-2025 14:19:08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-07-2025 09:45:07</t>
+          <t>08-07-2025 14:19:08</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-07-2025 10:35:10</t>
+          <t>08-07-2025 14:52:31</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6005</v>
+        <v>4006</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -801,36 +801,43 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>70</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>40042 (esterno)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>40042</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>25-06-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>-13.61980324074074</v>
+      </c>
+      <c r="S5" t="n">
         <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>76</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>30-06-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R5" s="1" t="n">
-        <v>-8.441087962962962</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252546</v>
+        <v>251231</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -841,30 +848,30 @@
         <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>54.63333333333333</v>
+        <v>312.3083333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>08-07-2025 10:35:10</t>
+          <t>08-07-2025 14:52:31</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-07-2025 10:52:10</t>
+          <t>09-07-2025 07:09:31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-07-2025 10:52:10</t>
+          <t>09-07-2025 07:09:31</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-07-2025 11:46:48</t>
+          <t>09-07-2025 12:21:49</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6556</v>
+        <v>37477</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -873,28 +880,35 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>40034 (esterno)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>40034</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>03-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-7.490833333333334</v>
+        <v>-6.51515625</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -902,7 +916,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252063</v>
+        <v>252085</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -910,33 +924,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>79.94166666666666</v>
+        <v>28.55</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>08-07-2025 11:46:48</t>
+          <t>09-07-2025 12:21:49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:01:48</t>
+          <t>09-07-2025 12:40:49</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:01:48</t>
+          <t>09-07-2025 12:40:49</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-07-2025 13:21:44</t>
+          <t>09-07-2025 13:09:22</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>9593</v>
+        <v>3426</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,14 +959,14 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -962,19 +976,19 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-7.556765046296296</v>
+        <v>-21.54817708333333</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252244</v>
+        <v>252665</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -982,33 +996,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>107.575</v>
+        <v>48.875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>08-07-2025 13:21:44</t>
+          <t>09-07-2025 13:09:22</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>08-07-2025 13:38:44</t>
+          <t>09-07-2025 13:28:22</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>08-07-2025 13:38:44</t>
+          <t>09-07-2025 13:28:22</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-07-2025 07:26:19</t>
+          <t>09-07-2025 14:17:15</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>12909</v>
+        <v>5865</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1017,14 +1031,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1034,19 +1048,19 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-2.30994212962963</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252298</v>
+        <v>252237</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1054,33 +1068,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
-        <v>70.76666666666667</v>
+        <v>84.95</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-07-2025 07:26:19</t>
+          <t>09-07-2025 14:17:15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-07-2025 07:45:19</t>
+          <t>09-07-2025 14:51:15</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09-07-2025 07:45:19</t>
+          <t>09-07-2025 14:51:15</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-07-2025 08:56:05</t>
+          <t>10-07-2025 08:16:12</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>8492</v>
+        <v>10194</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1089,14 +1103,14 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1106,19 +1120,19 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-16.37228009259259</v>
+        <v>-9.344583333333333</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252230</v>
+        <v>252087</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1126,33 +1140,33 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>63.125</v>
+        <v>35.5</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-07-2025 08:56:05</t>
+          <t>10-07-2025 08:16:12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-07-2025 09:17:05</t>
+          <t>10-07-2025 08:48:12</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09-07-2025 09:17:05</t>
+          <t>10-07-2025 08:48:12</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09-07-2025 10:20:12</t>
+          <t>10-07-2025 09:23:42</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>7575</v>
+        <v>4260</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1161,14 +1175,14 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1178,19 +1192,19 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>13-06-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-26.43070023148148</v>
+        <v>-11.39145833333333</v>
       </c>
       <c r="S10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>243569</v>
+        <v>250284</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1198,33 +1212,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>21.675</v>
+        <v>146.35</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09-07-2025 10:20:12</t>
+          <t>10-07-2025 09:23:42</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-07-2025 10:39:12</t>
+          <t>10-07-2025 09:48:42</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09-07-2025 10:39:12</t>
+          <t>10-07-2025 09:48:42</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>09-07-2025 11:00:53</t>
+          <t>10-07-2025 12:15:03</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2601</v>
+        <v>17562</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1233,14 +1247,14 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1250,19 +1264,19 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-296.4589467592593</v>
+        <v>-120.5104513888889</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252144</v>
+        <v>252783</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1273,30 +1287,30 @@
         <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>54.13333333333333</v>
+        <v>11.95</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09-07-2025 11:00:53</t>
+          <t>10-07-2025 12:15:03</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09-07-2025 11:19:53</t>
+          <t>10-07-2025 12:34:03</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>09-07-2025 11:19:53</t>
+          <t>10-07-2025 12:34:03</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>09-07-2025 12:14:01</t>
+          <t>10-07-2025 12:46:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>6496</v>
+        <v>1434</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1305,14 +1319,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1322,19 +1336,19 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-10.5097337962963</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251790</v>
+        <v>252999</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1342,10 +1356,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" t="n">
-        <v>235.0583333333333</v>
+        <v>325.8416666666666</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1354,21 +1368,21 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>08-07-2025 07:44:00</t>
+          <t>08-07-2025 07:42:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08-07-2025 07:44:00</t>
+          <t>08-07-2025 07:42:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>08-07-2025 11:39:03</t>
+          <t>08-07-2025 13:07:50</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>28207</v>
+        <v>39101</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1377,14 +1391,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1394,53 +1408,53 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>06-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-8.485457175925927</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252814</v>
+        <v>252230</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>50.08333333333334</v>
+        <v>63.125</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>08-07-2025 11:39:03</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>08-07-2025 12:06:03</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08-07-2025 12:06:03</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>08-07-2025 12:56:08</t>
+          <t>08-07-2025 08:24:07</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>6010</v>
+        <v>7575</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1453,7 +1467,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
@@ -1466,53 +1480,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>13-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-25.35008680555556</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251849</v>
+        <v>252063</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>33.38333333333333</v>
+        <v>79.94166666666666</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>08-07-2025 12:56:08</t>
+          <t>08-07-2025 08:24:07</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>08-07-2025 13:38:08</t>
+          <t>08-07-2025 08:43:07</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08-07-2025 13:38:08</t>
+          <t>08-07-2025 08:43:07</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08-07-2025 14:11:31</t>
+          <t>08-07-2025 10:03:04</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>4006</v>
+        <v>9593</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1521,77 +1535,70 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>40042 (esterno)</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>40042</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>25-06-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-13.59133680555555</v>
+        <v>-7.418796296296296</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252345</v>
+        <v>251798</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>43.325</v>
+        <v>123.2916666666667</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>08-07-2025 14:11:31</t>
+          <t>08-07-2025 10:03:04</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08-07-2025 14:40:31</t>
+          <t>08-07-2025 10:20:04</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08-07-2025 14:40:31</t>
+          <t>08-07-2025 10:20:04</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>09-07-2025 07:23:51</t>
+          <t>08-07-2025 12:23:21</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5199</v>
+        <v>14795</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1600,14 +1607,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1617,53 +1624,53 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.308229166666667</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>252665</v>
+        <v>243529</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>48.875</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09-07-2025 07:23:51</t>
+          <t>08-07-2025 12:23:21</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09-07-2025 07:50:51</t>
+          <t>08-07-2025 12:40:21</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>09-07-2025 07:50:51</t>
+          <t>08-07-2025 12:40:21</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>09-07-2025 08:39:43</t>
+          <t>08-07-2025 14:50:20</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5865</v>
+        <v>15598</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1672,14 +1679,14 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1689,53 +1696,53 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-4.618292824074074</v>
       </c>
       <c r="S17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251231</v>
+        <v>252636</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" t="n">
-        <v>312.3083333333333</v>
+        <v>11.275</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09-07-2025 08:39:43</t>
+          <t>08-07-2025 14:50:20</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09-07-2025 09:12:43</t>
+          <t>09-07-2025 07:24:20</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>09-07-2025 09:12:43</t>
+          <t>09-07-2025 07:24:20</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>09-07-2025 14:25:02</t>
+          <t>09-07-2025 07:35:37</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>37477</v>
+        <v>1353</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1744,77 +1751,70 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>40034 (esterno)</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O18" t="n">
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>40034</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-6.600717592592592</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252277</v>
+        <v>252364</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>144.925</v>
+        <v>94.55</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09-07-2025 14:25:02</t>
+          <t>09-07-2025 07:35:37</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-07-2025 14:56:02</t>
+          <t>09-07-2025 07:52:37</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09-07-2025 14:56:02</t>
+          <t>09-07-2025 07:52:37</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>10-07-2025 09:20:57</t>
+          <t>09-07-2025 09:27:10</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>17391</v>
+        <v>11346</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1827,73 +1827,66 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>40024 (esterno)</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>40024</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-20.38955439814815</v>
+        <v>-12.39386574074074</v>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252638</v>
+        <v>252243</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D20" t="n">
-        <v>61.49166666666667</v>
+        <v>96.70833333333333</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-07-2025 09:20:57</t>
+          <t>09-07-2025 09:27:10</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10-07-2025 09:49:57</t>
+          <t>09-07-2025 10:03:10</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10-07-2025 09:49:57</t>
+          <t>09-07-2025 10:03:10</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10-07-2025 10:51:27</t>
+          <t>09-07-2025 11:39:52</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>7379</v>
+        <v>11605</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1902,14 +1895,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1919,53 +1912,53 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>06-07-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-4.452395833333333</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252547</v>
+        <v>252784</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" t="n">
-        <v>81.16666666666667</v>
+        <v>26.975</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-07-2025 10:51:27</t>
+          <t>09-07-2025 11:39:52</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10-07-2025 11:24:27</t>
+          <t>09-07-2025 12:13:52</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10-07-2025 11:24:27</t>
+          <t>09-07-2025 12:13:52</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>10-07-2025 12:45:37</t>
+          <t>09-07-2025 12:40:51</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>9740</v>
+        <v>3237</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1978,7 +1971,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -1991,11 +1984,11 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-6.531678240740741</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2003,41 +1996,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>252243</v>
+        <v>241783</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D22" t="n">
-        <v>96.70833333333333</v>
+        <v>43.325</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-07-2025 12:45:37</t>
+          <t>09-07-2025 12:40:51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10-07-2025 13:27:37</t>
+          <t>09-07-2025 13:16:51</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10-07-2025 13:27:37</t>
+          <t>09-07-2025 13:16:51</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>11-07-2025 07:04:19</t>
+          <t>09-07-2025 14:00:10</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>11605</v>
+        <v>5199</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2050,7 +2043,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
         <v>76</v>
@@ -2063,7 +2056,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
@@ -2075,7 +2068,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252402</v>
+        <v>252277</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2083,33 +2076,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D23" t="n">
-        <v>25.075</v>
+        <v>144.925</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 14:00:10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>09-07-2025 14:34:10</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>09-07-2025 14:34:10</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>08-07-2025 07:42:04</t>
+          <t>10-07-2025 08:59:06</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3009</v>
+        <v>17391</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2118,28 +2111,35 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>40024 (esterno)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>40024</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-11.32088541666667</v>
+        <v>-20.374375</v>
       </c>
       <c r="S23" t="n">
         <v>7</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>252201</v>
+        <v>252547</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2158,30 +2158,30 @@
         <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>34.10833333333333</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>08-07-2025 07:42:04</t>
+          <t>10-07-2025 08:59:06</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>08-07-2025 08:01:04</t>
+          <t>10-07-2025 09:18:06</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08-07-2025 08:01:04</t>
+          <t>10-07-2025 09:18:06</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08-07-2025 08:35:11</t>
+          <t>10-07-2025 10:39:16</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>4093</v>
+        <v>9740</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2190,14 +2190,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-18.3577662037037</v>
+        <v>-6.443935185185185</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>243529</v>
+        <v>252201</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2227,33 +2227,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D25" t="n">
-        <v>129.9833333333333</v>
+        <v>34.10833333333333</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>08-07-2025 08:35:11</t>
+          <t>10-07-2025 10:39:16</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>08-07-2025 08:54:11</t>
+          <t>10-07-2025 11:13:16</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08-07-2025 08:54:11</t>
+          <t>10-07-2025 11:13:16</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08-07-2025 11:04:10</t>
+          <t>10-07-2025 11:47:22</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>15598</v>
+        <v>4093</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2279,19 +2279,19 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-4.461226851851852</v>
+        <v>-20.49123263888889</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251919</v>
+        <v>252402</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2299,33 +2299,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>140.05</v>
+        <v>25.075</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>08-07-2025 11:04:10</t>
+          <t>10-07-2025 11:47:22</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>08-07-2025 11:38:10</t>
+          <t>10-07-2025 12:06:22</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08-07-2025 11:38:10</t>
+          <t>10-07-2025 12:06:22</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08-07-2025 13:58:13</t>
+          <t>10-07-2025 12:31:27</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>16806</v>
+        <v>3009</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2334,14 +2334,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2351,19 +2351,19 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-22.58209490740741</v>
+        <v>-13.52184027777778</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251685</v>
+        <v>252152</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2371,33 +2371,33 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>98.75833333333334</v>
+        <v>27.36666666666667</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>08-07-2025 13:58:13</t>
+          <t>10-07-2025 12:31:27</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>08-07-2025 14:34:13</t>
+          <t>10-07-2025 12:48:27</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08-07-2025 14:34:13</t>
+          <t>10-07-2025 12:48:27</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>09-07-2025 08:12:58</t>
+          <t>10-07-2025 13:15:49</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>11851</v>
+        <v>3284</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2406,14 +2406,14 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2423,19 +2423,19 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-20.55265046296296</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>252783</v>
+        <v>252723</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2443,33 +2443,33 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>11.95</v>
+        <v>153.9583333333333</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09-07-2025 08:12:58</t>
+          <t>10-07-2025 13:15:49</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-07-2025 08:37:58</t>
+          <t>10-07-2025 13:32:49</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09-07-2025 08:37:58</t>
+          <t>10-07-2025 13:32:49</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>09-07-2025 08:49:55</t>
+          <t>11-07-2025 08:06:46</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1434</v>
+        <v>18475</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2478,14 +2478,14 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>31-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
@@ -2507,41 +2507,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>250284</v>
+        <v>252347</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>19</v>
+        <v>32.5</v>
       </c>
       <c r="D29" t="n">
-        <v>146.35</v>
+        <v>92.28333333333333</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09-07-2025 08:49:55</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-07-2025 09:08:55</t>
+          <t>08-07-2025 07:32:30</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09-07-2025 09:08:55</t>
+          <t>08-07-2025 07:32:30</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>09-07-2025 11:35:16</t>
+          <t>08-07-2025 09:04:47</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>17562</v>
+        <v>11074</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2550,11 +2550,11 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2567,53 +2567,53 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-119.4828298611111</v>
+        <v>-0.3783217592592593</v>
       </c>
       <c r="S29" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>244023</v>
+        <v>252345</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>32.5</v>
       </c>
       <c r="D30" t="n">
-        <v>8.308333333333334</v>
+        <v>43.325</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09-07-2025 11:35:16</t>
+          <t>08-07-2025 09:04:47</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-07-2025 11:54:16</t>
+          <t>08-07-2025 09:37:17</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09-07-2025 11:54:16</t>
+          <t>08-07-2025 09:37:17</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>09-07-2025 12:02:35</t>
+          <t>08-07-2025 10:20:36</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>997</v>
+        <v>5199</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2639,11 +2639,11 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-282.5017939814815</v>
+        <v>-0.4309780092592593</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
@@ -2651,41 +2651,41 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252476</v>
+        <v>251674</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>21</v>
+        <v>52.5</v>
       </c>
       <c r="D31" t="n">
-        <v>72.34166666666667</v>
+        <v>147.125</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09-07-2025 12:02:35</t>
+          <t>08-07-2025 10:20:36</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-07-2025 12:23:35</t>
+          <t>08-07-2025 11:13:06</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09-07-2025 12:23:35</t>
+          <t>08-07-2025 11:13:06</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09-07-2025 13:35:55</t>
+          <t>08-07-2025 13:40:14</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>8681</v>
+        <v>17655</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2694,11 +2694,11 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2715,7 +2715,7 @@
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-2.566614583333333</v>
+        <v>-1.569606481481481</v>
       </c>
       <c r="S31" t="n">
         <v>4</v>
@@ -2723,41 +2723,41 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>252784</v>
+        <v>252476</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>21</v>
+        <v>52.5</v>
       </c>
       <c r="D32" t="n">
-        <v>26.975</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09-07-2025 13:35:55</t>
+          <t>08-07-2025 13:40:14</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09-07-2025 13:56:55</t>
+          <t>08-07-2025 14:32:44</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>09-07-2025 13:56:55</t>
+          <t>08-07-2025 14:32:44</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>09-07-2025 14:23:54</t>
+          <t>09-07-2025 07:45:04</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>3237</v>
+        <v>8681</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2783,53 +2783,53 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0</v>
+        <v>-2.32296875</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>252347</v>
+        <v>252220</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>23</v>
+        <v>32.5</v>
       </c>
       <c r="D33" t="n">
-        <v>92.28333333333333</v>
+        <v>80.51666666666667</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09-07-2025 14:23:54</t>
+          <t>09-07-2025 07:45:04</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09-07-2025 14:46:54</t>
+          <t>09-07-2025 08:17:34</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>09-07-2025 14:46:54</t>
+          <t>09-07-2025 08:17:34</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>10-07-2025 08:19:11</t>
+          <t>09-07-2025 09:38:05</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>11074</v>
+        <v>9662</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2838,11 +2838,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2855,53 +2855,53 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-2.346655092592592</v>
+        <v>-23.4014525462963</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>245089</v>
+        <v>251685</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="D34" t="n">
-        <v>1022.208333333333</v>
+        <v>98.75833333333334</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-07-2025 08:19:11</t>
+          <t>09-07-2025 09:38:05</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>10-07-2025 08:53:11</t>
+          <t>09-07-2025 10:12:35</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10-07-2025 08:53:11</t>
+          <t>09-07-2025 10:12:35</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>14-07-2025 09:55:23</t>
+          <t>09-07-2025 11:51:21</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>122665</v>
+        <v>11851</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2910,14 +2910,14 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M34" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
@@ -2939,41 +2939,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252456</v>
+        <v>252652</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>32</v>
+        <v>36.5</v>
       </c>
       <c r="D35" t="n">
-        <v>144.4583333333333</v>
+        <v>186.0083333333333</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>14-07-2025 09:55:23</t>
+          <t>09-07-2025 11:51:21</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>14-07-2025 10:27:23</t>
+          <t>09-07-2025 12:27:51</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>14-07-2025 10:27:23</t>
+          <t>09-07-2025 12:27:51</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>14-07-2025 12:51:51</t>
+          <t>10-07-2025 07:33:51</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>17335</v>
+        <v>22321</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -2999,53 +2999,53 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-4.536006944444445</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251926</v>
+        <v>252549</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>17</v>
+        <v>34.5</v>
       </c>
       <c r="D36" t="n">
-        <v>78.91666666666667</v>
+        <v>92.59166666666667</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>14-07-2025 12:51:51</t>
+          <t>10-07-2025 07:33:51</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>14-07-2025 13:08:51</t>
+          <t>10-07-2025 08:08:21</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>14-07-2025 13:08:51</t>
+          <t>10-07-2025 08:08:21</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>14-07-2025 14:27:46</t>
+          <t>10-07-2025 09:40:57</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>9470</v>
+        <v>11111</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3071,11 +3071,11 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>20-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-5.602615740740741</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>4</v>
@@ -3083,41 +3083,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252334</v>
+        <v>252350</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D37" t="n">
-        <v>486.5916666666666</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>14-07-2025 14:27:46</t>
+          <t>10-07-2025 09:40:57</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>14-07-2025 14:44:46</t>
+          <t>10-07-2025 10:13:27</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>14-07-2025 14:44:46</t>
+          <t>10-07-2025 10:13:27</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>15-07-2025 14:51:21</t>
+          <t>10-07-2025 11:05:20</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>58391</v>
+        <v>6226</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3126,11 +3126,11 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3143,53 +3143,53 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-11.61899884259259</v>
+        <v>-2.462037037037037</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252899</v>
+        <v>252638</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>19</v>
+        <v>36.5</v>
       </c>
       <c r="D38" t="n">
-        <v>180.5666666666667</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>15-07-2025 14:51:21</t>
+          <t>10-07-2025 11:05:20</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>16-07-2025 07:10:21</t>
+          <t>10-07-2025 11:41:50</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>16-07-2025 07:10:21</t>
+          <t>10-07-2025 11:41:50</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>16-07-2025 10:10:55</t>
+          <t>10-07-2025 12:43:19</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>21668</v>
+        <v>7379</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3215,30 +3215,30 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>06-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0</v>
+        <v>-4.530086805555555</v>
       </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252652</v>
+        <v>251632</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>34.5</v>
+        <v>75</v>
       </c>
       <c r="D39" t="n">
-        <v>186.0083333333333</v>
+        <v>588.5083333333333</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3247,21 +3247,21 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:30</t>
+          <t>08-07-2025 08:15:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:30</t>
+          <t>08-07-2025 08:15:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>08-07-2025 10:40:30</t>
+          <t>09-07-2025 10:03:30</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>22321</v>
+        <v>70621</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3270,11 +3270,11 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3287,30 +3287,30 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>0</v>
+        <v>-2.419103009259259</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>252790</v>
+        <v>243569</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D40" t="n">
-        <v>12.10833333333333</v>
+        <v>21.675</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -3319,21 +3319,21 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>08-07-2025 07:42:06</t>
+          <t>08-07-2025 07:40:40</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1453</v>
+        <v>2601</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3342,14 +3342,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3359,11 +3359,11 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>25-07-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
+        <v>-295.3199131944444</v>
       </c>
       <c r="S40" t="n">
         <v>2</v>
@@ -3371,41 +3371,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251632</v>
+        <v>252371</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="D41" t="n">
-        <v>588.5083333333333</v>
+        <v>50.04166666666666</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>08-07-2025 07:42:06</t>
+          <t>08-07-2025 07:40:40</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>08-07-2025 08:52:06</t>
+          <t>08-07-2025 07:57:40</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08-07-2025 08:52:06</t>
+          <t>08-07-2025 07:57:40</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>09-07-2025 10:40:37</t>
+          <t>08-07-2025 08:47:43</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>70621</v>
+        <v>6005</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3414,14 +3414,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3431,53 +3431,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-2.444872685185185</v>
+        <v>-8.366469907407408</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251674</v>
+        <v>252071</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D42" t="n">
-        <v>147.125</v>
+        <v>45.73333333333333</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09-07-2025 10:40:37</t>
+          <t>08-07-2025 08:47:43</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>09-07-2025 11:05:37</t>
+          <t>08-07-2025 09:04:43</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09-07-2025 11:05:37</t>
+          <t>08-07-2025 09:04:43</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>09-07-2025 13:32:44</t>
+          <t>08-07-2025 09:50:27</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>17655</v>
+        <v>5488</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3486,14 +3486,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3503,53 +3503,53 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>12-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-2.564403935185185</v>
+        <v>-26.41003472222222</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252157</v>
+        <v>243525</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D43" t="n">
-        <v>396.825</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-07-2025 13:32:44</t>
+          <t>08-07-2025 09:50:27</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09-07-2025 14:22:44</t>
+          <t>08-07-2025 10:09:27</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09-07-2025 14:22:44</t>
+          <t>08-07-2025 10:09:27</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>10-07-2025 12:59:34</t>
+          <t>08-07-2025 12:19:26</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>47619</v>
+        <v>15598</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3558,14 +3558,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3575,53 +3575,53 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-22.54136574074074</v>
+        <v>-4.513495370370371</v>
       </c>
       <c r="S43" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>252785</v>
+        <v>251919</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D44" t="n">
-        <v>55.75</v>
+        <v>140.05</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-07-2025 12:59:34</t>
+          <t>08-07-2025 12:19:26</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>10-07-2025 13:39:34</t>
+          <t>08-07-2025 12:53:26</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10-07-2025 13:39:34</t>
+          <t>08-07-2025 12:53:26</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>10-07-2025 14:35:19</t>
+          <t>09-07-2025 07:13:29</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>6690</v>
+        <v>16806</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3630,14 +3630,14 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3647,11 +3647,11 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
+        <v>-23.30103009259259</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -3659,41 +3659,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252713</v>
+        <v>245623</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D45" t="n">
-        <v>907.7666666666667</v>
+        <v>220.1583333333333</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-07-2025 14:35:19</t>
+          <t>09-07-2025 07:13:29</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>11-07-2025 07:05:19</t>
+          <t>09-07-2025 07:30:29</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>11-07-2025 07:05:19</t>
+          <t>09-07-2025 07:30:29</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>14-07-2025 14:13:05</t>
+          <t>09-07-2025 11:10:38</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>108932</v>
+        <v>26419</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3702,14 +3702,14 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3719,53 +3719,53 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>18-07-2025 00:00:00</t>
+          <t>25-01-2025 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0</v>
+        <v>-165.4657233796296</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252755</v>
+        <v>252997</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D46" t="n">
-        <v>109.575</v>
+        <v>40.01666666666667</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>14-07-2025 14:13:05</t>
+          <t>09-07-2025 11:10:38</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>14-07-2025 14:43:05</t>
+          <t>09-07-2025 11:29:38</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>14-07-2025 14:43:05</t>
+          <t>09-07-2025 11:29:38</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>15-07-2025 08:32:39</t>
+          <t>09-07-2025 12:09:39</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>13149</v>
+        <v>4802</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3774,14 +3774,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
         <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3791,53 +3791,53 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251495</v>
+        <v>252686</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D47" t="n">
-        <v>72.34166666666667</v>
+        <v>329.15</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15-07-2025 08:32:39</t>
+          <t>09-07-2025 12:09:39</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>15-07-2025 09:02:39</t>
+          <t>09-07-2025 12:26:39</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15-07-2025 09:02:39</t>
+          <t>09-07-2025 12:26:39</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>15-07-2025 10:15:00</t>
+          <t>10-07-2025 09:55:48</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>8681</v>
+        <v>39498</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3846,14 +3846,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3863,53 +3863,53 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>21-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-6.427083333333333</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>252470</v>
+        <v>243335</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>30</v>
       </c>
       <c r="D48" t="n">
-        <v>62.5</v>
+        <v>275.0333333333334</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>15-07-2025 10:15:00</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>15-07-2025 10:45:00</t>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>15-07-2025 10:45:00</t>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>15-07-2025 11:47:30</t>
+          <t>08-07-2025 12:05:02</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>7500</v>
+        <v>33004</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3918,14 +3918,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
         <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3935,53 +3935,53 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>02-08-2024 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-11.49131944444444</v>
+        <v>-340.5034953703704</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>252336</v>
+        <v>252978</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D49" t="n">
-        <v>120.275</v>
+        <v>23.3</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>15-07-2025 11:47:30</t>
+          <t>08-07-2025 12:05:02</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>15-07-2025 12:17:30</t>
+          <t>08-07-2025 12:40:02</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>15-07-2025 12:17:30</t>
+          <t>08-07-2025 12:40:02</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>15-07-2025 14:17:46</t>
+          <t>08-07-2025 13:03:20</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>14433</v>
+        <v>2796</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3990,14 +3990,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M49" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4007,11 +4007,11 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-11.59567708333333</v>
+        <v>-22.54398148148148</v>
       </c>
       <c r="S49" t="n">
         <v>2</v>
@@ -4019,41 +4019,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>252467</v>
+        <v>252144</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D50" t="n">
-        <v>81.16666666666667</v>
+        <v>54.13333333333333</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15-07-2025 14:17:46</t>
+          <t>08-07-2025 13:03:20</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>15-07-2025 14:42:46</t>
+          <t>08-07-2025 13:38:20</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15-07-2025 14:42:46</t>
+          <t>08-07-2025 13:38:20</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>16-07-2025 08:03:56</t>
+          <t>08-07-2025 14:32:28</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>9740</v>
+        <v>6496</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4062,14 +4062,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -4079,53 +4079,53 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-9.60587962962963</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>252152</v>
+        <v>252814</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D51" t="n">
-        <v>27.36666666666667</v>
+        <v>50.08333333333334</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 14:32:28</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>09-07-2025 07:02:28</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>09-07-2025 07:02:28</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>08-07-2025 07:44:22</t>
+          <t>09-07-2025 07:52:33</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3284</v>
+        <v>6010</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4151,53 +4151,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-18.32247685185185</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>243524</v>
+        <v>252047</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
-        <v>66.61666666666666</v>
+        <v>70.88333333333334</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>08-07-2025 07:44:22</t>
+          <t>09-07-2025 07:52:33</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>08-07-2025 08:01:22</t>
+          <t>09-07-2025 08:22:33</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08-07-2025 08:01:22</t>
+          <t>09-07-2025 08:22:33</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>08-07-2025 09:07:59</t>
+          <t>09-07-2025 09:33:26</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>7994</v>
+        <v>8506</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4223,53 +4223,53 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-4.380543981481481</v>
+        <v>-10.39821759259259</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>252237</v>
+        <v>244828</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D53" t="n">
-        <v>84.95</v>
+        <v>43.35833333333333</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>08-07-2025 09:07:59</t>
+          <t>09-07-2025 09:33:26</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>08-07-2025 09:39:59</t>
+          <t>09-07-2025 10:08:26</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08-07-2025 09:39:59</t>
+          <t>09-07-2025 10:08:26</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>08-07-2025 11:04:56</t>
+          <t>09-07-2025 10:51:47</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>10194</v>
+        <v>5203</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4295,11 +4295,11 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-7.461759259259259</v>
+        <v>-2.452633101851852</v>
       </c>
       <c r="S53" t="n">
         <v>1</v>
@@ -4307,41 +4307,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>241783</v>
+        <v>252713</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D54" t="n">
-        <v>43.325</v>
+        <v>907.7666666666667</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>08-07-2025 11:04:56</t>
+          <t>09-07-2025 10:51:47</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>08-07-2025 11:36:56</t>
+          <t>09-07-2025 11:26:47</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08-07-2025 11:36:56</t>
+          <t>09-07-2025 11:26:47</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>08-07-2025 12:20:15</t>
+          <t>11-07-2025 10:34:33</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>5199</v>
+        <v>108932</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4350,14 +4350,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M54" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>18-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
@@ -4379,41 +4379,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252207</v>
+        <v>252157</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D55" t="n">
-        <v>51.55</v>
+        <v>396.825</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>08-07-2025 12:20:15</t>
+          <t>11-07-2025 10:34:33</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>08-07-2025 12:39:15</t>
+          <t>11-07-2025 11:19:33</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08-07-2025 12:39:15</t>
+          <t>11-07-2025 11:19:33</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>08-07-2025 13:30:48</t>
+          <t>14-07-2025 09:56:23</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>6186</v>
+        <v>47619</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4422,14 +4422,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M55" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4439,53 +4439,53 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-12.56306134259259</v>
+        <v>-26.41415509259259</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251798</v>
+        <v>252334</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D56" t="n">
-        <v>123.2916666666667</v>
+        <v>486.5916666666666</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>08-07-2025 13:30:48</t>
+          <t>14-07-2025 09:56:23</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>08-07-2025 13:47:48</t>
+          <t>14-07-2025 10:41:23</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08-07-2025 13:47:48</t>
+          <t>14-07-2025 10:41:23</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>09-07-2025 07:51:06</t>
+          <t>15-07-2025 10:47:58</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>14795</v>
+        <v>58391</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4494,14 +4494,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M56" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4511,11 +4511,11 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
+        <v>-11.44998263888889</v>
       </c>
       <c r="S56" t="n">
         <v>2</v>
@@ -4523,41 +4523,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>252071</v>
+        <v>252899</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D57" t="n">
-        <v>45.73333333333333</v>
+        <v>180.5666666666667</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-07-2025 07:51:06</t>
+          <t>15-07-2025 10:47:58</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>09-07-2025 08:08:06</t>
+          <t>15-07-2025 11:22:58</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>09-07-2025 08:08:06</t>
+          <t>15-07-2025 11:22:58</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>09-07-2025 08:53:50</t>
+          <t>15-07-2025 14:23:32</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>5488</v>
+        <v>21668</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4566,14 +4566,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4583,11 +4583,11 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>12-06-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-27.37071759259259</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
         <v>2</v>
@@ -4595,41 +4595,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>252146</v>
+        <v>252207</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D58" t="n">
-        <v>66.63333333333334</v>
+        <v>51.55</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-07-2025 08:53:50</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>09-07-2025 09:12:50</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>09-07-2025 09:12:50</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>09-07-2025 10:19:28</t>
+          <t>08-07-2025 08:31:33</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>7996</v>
+        <v>6186</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4655,53 +4655,53 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-10.43018518518518</v>
+        <v>-12.35524305555556</v>
       </c>
       <c r="S58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>252997</v>
+        <v>252546</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D59" t="n">
-        <v>40.01666666666667</v>
+        <v>54.63333333333333</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-07-2025 10:19:28</t>
+          <t>08-07-2025 08:31:33</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>09-07-2025 10:51:28</t>
+          <t>08-07-2025 09:06:33</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>09-07-2025 10:51:28</t>
+          <t>08-07-2025 09:06:33</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>09-07-2025 11:31:29</t>
+          <t>08-07-2025 10:01:11</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>4802</v>
+        <v>6556</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4710,14 +4710,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M59" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4727,11 +4727,11 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
+        <v>-7.417488425925926</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>
@@ -4739,41 +4739,41 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252686</v>
+        <v>243524</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D60" t="n">
-        <v>329.15</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-07-2025 11:31:29</t>
+          <t>08-07-2025 10:01:11</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>09-07-2025 11:48:29</t>
+          <t>08-07-2025 10:36:11</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>09-07-2025 11:48:29</t>
+          <t>08-07-2025 10:36:11</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>10-07-2025 09:17:38</t>
+          <t>08-07-2025 11:42:48</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>39498</v>
+        <v>7994</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4782,14 +4782,14 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
         <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -4799,11 +4799,11 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-4.488055555555555</v>
       </c>
       <c r="S60" t="n">
         <v>1</v>
@@ -4811,41 +4811,41 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>245623</v>
+        <v>252146</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D61" t="n">
-        <v>220.1583333333333</v>
+        <v>66.63333333333334</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-07-2025 09:17:38</t>
+          <t>08-07-2025 11:42:48</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>10-07-2025 09:34:38</t>
+          <t>08-07-2025 12:17:48</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10-07-2025 09:34:38</t>
+          <t>08-07-2025 12:17:48</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>10-07-2025 13:14:47</t>
+          <t>08-07-2025 13:24:26</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>26419</v>
+        <v>7996</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4854,14 +4854,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -4871,53 +4871,53 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-166.5519386574074</v>
+        <v>-9.558634259259259</v>
       </c>
       <c r="S61" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>243335</v>
+        <v>252244</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>275.0333333333334</v>
+        <v>107.575</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 13:24:26</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>08-07-2025 13:54:26</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>08-07-2025 13:54:26</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>08-07-2025 12:05:02</t>
+          <t>09-07-2025 07:42:00</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>33004</v>
+        <v>12909</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4926,14 +4926,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
         <v>4</v>
       </c>
       <c r="M62" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -4943,11 +4943,11 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>02-08-2024 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-340.5034953703704</v>
+        <v>-2.32083912037037</v>
       </c>
       <c r="S62" t="n">
         <v>1</v>
@@ -4955,41 +4955,41 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252350</v>
+        <v>252785</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>40</v>
       </c>
       <c r="D63" t="n">
-        <v>51.88333333333333</v>
+        <v>55.75</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>08-07-2025 12:05:02</t>
+          <t>09-07-2025 07:42:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>08-07-2025 12:45:02</t>
+          <t>09-07-2025 08:22:00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08-07-2025 12:45:02</t>
+          <t>09-07-2025 08:22:00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>08-07-2025 13:36:55</t>
+          <t>09-07-2025 09:17:45</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>6226</v>
+        <v>6690</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -4998,11 +4998,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5015,11 +5015,11 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-0.5673032407407408</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
         <v>1</v>
@@ -5027,41 +5027,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252087</v>
+        <v>245089</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D64" t="n">
-        <v>35.5</v>
+        <v>1022.208333333333</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-07-2025 13:36:55</t>
+          <t>09-07-2025 09:17:45</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>08-07-2025 14:06:55</t>
+          <t>09-07-2025 09:57:45</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08-07-2025 14:06:55</t>
+          <t>09-07-2025 09:57:45</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>08-07-2025 14:42:25</t>
+          <t>11-07-2025 10:59:58</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4260</v>
+        <v>122665</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5070,14 +5070,14 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M64" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5087,53 +5087,53 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-9.612789351851852</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252220</v>
+        <v>252456</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D65" t="n">
-        <v>80.51666666666667</v>
+        <v>144.4583333333333</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-07-2025 14:42:25</t>
+          <t>11-07-2025 10:59:58</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>09-07-2025 07:12:25</t>
+          <t>11-07-2025 11:34:58</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>09-07-2025 07:12:25</t>
+          <t>11-07-2025 11:34:58</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>09-07-2025 08:32:56</t>
+          <t>11-07-2025 13:59:25</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>9662</v>
+        <v>17335</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5159,53 +5159,53 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-23.3562037037037</v>
+        <v>-1.582934027777778</v>
       </c>
       <c r="S65" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>252999</v>
+        <v>252470</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D66" t="n">
-        <v>325.8416666666666</v>
+        <v>62.5</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-07-2025 08:32:56</t>
+          <t>11-07-2025 13:59:25</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>09-07-2025 09:07:56</t>
+          <t>11-07-2025 14:29:25</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>09-07-2025 09:07:56</t>
+          <t>11-07-2025 14:29:25</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>09-07-2025 14:33:46</t>
+          <t>14-07-2025 07:31:55</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>39101</v>
+        <v>7500</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5214,11 +5214,11 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5231,53 +5231,53 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>06-08-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>0</v>
+        <v>-10.31383680555555</v>
       </c>
       <c r="S66" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>252549</v>
+        <v>251495</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>30</v>
       </c>
       <c r="D67" t="n">
-        <v>92.59166666666667</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-07-2025 14:33:46</t>
+          <t>14-07-2025 07:31:55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>10-07-2025 07:03:46</t>
+          <t>14-07-2025 08:01:55</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10-07-2025 07:03:46</t>
+          <t>14-07-2025 08:01:55</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>10-07-2025 08:36:22</t>
+          <t>14-07-2025 09:14:16</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>11111</v>
+        <v>8681</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
@@ -5303,11 +5303,11 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>20-07-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
+        <v>-5.384907407407407</v>
       </c>
       <c r="S67" t="n">
         <v>4</v>
@@ -5315,41 +5315,41 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>244828</v>
+        <v>251926</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D68" t="n">
-        <v>43.35833333333333</v>
+        <v>78.91666666666667</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-07-2025 08:36:22</t>
+          <t>14-07-2025 09:14:16</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>10-07-2025 09:11:22</t>
+          <t>14-07-2025 09:44:16</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10-07-2025 09:11:22</t>
+          <t>14-07-2025 09:44:16</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>10-07-2025 09:54:43</t>
+          <t>14-07-2025 11:03:11</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>5203</v>
+        <v>9470</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5358,14 +5358,14 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
         <v>4</v>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -5375,19 +5375,19 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-3.413003472222222</v>
+        <v>-5.460543981481481</v>
       </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>252047</v>
+        <v>252336</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5395,33 +5395,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D69" t="n">
-        <v>70.88333333333334</v>
+        <v>120.275</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>14-07-2025 11:03:11</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>14-07-2025 11:33:11</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>14-07-2025 11:33:11</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>08-07-2025 08:50:53</t>
+          <t>14-07-2025 13:33:27</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>8506</v>
+        <v>14433</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5430,14 +5430,14 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M69" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -5447,19 +5447,19 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-9.368668981481482</v>
+        <v>-10.56490162037037</v>
       </c>
       <c r="S69" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>243525</v>
+        <v>252755</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5467,33 +5467,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D70" t="n">
-        <v>129.9833333333333</v>
+        <v>109.575</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-07-2025 08:50:53</t>
+          <t>14-07-2025 13:33:27</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-07-2025 09:25:53</t>
+          <t>14-07-2025 14:03:27</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08-07-2025 09:25:53</t>
+          <t>14-07-2025 14:03:27</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>08-07-2025 11:35:52</t>
+          <t>15-07-2025 07:53:02</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>15598</v>
+        <v>13149</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5502,14 +5502,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M70" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -5519,19 +5519,19 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-4.483240740740741</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>252364</v>
+        <v>252790</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5539,33 +5539,33 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D71" t="n">
-        <v>94.55</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-07-2025 11:35:52</t>
+          <t>15-07-2025 07:53:02</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-07-2025 12:10:52</t>
+          <t>15-07-2025 08:23:02</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08-07-2025 12:10:52</t>
+          <t>15-07-2025 08:23:02</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>08-07-2025 13:45:25</t>
+          <t>15-07-2025 08:35:08</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>11346</v>
+        <v>1453</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
@@ -5591,19 +5591,19 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>25-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-11.57320601851852</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>252723</v>
+        <v>252467</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5611,33 +5611,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D72" t="n">
-        <v>153.9583333333333</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-07-2025 13:45:25</t>
+          <t>15-07-2025 08:35:08</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-07-2025 14:20:25</t>
+          <t>15-07-2025 09:00:08</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08-07-2025 14:20:25</t>
+          <t>15-07-2025 09:00:08</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>09-07-2025 08:54:22</t>
+          <t>15-07-2025 10:21:18</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>18475</v>
+        <v>9740</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5646,14 +5646,14 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M72" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">

--- a/PS-VRP/Dati_output/output.xlsx
+++ b/PS-VRP/Dati_output/output.xlsx
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252085</v>
+        <v>252978</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>28.55</v>
+        <v>23.3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -562,21 +562,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:00</t>
+          <t>08-07-2025 07:17:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:00</t>
+          <t>08-07-2025 07:17:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:02:33</t>
+          <t>08-07-2025 07:40:18</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>3426</v>
+        <v>2796</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -585,14 +585,14 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -602,19 +602,19 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-20.33510416666667</v>
+        <v>-22.31965277777778</v>
       </c>
       <c r="S2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252636</v>
+        <v>252371</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -625,30 +625,30 @@
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>11.275</v>
+        <v>50.04166666666666</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:02:33</t>
+          <t>08-07-2025 07:40:18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:19:33</t>
+          <t>08-07-2025 07:57:18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:19:33</t>
+          <t>08-07-2025 07:57:18</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:30:49</t>
+          <t>08-07-2025 08:47:20</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1353</v>
+        <v>6005</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -657,14 +657,14 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -674,19 +674,19 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
+        <v>-8.36620949074074</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>252978</v>
+        <v>252047</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -694,33 +694,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>23.3</v>
+        <v>70.88333333333334</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08-07-2025 08:30:49</t>
+          <t>08-07-2025 08:47:20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-07-2025 09:04:49</t>
+          <t>08-07-2025 09:04:20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-07-2025 09:04:49</t>
+          <t>08-07-2025 09:04:20</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-07-2025 09:28:07</t>
+          <t>08-07-2025 10:15:13</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2796</v>
+        <v>8506</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -746,19 +746,19 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-22.39453125</v>
+        <v>-9.427239583333334</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>252371</v>
+        <v>252152</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -769,30 +769,30 @@
         <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>50.04166666666666</v>
+        <v>27.36666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>08-07-2025 09:28:07</t>
+          <t>08-07-2025 10:15:13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-07-2025 09:45:07</t>
+          <t>08-07-2025 10:32:13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-07-2025 09:45:07</t>
+          <t>08-07-2025 10:32:13</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-07-2025 10:35:10</t>
+          <t>08-07-2025 10:59:35</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6005</v>
+        <v>3284</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -818,14 +818,14 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-8.441087962962962</v>
+        <v>-18.45804976851852</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -845,22 +845,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>08-07-2025 10:35:10</t>
+          <t>08-07-2025 10:59:35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-07-2025 10:52:10</t>
+          <t>08-07-2025 11:16:35</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-07-2025 10:52:10</t>
+          <t>08-07-2025 11:16:35</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-07-2025 11:46:48</t>
+          <t>08-07-2025 12:11:13</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-7.490833333333334</v>
+        <v>-7.507795138888889</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252063</v>
+        <v>252402</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -910,33 +910,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>79.94166666666666</v>
+        <v>25.075</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>08-07-2025 11:46:48</t>
+          <t>08-07-2025 12:11:13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:01:48</t>
+          <t>08-07-2025 12:30:13</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:01:48</t>
+          <t>08-07-2025 12:30:13</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-07-2025 13:21:44</t>
+          <t>08-07-2025 12:55:18</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>9593</v>
+        <v>3009</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>76</v>
@@ -962,19 +962,19 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-7.556765046296296</v>
+        <v>-11.53840277777778</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252244</v>
+        <v>252345</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -982,33 +982,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
-        <v>107.575</v>
+        <v>43.325</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>08-07-2025 13:21:44</t>
+          <t>08-07-2025 12:55:18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>08-07-2025 13:38:44</t>
+          <t>08-07-2025 13:29:18</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>08-07-2025 13:38:44</t>
+          <t>08-07-2025 13:29:18</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-07-2025 07:26:19</t>
+          <t>08-07-2025 14:12:37</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>12909</v>
+        <v>5199</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1017,14 +1017,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1034,11 +1034,11 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-2.30994212962963</v>
+        <v>-0.5921006944444445</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252298</v>
+        <v>252686</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1054,33 +1054,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
-        <v>70.76666666666667</v>
+        <v>329.15</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-07-2025 07:26:19</t>
+          <t>08-07-2025 14:12:37</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-07-2025 07:45:19</t>
+          <t>08-07-2025 14:46:37</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09-07-2025 07:45:19</t>
+          <t>08-07-2025 14:46:37</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-07-2025 08:56:05</t>
+          <t>09-07-2025 12:15:46</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>8492</v>
+        <v>39498</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1089,14 +1089,14 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1106,19 +1106,19 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>21-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-16.37228009259259</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252230</v>
+        <v>252476</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1126,33 +1126,33 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D10" t="n">
-        <v>63.125</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-07-2025 08:56:05</t>
+          <t>09-07-2025 12:15:46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-07-2025 09:17:05</t>
+          <t>09-07-2025 12:49:46</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09-07-2025 09:17:05</t>
+          <t>09-07-2025 12:49:46</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09-07-2025 10:20:12</t>
+          <t>09-07-2025 14:02:07</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>7575</v>
+        <v>8681</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1161,14 +1161,14 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>13-06-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-26.43070023148148</v>
+        <v>-2.584803240740741</v>
       </c>
       <c r="S10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>243569</v>
+        <v>245623</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1198,33 +1198,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>21.675</v>
+        <v>220.1583333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09-07-2025 10:20:12</t>
+          <t>09-07-2025 14:02:07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-07-2025 10:39:12</t>
+          <t>09-07-2025 14:34:07</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09-07-2025 10:39:12</t>
+          <t>09-07-2025 14:34:07</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>09-07-2025 11:00:53</t>
+          <t>10-07-2025 10:14:16</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2601</v>
+        <v>26419</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1250,11 +1250,11 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>25-01-2025 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-296.4589467592593</v>
+        <v>-166.4265798611111</v>
       </c>
       <c r="S11" t="n">
         <v>2</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252144</v>
+        <v>252636</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1270,33 +1270,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
-        <v>54.13333333333333</v>
+        <v>11.275</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09-07-2025 11:00:53</t>
+          <t>10-07-2025 10:14:16</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09-07-2025 11:19:53</t>
+          <t>10-07-2025 10:46:16</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>09-07-2025 11:19:53</t>
+          <t>10-07-2025 10:46:16</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>09-07-2025 12:14:01</t>
+          <t>10-07-2025 10:57:33</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>6496</v>
+        <v>1353</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1305,14 +1305,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1322,11 +1322,11 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-10.5097337962963</v>
+        <v>-0.4566319444444444</v>
       </c>
       <c r="S12" t="n">
         <v>7</v>
@@ -1334,41 +1334,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251790</v>
+        <v>252364</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>235.0583333333333</v>
+        <v>94.55</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>10-07-2025 10:57:33</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>08-07-2025 07:44:00</t>
+          <t>10-07-2025 11:14:33</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08-07-2025 07:44:00</t>
+          <t>10-07-2025 11:14:33</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>08-07-2025 11:39:03</t>
+          <t>10-07-2025 12:49:06</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>28207</v>
+        <v>11346</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1377,14 +1377,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1394,53 +1394,53 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-8.485457175925927</v>
+        <v>-13.53409722222222</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252814</v>
+        <v>252456</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>50.08333333333334</v>
+        <v>144.4583333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>08-07-2025 11:39:03</t>
+          <t>10-07-2025 12:49:06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>08-07-2025 12:06:03</t>
+          <t>10-07-2025 13:06:06</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08-07-2025 12:06:03</t>
+          <t>10-07-2025 13:06:06</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>08-07-2025 12:56:08</t>
+          <t>11-07-2025 07:30:33</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>6010</v>
+        <v>17335</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1449,14 +1449,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1466,53 +1466,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-1.312887731481482</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251849</v>
+        <v>252350</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D15" t="n">
-        <v>33.38333333333333</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>08-07-2025 12:56:08</t>
+          <t>11-07-2025 07:30:33</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>08-07-2025 13:38:08</t>
+          <t>11-07-2025 07:51:33</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08-07-2025 13:38:08</t>
+          <t>11-07-2025 07:51:33</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08-07-2025 14:11:31</t>
+          <t>11-07-2025 08:43:26</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>4006</v>
+        <v>6226</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1521,43 +1521,36 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>40042 (esterno)</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>40042</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>25-06-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-13.59133680555555</v>
+        <v>-3.363501157407407</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252345</v>
+        <v>244023</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1565,33 +1558,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
-        <v>43.325</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>08-07-2025 14:11:31</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08-07-2025 14:40:31</t>
+          <t>08-07-2025 07:50:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08-07-2025 14:40:31</t>
+          <t>08-07-2025 07:50:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>09-07-2025 07:23:51</t>
+          <t>08-07-2025 07:58:18</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5199</v>
+        <v>997</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1604,7 +1597,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1617,11 +1610,11 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.308229166666667</v>
+        <v>-281.3321585648148</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -1637,29 +1630,29 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
         <v>48.875</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09-07-2025 07:23:51</t>
+          <t>08-07-2025 07:58:18</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09-07-2025 07:50:51</t>
+          <t>08-07-2025 08:31:18</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>09-07-2025 07:50:51</t>
+          <t>08-07-2025 08:31:18</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>09-07-2025 08:39:43</t>
+          <t>08-07-2025 09:20:11</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1701,7 +1694,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251231</v>
+        <v>251790</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1709,33 +1702,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D18" t="n">
-        <v>312.3083333333333</v>
+        <v>235.0583333333333</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09-07-2025 08:39:43</t>
+          <t>08-07-2025 09:20:11</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09-07-2025 09:12:43</t>
+          <t>08-07-2025 10:02:11</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>09-07-2025 09:12:43</t>
+          <t>08-07-2025 10:02:11</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>09-07-2025 14:25:02</t>
+          <t>08-07-2025 13:57:14</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>37477</v>
+        <v>28207</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1744,35 +1737,28 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>40034 (esterno)</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>40034</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-6.600717592592592</v>
+        <v>-8.581417824074075</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1780,7 +1766,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252277</v>
+        <v>252201</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1788,33 +1774,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
-        <v>144.925</v>
+        <v>34.10833333333333</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09-07-2025 14:25:02</t>
+          <t>08-07-2025 13:57:14</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-07-2025 14:56:02</t>
+          <t>08-07-2025 14:26:14</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09-07-2025 14:56:02</t>
+          <t>08-07-2025 14:26:14</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>10-07-2025 09:20:57</t>
+          <t>09-07-2025 07:00:21</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>17391</v>
+        <v>4093</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1823,27 +1809,20 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>40024 (esterno)</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>40024</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1851,15 +1830,15 @@
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-20.38955439814815</v>
+        <v>-19.29190972222222</v>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252638</v>
+        <v>252999</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1867,33 +1846,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D20" t="n">
-        <v>61.49166666666667</v>
+        <v>325.8416666666666</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-07-2025 09:20:57</t>
+          <t>09-07-2025 07:00:21</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10-07-2025 09:49:57</t>
+          <t>09-07-2025 07:42:21</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10-07-2025 09:49:57</t>
+          <t>09-07-2025 07:42:21</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10-07-2025 10:51:27</t>
+          <t>09-07-2025 13:08:11</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>7379</v>
+        <v>39101</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1902,11 +1881,11 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1919,11 +1898,11 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>06-07-2025 00:00:00</t>
+          <t>06-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-4.452395833333333</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>7</v>
@@ -1931,7 +1910,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252547</v>
+        <v>252298</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1939,33 +1918,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D21" t="n">
-        <v>81.16666666666667</v>
+        <v>70.76666666666667</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-07-2025 10:51:27</t>
+          <t>09-07-2025 13:08:11</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10-07-2025 11:24:27</t>
+          <t>09-07-2025 13:56:11</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10-07-2025 11:24:27</t>
+          <t>09-07-2025 13:56:11</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>10-07-2025 12:45:37</t>
+          <t>10-07-2025 07:06:57</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>9740</v>
+        <v>8492</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1974,14 +1953,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1991,19 +1970,19 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>23-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-6.531678240740741</v>
+        <v>-17.29649884259259</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>252243</v>
+        <v>252277</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2011,33 +1990,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D22" t="n">
-        <v>96.70833333333333</v>
+        <v>144.925</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-07-2025 12:45:37</t>
+          <t>10-07-2025 07:06:57</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10-07-2025 13:27:37</t>
+          <t>10-07-2025 07:52:57</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10-07-2025 13:27:37</t>
+          <t>10-07-2025 07:52:57</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>11-07-2025 07:04:19</t>
+          <t>10-07-2025 10:17:53</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>11605</v>
+        <v>17391</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2046,70 +2025,77 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>40024 (esterno)</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>40024</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
+        <v>-20.42908564814815</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252402</v>
+        <v>252087</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
-        <v>25.075</v>
+        <v>35.5</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>10-07-2025 10:17:53</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>10-07-2025 10:46:53</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>10-07-2025 10:46:53</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>08-07-2025 07:42:04</t>
+          <t>10-07-2025 11:22:23</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3009</v>
+        <v>4260</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2118,14 +2104,14 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2135,53 +2121,53 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-11.32088541666667</v>
+        <v>-11.47387731481481</v>
       </c>
       <c r="S23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>252201</v>
+        <v>252085</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
-        <v>34.10833333333333</v>
+        <v>28.55</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>08-07-2025 07:42:04</t>
+          <t>10-07-2025 11:22:23</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>08-07-2025 08:01:04</t>
+          <t>10-07-2025 11:49:23</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08-07-2025 08:01:04</t>
+          <t>10-07-2025 11:49:23</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08-07-2025 08:35:11</t>
+          <t>10-07-2025 12:17:56</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>4093</v>
+        <v>3426</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2190,14 +2176,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2207,19 +2193,19 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-18.3577662037037</v>
+        <v>-22.5124537037037</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>243529</v>
+        <v>252243</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2230,30 +2216,30 @@
         <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>129.9833333333333</v>
+        <v>96.70833333333333</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>08-07-2025 08:35:11</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>08-07-2025 08:54:11</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08-07-2025 08:54:11</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08-07-2025 11:04:10</t>
+          <t>08-07-2025 08:55:42</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>15598</v>
+        <v>11605</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2266,7 +2252,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>76</v>
@@ -2279,11 +2265,11 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-4.461226851851852</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -2291,7 +2277,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251919</v>
+        <v>243569</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2299,33 +2285,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>140.05</v>
+        <v>21.675</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>08-07-2025 11:04:10</t>
+          <t>08-07-2025 08:55:42</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>08-07-2025 11:38:10</t>
+          <t>08-07-2025 09:12:42</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08-07-2025 11:38:10</t>
+          <t>08-07-2025 09:12:42</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08-07-2025 13:58:13</t>
+          <t>08-07-2025 09:34:23</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>16806</v>
+        <v>2601</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2341,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2351,19 +2337,19 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-22.58209490740741</v>
+        <v>-295.3988773148148</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251685</v>
+        <v>252244</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2371,33 +2357,33 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>98.75833333333334</v>
+        <v>107.575</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>08-07-2025 13:58:13</t>
+          <t>08-07-2025 09:34:23</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>08-07-2025 14:34:13</t>
+          <t>08-07-2025 09:51:23</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08-07-2025 14:34:13</t>
+          <t>08-07-2025 09:51:23</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>09-07-2025 08:12:58</t>
+          <t>08-07-2025 11:38:57</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>11851</v>
+        <v>12909</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2406,14 +2392,14 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2423,11 +2409,11 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-1.485387731481481</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>
@@ -2435,7 +2421,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>252783</v>
+        <v>252146</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2443,33 +2429,33 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>11.95</v>
+        <v>66.63333333333334</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09-07-2025 08:12:58</t>
+          <t>08-07-2025 11:38:57</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-07-2025 08:37:58</t>
+          <t>08-07-2025 11:55:57</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09-07-2025 08:37:58</t>
+          <t>08-07-2025 11:55:57</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>09-07-2025 08:49:55</t>
+          <t>08-07-2025 13:02:35</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1434</v>
+        <v>7996</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2478,14 +2464,14 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2495,19 +2481,19 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-9.543466435185184</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>250284</v>
+        <v>251798</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2515,33 +2501,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>146.35</v>
+        <v>123.2916666666667</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09-07-2025 08:49:55</t>
+          <t>08-07-2025 13:02:35</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-07-2025 09:08:55</t>
+          <t>08-07-2025 13:19:35</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09-07-2025 09:08:55</t>
+          <t>08-07-2025 13:19:35</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>09-07-2025 11:35:16</t>
+          <t>09-07-2025 07:22:53</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>17562</v>
+        <v>14795</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2550,14 +2536,14 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2567,19 +2553,19 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-119.4828298611111</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>244023</v>
+        <v>243525</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2587,33 +2573,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>8.308333333333334</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09-07-2025 11:35:16</t>
+          <t>09-07-2025 07:22:53</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-07-2025 11:54:16</t>
+          <t>09-07-2025 07:39:53</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09-07-2025 11:54:16</t>
+          <t>09-07-2025 07:39:53</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>09-07-2025 12:02:35</t>
+          <t>09-07-2025 09:49:52</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>997</v>
+        <v>15598</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2622,14 +2608,14 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2639,11 +2625,11 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-282.5017939814815</v>
+        <v>-5.40962962962963</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
@@ -2651,7 +2637,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252476</v>
+        <v>243529</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2659,33 +2645,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D31" t="n">
-        <v>72.34166666666667</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09-07-2025 12:02:35</t>
+          <t>09-07-2025 09:49:52</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-07-2025 12:23:35</t>
+          <t>09-07-2025 10:04:52</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09-07-2025 12:23:35</t>
+          <t>09-07-2025 10:04:52</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09-07-2025 13:35:55</t>
+          <t>09-07-2025 12:14:51</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>8681</v>
+        <v>15598</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2694,14 +2680,14 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
         <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2711,53 +2697,53 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-2.566614583333333</v>
+        <v>-5.5103125</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>252784</v>
+        <v>252549</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>21</v>
+        <v>34.5</v>
       </c>
       <c r="D32" t="n">
-        <v>26.975</v>
+        <v>92.59166666666667</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09-07-2025 13:35:55</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09-07-2025 13:56:55</t>
+          <t>08-07-2025 07:34:30</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>09-07-2025 13:56:55</t>
+          <t>08-07-2025 07:34:30</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>09-07-2025 14:23:54</t>
+          <t>08-07-2025 09:07:05</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>3237</v>
+        <v>11111</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2770,7 +2756,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2783,53 +2769,53 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>20-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>252347</v>
+        <v>252652</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>23</v>
+        <v>34.5</v>
       </c>
       <c r="D33" t="n">
-        <v>92.28333333333333</v>
+        <v>186.0083333333333</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09-07-2025 14:23:54</t>
+          <t>08-07-2025 09:07:05</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09-07-2025 14:46:54</t>
+          <t>08-07-2025 09:41:35</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>09-07-2025 14:46:54</t>
+          <t>08-07-2025 09:41:35</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>10-07-2025 08:19:11</t>
+          <t>08-07-2025 12:47:36</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>11074</v>
+        <v>22321</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2838,11 +2824,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2855,11 +2841,11 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-2.346655092592592</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>1</v>
@@ -2867,41 +2853,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>245089</v>
+        <v>251632</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>34</v>
+        <v>52.5</v>
       </c>
       <c r="D34" t="n">
-        <v>1022.208333333333</v>
+        <v>588.5083333333333</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-07-2025 08:19:11</t>
+          <t>08-07-2025 12:47:36</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>10-07-2025 08:53:11</t>
+          <t>08-07-2025 13:40:06</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10-07-2025 08:53:11</t>
+          <t>08-07-2025 13:40:06</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>14-07-2025 09:55:23</t>
+          <t>10-07-2025 07:28:36</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>122665</v>
+        <v>70621</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2910,70 +2896,70 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L34" t="n">
+        <v>14</v>
+      </c>
+      <c r="M34" t="n">
+        <v>70</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>07-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R34" s="1" t="n">
+        <v>-3.311533564814815</v>
+      </c>
+      <c r="S34" t="n">
         <v>4</v>
-      </c>
-      <c r="M34" t="n">
-        <v>76</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>31-12-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252456</v>
+        <v>251495</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>144.4583333333333</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>14-07-2025 09:55:23</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>14-07-2025 10:27:23</t>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>14-07-2025 10:27:23</t>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>14-07-2025 12:51:51</t>
+          <t>08-07-2025 08:42:20</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>17335</v>
+        <v>8681</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2999,53 +2985,53 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-4.536006944444445</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251926</v>
+        <v>252785</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>78.91666666666667</v>
+        <v>55.75</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>14-07-2025 12:51:51</t>
+          <t>08-07-2025 08:42:20</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>14-07-2025 13:08:51</t>
+          <t>08-07-2025 09:12:20</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>14-07-2025 13:08:51</t>
+          <t>08-07-2025 09:12:20</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>14-07-2025 14:27:46</t>
+          <t>08-07-2025 10:08:05</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>9470</v>
+        <v>6690</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3058,7 +3044,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3071,53 +3057,53 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-5.602615740740741</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252334</v>
+        <v>252713</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>486.5916666666666</v>
+        <v>907.7666666666667</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>14-07-2025 14:27:46</t>
+          <t>08-07-2025 10:08:05</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>14-07-2025 14:44:46</t>
+          <t>08-07-2025 10:38:05</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>14-07-2025 14:44:46</t>
+          <t>08-07-2025 10:38:05</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>15-07-2025 14:51:21</t>
+          <t>10-07-2025 09:45:51</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>58391</v>
+        <v>108932</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3126,7 +3112,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -3143,53 +3129,53 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>18-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-11.61899884259259</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252899</v>
+        <v>251926</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>180.5666666666667</v>
+        <v>78.91666666666667</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>15-07-2025 14:51:21</t>
+          <t>10-07-2025 09:45:51</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>16-07-2025 07:10:21</t>
+          <t>10-07-2025 10:15:51</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>16-07-2025 07:10:21</t>
+          <t>10-07-2025 10:15:51</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>16-07-2025 10:10:55</t>
+          <t>10-07-2025 11:34:46</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>21668</v>
+        <v>9470</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3202,7 +3188,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3215,53 +3201,53 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0</v>
+        <v>-1.482482638888889</v>
       </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252652</v>
+        <v>250284</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>34.5</v>
+        <v>45</v>
       </c>
       <c r="D39" t="n">
-        <v>186.0083333333333</v>
+        <v>146.35</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>10-07-2025 11:34:46</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:30</t>
+          <t>10-07-2025 12:19:46</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:30</t>
+          <t>10-07-2025 12:19:46</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>08-07-2025 10:40:30</t>
+          <t>10-07-2025 14:46:07</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>22321</v>
+        <v>17562</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3274,7 +3260,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3287,19 +3273,19 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>0</v>
+        <v>-120.6153645833333</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>252790</v>
+        <v>251674</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3307,33 +3293,33 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D40" t="n">
-        <v>12.10833333333333</v>
+        <v>147.125</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>10-07-2025 14:46:07</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>11-07-2025 07:41:07</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>11-07-2025 07:41:07</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>08-07-2025 07:42:06</t>
+          <t>11-07-2025 10:08:15</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1453</v>
+        <v>17655</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3342,11 +3328,11 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -3359,19 +3345,19 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>25-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
+        <v>-4.422395833333334</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251632</v>
+        <v>252157</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3379,33 +3365,33 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D41" t="n">
-        <v>588.5083333333333</v>
+        <v>396.825</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>08-07-2025 07:42:06</t>
+          <t>11-07-2025 10:08:15</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>08-07-2025 08:52:06</t>
+          <t>11-07-2025 10:58:15</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08-07-2025 08:52:06</t>
+          <t>11-07-2025 10:58:15</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>09-07-2025 10:40:37</t>
+          <t>14-07-2025 09:35:04</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>70621</v>
+        <v>47619</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3414,11 +3400,11 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
@@ -3431,19 +3417,19 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-2.444872685185185</v>
+        <v>-26.39935763888889</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251674</v>
+        <v>252790</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3451,33 +3437,33 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D42" t="n">
-        <v>147.125</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09-07-2025 10:40:37</t>
+          <t>14-07-2025 09:35:04</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>09-07-2025 11:05:37</t>
+          <t>14-07-2025 10:20:04</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09-07-2025 11:05:37</t>
+          <t>14-07-2025 10:20:04</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>09-07-2025 13:32:44</t>
+          <t>14-07-2025 10:32:11</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>17655</v>
+        <v>1453</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3486,11 +3472,11 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3503,19 +3489,19 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>25-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-2.564403935185185</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252157</v>
+        <v>252755</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3523,33 +3509,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
-        <v>396.825</v>
+        <v>109.575</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09-07-2025 13:32:44</t>
+          <t>14-07-2025 10:32:11</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>09-07-2025 14:22:44</t>
+          <t>14-07-2025 11:02:11</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09-07-2025 14:22:44</t>
+          <t>14-07-2025 11:02:11</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>10-07-2025 12:59:34</t>
+          <t>14-07-2025 12:51:45</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>47619</v>
+        <v>13149</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3562,7 +3548,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3575,19 +3561,19 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-22.54136574074074</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>252785</v>
+        <v>252899</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3595,33 +3581,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
-        <v>55.75</v>
+        <v>180.5666666666667</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-07-2025 12:59:34</t>
+          <t>14-07-2025 12:51:45</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>10-07-2025 13:39:34</t>
+          <t>14-07-2025 13:21:45</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10-07-2025 13:39:34</t>
+          <t>14-07-2025 13:21:45</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>10-07-2025 14:35:19</t>
+          <t>15-07-2025 08:22:19</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>6690</v>
+        <v>21668</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3634,7 +3620,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
@@ -3654,46 +3640,46 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252713</v>
+        <v>252814</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D45" t="n">
-        <v>907.7666666666667</v>
+        <v>50.08333333333334</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-07-2025 14:35:19</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>11-07-2025 07:05:19</t>
+          <t>08-07-2025 07:17:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>11-07-2025 07:05:19</t>
+          <t>08-07-2025 07:17:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>14-07-2025 14:13:05</t>
+          <t>08-07-2025 08:07:05</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>108932</v>
+        <v>6010</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3702,14 +3688,14 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3719,53 +3705,53 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>18-07-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252755</v>
+        <v>252144</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D46" t="n">
-        <v>109.575</v>
+        <v>54.13333333333333</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>14-07-2025 14:13:05</t>
+          <t>08-07-2025 08:07:05</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>14-07-2025 14:43:05</t>
+          <t>08-07-2025 08:24:05</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>14-07-2025 14:43:05</t>
+          <t>08-07-2025 08:24:05</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>15-07-2025 08:32:39</t>
+          <t>08-07-2025 09:18:13</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>13149</v>
+        <v>6496</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3774,14 +3760,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3791,53 +3777,53 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0</v>
+        <v>-9.387650462962963</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251495</v>
+        <v>252237</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D47" t="n">
-        <v>72.34166666666667</v>
+        <v>84.95</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15-07-2025 08:32:39</t>
+          <t>08-07-2025 09:18:13</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>15-07-2025 09:02:39</t>
+          <t>08-07-2025 09:50:13</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15-07-2025 09:02:39</t>
+          <t>08-07-2025 09:50:13</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>15-07-2025 10:15:00</t>
+          <t>08-07-2025 11:15:10</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>8681</v>
+        <v>10194</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3846,14 +3832,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3863,53 +3849,53 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-6.427083333333333</v>
+        <v>-7.468865740740741</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>252470</v>
+        <v>243335</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D48" t="n">
-        <v>62.5</v>
+        <v>275.0333333333334</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>15-07-2025 10:15:00</t>
+          <t>08-07-2025 11:15:10</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>15-07-2025 10:45:00</t>
+          <t>08-07-2025 11:51:10</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>15-07-2025 10:45:00</t>
+          <t>08-07-2025 11:51:10</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>15-07-2025 11:47:30</t>
+          <t>09-07-2025 08:26:12</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>7500</v>
+        <v>33004</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3918,14 +3904,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
         <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3935,53 +3921,53 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>02-08-2024 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-11.49131944444444</v>
+        <v>-341.3515277777778</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>252336</v>
+        <v>251919</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D49" t="n">
-        <v>120.275</v>
+        <v>140.05</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>15-07-2025 11:47:30</t>
+          <t>09-07-2025 08:26:12</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>15-07-2025 12:17:30</t>
+          <t>09-07-2025 08:43:12</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>15-07-2025 12:17:30</t>
+          <t>09-07-2025 08:43:12</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>15-07-2025 14:17:46</t>
+          <t>09-07-2025 11:03:15</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>14433</v>
+        <v>16806</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3990,14 +3976,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M49" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4007,53 +3993,53 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-11.59567708333333</v>
+        <v>-23.46059027777778</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>252467</v>
+        <v>252997</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D50" t="n">
-        <v>81.16666666666667</v>
+        <v>40.01666666666667</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15-07-2025 14:17:46</t>
+          <t>09-07-2025 11:03:15</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>15-07-2025 14:42:46</t>
+          <t>09-07-2025 11:20:15</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15-07-2025 14:42:46</t>
+          <t>09-07-2025 11:20:15</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>16-07-2025 08:03:56</t>
+          <t>09-07-2025 12:00:16</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>9740</v>
+        <v>4802</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4062,14 +4048,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -4079,7 +4065,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
@@ -4091,18 +4077,18 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>252152</v>
+        <v>241783</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D51" t="n">
-        <v>27.36666666666667</v>
+        <v>43.325</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -4111,21 +4097,21 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>08-07-2025 07:44:22</t>
+          <t>08-07-2025 08:23:19</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3284</v>
+        <v>5199</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4138,7 +4124,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
         <v>76</v>
@@ -4151,53 +4137,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-18.32247685185185</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>243524</v>
+        <v>252207</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D52" t="n">
-        <v>66.61666666666666</v>
+        <v>51.55</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>08-07-2025 07:44:22</t>
+          <t>08-07-2025 08:23:19</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>08-07-2025 08:01:22</t>
+          <t>08-07-2025 08:58:19</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08-07-2025 08:01:22</t>
+          <t>08-07-2025 08:58:19</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>08-07-2025 09:07:59</t>
+          <t>08-07-2025 09:49:52</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>7994</v>
+        <v>6186</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4223,11 +4209,11 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-4.380543981481481</v>
+        <v>-12.40963541666667</v>
       </c>
       <c r="S52" t="n">
         <v>1</v>
@@ -4235,41 +4221,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>252237</v>
+        <v>252723</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D53" t="n">
-        <v>84.95</v>
+        <v>153.9583333333333</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>08-07-2025 09:07:59</t>
+          <t>08-07-2025 09:49:52</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>08-07-2025 09:39:59</t>
+          <t>08-07-2025 10:14:52</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08-07-2025 09:39:59</t>
+          <t>08-07-2025 10:14:52</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>08-07-2025 11:04:56</t>
+          <t>08-07-2025 12:48:50</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>10194</v>
+        <v>18475</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4278,14 +4264,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M53" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4295,11 +4281,11 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>31-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-7.461759259259259</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
         <v>1</v>
@@ -4307,41 +4293,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>241783</v>
+        <v>252071</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D54" t="n">
-        <v>43.325</v>
+        <v>45.73333333333333</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>08-07-2025 11:04:56</t>
+          <t>08-07-2025 12:48:50</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>08-07-2025 11:36:56</t>
+          <t>08-07-2025 13:23:50</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08-07-2025 11:36:56</t>
+          <t>08-07-2025 13:23:50</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>08-07-2025 12:20:15</t>
+          <t>08-07-2025 14:09:34</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>5199</v>
+        <v>5488</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4354,7 +4340,7 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M54" t="n">
         <v>76</v>
@@ -4367,53 +4353,53 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>12-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0</v>
+        <v>-26.58997685185185</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252207</v>
+        <v>251685</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
-        <v>51.55</v>
+        <v>98.75833333333334</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>08-07-2025 12:20:15</t>
+          <t>08-07-2025 14:09:34</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>08-07-2025 12:39:15</t>
+          <t>08-07-2025 14:44:34</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08-07-2025 12:39:15</t>
+          <t>08-07-2025 14:44:34</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>08-07-2025 13:30:48</t>
+          <t>09-07-2025 08:23:19</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>6186</v>
+        <v>11851</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4422,14 +4408,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M55" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4439,11 +4425,11 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-12.56306134259259</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
         <v>1</v>
@@ -4451,41 +4437,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251798</v>
+        <v>251849</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D56" t="n">
-        <v>123.2916666666667</v>
+        <v>33.38333333333333</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>08-07-2025 13:30:48</t>
+          <t>09-07-2025 08:23:19</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>08-07-2025 13:47:48</t>
+          <t>09-07-2025 08:53:19</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08-07-2025 13:47:48</t>
+          <t>09-07-2025 08:53:19</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>09-07-2025 07:51:06</t>
+          <t>09-07-2025 09:26:42</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>14795</v>
+        <v>4006</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4494,70 +4480,77 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
+        <v>5</v>
+      </c>
+      <c r="M56" t="n">
+        <v>70</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>40042 (esterno)</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>40042</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>25-06-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R56" s="1" t="n">
+        <v>-14.3935474537037</v>
+      </c>
+      <c r="S56" t="n">
         <v>4</v>
-      </c>
-      <c r="M56" t="n">
-        <v>76</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>15-07-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S56" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>252071</v>
+        <v>252063</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D57" t="n">
-        <v>45.73333333333333</v>
+        <v>79.94166666666666</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-07-2025 07:51:06</t>
+          <t>09-07-2025 09:26:42</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>09-07-2025 08:08:06</t>
+          <t>09-07-2025 10:06:42</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>09-07-2025 08:08:06</t>
+          <t>09-07-2025 10:06:42</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>09-07-2025 08:53:50</t>
+          <t>09-07-2025 11:26:39</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>5488</v>
+        <v>9593</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4570,7 +4563,7 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
         <v>76</v>
@@ -4583,53 +4576,53 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>12-06-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-27.37071759259259</v>
+        <v>-8.476840277777777</v>
       </c>
       <c r="S57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>252146</v>
+        <v>245089</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
-        <v>66.63333333333334</v>
+        <v>1022.208333333333</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-07-2025 08:53:50</t>
+          <t>09-07-2025 11:26:39</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>09-07-2025 09:12:50</t>
+          <t>09-07-2025 11:56:39</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>09-07-2025 09:12:50</t>
+          <t>09-07-2025 11:56:39</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>09-07-2025 10:19:28</t>
+          <t>11-07-2025 12:58:51</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>7996</v>
+        <v>122665</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4638,11 +4631,11 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
         <v>76</v>
@@ -4655,53 +4648,53 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-10.43018518518518</v>
+        <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>252997</v>
+        <v>252547</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D59" t="n">
-        <v>40.01666666666667</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-07-2025 10:19:28</t>
+          <t>11-07-2025 12:58:51</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>09-07-2025 10:51:28</t>
+          <t>11-07-2025 13:33:51</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>09-07-2025 10:51:28</t>
+          <t>11-07-2025 13:33:51</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>09-07-2025 11:31:29</t>
+          <t>11-07-2025 14:55:01</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>4802</v>
+        <v>9740</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4710,14 +4703,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M59" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4727,11 +4720,11 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
+        <v>-7.621545138888889</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>
@@ -4739,41 +4732,41 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252686</v>
+        <v>252470</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D60" t="n">
-        <v>329.15</v>
+        <v>62.5</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-07-2025 11:31:29</t>
+          <t>11-07-2025 14:55:01</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>09-07-2025 11:48:29</t>
+          <t>14-07-2025 07:25:01</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>09-07-2025 11:48:29</t>
+          <t>14-07-2025 07:25:01</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>10-07-2025 09:17:38</t>
+          <t>14-07-2025 08:27:31</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>39498</v>
+        <v>7500</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4782,14 +4775,14 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M60" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -4799,53 +4792,53 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-10.35244791666667</v>
       </c>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>245623</v>
+        <v>252334</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
-        <v>220.1583333333333</v>
+        <v>486.5916666666666</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-07-2025 09:17:38</t>
+          <t>14-07-2025 08:27:31</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>10-07-2025 09:34:38</t>
+          <t>14-07-2025 08:57:31</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10-07-2025 09:34:38</t>
+          <t>14-07-2025 08:57:31</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>10-07-2025 13:14:47</t>
+          <t>15-07-2025 09:04:07</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>26419</v>
+        <v>58391</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4854,14 +4847,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M61" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -4871,11 +4864,11 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-166.5519386574074</v>
+        <v>-11.3778587962963</v>
       </c>
       <c r="S61" t="n">
         <v>2</v>
@@ -4883,7 +4876,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>243335</v>
+        <v>252336</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4891,33 +4884,33 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D62" t="n">
-        <v>275.0333333333334</v>
+        <v>120.275</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>15-07-2025 09:04:07</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>15-07-2025 09:29:07</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>15-07-2025 09:29:07</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>08-07-2025 12:05:02</t>
+          <t>15-07-2025 11:29:23</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>33004</v>
+        <v>14433</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4926,14 +4919,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M62" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -4943,19 +4936,19 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>02-08-2024 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-340.5034953703704</v>
+        <v>-11.47874421296296</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252350</v>
+        <v>252467</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4963,33 +4956,33 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D63" t="n">
-        <v>51.88333333333333</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>08-07-2025 12:05:02</t>
+          <t>15-07-2025 11:29:23</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>08-07-2025 12:45:02</t>
+          <t>15-07-2025 11:54:23</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08-07-2025 12:45:02</t>
+          <t>15-07-2025 11:54:23</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>08-07-2025 13:36:55</t>
+          <t>15-07-2025 13:15:33</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>6226</v>
+        <v>9740</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -4998,11 +4991,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5015,11 +5008,11 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-0.5673032407407408</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
         <v>1</v>
@@ -5027,41 +5020,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252087</v>
+        <v>252347</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>30</v>
       </c>
       <c r="D64" t="n">
-        <v>35.5</v>
+        <v>92.28333333333333</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-07-2025 13:36:55</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>08-07-2025 14:06:55</t>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08-07-2025 14:06:55</t>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>08-07-2025 14:42:25</t>
+          <t>08-07-2025 09:02:17</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4260</v>
+        <v>11074</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5070,11 +5063,11 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5087,53 +5080,53 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-9.612789351851852</v>
+        <v>-0.3765856481481482</v>
       </c>
       <c r="S64" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252220</v>
+        <v>252230</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D65" t="n">
-        <v>80.51666666666667</v>
+        <v>63.125</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-07-2025 14:42:25</t>
+          <t>08-07-2025 09:02:17</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>09-07-2025 07:12:25</t>
+          <t>08-07-2025 09:37:17</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>09-07-2025 07:12:25</t>
+          <t>08-07-2025 09:37:17</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>09-07-2025 08:32:56</t>
+          <t>08-07-2025 10:40:24</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>9662</v>
+        <v>7575</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5142,14 +5135,14 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -5159,53 +5152,53 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>13-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-23.3562037037037</v>
+        <v>-25.44472800925926</v>
       </c>
       <c r="S65" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>252999</v>
+        <v>243524</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>35</v>
       </c>
       <c r="D66" t="n">
-        <v>325.8416666666666</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-07-2025 08:32:56</t>
+          <t>08-07-2025 10:40:24</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>09-07-2025 09:07:56</t>
+          <t>08-07-2025 11:15:24</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>09-07-2025 09:07:56</t>
+          <t>08-07-2025 11:15:24</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>09-07-2025 14:33:46</t>
+          <t>08-07-2025 12:22:01</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>39101</v>
+        <v>7994</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5214,14 +5207,14 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M66" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -5231,53 +5224,53 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>06-08-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>0</v>
+        <v>-4.515295138888889</v>
       </c>
       <c r="S66" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>252549</v>
+        <v>244828</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D67" t="n">
-        <v>92.59166666666667</v>
+        <v>43.35833333333333</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-07-2025 14:33:46</t>
+          <t>08-07-2025 12:22:01</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>10-07-2025 07:03:46</t>
+          <t>08-07-2025 12:57:01</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10-07-2025 07:03:46</t>
+          <t>08-07-2025 12:57:01</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>10-07-2025 08:36:22</t>
+          <t>08-07-2025 13:40:23</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>11111</v>
+        <v>5203</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5286,14 +5279,14 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M67" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -5303,53 +5296,53 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>20-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
+        <v>-1.569710648148148</v>
       </c>
       <c r="S67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>244828</v>
+        <v>252784</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D68" t="n">
-        <v>43.35833333333333</v>
+        <v>26.975</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-07-2025 08:36:22</t>
+          <t>08-07-2025 13:40:23</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>10-07-2025 09:11:22</t>
+          <t>08-07-2025 14:20:23</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10-07-2025 09:11:22</t>
+          <t>08-07-2025 14:20:23</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>10-07-2025 09:54:43</t>
+          <t>08-07-2025 14:47:21</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>5203</v>
+        <v>3237</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5358,14 +5351,14 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -5375,11 +5368,11 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-3.413003472222222</v>
+        <v>0</v>
       </c>
       <c r="S68" t="n">
         <v>1</v>
@@ -5387,7 +5380,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>252047</v>
+        <v>252783</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5395,33 +5388,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D69" t="n">
-        <v>70.88333333333334</v>
+        <v>11.95</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 14:47:21</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 07:12:21</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 07:12:21</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>08-07-2025 08:50:53</t>
+          <t>09-07-2025 07:24:18</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>8506</v>
+        <v>1434</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5430,14 +5423,14 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M69" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -5447,19 +5440,19 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-9.368668981481482</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>243525</v>
+        <v>252220</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5470,30 +5463,30 @@
         <v>35</v>
       </c>
       <c r="D70" t="n">
-        <v>129.9833333333333</v>
+        <v>80.51666666666667</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-07-2025 08:50:53</t>
+          <t>09-07-2025 07:24:18</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-07-2025 09:25:53</t>
+          <t>09-07-2025 07:59:18</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08-07-2025 09:25:53</t>
+          <t>09-07-2025 07:59:18</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>08-07-2025 11:35:52</t>
+          <t>09-07-2025 09:19:49</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>15598</v>
+        <v>9662</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5502,14 +5495,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M70" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -5519,19 +5512,19 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-4.483240740740741</v>
+        <v>-23.38876736111111</v>
       </c>
       <c r="S70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>252364</v>
+        <v>251231</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5542,30 +5535,30 @@
         <v>35</v>
       </c>
       <c r="D71" t="n">
-        <v>94.55</v>
+        <v>312.3083333333333</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-07-2025 11:35:52</t>
+          <t>09-07-2025 09:19:49</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-07-2025 12:10:52</t>
+          <t>09-07-2025 09:54:49</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08-07-2025 12:10:52</t>
+          <t>09-07-2025 09:54:49</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>08-07-2025 13:45:25</t>
+          <t>10-07-2025 07:07:08</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>11346</v>
+        <v>37477</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5574,36 +5567,43 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
       </c>
-      <c r="O71" t="n">
-        <v>0</v>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>40034 (esterno)</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>40034</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>03-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-11.57320601851852</v>
+        <v>-7.296620370370371</v>
       </c>
       <c r="S71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>252723</v>
+        <v>252638</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5611,33 +5611,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D72" t="n">
-        <v>153.9583333333333</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-07-2025 13:45:25</t>
+          <t>10-07-2025 07:07:08</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-07-2025 14:20:25</t>
+          <t>10-07-2025 07:37:08</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08-07-2025 14:20:25</t>
+          <t>10-07-2025 07:37:08</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>09-07-2025 08:54:22</t>
+          <t>10-07-2025 08:38:37</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>18475</v>
+        <v>7379</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5646,14 +5646,14 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M72" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -5663,14 +5663,14 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>06-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>0</v>
+        <v>-4.36015625</v>
       </c>
       <c r="S72" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/output.xlsx
+++ b/PS-VRP/Dati_output/output.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252978</v>
+        <v>252207</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>23.3</v>
+        <v>51.55</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -572,11 +572,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:18</t>
+          <t>08-07-2025 08:08:33</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2796</v>
+        <v>6186</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -602,19 +602,19 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-22.31965277777778</v>
+        <v>-12.33927083333333</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252371</v>
+        <v>252298</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -622,33 +622,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>50.04166666666666</v>
+        <v>70.76666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:18</t>
+          <t>08-07-2025 08:08:33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:57:18</t>
+          <t>08-07-2025 08:29:33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-07-2025 07:57:18</t>
+          <t>08-07-2025 08:29:33</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:47:20</t>
+          <t>08-07-2025 09:40:19</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>6005</v>
+        <v>8492</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -657,11 +657,11 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>76</v>
@@ -674,19 +674,19 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>23-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-8.36620949074074</v>
+        <v>-15.40299768518519</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>252047</v>
+        <v>252152</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -694,33 +694,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>70.88333333333334</v>
+        <v>27.36666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08-07-2025 08:47:20</t>
+          <t>08-07-2025 09:40:19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-07-2025 09:04:20</t>
+          <t>08-07-2025 09:59:19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-07-2025 09:04:20</t>
+          <t>08-07-2025 09:59:19</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-07-2025 10:15:13</t>
+          <t>08-07-2025 10:26:41</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>8506</v>
+        <v>3284</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>76</v>
@@ -746,19 +746,19 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-9.427239583333334</v>
+        <v>-18.43519675925926</v>
       </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>252152</v>
+        <v>244023</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -766,33 +766,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>27.36666666666667</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>08-07-2025 10:15:13</t>
+          <t>08-07-2025 10:26:41</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-07-2025 10:32:13</t>
+          <t>08-07-2025 11:00:41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-07-2025 10:32:13</t>
+          <t>08-07-2025 11:00:41</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-07-2025 10:59:35</t>
+          <t>08-07-2025 11:08:59</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3284</v>
+        <v>997</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -801,14 +801,14 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -818,19 +818,19 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-18.45804976851852</v>
+        <v>-281.4645775462963</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252546</v>
+        <v>252285</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -838,33 +838,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>54.63333333333333</v>
+        <v>46.14166666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>08-07-2025 10:59:35</t>
+          <t>08-07-2025 11:08:59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-07-2025 11:16:35</t>
+          <t>08-07-2025 11:27:59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-07-2025 11:16:35</t>
+          <t>08-07-2025 11:27:59</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-07-2025 12:11:13</t>
+          <t>08-07-2025 12:14:08</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6556</v>
+        <v>5537</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -873,36 +873,41 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N6" t="n">
+        <v>40032</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>40032</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>02-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-7.507795138888889</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252402</v>
+        <v>251919</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -910,33 +915,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>25.075</v>
+        <v>140.05</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:11:13</t>
+          <t>08-07-2025 12:14:08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:30:13</t>
+          <t>08-07-2025 12:46:08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:30:13</t>
+          <t>08-07-2025 12:46:08</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:55:18</t>
+          <t>09-07-2025 07:06:11</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3009</v>
+        <v>16806</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,14 +950,14 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -962,19 +967,19 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-11.53840277777778</v>
+        <v>-23.29596064814815</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252345</v>
+        <v>252085</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -982,33 +987,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>43.325</v>
+        <v>28.55</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>08-07-2025 12:55:18</t>
+          <t>09-07-2025 07:06:11</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>08-07-2025 13:29:18</t>
+          <t>09-07-2025 07:38:11</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>08-07-2025 13:29:18</t>
+          <t>09-07-2025 07:38:11</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>08-07-2025 14:12:37</t>
+          <t>09-07-2025 08:06:44</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>5199</v>
+        <v>3426</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1021,7 +1026,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1034,19 +1039,19 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.5921006944444445</v>
+        <v>-21.33800925925926</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252686</v>
+        <v>252345</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1054,33 +1059,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>329.15</v>
+        <v>43.325</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>08-07-2025 14:12:37</t>
+          <t>09-07-2025 08:06:44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>08-07-2025 14:46:37</t>
+          <t>09-07-2025 08:23:44</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>08-07-2025 14:46:37</t>
+          <t>09-07-2025 08:23:44</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-07-2025 12:15:46</t>
+          <t>09-07-2025 09:07:03</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>39498</v>
+        <v>5199</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1089,14 +1094,14 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1106,11 +1111,11 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-1.37990162037037</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1118,7 +1123,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252476</v>
+        <v>241783</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1129,30 +1134,30 @@
         <v>34</v>
       </c>
       <c r="D10" t="n">
-        <v>72.34166666666667</v>
+        <v>43.325</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-07-2025 12:15:46</t>
+          <t>09-07-2025 09:07:03</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-07-2025 12:49:46</t>
+          <t>09-07-2025 09:41:03</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09-07-2025 12:49:46</t>
+          <t>09-07-2025 09:41:03</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09-07-2025 14:02:07</t>
+          <t>09-07-2025 10:24:23</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>8681</v>
+        <v>5199</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1161,14 +1166,14 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1178,19 +1183,19 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-2.584803240740741</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>245623</v>
+        <v>252784</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1198,33 +1203,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D11" t="n">
-        <v>220.1583333333333</v>
+        <v>26.975</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09-07-2025 14:02:07</t>
+          <t>09-07-2025 10:24:23</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-07-2025 14:34:07</t>
+          <t>09-07-2025 11:00:23</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09-07-2025 14:34:07</t>
+          <t>09-07-2025 11:00:23</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10-07-2025 10:14:16</t>
+          <t>09-07-2025 11:27:21</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>26419</v>
+        <v>3237</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1233,14 +1238,14 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1250,19 +1255,19 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-166.4265798611111</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252636</v>
+        <v>252785</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1270,33 +1275,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>11.275</v>
+        <v>55.75</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-07-2025 10:14:16</t>
+          <t>09-07-2025 11:27:21</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10-07-2025 10:46:16</t>
+          <t>09-07-2025 11:42:21</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10-07-2025 10:46:16</t>
+          <t>09-07-2025 11:42:21</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10-07-2025 10:57:33</t>
+          <t>09-07-2025 12:38:06</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1353</v>
+        <v>6690</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1309,7 +1314,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1322,19 +1327,19 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.4566319444444444</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252364</v>
+        <v>252284</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1342,33 +1347,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>94.55</v>
+        <v>51.26666666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-07-2025 10:57:33</t>
+          <t>09-07-2025 12:38:06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10-07-2025 11:14:33</t>
+          <t>09-07-2025 12:57:06</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10-07-2025 11:14:33</t>
+          <t>09-07-2025 12:57:06</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10-07-2025 12:49:06</t>
+          <t>09-07-2025 13:48:22</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>11346</v>
+        <v>6152</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1386,19 +1391,24 @@
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="O13" t="n">
-        <v>0</v>
+      <c r="N13" t="n">
+        <v>40032</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>40032</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>02-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-13.53409722222222</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>4</v>
@@ -1406,7 +1416,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252456</v>
+        <v>252665</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1414,33 +1424,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>144.4583333333333</v>
+        <v>48.875</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-07-2025 12:49:06</t>
+          <t>09-07-2025 13:48:22</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10-07-2025 13:06:06</t>
+          <t>09-07-2025 14:07:22</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10-07-2025 13:06:06</t>
+          <t>09-07-2025 14:07:22</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>11-07-2025 07:30:33</t>
+          <t>09-07-2025 14:56:15</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>17335</v>
+        <v>5865</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1449,11 +1459,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1466,11 +1476,11 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.312887731481482</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>7</v>
@@ -1478,7 +1488,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252350</v>
+        <v>243335</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1486,33 +1496,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
-        <v>51.88333333333333</v>
+        <v>275.0333333333334</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-07-2025 07:30:33</t>
+          <t>09-07-2025 14:56:15</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>11-07-2025 07:51:33</t>
+          <t>10-07-2025 07:30:15</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11-07-2025 07:51:33</t>
+          <t>10-07-2025 07:30:15</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11-07-2025 08:43:26</t>
+          <t>10-07-2025 12:05:17</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>6226</v>
+        <v>33004</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1521,14 +1531,14 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1538,11 +1548,11 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>02-08-2024 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-3.363501157407407</v>
+        <v>-342.5036689814815</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1550,41 +1560,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>244023</v>
+        <v>244828</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D16" t="n">
-        <v>8.308333333333334</v>
+        <v>43.35833333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>10-07-2025 12:05:17</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08-07-2025 07:50:00</t>
+          <t>10-07-2025 12:41:17</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08-07-2025 07:50:00</t>
+          <t>10-07-2025 12:41:17</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08-07-2025 07:58:18</t>
+          <t>10-07-2025 13:24:38</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>997</v>
+        <v>5203</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1593,14 +1603,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1610,11 +1620,11 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-281.3321585648148</v>
+        <v>-3.558778935185185</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -1622,41 +1632,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>252665</v>
+        <v>251685</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" t="n">
-        <v>48.875</v>
+        <v>98.75833333333334</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>08-07-2025 07:58:18</t>
+          <t>10-07-2025 13:24:38</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>08-07-2025 08:31:18</t>
+          <t>10-07-2025 13:58:38</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08-07-2025 08:31:18</t>
+          <t>10-07-2025 13:58:38</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>08-07-2025 09:20:11</t>
+          <t>11-07-2025 07:37:24</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5865</v>
+        <v>11851</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1665,11 +1675,11 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1682,53 +1692,53 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251790</v>
+        <v>252547</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>235.0583333333333</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>08-07-2025 09:20:11</t>
+          <t>11-07-2025 07:37:24</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>08-07-2025 10:02:11</t>
+          <t>11-07-2025 07:54:24</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08-07-2025 10:02:11</t>
+          <t>11-07-2025 07:54:24</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>08-07-2025 13:57:14</t>
+          <t>11-07-2025 09:15:34</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>28207</v>
+        <v>9740</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1737,14 +1747,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1754,11 +1764,11 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-8.581417824074075</v>
+        <v>-7.385810185185186</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1766,41 +1776,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252201</v>
+        <v>252350</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>34.10833333333333</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>08-07-2025 13:57:14</t>
+          <t>11-07-2025 09:15:34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>08-07-2025 14:26:14</t>
+          <t>11-07-2025 09:36:34</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08-07-2025 14:26:14</t>
+          <t>11-07-2025 09:36:34</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>09-07-2025 07:00:21</t>
+          <t>11-07-2025 10:28:27</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>4093</v>
+        <v>6226</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1809,14 +1819,14 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1826,19 +1836,19 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-19.29190972222222</v>
+        <v>-3.436423611111111</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252999</v>
+        <v>245623</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1849,30 +1859,30 @@
         <v>42</v>
       </c>
       <c r="D20" t="n">
-        <v>325.8416666666666</v>
+        <v>220.1583333333333</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09-07-2025 07:00:21</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-07-2025 07:42:21</t>
+          <t>08-07-2025 07:42:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09-07-2025 07:42:21</t>
+          <t>08-07-2025 07:42:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>09-07-2025 13:08:11</t>
+          <t>08-07-2025 11:22:09</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>39101</v>
+        <v>26419</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1881,14 +1891,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
         <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1898,19 +1908,19 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>06-08-2025 00:00:00</t>
+          <t>25-01-2025 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-164.4737210648148</v>
       </c>
       <c r="S20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252298</v>
+        <v>252146</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1918,33 +1928,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D21" t="n">
-        <v>70.76666666666667</v>
+        <v>66.63333333333334</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>09-07-2025 13:08:11</t>
+          <t>08-07-2025 11:22:09</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09-07-2025 13:56:11</t>
+          <t>08-07-2025 12:04:09</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>09-07-2025 13:56:11</t>
+          <t>08-07-2025 12:04:09</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>10-07-2025 07:06:57</t>
+          <t>08-07-2025 13:10:47</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>8492</v>
+        <v>7996</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1957,7 +1967,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>76</v>
@@ -1970,19 +1980,19 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-17.29649884259259</v>
+        <v>-9.54916087962963</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>252277</v>
+        <v>252286</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1990,33 +2000,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D22" t="n">
-        <v>144.925</v>
+        <v>51.26666666666667</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-07-2025 07:06:57</t>
+          <t>08-07-2025 13:10:47</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10-07-2025 07:52:57</t>
+          <t>08-07-2025 13:37:47</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10-07-2025 07:52:57</t>
+          <t>08-07-2025 13:37:47</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>10-07-2025 10:17:53</t>
+          <t>08-07-2025 14:29:03</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>17391</v>
+        <v>6152</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2029,15 +2039,13 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>40024 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N22" t="n">
+        <v>40032</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2045,23 +2053,23 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>40024</v>
+        <v>40032</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>02-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-20.42908564814815</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252087</v>
+        <v>252402</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2069,33 +2077,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
-        <v>35.5</v>
+        <v>25.075</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-07-2025 10:17:53</t>
+          <t>08-07-2025 14:29:03</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10-07-2025 10:46:53</t>
+          <t>08-07-2025 14:56:03</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10-07-2025 10:46:53</t>
+          <t>08-07-2025 14:56:03</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>10-07-2025 11:22:23</t>
+          <t>09-07-2025 07:21:08</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>4260</v>
+        <v>3009</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2104,14 +2112,14 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2121,19 +2129,19 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-11.47387731481481</v>
+        <v>-12.30634259259259</v>
       </c>
       <c r="S23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>252085</v>
+        <v>252371</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2144,30 +2152,30 @@
         <v>27</v>
       </c>
       <c r="D24" t="n">
-        <v>28.55</v>
+        <v>50.04166666666666</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-07-2025 11:22:23</t>
+          <t>09-07-2025 07:21:08</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10-07-2025 11:49:23</t>
+          <t>09-07-2025 07:48:08</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10-07-2025 11:49:23</t>
+          <t>09-07-2025 07:48:08</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>10-07-2025 12:17:56</t>
+          <t>09-07-2025 08:38:10</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3426</v>
+        <v>6005</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2176,14 +2184,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2193,53 +2201,53 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-22.5124537037037</v>
+        <v>-9.35984375</v>
       </c>
       <c r="S24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>252243</v>
+        <v>252723</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D25" t="n">
-        <v>96.70833333333333</v>
+        <v>153.9583333333333</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 08:38:10</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>09-07-2025 09:05:10</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>09-07-2025 09:05:10</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08-07-2025 08:55:42</t>
+          <t>09-07-2025 11:39:08</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>11605</v>
+        <v>18475</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2252,7 +2260,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>76</v>
@@ -2265,7 +2273,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>31-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
@@ -2277,41 +2285,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>243569</v>
+        <v>252814</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D26" t="n">
-        <v>21.675</v>
+        <v>50.08333333333334</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>08-07-2025 08:55:42</t>
+          <t>09-07-2025 11:39:08</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>08-07-2025 09:12:42</t>
+          <t>09-07-2025 12:06:08</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08-07-2025 09:12:42</t>
+          <t>09-07-2025 12:06:08</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08-07-2025 09:34:23</t>
+          <t>09-07-2025 12:56:13</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2601</v>
+        <v>6010</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2320,11 +2328,11 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>76</v>
@@ -2337,11 +2345,11 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-295.3988773148148</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>2</v>
@@ -2349,41 +2357,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252244</v>
+        <v>252636</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D27" t="n">
-        <v>107.575</v>
+        <v>11.275</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>08-07-2025 09:34:23</t>
+          <t>09-07-2025 12:56:13</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>08-07-2025 09:51:23</t>
+          <t>09-07-2025 13:38:13</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08-07-2025 09:51:23</t>
+          <t>09-07-2025 13:38:13</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>08-07-2025 11:38:57</t>
+          <t>09-07-2025 13:49:29</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>12909</v>
+        <v>1353</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2392,14 +2400,14 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2409,53 +2417,53 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-1.485387731481481</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>252146</v>
+        <v>252364</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D28" t="n">
-        <v>66.63333333333334</v>
+        <v>94.55</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>08-07-2025 11:38:57</t>
+          <t>09-07-2025 13:49:29</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>08-07-2025 11:55:57</t>
+          <t>09-07-2025 14:16:29</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08-07-2025 11:55:57</t>
+          <t>09-07-2025 14:16:29</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>08-07-2025 13:02:35</t>
+          <t>10-07-2025 07:51:02</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>7996</v>
+        <v>11346</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2464,14 +2472,14 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2481,53 +2489,53 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-9.543466435185184</v>
+        <v>-13.32711226851852</v>
       </c>
       <c r="S28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251798</v>
+        <v>252087</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D29" t="n">
-        <v>123.2916666666667</v>
+        <v>35.5</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>08-07-2025 13:02:35</t>
+          <t>10-07-2025 07:51:02</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>08-07-2025 13:19:35</t>
+          <t>10-07-2025 08:18:02</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08-07-2025 13:19:35</t>
+          <t>10-07-2025 08:18:02</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>09-07-2025 07:22:53</t>
+          <t>10-07-2025 08:53:32</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>14795</v>
+        <v>4260</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2536,14 +2544,14 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2553,53 +2561,53 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0</v>
+        <v>-11.3705150462963</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>243525</v>
+        <v>252347</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D30" t="n">
-        <v>129.9833333333333</v>
+        <v>92.28333333333333</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09-07-2025 07:22:53</t>
+          <t>10-07-2025 08:53:32</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-07-2025 07:39:53</t>
+          <t>10-07-2025 09:20:32</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09-07-2025 07:39:53</t>
+          <t>10-07-2025 09:20:32</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>09-07-2025 09:49:52</t>
+          <t>10-07-2025 10:52:49</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>15598</v>
+        <v>11074</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2608,14 +2616,14 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2625,11 +2633,11 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-5.40962962962963</v>
+        <v>-2.453350694444445</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
@@ -2637,41 +2645,41 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>243529</v>
+        <v>252999</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D31" t="n">
-        <v>129.9833333333333</v>
+        <v>325.8416666666666</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09-07-2025 09:49:52</t>
+          <t>10-07-2025 10:52:49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-07-2025 10:04:52</t>
+          <t>10-07-2025 11:19:49</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09-07-2025 10:04:52</t>
+          <t>10-07-2025 11:19:49</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09-07-2025 12:14:51</t>
+          <t>11-07-2025 08:45:40</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>15598</v>
+        <v>39101</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2680,14 +2688,14 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2697,30 +2705,30 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>06-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-5.5103125</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>252549</v>
+        <v>251790</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>34.5</v>
+        <v>21</v>
       </c>
       <c r="D32" t="n">
-        <v>92.59166666666667</v>
+        <v>235.0583333333333</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2729,21 +2737,21 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:30</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08-07-2025 07:34:30</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>08-07-2025 09:07:05</t>
+          <t>08-07-2025 11:16:03</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>11111</v>
+        <v>28207</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2752,14 +2760,14 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
         <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2769,53 +2777,53 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>20-07-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0</v>
+        <v>-8.469484953703704</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>252652</v>
+        <v>252978</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>34.5</v>
+        <v>19</v>
       </c>
       <c r="D33" t="n">
-        <v>186.0083333333333</v>
+        <v>23.3</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>08-07-2025 09:07:05</t>
+          <t>08-07-2025 11:16:03</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>08-07-2025 09:41:35</t>
+          <t>08-07-2025 11:35:03</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08-07-2025 09:41:35</t>
+          <t>08-07-2025 11:35:03</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>08-07-2025 12:47:36</t>
+          <t>08-07-2025 11:58:21</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>22321</v>
+        <v>2796</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2824,14 +2832,14 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
         <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2841,53 +2849,53 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>0</v>
+        <v>-22.4988599537037</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251632</v>
+        <v>252244</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>52.5</v>
+        <v>17</v>
       </c>
       <c r="D34" t="n">
-        <v>588.5083333333333</v>
+        <v>107.575</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>08-07-2025 12:47:36</t>
+          <t>08-07-2025 11:58:21</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>08-07-2025 13:40:06</t>
+          <t>08-07-2025 12:15:21</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08-07-2025 13:40:06</t>
+          <t>08-07-2025 12:15:21</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>10-07-2025 07:28:36</t>
+          <t>08-07-2025 14:02:56</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>70621</v>
+        <v>12909</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2896,14 +2904,14 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2917,45 +2925,45 @@
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-3.311533564814815</v>
+        <v>-1.58537037037037</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251495</v>
+        <v>252476</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D35" t="n">
         <v>72.34166666666667</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 14:02:56</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>08-07-2025 14:34:56</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>08-07-2025 14:34:56</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>08-07-2025 08:42:20</t>
+          <t>09-07-2025 07:47:16</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2972,7 +2980,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -2985,11 +2993,11 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>0</v>
+        <v>-2.324496527777778</v>
       </c>
       <c r="S35" t="n">
         <v>4</v>
@@ -2997,41 +3005,41 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>252785</v>
+        <v>251849</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D36" t="n">
-        <v>55.75</v>
+        <v>33.38333333333333</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>08-07-2025 08:42:20</t>
+          <t>09-07-2025 07:47:16</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>08-07-2025 09:12:20</t>
+          <t>09-07-2025 08:06:16</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08-07-2025 09:12:20</t>
+          <t>09-07-2025 08:06:16</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>08-07-2025 10:08:05</t>
+          <t>09-07-2025 08:39:39</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>6690</v>
+        <v>4006</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3044,66 +3052,73 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
       </c>
-      <c r="O36" t="n">
-        <v>0</v>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>40042 (esterno)</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>40042</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>25-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>0</v>
+        <v>-14.36087384259259</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252713</v>
+        <v>252638</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D37" t="n">
-        <v>907.7666666666667</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>08-07-2025 10:08:05</t>
+          <t>09-07-2025 08:39:39</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>08-07-2025 10:38:05</t>
+          <t>09-07-2025 09:02:39</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>08-07-2025 10:38:05</t>
+          <t>09-07-2025 09:02:39</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>10-07-2025 09:45:51</t>
+          <t>09-07-2025 10:04:09</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>108932</v>
+        <v>7379</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3112,7 +3127,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -3129,53 +3144,53 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>18-07-2025 00:00:00</t>
+          <t>06-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>0</v>
+        <v>-3.419548611111111</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251926</v>
+        <v>252277</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D38" t="n">
-        <v>78.91666666666667</v>
+        <v>144.925</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-07-2025 09:45:51</t>
+          <t>09-07-2025 10:04:09</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>10-07-2025 10:15:51</t>
+          <t>09-07-2025 10:23:09</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10-07-2025 10:15:51</t>
+          <t>09-07-2025 10:23:09</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>10-07-2025 11:34:46</t>
+          <t>09-07-2025 12:48:04</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>9470</v>
+        <v>17391</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3188,66 +3203,73 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
       </c>
-      <c r="O38" t="n">
-        <v>0</v>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>40024 (esterno)</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>40024</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-1.482482638888889</v>
+        <v>-19.53338541666667</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>250284</v>
+        <v>252549</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D39" t="n">
-        <v>146.35</v>
+        <v>92.59166666666667</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-07-2025 11:34:46</t>
+          <t>09-07-2025 12:48:04</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>10-07-2025 12:19:46</t>
+          <t>09-07-2025 13:07:04</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10-07-2025 12:19:46</t>
+          <t>09-07-2025 13:07:04</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>10-07-2025 14:46:07</t>
+          <t>09-07-2025 14:39:40</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>17562</v>
+        <v>11111</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3260,7 +3282,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3273,53 +3295,53 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>20-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-120.6153645833333</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251674</v>
+        <v>252652</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D40" t="n">
-        <v>147.125</v>
+        <v>186.0083333333333</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-07-2025 14:46:07</t>
+          <t>09-07-2025 14:39:40</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>11-07-2025 07:41:07</t>
+          <t>09-07-2025 14:58:40</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11-07-2025 07:41:07</t>
+          <t>09-07-2025 14:58:40</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>11-07-2025 10:08:15</t>
+          <t>10-07-2025 10:04:40</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>17655</v>
+        <v>22321</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3328,11 +3350,11 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -3345,53 +3367,53 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-4.422395833333334</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252157</v>
+        <v>252456</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D41" t="n">
-        <v>396.825</v>
+        <v>144.4583333333333</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-07-2025 10:08:15</t>
+          <t>10-07-2025 10:04:40</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>11-07-2025 10:58:15</t>
+          <t>10-07-2025 10:23:40</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>11-07-2025 10:58:15</t>
+          <t>10-07-2025 10:23:40</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>14-07-2025 09:35:04</t>
+          <t>10-07-2025 12:48:08</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>47619</v>
+        <v>17335</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3404,7 +3426,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
@@ -3417,11 +3439,11 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-26.39935763888889</v>
+        <v>-0.533425925925926</v>
       </c>
       <c r="S41" t="n">
         <v>7</v>
@@ -3429,41 +3451,41 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252790</v>
+        <v>251231</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D42" t="n">
-        <v>12.10833333333333</v>
+        <v>312.3083333333333</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>14-07-2025 09:35:04</t>
+          <t>10-07-2025 12:48:08</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>14-07-2025 10:20:04</t>
+          <t>10-07-2025 13:05:08</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>14-07-2025 10:20:04</t>
+          <t>10-07-2025 13:05:08</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>14-07-2025 10:32:11</t>
+          <t>11-07-2025 10:17:26</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1453</v>
+        <v>37477</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3472,70 +3494,77 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
       </c>
-      <c r="O42" t="n">
-        <v>0</v>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>40034 (esterno)</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>40034</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>25-07-2025 00:00:00</t>
+          <t>03-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
+        <v>-8.428778935185186</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252755</v>
+        <v>251632</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>30</v>
+        <v>56.5</v>
       </c>
       <c r="D43" t="n">
-        <v>109.575</v>
+        <v>588.5083333333333</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>14-07-2025 10:32:11</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>14-07-2025 11:02:11</t>
+          <t>08-07-2025 07:56:30</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>14-07-2025 11:02:11</t>
+          <t>08-07-2025 07:56:30</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>14-07-2025 12:51:45</t>
+          <t>09-07-2025 09:45:00</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>13149</v>
+        <v>70621</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3544,11 +3573,11 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3561,19 +3590,19 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0</v>
+        <v>-2.406255787037037</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>252899</v>
+        <v>243524</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3581,33 +3610,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D44" t="n">
-        <v>180.5666666666667</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>14-07-2025 12:51:45</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>14-07-2025 13:21:45</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>14-07-2025 13:21:45</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>15-07-2025 08:22:19</t>
+          <t>08-07-2025 08:46:37</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>21668</v>
+        <v>7994</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3616,14 +3645,14 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
         <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3633,53 +3662,53 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
+        <v>-4.365706018518519</v>
       </c>
       <c r="S44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252814</v>
+        <v>252243</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
-        <v>50.08333333333334</v>
+        <v>96.70833333333333</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 08:46:37</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>08-07-2025 09:16:37</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>08-07-2025 09:16:37</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>08-07-2025 08:07:05</t>
+          <t>08-07-2025 10:53:19</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>6010</v>
+        <v>11605</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3712,46 +3741,46 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252144</v>
+        <v>252071</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
-        <v>54.13333333333333</v>
+        <v>45.73333333333333</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>08-07-2025 08:07:05</t>
+          <t>08-07-2025 10:53:19</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>08-07-2025 08:24:05</t>
+          <t>08-07-2025 11:23:19</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>08-07-2025 08:24:05</t>
+          <t>08-07-2025 11:23:19</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>08-07-2025 09:18:13</t>
+          <t>08-07-2025 12:09:03</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>6496</v>
+        <v>5488</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3764,7 +3793,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M46" t="n">
         <v>76</v>
@@ -3777,53 +3806,53 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>12-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-9.387650462962963</v>
+        <v>-26.50629050925926</v>
       </c>
       <c r="S46" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252237</v>
+        <v>251926</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D47" t="n">
-        <v>84.95</v>
+        <v>78.91666666666667</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>08-07-2025 09:18:13</t>
+          <t>08-07-2025 12:09:03</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>08-07-2025 09:50:13</t>
+          <t>08-07-2025 12:49:03</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08-07-2025 09:50:13</t>
+          <t>08-07-2025 12:49:03</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>08-07-2025 11:15:10</t>
+          <t>08-07-2025 14:07:58</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>10194</v>
+        <v>9470</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3832,14 +3861,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
         <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3849,53 +3878,53 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-7.468865740740741</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>243335</v>
+        <v>252713</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
-        <v>275.0333333333334</v>
+        <v>907.7666666666667</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>08-07-2025 11:15:10</t>
+          <t>08-07-2025 14:07:58</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>08-07-2025 11:51:10</t>
+          <t>08-07-2025 14:37:58</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08-07-2025 11:51:10</t>
+          <t>08-07-2025 14:37:58</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>09-07-2025 08:26:12</t>
+          <t>10-07-2025 13:45:44</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>33004</v>
+        <v>108932</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3904,14 +3933,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M48" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3921,11 +3950,11 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>02-08-2024 00:00:00</t>
+          <t>18-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-341.3515277777778</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
         <v>1</v>
@@ -3933,41 +3962,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251919</v>
+        <v>252783</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
-        <v>140.05</v>
+        <v>11.95</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-07-2025 08:26:12</t>
+          <t>10-07-2025 13:45:44</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>09-07-2025 08:43:12</t>
+          <t>10-07-2025 14:15:44</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09-07-2025 08:43:12</t>
+          <t>10-07-2025 14:15:44</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>09-07-2025 11:03:15</t>
+          <t>10-07-2025 14:27:41</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>16806</v>
+        <v>1434</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3976,14 +4005,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M49" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3993,11 +4022,11 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-23.46059027777778</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
         <v>1</v>
@@ -4005,41 +4034,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>252997</v>
+        <v>252336</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
-        <v>40.01666666666667</v>
+        <v>120.275</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09-07-2025 11:03:15</t>
+          <t>10-07-2025 14:27:41</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>09-07-2025 11:20:15</t>
+          <t>10-07-2025 14:57:41</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09-07-2025 11:20:15</t>
+          <t>10-07-2025 14:57:41</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>09-07-2025 12:00:16</t>
+          <t>11-07-2025 08:57:58</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>4802</v>
+        <v>14433</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4048,14 +4077,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M50" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -4065,53 +4094,53 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-7.373587962962963</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>241783</v>
+        <v>252220</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D51" t="n">
-        <v>43.325</v>
+        <v>80.51666666666667</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>11-07-2025 08:57:58</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>11-07-2025 09:27:58</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>11-07-2025 09:27:58</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>08-07-2025 08:23:19</t>
+          <t>11-07-2025 10:48:29</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>5199</v>
+        <v>9662</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4120,14 +4149,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -4137,53 +4166,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0</v>
+        <v>-25.45033564814815</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>252207</v>
+        <v>251495</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
-        <v>51.55</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>08-07-2025 08:23:19</t>
+          <t>11-07-2025 10:48:29</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>08-07-2025 08:58:19</t>
+          <t>11-07-2025 11:18:29</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08-07-2025 08:58:19</t>
+          <t>11-07-2025 11:18:29</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>08-07-2025 09:49:52</t>
+          <t>11-07-2025 12:30:49</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>6186</v>
+        <v>8681</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4192,14 +4221,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M52" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4209,53 +4238,53 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-12.40963541666667</v>
+        <v>-2.52140625</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>252723</v>
+        <v>252334</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D53" t="n">
-        <v>153.9583333333333</v>
+        <v>486.5916666666666</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>08-07-2025 09:49:52</t>
+          <t>11-07-2025 12:30:49</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>08-07-2025 10:14:52</t>
+          <t>11-07-2025 13:15:49</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08-07-2025 10:14:52</t>
+          <t>11-07-2025 13:15:49</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>08-07-2025 12:48:50</t>
+          <t>14-07-2025 13:22:25</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>18475</v>
+        <v>58391</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4264,14 +4293,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4281,53 +4310,53 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0</v>
+        <v>-10.5572337962963</v>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252071</v>
+        <v>252470</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D54" t="n">
-        <v>45.73333333333333</v>
+        <v>62.5</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>08-07-2025 12:48:50</t>
+          <t>14-07-2025 13:22:25</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>08-07-2025 13:23:50</t>
+          <t>14-07-2025 13:52:25</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08-07-2025 13:23:50</t>
+          <t>14-07-2025 13:52:25</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>08-07-2025 14:09:34</t>
+          <t>14-07-2025 14:54:55</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>5488</v>
+        <v>7500</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4336,14 +4365,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4353,53 +4382,53 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>12-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-26.58997685185185</v>
+        <v>-10.62146990740741</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251685</v>
+        <v>252467</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D55" t="n">
-        <v>98.75833333333334</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>08-07-2025 14:09:34</t>
+          <t>14-07-2025 14:54:55</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>08-07-2025 14:44:34</t>
+          <t>15-07-2025 07:24:55</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08-07-2025 14:44:34</t>
+          <t>15-07-2025 07:24:55</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>09-07-2025 08:23:19</t>
+          <t>15-07-2025 08:46:05</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>11851</v>
+        <v>9740</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4412,7 +4441,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4425,7 +4454,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
@@ -4437,41 +4466,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251849</v>
+        <v>252790</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D56" t="n">
-        <v>33.38333333333333</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-07-2025 08:23:19</t>
+          <t>15-07-2025 08:46:05</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>09-07-2025 08:53:19</t>
+          <t>15-07-2025 09:11:05</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>09-07-2025 08:53:19</t>
+          <t>15-07-2025 09:11:05</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>09-07-2025 09:26:42</t>
+          <t>15-07-2025 09:23:11</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4006</v>
+        <v>1453</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4489,68 +4518,61 @@
       <c r="M56" t="n">
         <v>70</v>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>40042 (esterno)</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O56" t="n">
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>40042</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>25-06-2025 00:00:00</t>
+          <t>25-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-14.3935474537037</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>252063</v>
+        <v>250284</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>40</v>
       </c>
       <c r="D57" t="n">
-        <v>79.94166666666666</v>
+        <v>146.35</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-07-2025 09:26:42</t>
+          <t>15-07-2025 09:23:11</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>09-07-2025 10:06:42</t>
+          <t>15-07-2025 10:03:11</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>09-07-2025 10:06:42</t>
+          <t>15-07-2025 10:03:11</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>09-07-2025 11:26:39</t>
+          <t>15-07-2025 12:29:32</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>9593</v>
+        <v>17562</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4559,14 +4581,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M57" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4576,53 +4598,53 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-8.476840277777777</v>
+        <v>-125.5205150462963</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>245089</v>
+        <v>251674</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D58" t="n">
-        <v>1022.208333333333</v>
+        <v>147.125</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-07-2025 11:26:39</t>
+          <t>15-07-2025 12:29:32</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>09-07-2025 11:56:39</t>
+          <t>15-07-2025 13:24:32</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>09-07-2025 11:56:39</t>
+          <t>15-07-2025 13:24:32</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>11-07-2025 12:58:51</t>
+          <t>16-07-2025 07:51:40</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>122665</v>
+        <v>17655</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4631,70 +4653,70 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L58" t="n">
+        <v>14</v>
+      </c>
+      <c r="M58" t="n">
+        <v>70</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>07-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R58" s="1" t="n">
+        <v>-9.327546296296296</v>
+      </c>
+      <c r="S58" t="n">
         <v>4</v>
-      </c>
-      <c r="M58" t="n">
-        <v>76</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>31-12-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R58" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S58" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>252547</v>
+        <v>252157</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D59" t="n">
-        <v>81.16666666666667</v>
+        <v>396.825</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-07-2025 12:58:51</t>
+          <t>16-07-2025 07:51:40</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>11-07-2025 13:33:51</t>
+          <t>16-07-2025 08:41:40</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>11-07-2025 13:33:51</t>
+          <t>16-07-2025 08:41:40</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>11-07-2025 14:55:01</t>
+          <t>17-07-2025 07:18:29</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>9740</v>
+        <v>47619</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4707,7 +4729,7 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
@@ -4720,53 +4742,53 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-7.621545138888889</v>
+        <v>-29.30450810185185</v>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252470</v>
+        <v>252755</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D60" t="n">
-        <v>62.5</v>
+        <v>109.575</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-07-2025 14:55:01</t>
+          <t>17-07-2025 07:18:29</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>14-07-2025 07:25:01</t>
+          <t>17-07-2025 08:08:29</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>14-07-2025 07:25:01</t>
+          <t>17-07-2025 08:08:29</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>14-07-2025 08:27:31</t>
+          <t>17-07-2025 09:58:04</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>7500</v>
+        <v>13149</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4792,53 +4814,53 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-10.35244791666667</v>
+        <v>-0.4153240740740741</v>
       </c>
       <c r="S60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>252334</v>
+        <v>252899</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>30</v>
       </c>
       <c r="D61" t="n">
-        <v>486.5916666666666</v>
+        <v>180.5666666666667</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>14-07-2025 08:27:31</t>
+          <t>17-07-2025 09:58:04</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>14-07-2025 08:57:31</t>
+          <t>17-07-2025 10:28:04</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>14-07-2025 08:57:31</t>
+          <t>17-07-2025 10:28:04</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>15-07-2025 09:04:07</t>
+          <t>17-07-2025 13:28:38</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>58391</v>
+        <v>21668</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4851,7 +4873,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
@@ -4864,11 +4886,11 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-11.3778587962963</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
         <v>2</v>
@@ -4876,41 +4898,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>252336</v>
+        <v>245089</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D62" t="n">
-        <v>120.275</v>
+        <v>1022.208333333333</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>15-07-2025 09:04:07</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>15-07-2025 09:29:07</t>
+          <t>08-07-2025 07:17:00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>15-07-2025 09:29:07</t>
+          <t>08-07-2025 07:17:00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>15-07-2025 11:29:23</t>
+          <t>10-07-2025 08:19:12</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>14433</v>
+        <v>122665</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4919,14 +4941,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M62" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -4936,53 +4958,53 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-11.47874421296296</v>
+        <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252467</v>
+        <v>243569</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D63" t="n">
-        <v>81.16666666666667</v>
+        <v>21.675</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>15-07-2025 11:29:23</t>
+          <t>10-07-2025 08:19:12</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>15-07-2025 11:54:23</t>
+          <t>10-07-2025 08:36:12</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>15-07-2025 11:54:23</t>
+          <t>10-07-2025 08:36:12</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>15-07-2025 13:15:33</t>
+          <t>10-07-2025 08:57:53</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>9740</v>
+        <v>2601</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -4991,14 +5013,14 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -5008,53 +5030,53 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>0</v>
+        <v>-297.3735300925926</v>
       </c>
       <c r="S63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252347</v>
+        <v>252201</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D64" t="n">
-        <v>92.28333333333333</v>
+        <v>34.10833333333333</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>10-07-2025 08:57:53</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>10-07-2025 09:16:53</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>10-07-2025 09:16:53</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>08-07-2025 09:02:17</t>
+          <t>10-07-2025 09:50:59</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>11074</v>
+        <v>4093</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5063,70 +5085,70 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
+        <v>3</v>
+      </c>
+      <c r="M64" t="n">
+        <v>76</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>20-06-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R64" s="1" t="n">
+        <v>-20.41041087962963</v>
+      </c>
+      <c r="S64" t="n">
         <v>2</v>
-      </c>
-      <c r="M64" t="n">
-        <v>70</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>08-07-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R64" s="1" t="n">
-        <v>-0.3765856481481482</v>
-      </c>
-      <c r="S64" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252230</v>
+        <v>252063</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D65" t="n">
-        <v>63.125</v>
+        <v>79.94166666666666</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-07-2025 09:02:17</t>
+          <t>10-07-2025 09:50:59</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>08-07-2025 09:37:17</t>
+          <t>10-07-2025 10:09:59</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>08-07-2025 09:37:17</t>
+          <t>10-07-2025 10:09:59</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>08-07-2025 10:40:24</t>
+          <t>10-07-2025 11:29:56</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>7575</v>
+        <v>9593</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5152,53 +5174,53 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>13-06-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-25.44472800925926</v>
+        <v>-9.479120370370371</v>
       </c>
       <c r="S65" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>243524</v>
+        <v>252144</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D66" t="n">
-        <v>66.61666666666666</v>
+        <v>54.13333333333333</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>08-07-2025 10:40:24</t>
+          <t>10-07-2025 11:29:56</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>08-07-2025 11:15:24</t>
+          <t>10-07-2025 11:48:56</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>08-07-2025 11:15:24</t>
+          <t>10-07-2025 11:48:56</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>08-07-2025 12:22:01</t>
+          <t>10-07-2025 12:43:04</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>7994</v>
+        <v>6496</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5224,53 +5246,53 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-4.515295138888889</v>
+        <v>-11.52990740740741</v>
       </c>
       <c r="S66" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>244828</v>
+        <v>252230</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D67" t="n">
-        <v>43.35833333333333</v>
+        <v>63.125</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-07-2025 12:22:01</t>
+          <t>10-07-2025 12:43:04</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>08-07-2025 12:57:01</t>
+          <t>10-07-2025 13:02:04</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08-07-2025 12:57:01</t>
+          <t>10-07-2025 13:02:04</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>08-07-2025 13:40:23</t>
+          <t>10-07-2025 14:05:11</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>5203</v>
+        <v>7575</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5279,14 +5301,14 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M67" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -5296,53 +5318,53 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>13-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-1.569710648148148</v>
+        <v>-27.58693865740741</v>
       </c>
       <c r="S67" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>252784</v>
+        <v>252997</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D68" t="n">
-        <v>26.975</v>
+        <v>40.01666666666667</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-07-2025 13:40:23</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08-07-2025 14:20:23</t>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08-07-2025 14:20:23</t>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>08-07-2025 14:47:21</t>
+          <t>08-07-2025 08:10:01</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>3237</v>
+        <v>4802</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5351,14 +5373,14 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M68" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -5368,7 +5390,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
@@ -5380,41 +5402,41 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>252783</v>
+        <v>243525</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D69" t="n">
-        <v>11.95</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-07-2025 14:47:21</t>
+          <t>08-07-2025 08:10:01</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>09-07-2025 07:12:21</t>
+          <t>08-07-2025 08:45:01</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>09-07-2025 07:12:21</t>
+          <t>08-07-2025 08:45:01</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>09-07-2025 07:24:18</t>
+          <t>08-07-2025 10:55:00</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1434</v>
+        <v>15598</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5423,14 +5445,14 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M69" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -5440,11 +5462,11 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>0</v>
+        <v>-4.454861111111111</v>
       </c>
       <c r="S69" t="n">
         <v>1</v>
@@ -5452,41 +5474,41 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>252220</v>
+        <v>243529</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D70" t="n">
-        <v>80.51666666666667</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-07-2025 07:24:18</t>
+          <t>08-07-2025 10:55:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>09-07-2025 07:59:18</t>
+          <t>08-07-2025 11:20:00</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>09-07-2025 07:59:18</t>
+          <t>08-07-2025 11:20:00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>09-07-2025 09:19:49</t>
+          <t>08-07-2025 13:29:59</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>9662</v>
+        <v>15598</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5495,14 +5517,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M70" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -5512,53 +5534,53 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-23.38876736111111</v>
+        <v>-4.562488425925926</v>
       </c>
       <c r="S70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251231</v>
+        <v>252047</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>35</v>
       </c>
       <c r="D71" t="n">
-        <v>312.3083333333333</v>
+        <v>70.88333333333334</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-07-2025 09:19:49</t>
+          <t>08-07-2025 13:29:59</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>09-07-2025 09:54:49</t>
+          <t>08-07-2025 14:04:59</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>09-07-2025 09:54:49</t>
+          <t>08-07-2025 14:04:59</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>10-07-2025 07:07:08</t>
+          <t>09-07-2025 07:15:52</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>37477</v>
+        <v>8506</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5567,77 +5589,70 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M71" t="n">
-        <v>70</v>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>40034 (esterno)</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>40034</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-7.296620370370371</v>
+        <v>-10.30268518518518</v>
       </c>
       <c r="S71" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>252638</v>
+        <v>251798</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>30</v>
       </c>
       <c r="D72" t="n">
-        <v>61.49166666666667</v>
+        <v>123.2916666666667</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-07-2025 07:07:08</t>
+          <t>09-07-2025 07:15:52</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>10-07-2025 07:37:08</t>
+          <t>09-07-2025 07:45:52</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>10-07-2025 07:37:08</t>
+          <t>09-07-2025 07:45:52</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>10-07-2025 08:38:37</t>
+          <t>09-07-2025 09:49:09</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>7379</v>
+        <v>14795</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5646,14 +5661,14 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M72" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -5663,14 +5678,230 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>06-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-4.36015625</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>252686</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>40</v>
+      </c>
+      <c r="D73" t="n">
+        <v>329.15</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:40:00</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>08-07-2025 07:40:00</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:09:09</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>39498</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>3</v>
+      </c>
+      <c r="M73" t="n">
+        <v>152</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>21-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>252546</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>30</v>
+      </c>
+      <c r="D74" t="n">
+        <v>54.63333333333333</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:09:09</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:39:09</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>08-07-2025 13:39:09</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:33:47</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>6556</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>3</v>
+      </c>
+      <c r="M74" t="n">
+        <v>76</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>01-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R74" s="1" t="n">
+        <v>-7.606793981481482</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>252237</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>35</v>
+      </c>
+      <c r="D75" t="n">
+        <v>84.95</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>08-07-2025 14:33:47</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:08:47</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>09-07-2025 07:08:47</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>09-07-2025 08:33:44</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>10194</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>4</v>
+      </c>
+      <c r="M75" t="n">
+        <v>100</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>01-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R75" s="1" t="n">
+        <v>-8.35675925925926</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/output.xlsx
+++ b/PS-VRP/Dati_output/output.xlsx
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252207</v>
+        <v>252063</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>51.55</v>
+        <v>79.94166666666666</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -572,11 +572,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:08:33</t>
+          <t>08-07-2025 08:36:56</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6186</v>
+        <v>9593</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -602,11 +602,11 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-12.33927083333333</v>
+        <v>-7.358987268518518</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252298</v>
+        <v>251790</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -622,33 +622,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>70.76666666666667</v>
+        <v>235.0583333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:08:33</t>
+          <t>08-07-2025 08:36:56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:29:33</t>
+          <t>08-07-2025 08:55:56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:29:33</t>
+          <t>08-07-2025 08:55:56</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-07-2025 09:40:19</t>
+          <t>08-07-2025 12:51:00</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8492</v>
+        <v>28207</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>76</v>
@@ -674,19 +674,19 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-15.40299768518519</v>
+        <v>-8.535416666666666</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>252152</v>
+        <v>251926</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -694,33 +694,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>27.36666666666667</v>
+        <v>78.91666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08-07-2025 09:40:19</t>
+          <t>08-07-2025 12:51:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-07-2025 09:59:19</t>
+          <t>08-07-2025 13:23:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-07-2025 09:59:19</t>
+          <t>08-07-2025 13:23:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-07-2025 10:26:41</t>
+          <t>08-07-2025 14:41:55</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>3284</v>
+        <v>9470</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -729,14 +729,14 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -746,11 +746,11 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-18.43519675925926</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>244023</v>
+        <v>252999</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -766,33 +766,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>8.308333333333334</v>
+        <v>325.8416666666666</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>08-07-2025 10:26:41</t>
+          <t>08-07-2025 14:41:55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-07-2025 11:00:41</t>
+          <t>09-07-2025 07:00:55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-07-2025 11:00:41</t>
+          <t>09-07-2025 07:00:55</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-07-2025 11:08:59</t>
+          <t>09-07-2025 12:26:45</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>997</v>
+        <v>39101</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -801,11 +801,11 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -818,19 +818,19 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>06-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-281.4645775462963</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252285</v>
+        <v>245089</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -838,33 +838,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>46.14166666666667</v>
+        <v>1022.208333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>08-07-2025 11:08:59</t>
+          <t>09-07-2025 12:26:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-07-2025 11:27:59</t>
+          <t>09-07-2025 13:00:45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-07-2025 11:27:59</t>
+          <t>09-07-2025 13:00:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-07-2025 12:14:08</t>
+          <t>11-07-2025 14:02:58</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5537</v>
+        <v>122665</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -873,41 +873,36 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
-      </c>
-      <c r="N6" t="n">
-        <v>40032</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>40032</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>02-07-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251919</v>
+        <v>251495</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -918,30 +913,30 @@
         <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>140.05</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:14:08</t>
+          <t>11-07-2025 14:02:58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:46:08</t>
+          <t>11-07-2025 14:34:58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:46:08</t>
+          <t>11-07-2025 14:34:58</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09-07-2025 07:06:11</t>
+          <t>14-07-2025 07:47:18</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>16806</v>
+        <v>8681</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -950,14 +945,14 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -967,19 +962,19 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-23.29596064814815</v>
+        <v>-5.324519675925926</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252085</v>
+        <v>252336</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -987,33 +982,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>28.55</v>
+        <v>120.275</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09-07-2025 07:06:11</t>
+          <t>14-07-2025 07:47:18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-07-2025 07:38:11</t>
+          <t>14-07-2025 08:10:18</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09-07-2025 07:38:11</t>
+          <t>14-07-2025 08:10:18</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-07-2025 08:06:44</t>
+          <t>14-07-2025 10:10:35</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3426</v>
+        <v>14433</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1026,7 +1021,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1039,19 +1034,19 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-21.33800925925926</v>
+        <v>-10.4240162037037</v>
       </c>
       <c r="S8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252345</v>
+        <v>252686</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1059,33 +1054,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
-        <v>43.325</v>
+        <v>329.15</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-07-2025 08:06:44</t>
+          <t>14-07-2025 10:10:35</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-07-2025 08:23:44</t>
+          <t>14-07-2025 10:44:35</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09-07-2025 08:23:44</t>
+          <t>14-07-2025 10:44:35</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-07-2025 09:07:03</t>
+          <t>15-07-2025 08:13:44</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5199</v>
+        <v>39498</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1094,14 +1089,14 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1111,11 +1106,11 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>21-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.37990162037037</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1123,7 +1118,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>241783</v>
+        <v>252755</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1131,33 +1126,33 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>43.325</v>
+        <v>109.575</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-07-2025 09:07:03</t>
+          <t>15-07-2025 08:13:44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-07-2025 09:41:03</t>
+          <t>15-07-2025 08:45:44</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09-07-2025 09:41:03</t>
+          <t>15-07-2025 08:45:44</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09-07-2025 10:24:23</t>
+          <t>15-07-2025 10:35:18</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>5199</v>
+        <v>13149</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1166,14 +1161,14 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1183,19 +1178,19 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>252784</v>
+        <v>252899</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1203,33 +1198,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>26.975</v>
+        <v>180.5666666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09-07-2025 10:24:23</t>
+          <t>15-07-2025 10:35:18</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-07-2025 11:00:23</t>
+          <t>15-07-2025 10:52:18</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09-07-2025 11:00:23</t>
+          <t>15-07-2025 10:52:18</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>09-07-2025 11:27:21</t>
+          <t>15-07-2025 13:52:52</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3237</v>
+        <v>21668</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1242,7 +1237,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1262,12 +1257,12 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252785</v>
+        <v>252790</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1275,33 +1270,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>55.75</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09-07-2025 11:27:21</t>
+          <t>15-07-2025 13:52:52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09-07-2025 11:42:21</t>
+          <t>15-07-2025 14:11:52</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>09-07-2025 11:42:21</t>
+          <t>15-07-2025 14:11:52</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>09-07-2025 12:38:06</t>
+          <t>15-07-2025 14:23:59</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>6690</v>
+        <v>1453</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1314,7 +1309,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1327,19 +1322,19 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>25-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252284</v>
+        <v>252467</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1347,33 +1342,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>51.26666666666667</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09-07-2025 12:38:06</t>
+          <t>15-07-2025 14:23:59</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09-07-2025 12:57:06</t>
+          <t>15-07-2025 14:38:59</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>09-07-2025 12:57:06</t>
+          <t>15-07-2025 14:38:59</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>09-07-2025 13:48:22</t>
+          <t>16-07-2025 08:00:09</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>6152</v>
+        <v>9740</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1386,71 +1381,66 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="N13" t="n">
-        <v>40032</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>40032</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>02-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252665</v>
+        <v>252371</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D14" t="n">
-        <v>48.875</v>
+        <v>50.04166666666666</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09-07-2025 13:48:22</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09-07-2025 14:07:22</t>
+          <t>08-07-2025 07:46:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>09-07-2025 14:07:22</t>
+          <t>08-07-2025 07:46:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>09-07-2025 14:56:15</t>
+          <t>08-07-2025 08:36:02</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>5865</v>
+        <v>6005</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1459,14 +1449,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1476,53 +1466,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-8.358362268518519</v>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>243335</v>
+        <v>243524</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
-        <v>275.0333333333334</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09-07-2025 14:56:15</t>
+          <t>08-07-2025 08:36:02</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10-07-2025 07:30:15</t>
+          <t>08-07-2025 09:03:02</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10-07-2025 07:30:15</t>
+          <t>08-07-2025 09:03:02</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10-07-2025 12:05:17</t>
+          <t>08-07-2025 10:09:39</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>33004</v>
+        <v>7994</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1531,14 +1521,14 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1548,11 +1538,11 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>02-08-2024 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-342.5036689814815</v>
+        <v>-4.423373842592593</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1560,41 +1550,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>244828</v>
+        <v>252402</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>43.35833333333333</v>
+        <v>25.075</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-07-2025 12:05:17</t>
+          <t>08-07-2025 10:09:39</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10-07-2025 12:41:17</t>
+          <t>08-07-2025 10:38:39</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10-07-2025 12:41:17</t>
+          <t>08-07-2025 10:38:39</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>10-07-2025 13:24:38</t>
+          <t>08-07-2025 11:03:44</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5203</v>
+        <v>3009</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1603,14 +1593,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1620,53 +1610,53 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-3.558778935185185</v>
+        <v>-11.46092592592593</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251685</v>
+        <v>252298</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
-        <v>98.75833333333334</v>
+        <v>70.76666666666667</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-07-2025 13:24:38</t>
+          <t>08-07-2025 11:03:44</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10-07-2025 13:58:38</t>
+          <t>08-07-2025 11:30:44</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10-07-2025 13:58:38</t>
+          <t>08-07-2025 11:30:44</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11-07-2025 07:37:24</t>
+          <t>08-07-2025 12:41:30</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>11851</v>
+        <v>8492</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1675,14 +1665,14 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
         <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1692,53 +1682,53 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>23-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-15.52881944444444</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>252547</v>
+        <v>252345</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D18" t="n">
-        <v>81.16666666666667</v>
+        <v>43.325</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-07-2025 07:37:24</t>
+          <t>08-07-2025 12:41:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>11-07-2025 07:54:24</t>
+          <t>08-07-2025 13:27:30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11-07-2025 07:54:24</t>
+          <t>08-07-2025 13:27:30</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>11-07-2025 09:15:34</t>
+          <t>08-07-2025 14:10:49</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>9740</v>
+        <v>5199</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1751,7 +1741,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1764,11 +1754,11 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-7.385810185185186</v>
+        <v>-0.5908506944444445</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1776,41 +1766,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252350</v>
+        <v>252085</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
-        <v>51.88333333333333</v>
+        <v>28.55</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-07-2025 09:15:34</t>
+          <t>08-07-2025 14:10:49</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>11-07-2025 09:36:34</t>
+          <t>08-07-2025 14:37:49</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11-07-2025 09:36:34</t>
+          <t>08-07-2025 14:37:49</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>11-07-2025 10:28:27</t>
+          <t>09-07-2025 07:06:22</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>6226</v>
+        <v>3426</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1819,11 +1809,11 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1836,19 +1826,19 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-3.436423611111111</v>
+        <v>-21.29609375</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>245623</v>
+        <v>252652</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1856,33 +1846,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
-        <v>220.1583333333333</v>
+        <v>186.0083333333333</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 07:06:22</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>08-07-2025 07:42:00</t>
+          <t>09-07-2025 07:33:22</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08-07-2025 07:42:00</t>
+          <t>09-07-2025 07:33:22</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>08-07-2025 11:22:09</t>
+          <t>09-07-2025 10:39:23</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>26419</v>
+        <v>22321</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1891,14 +1881,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1908,19 +1898,19 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-164.4737210648148</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252146</v>
+        <v>252723</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1928,33 +1918,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D21" t="n">
-        <v>66.63333333333334</v>
+        <v>153.9583333333333</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>08-07-2025 11:22:09</t>
+          <t>09-07-2025 10:39:23</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>08-07-2025 12:04:09</t>
+          <t>09-07-2025 11:23:23</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08-07-2025 12:04:09</t>
+          <t>09-07-2025 11:23:23</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:47</t>
+          <t>09-07-2025 13:57:20</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>7996</v>
+        <v>18475</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1980,53 +1970,53 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>31-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-9.54916087962963</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>252286</v>
+        <v>252152</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>51.26666666666667</v>
+        <v>27.36666666666667</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:47</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>08-07-2025 13:37:47</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08-07-2025 13:37:47</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>08-07-2025 14:29:03</t>
+          <t>08-07-2025 07:46:22</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>6152</v>
+        <v>3284</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2035,7 +2025,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -2044,24 +2034,19 @@
       <c r="M22" t="n">
         <v>76</v>
       </c>
-      <c r="N22" t="n">
-        <v>40032</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O22" t="n">
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>40032</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
+        <v>-18.32386574074074</v>
       </c>
       <c r="S22" t="n">
         <v>4</v>
@@ -2069,41 +2054,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252402</v>
+        <v>252546</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>25.075</v>
+        <v>54.63333333333333</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>08-07-2025 14:29:03</t>
+          <t>08-07-2025 07:46:22</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>08-07-2025 14:56:03</t>
+          <t>08-07-2025 08:03:22</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08-07-2025 14:56:03</t>
+          <t>08-07-2025 08:03:22</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>09-07-2025 07:21:08</t>
+          <t>08-07-2025 08:58:00</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3009</v>
+        <v>6556</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2116,7 +2101,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
         <v>76</v>
@@ -2129,53 +2114,53 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-12.30634259259259</v>
+        <v>-7.373611111111111</v>
       </c>
       <c r="S23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>252371</v>
+        <v>251798</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>50.04166666666666</v>
+        <v>123.2916666666667</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>09-07-2025 07:21:08</t>
+          <t>08-07-2025 08:58:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>09-07-2025 07:48:08</t>
+          <t>08-07-2025 09:15:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>09-07-2025 07:48:08</t>
+          <t>08-07-2025 09:15:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>09-07-2025 08:38:10</t>
+          <t>08-07-2025 11:18:17</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>6005</v>
+        <v>14795</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2184,7 +2169,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -2201,53 +2186,53 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-9.35984375</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>252723</v>
+        <v>252087</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
-        <v>153.9583333333333</v>
+        <v>35.5</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>09-07-2025 08:38:10</t>
+          <t>08-07-2025 11:18:17</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>09-07-2025 09:05:10</t>
+          <t>08-07-2025 11:50:17</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>09-07-2025 09:05:10</t>
+          <t>08-07-2025 11:50:17</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>09-07-2025 11:39:08</t>
+          <t>08-07-2025 12:25:47</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>18475</v>
+        <v>4260</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2256,14 +2241,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
         <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2273,53 +2258,53 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0</v>
+        <v>-9.51791087962963</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>252814</v>
+        <v>243529</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D26" t="n">
-        <v>50.08333333333334</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>09-07-2025 11:39:08</t>
+          <t>08-07-2025 12:25:47</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>09-07-2025 12:06:08</t>
+          <t>08-07-2025 12:59:47</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>09-07-2025 12:06:08</t>
+          <t>08-07-2025 12:59:47</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>09-07-2025 12:56:13</t>
+          <t>09-07-2025 07:09:46</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>6010</v>
+        <v>15598</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2332,7 +2317,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
         <v>76</v>
@@ -2345,53 +2330,53 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0</v>
+        <v>-5.298454861111111</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252636</v>
+        <v>251849</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D27" t="n">
-        <v>11.275</v>
+        <v>33.38333333333333</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>09-07-2025 12:56:13</t>
+          <t>09-07-2025 07:09:46</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09-07-2025 13:38:13</t>
+          <t>09-07-2025 07:43:46</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>09-07-2025 13:38:13</t>
+          <t>09-07-2025 07:43:46</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>09-07-2025 13:49:29</t>
+          <t>09-07-2025 08:17:09</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1353</v>
+        <v>4006</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2404,66 +2389,73 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
-      <c r="O27" t="n">
-        <v>0</v>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>40042 (esterno)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>40042</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>25-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-14.34524884259259</v>
       </c>
       <c r="S27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>252364</v>
+        <v>252978</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D28" t="n">
-        <v>94.55</v>
+        <v>23.3</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09-07-2025 13:49:29</t>
+          <t>09-07-2025 08:17:09</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-07-2025 14:16:29</t>
+          <t>09-07-2025 08:51:09</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09-07-2025 14:16:29</t>
+          <t>09-07-2025 08:51:09</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>10-07-2025 07:51:02</t>
+          <t>09-07-2025 09:14:27</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>11346</v>
+        <v>2796</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2472,14 +2464,14 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2489,53 +2481,53 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-13.32711226851852</v>
+        <v>-23.38504050925926</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>252087</v>
+        <v>252783</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D29" t="n">
-        <v>35.5</v>
+        <v>11.95</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-07-2025 07:51:02</t>
+          <t>09-07-2025 09:14:27</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10-07-2025 08:18:02</t>
+          <t>09-07-2025 09:50:27</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10-07-2025 08:18:02</t>
+          <t>09-07-2025 09:50:27</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>10-07-2025 08:53:32</t>
+          <t>09-07-2025 10:02:24</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>4260</v>
+        <v>1434</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2548,7 +2540,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2561,53 +2553,53 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-11.3705150462963</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>252347</v>
+        <v>252220</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D30" t="n">
-        <v>92.28333333333333</v>
+        <v>80.51666666666667</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-07-2025 08:53:32</t>
+          <t>09-07-2025 10:02:24</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>10-07-2025 09:20:32</t>
+          <t>09-07-2025 10:21:24</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10-07-2025 09:20:32</t>
+          <t>09-07-2025 10:21:24</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>10-07-2025 10:52:49</t>
+          <t>09-07-2025 11:41:55</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>11074</v>
+        <v>9662</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2616,11 +2608,11 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2633,53 +2625,53 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-2.453350694444445</v>
+        <v>-23.48744791666667</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252999</v>
+        <v>252814</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D31" t="n">
-        <v>325.8416666666666</v>
+        <v>50.08333333333334</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-07-2025 10:52:49</t>
+          <t>09-07-2025 11:41:55</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10-07-2025 11:19:49</t>
+          <t>09-07-2025 12:17:55</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10-07-2025 11:19:49</t>
+          <t>09-07-2025 12:17:55</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>11-07-2025 08:45:40</t>
+          <t>09-07-2025 13:08:00</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>39101</v>
+        <v>6010</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2688,36 +2680,36 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
+        <v>4</v>
+      </c>
+      <c r="M31" t="n">
+        <v>76</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>14-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>2</v>
-      </c>
-      <c r="M31" t="n">
-        <v>70</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>06-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251790</v>
+        <v>252997</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2725,33 +2717,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D32" t="n">
-        <v>235.0583333333333</v>
+        <v>40.01666666666667</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 13:08:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>09-07-2025 13:44:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>09-07-2025 13:44:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>08-07-2025 11:16:03</t>
+          <t>09-07-2025 14:24:01</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>28207</v>
+        <v>4802</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2760,14 +2752,14 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2777,11 +2769,11 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-8.469484953703704</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>1</v>
@@ -2789,7 +2781,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>252978</v>
+        <v>252785</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2797,33 +2789,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D33" t="n">
-        <v>23.3</v>
+        <v>55.75</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>08-07-2025 11:16:03</t>
+          <t>09-07-2025 14:24:01</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>08-07-2025 11:35:03</t>
+          <t>09-07-2025 14:58:01</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08-07-2025 11:35:03</t>
+          <t>09-07-2025 14:58:01</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>08-07-2025 11:58:21</t>
+          <t>10-07-2025 07:53:46</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2796</v>
+        <v>6690</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2832,14 +2824,14 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M33" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2849,19 +2841,19 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-22.4988599537037</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>252244</v>
+        <v>252456</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2872,30 +2864,30 @@
         <v>17</v>
       </c>
       <c r="D34" t="n">
-        <v>107.575</v>
+        <v>144.4583333333333</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>08-07-2025 11:58:21</t>
+          <t>10-07-2025 07:53:46</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>08-07-2025 12:15:21</t>
+          <t>10-07-2025 08:10:46</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08-07-2025 12:15:21</t>
+          <t>10-07-2025 08:10:46</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>08-07-2025 14:02:56</t>
+          <t>10-07-2025 10:35:14</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>12909</v>
+        <v>17335</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2904,14 +2896,14 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M34" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2921,53 +2913,53 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-1.58537037037037</v>
+        <v>-0.4411342592592593</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252476</v>
+        <v>252347</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="D35" t="n">
-        <v>72.34166666666667</v>
+        <v>92.28333333333333</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:02:56</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:34:56</t>
+          <t>08-07-2025 07:32:30</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:34:56</t>
+          <t>08-07-2025 07:32:30</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>09-07-2025 07:47:16</t>
+          <t>08-07-2025 09:04:47</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>8681</v>
+        <v>11074</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2976,11 +2968,11 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -2993,53 +2985,53 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-2.324496527777778</v>
+        <v>-0.3783217592592593</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251849</v>
+        <v>251674</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>19</v>
+        <v>54.5</v>
       </c>
       <c r="D36" t="n">
-        <v>33.38333333333333</v>
+        <v>147.125</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09-07-2025 07:47:16</t>
+          <t>08-07-2025 09:04:47</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-07-2025 08:06:16</t>
+          <t>08-07-2025 09:59:17</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09-07-2025 08:06:16</t>
+          <t>08-07-2025 09:59:17</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>09-07-2025 08:39:39</t>
+          <t>08-07-2025 12:26:24</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>4006</v>
+        <v>17655</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3048,35 +3040,28 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>40042 (esterno)</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O36" t="n">
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>40042</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>25-06-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-14.36087384259259</v>
+        <v>-1.51833912037037</v>
       </c>
       <c r="S36" t="n">
         <v>4</v>
@@ -3084,41 +3069,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252638</v>
+        <v>250284</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>23</v>
+        <v>42.5</v>
       </c>
       <c r="D37" t="n">
-        <v>61.49166666666667</v>
+        <v>146.35</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09-07-2025 08:39:39</t>
+          <t>08-07-2025 12:26:24</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-07-2025 09:02:39</t>
+          <t>08-07-2025 13:08:54</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09-07-2025 09:02:39</t>
+          <t>08-07-2025 13:08:54</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>09-07-2025 10:04:09</t>
+          <t>09-07-2025 07:35:15</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>7379</v>
+        <v>17562</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3131,7 +3116,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3144,11 +3129,11 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>06-07-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-3.419548611111111</v>
+        <v>-119.3161516203704</v>
       </c>
       <c r="S37" t="n">
         <v>7</v>
@@ -3156,41 +3141,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252277</v>
+        <v>251231</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>19</v>
+        <v>34.5</v>
       </c>
       <c r="D38" t="n">
-        <v>144.925</v>
+        <v>312.3083333333333</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-07-2025 10:04:09</t>
+          <t>09-07-2025 07:35:15</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-07-2025 10:23:09</t>
+          <t>09-07-2025 08:09:45</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09-07-2025 10:23:09</t>
+          <t>09-07-2025 08:09:45</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>09-07-2025 12:48:04</t>
+          <t>09-07-2025 13:22:04</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>17391</v>
+        <v>37477</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3199,18 +3184,18 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>40024 (esterno)</t>
+          <t>40034 (esterno)</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3219,57 +3204,57 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>40024</v>
+        <v>40034</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>03-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-19.53338541666667</v>
+        <v>-6.556990740740741</v>
       </c>
       <c r="S38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252549</v>
+        <v>252277</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>19</v>
+        <v>36.5</v>
       </c>
       <c r="D39" t="n">
-        <v>92.59166666666667</v>
+        <v>144.925</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09-07-2025 12:48:04</t>
+          <t>09-07-2025 13:22:04</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-07-2025 13:07:04</t>
+          <t>09-07-2025 13:58:34</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09-07-2025 13:07:04</t>
+          <t>09-07-2025 13:58:34</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>09-07-2025 14:39:40</t>
+          <t>10-07-2025 08:23:29</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>11111</v>
+        <v>17391</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3287,61 +3272,68 @@
       <c r="M39" t="n">
         <v>70</v>
       </c>
-      <c r="O39" t="n">
-        <v>0</v>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>40024 (esterno)</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>40024</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>20-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>0</v>
+        <v>-20.34964699074074</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>252652</v>
+        <v>252549</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>19</v>
+        <v>34.5</v>
       </c>
       <c r="D40" t="n">
-        <v>186.0083333333333</v>
+        <v>92.59166666666667</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09-07-2025 14:39:40</t>
+          <t>10-07-2025 08:23:29</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09-07-2025 14:58:40</t>
+          <t>10-07-2025 08:57:59</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09-07-2025 14:58:40</t>
+          <t>10-07-2025 08:57:59</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>10-07-2025 10:04:40</t>
+          <t>10-07-2025 10:30:35</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>22321</v>
+        <v>11111</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3367,53 +3359,53 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>20-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252456</v>
+        <v>252364</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>19</v>
+        <v>32.5</v>
       </c>
       <c r="D41" t="n">
-        <v>144.4583333333333</v>
+        <v>94.55</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-07-2025 10:04:40</t>
+          <t>10-07-2025 10:30:35</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>10-07-2025 10:23:40</t>
+          <t>10-07-2025 11:03:05</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>10-07-2025 10:23:40</t>
+          <t>10-07-2025 11:03:05</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>10-07-2025 12:48:08</t>
+          <t>10-07-2025 12:37:38</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>17335</v>
+        <v>11346</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3426,7 +3418,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
@@ -3439,53 +3431,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-0.533425925925926</v>
+        <v>-13.52613425925926</v>
       </c>
       <c r="S41" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251231</v>
+        <v>252144</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D42" t="n">
-        <v>312.3083333333333</v>
+        <v>54.13333333333333</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-07-2025 12:48:08</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>10-07-2025 13:05:08</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10-07-2025 13:05:08</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>11-07-2025 10:17:26</t>
+          <t>08-07-2025 08:34:08</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>37477</v>
+        <v>6496</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3494,77 +3486,70 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>40034 (esterno)</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>40034</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-8.428778935185186</v>
+        <v>-9.357037037037037</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251632</v>
+        <v>252230</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>56.5</v>
+        <v>35</v>
       </c>
       <c r="D43" t="n">
-        <v>588.5083333333333</v>
+        <v>63.125</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 08:34:08</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>08-07-2025 07:56:30</t>
+          <t>08-07-2025 09:09:08</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08-07-2025 07:56:30</t>
+          <t>08-07-2025 09:09:08</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>09-07-2025 09:45:00</t>
+          <t>08-07-2025 10:12:15</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>70621</v>
+        <v>7575</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3573,14 +3558,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3590,19 +3575,19 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>13-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-2.406255787037037</v>
+        <v>-25.42517939814815</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>243524</v>
+        <v>252286</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3610,33 +3595,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
-        <v>66.61666666666666</v>
+        <v>51.26666666666667</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 10:12:15</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>08-07-2025 10:42:15</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>08-07-2025 10:42:15</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>08-07-2025 08:46:37</t>
+          <t>08-07-2025 11:33:31</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>7994</v>
+        <v>6152</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3645,36 +3630,41 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
         <v>76</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
+      <c r="N44" t="n">
+        <v>40032</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>40032</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>02-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-4.365706018518519</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252243</v>
+        <v>251632</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3682,33 +3672,33 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="D45" t="n">
-        <v>96.70833333333333</v>
+        <v>588.5083333333333</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>08-07-2025 08:46:37</t>
+          <t>08-07-2025 11:33:31</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>08-07-2025 09:16:37</t>
+          <t>08-07-2025 12:58:31</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08-07-2025 09:16:37</t>
+          <t>08-07-2025 12:58:31</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>08-07-2025 10:53:19</t>
+          <t>09-07-2025 14:47:02</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>11605</v>
+        <v>70621</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3717,36 +3707,36 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L45" t="n">
+        <v>14</v>
+      </c>
+      <c r="M45" t="n">
+        <v>70</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>07-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R45" s="1" t="n">
+        <v>-2.61599537037037</v>
+      </c>
+      <c r="S45" t="n">
         <v>4</v>
-      </c>
-      <c r="M45" t="n">
-        <v>76</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>14-07-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252071</v>
+        <v>252243</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3754,33 +3744,33 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="D46" t="n">
-        <v>45.73333333333333</v>
+        <v>96.70833333333333</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>08-07-2025 10:53:19</t>
+          <t>09-07-2025 14:47:02</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>08-07-2025 11:23:19</t>
+          <t>10-07-2025 08:12:02</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>08-07-2025 11:23:19</t>
+          <t>10-07-2025 08:12:02</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>08-07-2025 12:09:03</t>
+          <t>10-07-2025 09:48:44</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>5488</v>
+        <v>11605</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3793,7 +3783,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
         <v>76</v>
@@ -3806,19 +3796,19 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>12-06-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-26.50629050925926</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251926</v>
+        <v>252713</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3829,30 +3819,30 @@
         <v>40</v>
       </c>
       <c r="D47" t="n">
-        <v>78.91666666666667</v>
+        <v>907.7666666666667</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>08-07-2025 12:09:03</t>
+          <t>10-07-2025 09:48:44</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:03</t>
+          <t>10-07-2025 10:28:44</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08-07-2025 12:49:03</t>
+          <t>10-07-2025 10:28:44</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>08-07-2025 14:07:58</t>
+          <t>14-07-2025 09:36:30</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>9470</v>
+        <v>108932</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3861,11 +3851,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
@@ -3878,19 +3868,19 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>18-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>252713</v>
+        <v>252334</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3898,33 +3888,33 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D48" t="n">
-        <v>907.7666666666667</v>
+        <v>486.5916666666666</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>08-07-2025 14:07:58</t>
+          <t>14-07-2025 09:36:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>08-07-2025 14:37:58</t>
+          <t>14-07-2025 10:21:30</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08-07-2025 14:37:58</t>
+          <t>14-07-2025 10:21:30</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>10-07-2025 13:45:44</t>
+          <t>15-07-2025 10:28:06</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>108932</v>
+        <v>58391</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3933,7 +3923,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -3950,19 +3940,19 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>18-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0</v>
+        <v>-11.43618055555556</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>252783</v>
+        <v>252470</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3973,30 +3963,30 @@
         <v>30</v>
       </c>
       <c r="D49" t="n">
-        <v>11.95</v>
+        <v>62.5</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-07-2025 13:45:44</t>
+          <t>15-07-2025 10:28:06</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>10-07-2025 14:15:44</t>
+          <t>15-07-2025 10:58:06</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10-07-2025 14:15:44</t>
+          <t>15-07-2025 10:58:06</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>10-07-2025 14:27:41</t>
+          <t>15-07-2025 12:00:36</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1434</v>
+        <v>7500</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4009,7 +3999,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4022,19 +4012,19 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0</v>
+        <v>-11.50041666666667</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>252336</v>
+        <v>252157</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4042,33 +4032,33 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D50" t="n">
-        <v>120.275</v>
+        <v>396.825</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-07-2025 14:27:41</t>
+          <t>15-07-2025 12:00:36</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>10-07-2025 14:57:41</t>
+          <t>15-07-2025 12:50:36</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>10-07-2025 14:57:41</t>
+          <t>15-07-2025 12:50:36</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>11-07-2025 08:57:58</t>
+          <t>16-07-2025 11:27:25</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>14433</v>
+        <v>47619</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4081,7 +4071,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4094,53 +4084,53 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-7.373587962962963</v>
+        <v>-28.47737847222222</v>
       </c>
       <c r="S50" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>252220</v>
+        <v>252201</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D51" t="n">
-        <v>80.51666666666667</v>
+        <v>34.10833333333333</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-07-2025 08:57:58</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>11-07-2025 09:27:58</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>11-07-2025 09:27:58</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>11-07-2025 10:48:29</t>
+          <t>08-07-2025 07:53:06</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>9662</v>
+        <v>4093</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4149,14 +4139,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -4166,53 +4156,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-25.45033564814815</v>
+        <v>-18.3285474537037</v>
       </c>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251495</v>
+        <v>243525</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D52" t="n">
-        <v>72.34166666666667</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-07-2025 10:48:29</t>
+          <t>08-07-2025 07:53:06</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>11-07-2025 11:18:29</t>
+          <t>08-07-2025 08:12:06</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>11-07-2025 11:18:29</t>
+          <t>08-07-2025 08:12:06</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>11-07-2025 12:30:49</t>
+          <t>08-07-2025 10:22:05</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>8681</v>
+        <v>15598</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4221,14 +4211,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4238,53 +4228,53 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-2.52140625</v>
+        <v>-4.432008101851852</v>
       </c>
       <c r="S52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>252334</v>
+        <v>241783</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>486.5916666666666</v>
+        <v>43.325</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-07-2025 12:30:49</t>
+          <t>08-07-2025 10:22:05</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>11-07-2025 13:15:49</t>
+          <t>08-07-2025 10:37:05</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11-07-2025 13:15:49</t>
+          <t>08-07-2025 10:37:05</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>14-07-2025 13:22:25</t>
+          <t>08-07-2025 11:20:25</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>58391</v>
+        <v>5199</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4293,14 +4283,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M53" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4310,53 +4300,53 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-10.5572337962963</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252470</v>
+        <v>245623</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D54" t="n">
-        <v>62.5</v>
+        <v>220.1583333333333</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>14-07-2025 13:22:25</t>
+          <t>08-07-2025 11:20:25</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>14-07-2025 13:52:25</t>
+          <t>08-07-2025 11:52:25</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>14-07-2025 13:52:25</t>
+          <t>08-07-2025 11:52:25</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>14-07-2025 14:54:55</t>
+          <t>09-07-2025 07:32:34</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>7500</v>
+        <v>26419</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4365,14 +4355,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4382,53 +4372,53 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>25-01-2025 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-10.62146990740741</v>
+        <v>-165.3142881944445</v>
       </c>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252467</v>
+        <v>252071</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D55" t="n">
-        <v>81.16666666666667</v>
+        <v>45.73333333333333</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>14-07-2025 14:54:55</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>15-07-2025 07:24:55</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>15-07-2025 07:24:55</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>15-07-2025 08:46:05</t>
+          <t>08-07-2025 08:25:44</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>9740</v>
+        <v>5488</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4437,14 +4427,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
         <v>5</v>
       </c>
       <c r="M55" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4454,53 +4444,53 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>12-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
+        <v>-26.3512037037037</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>252790</v>
+        <v>244828</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D56" t="n">
-        <v>12.10833333333333</v>
+        <v>43.35833333333333</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>15-07-2025 08:46:05</t>
+          <t>08-07-2025 08:25:44</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>15-07-2025 09:11:05</t>
+          <t>08-07-2025 09:00:44</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>15-07-2025 09:11:05</t>
+          <t>08-07-2025 09:00:44</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>15-07-2025 09:23:11</t>
+          <t>08-07-2025 09:44:05</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1453</v>
+        <v>5203</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4509,14 +4499,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4526,53 +4516,53 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>25-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
+        <v>-1.405619212962963</v>
       </c>
       <c r="S56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>250284</v>
+        <v>252047</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D57" t="n">
-        <v>146.35</v>
+        <v>70.88333333333334</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>15-07-2025 09:23:11</t>
+          <t>08-07-2025 09:44:05</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>15-07-2025 10:03:11</t>
+          <t>08-07-2025 10:19:05</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>15-07-2025 10:03:11</t>
+          <t>08-07-2025 10:19:05</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>15-07-2025 12:29:32</t>
+          <t>08-07-2025 11:29:58</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>17562</v>
+        <v>8506</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4581,14 +4571,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4598,11 +4588,11 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-125.5205150462963</v>
+        <v>-9.479149305555556</v>
       </c>
       <c r="S57" t="n">
         <v>7</v>
@@ -4610,41 +4600,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251674</v>
+        <v>252237</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D58" t="n">
-        <v>147.125</v>
+        <v>84.95</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>15-07-2025 12:29:32</t>
+          <t>08-07-2025 11:29:58</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>15-07-2025 13:24:32</t>
+          <t>08-07-2025 12:04:58</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>15-07-2025 13:24:32</t>
+          <t>08-07-2025 12:04:58</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>16-07-2025 07:51:40</t>
+          <t>08-07-2025 13:29:55</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>17655</v>
+        <v>10194</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4653,14 +4643,14 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -4670,53 +4660,53 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-9.327546296296296</v>
+        <v>-7.562447916666667</v>
       </c>
       <c r="S58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>252157</v>
+        <v>252476</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D59" t="n">
-        <v>396.825</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>16-07-2025 07:51:40</t>
+          <t>08-07-2025 13:29:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>16-07-2025 08:41:40</t>
+          <t>08-07-2025 14:04:55</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>16-07-2025 08:41:40</t>
+          <t>08-07-2025 14:04:55</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>17-07-2025 07:18:29</t>
+          <t>09-07-2025 07:17:16</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>47619</v>
+        <v>8681</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4729,7 +4719,7 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
@@ -4742,53 +4732,53 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-29.30450810185185</v>
+        <v>-2.303657407407407</v>
       </c>
       <c r="S59" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252755</v>
+        <v>252244</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D60" t="n">
-        <v>109.575</v>
+        <v>107.575</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>17-07-2025 07:18:29</t>
+          <t>09-07-2025 07:17:16</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>17-07-2025 08:08:29</t>
+          <t>09-07-2025 07:52:16</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>17-07-2025 08:08:29</t>
+          <t>09-07-2025 07:52:16</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>17-07-2025 09:58:04</t>
+          <t>09-07-2025 09:39:50</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>13149</v>
+        <v>12909</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4797,14 +4787,14 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
         <v>4</v>
       </c>
       <c r="M60" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -4814,53 +4804,53 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-0.4153240740740741</v>
+        <v>-2.402667824074074</v>
       </c>
       <c r="S60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>252899</v>
+        <v>252636</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D61" t="n">
-        <v>180.5666666666667</v>
+        <v>11.275</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>17-07-2025 09:58:04</t>
+          <t>09-07-2025 09:39:50</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>17-07-2025 10:28:04</t>
+          <t>09-07-2025 10:14:50</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>17-07-2025 10:28:04</t>
+          <t>09-07-2025 10:14:50</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>17-07-2025 13:28:38</t>
+          <t>09-07-2025 10:26:07</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>21668</v>
+        <v>1353</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4886,53 +4876,53 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>245089</v>
+        <v>252284</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>1022.208333333333</v>
+        <v>51.26666666666667</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 10:26:07</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>09-07-2025 10:56:07</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>09-07-2025 10:56:07</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>10-07-2025 08:19:12</t>
+          <t>09-07-2025 11:47:23</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>122665</v>
+        <v>6152</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4941,70 +4931,75 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
         <v>4</v>
       </c>
       <c r="M62" t="n">
-        <v>76</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N62" t="n">
+        <v>40032</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>40032</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>02-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>243569</v>
+        <v>252207</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D63" t="n">
-        <v>21.675</v>
+        <v>51.55</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-07-2025 08:19:12</t>
+          <t>09-07-2025 11:47:23</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>10-07-2025 08:36:12</t>
+          <t>09-07-2025 12:22:23</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10-07-2025 08:36:12</t>
+          <t>09-07-2025 12:22:23</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>10-07-2025 08:57:53</t>
+          <t>09-07-2025 13:13:56</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2601</v>
+        <v>6186</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5013,7 +5008,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -5030,53 +5025,53 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-297.3735300925926</v>
+        <v>-13.55134259259259</v>
       </c>
       <c r="S63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252201</v>
+        <v>252350</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D64" t="n">
-        <v>34.10833333333333</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-07-2025 08:57:53</t>
+          <t>09-07-2025 13:13:56</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>10-07-2025 09:16:53</t>
+          <t>09-07-2025 13:48:56</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10-07-2025 09:16:53</t>
+          <t>09-07-2025 13:48:56</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>10-07-2025 09:50:59</t>
+          <t>09-07-2025 14:40:49</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4093</v>
+        <v>6226</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5085,14 +5080,14 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5102,53 +5097,53 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-20.41041087962963</v>
+        <v>-1.611678240740741</v>
       </c>
       <c r="S64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252063</v>
+        <v>251685</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D65" t="n">
-        <v>79.94166666666666</v>
+        <v>98.75833333333334</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-07-2025 09:50:59</t>
+          <t>09-07-2025 14:40:49</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>10-07-2025 10:09:59</t>
+          <t>10-07-2025 07:25:49</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10-07-2025 10:09:59</t>
+          <t>10-07-2025 07:25:49</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>10-07-2025 11:29:56</t>
+          <t>10-07-2025 09:04:34</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>9593</v>
+        <v>11851</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5157,14 +5152,14 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M65" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -5174,11 +5169,11 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-9.479120370370371</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
         <v>1</v>
@@ -5186,41 +5181,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>252144</v>
+        <v>252638</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D66" t="n">
-        <v>54.13333333333333</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-07-2025 11:29:56</t>
+          <t>10-07-2025 09:04:34</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>10-07-2025 11:48:56</t>
+          <t>10-07-2025 09:34:34</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10-07-2025 11:48:56</t>
+          <t>10-07-2025 09:34:34</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>10-07-2025 12:43:04</t>
+          <t>10-07-2025 10:36:04</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>6496</v>
+        <v>7379</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5229,14 +5224,14 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M66" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -5246,11 +5241,11 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>06-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-11.52990740740741</v>
+        <v>-4.441712962962963</v>
       </c>
       <c r="S66" t="n">
         <v>7</v>
@@ -5258,41 +5253,41 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>252230</v>
+        <v>252547</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D67" t="n">
-        <v>63.125</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-07-2025 12:43:04</t>
+          <t>10-07-2025 10:36:04</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>10-07-2025 13:02:04</t>
+          <t>10-07-2025 11:21:04</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10-07-2025 13:02:04</t>
+          <t>10-07-2025 11:21:04</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>10-07-2025 14:05:11</t>
+          <t>10-07-2025 12:42:14</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>7575</v>
+        <v>9740</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5301,14 +5296,14 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M67" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -5318,30 +5313,30 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>13-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-27.58693865740741</v>
+        <v>-6.529328703703704</v>
       </c>
       <c r="S67" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>252997</v>
+        <v>243569</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D68" t="n">
-        <v>40.01666666666667</v>
+        <v>21.675</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -5350,21 +5345,21 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>08-07-2025 08:10:01</t>
+          <t>08-07-2025 08:01:40</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>4802</v>
+        <v>2601</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5377,10 +5372,10 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M68" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -5390,53 +5385,53 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>0</v>
+        <v>-295.3344965277778</v>
       </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>243525</v>
+        <v>244023</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D69" t="n">
-        <v>129.9833333333333</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-07-2025 08:10:01</t>
+          <t>08-07-2025 08:01:40</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-07-2025 08:45:01</t>
+          <t>08-07-2025 08:46:40</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>08-07-2025 08:45:01</t>
+          <t>08-07-2025 08:46:40</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>08-07-2025 10:55:00</t>
+          <t>08-07-2025 08:54:59</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>15598</v>
+        <v>997</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5445,14 +5440,14 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M69" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -5462,11 +5457,11 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-4.454861111111111</v>
+        <v>-281.3715162037037</v>
       </c>
       <c r="S69" t="n">
         <v>1</v>
@@ -5474,41 +5469,41 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>243529</v>
+        <v>251919</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D70" t="n">
-        <v>129.9833333333333</v>
+        <v>140.05</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-07-2025 10:55:00</t>
+          <t>08-07-2025 08:54:59</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-07-2025 11:20:00</t>
+          <t>08-07-2025 09:39:59</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08-07-2025 11:20:00</t>
+          <t>08-07-2025 09:39:59</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>08-07-2025 13:29:59</t>
+          <t>08-07-2025 12:00:02</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>15598</v>
+        <v>16806</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5517,14 +5512,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
         <v>3</v>
       </c>
       <c r="M70" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -5534,11 +5529,11 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-4.562488425925926</v>
+        <v>-22.50002314814815</v>
       </c>
       <c r="S70" t="n">
         <v>1</v>
@@ -5546,41 +5541,41 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>252047</v>
+        <v>252146</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D71" t="n">
-        <v>70.88333333333334</v>
+        <v>66.63333333333334</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-07-2025 13:29:59</t>
+          <t>08-07-2025 12:00:02</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-07-2025 14:04:59</t>
+          <t>08-07-2025 12:40:02</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08-07-2025 14:04:59</t>
+          <t>08-07-2025 12:40:02</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>09-07-2025 07:15:52</t>
+          <t>08-07-2025 13:46:40</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>8506</v>
+        <v>7996</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5610,7 +5605,7 @@
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-10.30268518518518</v>
+        <v>-9.574074074074074</v>
       </c>
       <c r="S71" t="n">
         <v>7</v>
@@ -5618,41 +5613,41 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251798</v>
+        <v>252285</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D72" t="n">
-        <v>123.2916666666667</v>
+        <v>46.14166666666667</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-07-2025 07:15:52</t>
+          <t>08-07-2025 13:46:40</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>09-07-2025 07:45:52</t>
+          <t>08-07-2025 14:21:40</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>09-07-2025 07:45:52</t>
+          <t>08-07-2025 14:21:40</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>09-07-2025 09:49:09</t>
+          <t>09-07-2025 07:07:48</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>14795</v>
+        <v>5537</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5661,36 +5656,41 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
         <v>4</v>
       </c>
       <c r="M72" t="n">
-        <v>76</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N72" t="n">
+        <v>40032</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>40032</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>02-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>252686</v>
+        <v>243335</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5698,33 +5698,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D73" t="n">
-        <v>329.15</v>
+        <v>275.0333333333334</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 07:07:48</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 07:52:48</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 07:52:48</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>08-07-2025 13:09:09</t>
+          <t>09-07-2025 12:27:50</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>39498</v>
+        <v>33004</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M73" t="n">
         <v>152</v>
@@ -5750,11 +5750,11 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>02-08-2024 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>0</v>
+        <v>-341.5193344907407</v>
       </c>
       <c r="S73" t="n">
         <v>1</v>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>252546</v>
+        <v>252665</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5770,33 +5770,33 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D74" t="n">
-        <v>54.63333333333333</v>
+        <v>48.875</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-07-2025 13:09:09</t>
+          <t>09-07-2025 12:27:50</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>08-07-2025 13:39:09</t>
+          <t>09-07-2025 13:07:50</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08-07-2025 13:39:09</t>
+          <t>09-07-2025 13:07:50</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>08-07-2025 14:33:47</t>
+          <t>09-07-2025 13:56:43</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>6556</v>
+        <v>5865</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5805,14 +5805,14 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M74" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -5822,19 +5822,19 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-7.606793981481482</v>
+        <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>252237</v>
+        <v>252784</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -5842,33 +5842,33 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D75" t="n">
-        <v>84.95</v>
+        <v>26.975</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-07-2025 14:33:47</t>
+          <t>09-07-2025 13:56:43</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>09-07-2025 07:08:47</t>
+          <t>09-07-2025 14:41:43</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>09-07-2025 07:08:47</t>
+          <t>09-07-2025 14:41:43</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>09-07-2025 08:33:44</t>
+          <t>10-07-2025 07:08:41</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>10194</v>
+        <v>3237</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5877,14 +5877,14 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M75" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -5894,11 +5894,11 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-8.35675925925926</v>
+        <v>0</v>
       </c>
       <c r="S75" t="n">
         <v>1</v>

--- a/PS-VRP/Dati_output/output.xlsx
+++ b/PS-VRP/Dati_output/output.xlsx
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252063</v>
+        <v>252146</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>79.94166666666666</v>
+        <v>66.63333333333334</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -572,11 +572,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:36:56</t>
+          <t>08-07-2025 08:23:38</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>9593</v>
+        <v>7996</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -602,19 +602,19 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-7.358987268518518</v>
+        <v>-9.349745370370371</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251790</v>
+        <v>252665</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -622,33 +622,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>235.0583333333333</v>
+        <v>48.875</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:36:56</t>
+          <t>08-07-2025 08:23:38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:55:56</t>
+          <t>08-07-2025 08:55:38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:55:56</t>
+          <t>08-07-2025 08:55:38</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-07-2025 12:51:00</t>
+          <t>08-07-2025 09:44:30</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>28207</v>
+        <v>5865</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -657,14 +657,14 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -674,19 +674,19 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-8.535416666666666</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251926</v>
+        <v>252087</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -694,33 +694,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>78.91666666666667</v>
+        <v>35.5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08-07-2025 12:51:00</t>
+          <t>08-07-2025 09:44:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-07-2025 13:23:00</t>
+          <t>08-07-2025 10:01:30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-07-2025 13:23:00</t>
+          <t>08-07-2025 10:01:30</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-07-2025 14:41:55</t>
+          <t>08-07-2025 10:37:00</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>9470</v>
+        <v>4260</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
@@ -746,19 +746,19 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-9.442366898148148</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>252999</v>
+        <v>252285</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -766,33 +766,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>325.8416666666666</v>
+        <v>46.14166666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>08-07-2025 14:41:55</t>
+          <t>08-07-2025 10:37:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09-07-2025 07:00:55</t>
+          <t>08-07-2025 10:54:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>09-07-2025 07:00:55</t>
+          <t>08-07-2025 10:54:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>09-07-2025 12:26:45</t>
+          <t>08-07-2025 11:40:09</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>39101</v>
+        <v>5537</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -801,36 +801,41 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
+      <c r="N5" t="n">
+        <v>40032</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>40032</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>06-08-2025 00:00:00</t>
+          <t>02-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>245089</v>
+        <v>241783</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -838,33 +843,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>1022.208333333333</v>
+        <v>43.325</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09-07-2025 12:26:45</t>
+          <t>08-07-2025 11:40:09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>09-07-2025 13:00:45</t>
+          <t>08-07-2025 12:12:09</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>09-07-2025 13:00:45</t>
+          <t>08-07-2025 12:12:09</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>11-07-2025 14:02:58</t>
+          <t>08-07-2025 12:55:28</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>122665</v>
+        <v>5199</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -873,11 +878,11 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>76</v>
@@ -890,7 +895,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
@@ -902,7 +907,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251495</v>
+        <v>252286</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -910,33 +915,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>72.34166666666667</v>
+        <v>51.26666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-07-2025 14:02:58</t>
+          <t>08-07-2025 12:55:28</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11-07-2025 14:34:58</t>
+          <t>08-07-2025 13:12:28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11-07-2025 14:34:58</t>
+          <t>08-07-2025 13:12:28</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14-07-2025 07:47:18</t>
+          <t>08-07-2025 14:03:44</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>8681</v>
+        <v>6152</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -949,24 +954,29 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>40032</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>40032</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>02-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-5.324519675925926</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -974,7 +984,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252336</v>
+        <v>252723</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -982,33 +992,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>120.275</v>
+        <v>153.9583333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>14-07-2025 07:47:18</t>
+          <t>08-07-2025 14:03:44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>14-07-2025 08:10:18</t>
+          <t>08-07-2025 14:20:44</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>14-07-2025 08:10:18</t>
+          <t>08-07-2025 14:20:44</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>14-07-2025 10:10:35</t>
+          <t>09-07-2025 08:54:42</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>14433</v>
+        <v>18475</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1017,14 +1027,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1034,19 +1044,19 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>31-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-10.4240162037037</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252686</v>
+        <v>243525</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1054,33 +1064,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>329.15</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>14-07-2025 10:10:35</t>
+          <t>09-07-2025 08:54:42</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>14-07-2025 10:44:35</t>
+          <t>09-07-2025 09:13:42</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>14-07-2025 10:44:35</t>
+          <t>09-07-2025 09:13:42</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>15-07-2025 08:13:44</t>
+          <t>09-07-2025 11:23:41</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>39498</v>
+        <v>15598</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1089,14 +1099,14 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1106,11 +1116,11 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-5.474780092592592</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1118,7 +1128,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252755</v>
+        <v>252999</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1129,30 +1139,30 @@
         <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>109.575</v>
+        <v>325.8416666666666</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>15-07-2025 08:13:44</t>
+          <t>09-07-2025 11:23:41</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>15-07-2025 08:45:44</t>
+          <t>09-07-2025 11:55:41</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15-07-2025 08:45:44</t>
+          <t>09-07-2025 11:55:41</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>15-07-2025 10:35:18</t>
+          <t>10-07-2025 09:21:31</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>13149</v>
+        <v>39101</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1161,11 +1171,11 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1178,19 +1188,19 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>06-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>252899</v>
+        <v>244023</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1198,33 +1208,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>180.5666666666667</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>15-07-2025 10:35:18</t>
+          <t>10-07-2025 09:21:31</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>15-07-2025 10:52:18</t>
+          <t>10-07-2025 09:44:31</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15-07-2025 10:52:18</t>
+          <t>10-07-2025 09:44:31</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>15-07-2025 13:52:52</t>
+          <t>10-07-2025 09:52:50</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>21668</v>
+        <v>997</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1237,7 +1247,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1250,19 +1260,19 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-283.4116898148148</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252790</v>
+        <v>252549</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1270,33 +1280,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>12.10833333333333</v>
+        <v>92.59166666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>15-07-2025 13:52:52</t>
+          <t>10-07-2025 09:52:50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>15-07-2025 14:11:52</t>
+          <t>10-07-2025 10:13:50</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15-07-2025 14:11:52</t>
+          <t>10-07-2025 10:13:50</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>15-07-2025 14:23:59</t>
+          <t>10-07-2025 11:46:25</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1453</v>
+        <v>11111</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1309,7 +1319,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1322,19 +1332,19 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>25-07-2025 00:00:00</t>
+          <t>20-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252467</v>
+        <v>252783</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1342,33 +1352,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>81.16666666666667</v>
+        <v>11.95</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15-07-2025 14:23:59</t>
+          <t>10-07-2025 11:46:25</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>15-07-2025 14:38:59</t>
+          <t>10-07-2025 12:07:25</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15-07-2025 14:38:59</t>
+          <t>10-07-2025 12:07:25</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>16-07-2025 08:00:09</t>
+          <t>10-07-2025 12:19:22</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>9740</v>
+        <v>1434</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1381,7 +1391,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
@@ -1394,7 +1404,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
@@ -1406,41 +1416,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252371</v>
+        <v>252547</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>50.04166666666666</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>10-07-2025 12:19:22</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>08-07-2025 07:46:00</t>
+          <t>10-07-2025 12:36:22</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08-07-2025 07:46:00</t>
+          <t>10-07-2025 12:36:22</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>08-07-2025 08:36:02</t>
+          <t>10-07-2025 13:57:32</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>6005</v>
+        <v>9740</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1449,14 +1459,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1466,11 +1476,11 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-8.358362268518519</v>
+        <v>-6.581626157407407</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -1478,41 +1488,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>243524</v>
+        <v>252638</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>66.61666666666666</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>08-07-2025 08:36:02</t>
+          <t>10-07-2025 13:57:32</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>08-07-2025 09:03:02</t>
+          <t>10-07-2025 14:20:32</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08-07-2025 09:03:02</t>
+          <t>10-07-2025 14:20:32</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08-07-2025 10:09:39</t>
+          <t>11-07-2025 07:22:02</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>7994</v>
+        <v>7379</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1521,14 +1531,14 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1538,19 +1548,19 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>06-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-4.423373842592593</v>
+        <v>-5.306967592592593</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252402</v>
+        <v>252997</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1558,33 +1568,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D16" t="n">
-        <v>25.075</v>
+        <v>40.01666666666667</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>08-07-2025 10:09:39</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08-07-2025 10:38:39</t>
+          <t>08-07-2025 07:46:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08-07-2025 10:38:39</t>
+          <t>08-07-2025 07:46:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08-07-2025 11:03:44</t>
+          <t>08-07-2025 08:26:01</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3009</v>
+        <v>4802</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1593,14 +1603,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1610,19 +1620,19 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-11.46092592592593</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>252298</v>
+        <v>251919</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1633,30 +1643,30 @@
         <v>27</v>
       </c>
       <c r="D17" t="n">
-        <v>70.76666666666667</v>
+        <v>140.05</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>08-07-2025 11:03:44</t>
+          <t>08-07-2025 08:26:01</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>08-07-2025 11:30:44</t>
+          <t>08-07-2025 08:53:01</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08-07-2025 11:30:44</t>
+          <t>08-07-2025 08:53:01</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>08-07-2025 12:41:30</t>
+          <t>08-07-2025 11:13:04</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>8492</v>
+        <v>16806</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1665,14 +1675,14 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1682,19 +1692,19 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-15.52881944444444</v>
+        <v>-22.46740740740741</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>252345</v>
+        <v>252350</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1702,33 +1712,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D18" t="n">
-        <v>43.325</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>08-07-2025 12:41:30</t>
+          <t>08-07-2025 11:13:04</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>08-07-2025 13:27:30</t>
+          <t>08-07-2025 11:55:04</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08-07-2025 13:27:30</t>
+          <t>08-07-2025 11:55:04</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>08-07-2025 14:10:49</t>
+          <t>08-07-2025 12:46:57</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>5199</v>
+        <v>6226</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1737,11 +1747,11 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1758,7 +1768,7 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.5908506944444445</v>
+        <v>-0.5326041666666667</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1766,7 +1776,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252085</v>
+        <v>252364</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1774,33 +1784,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
-        <v>28.55</v>
+        <v>94.55</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>08-07-2025 14:10:49</t>
+          <t>08-07-2025 12:46:57</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>08-07-2025 14:37:49</t>
+          <t>08-07-2025 13:15:57</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08-07-2025 14:37:49</t>
+          <t>08-07-2025 13:15:57</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>09-07-2025 07:06:22</t>
+          <t>08-07-2025 14:50:30</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3426</v>
+        <v>11346</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1826,19 +1836,19 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-21.29609375</v>
+        <v>-11.61840277777778</v>
       </c>
       <c r="S19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252652</v>
+        <v>251231</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1846,33 +1856,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
-        <v>186.0083333333333</v>
+        <v>312.3083333333333</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09-07-2025 07:06:22</t>
+          <t>08-07-2025 14:50:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-07-2025 07:33:22</t>
+          <t>09-07-2025 07:19:30</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09-07-2025 07:33:22</t>
+          <t>09-07-2025 07:19:30</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>09-07-2025 10:39:23</t>
+          <t>09-07-2025 12:31:48</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>22321</v>
+        <v>37477</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1881,28 +1891,35 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>40034 (esterno)</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>40034</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>03-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-6.522089120370371</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -1910,7 +1927,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252723</v>
+        <v>252277</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1918,33 +1935,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D21" t="n">
-        <v>153.9583333333333</v>
+        <v>144.925</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>09-07-2025 10:39:23</t>
+          <t>09-07-2025 12:31:48</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09-07-2025 11:23:23</t>
+          <t>09-07-2025 13:02:48</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>09-07-2025 11:23:23</t>
+          <t>09-07-2025 13:02:48</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>09-07-2025 13:57:20</t>
+          <t>10-07-2025 07:27:44</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>18475</v>
+        <v>17391</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1953,70 +1970,77 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>40024 (esterno)</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>40024</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
+        <v>-20.31092592592593</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>252152</v>
+        <v>252243</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D22" t="n">
-        <v>27.36666666666667</v>
+        <v>96.70833333333333</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>10-07-2025 07:27:44</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>10-07-2025 08:09:44</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>10-07-2025 08:09:44</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>08-07-2025 07:46:22</t>
+          <t>10-07-2025 09:46:26</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3284</v>
+        <v>11605</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2042,53 +2066,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-18.32386574074074</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252546</v>
+        <v>252230</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
-        <v>54.63333333333333</v>
+        <v>63.125</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>08-07-2025 07:46:22</t>
+          <t>10-07-2025 09:46:26</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>08-07-2025 08:03:22</t>
+          <t>10-07-2025 10:13:26</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08-07-2025 08:03:22</t>
+          <t>10-07-2025 10:13:26</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>08-07-2025 08:58:00</t>
+          <t>10-07-2025 11:16:34</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>6556</v>
+        <v>7575</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2114,53 +2138,53 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>13-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-7.373611111111111</v>
+        <v>-27.46983796296296</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251798</v>
+        <v>252071</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>123.2916666666667</v>
+        <v>45.73333333333333</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>08-07-2025 08:58:00</t>
+          <t>10-07-2025 11:16:34</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>08-07-2025 09:15:00</t>
+          <t>10-07-2025 11:45:34</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08-07-2025 09:15:00</t>
+          <t>10-07-2025 11:45:34</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08-07-2025 11:18:17</t>
+          <t>10-07-2025 12:31:18</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>14795</v>
+        <v>5488</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2173,7 +2197,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
         <v>76</v>
@@ -2186,11 +2210,11 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>12-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0</v>
+        <v>-28.52173611111111</v>
       </c>
       <c r="S24" t="n">
         <v>2</v>
@@ -2198,41 +2222,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>252087</v>
+        <v>252686</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D25" t="n">
-        <v>35.5</v>
+        <v>329.15</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>08-07-2025 11:18:17</t>
+          <t>10-07-2025 12:31:18</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>08-07-2025 11:50:17</t>
+          <t>10-07-2025 13:15:18</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08-07-2025 11:50:17</t>
+          <t>10-07-2025 13:15:18</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:25:47</t>
+          <t>11-07-2025 10:44:27</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>4260</v>
+        <v>39498</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2241,14 +2265,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
         <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2258,53 +2282,53 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>21-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-9.51791087962963</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>243529</v>
+        <v>252336</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D26" t="n">
-        <v>129.9833333333333</v>
+        <v>120.275</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>08-07-2025 12:25:47</t>
+          <t>11-07-2025 10:44:27</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>08-07-2025 12:59:47</t>
+          <t>11-07-2025 11:28:27</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08-07-2025 12:59:47</t>
+          <t>11-07-2025 11:28:27</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>09-07-2025 07:09:46</t>
+          <t>11-07-2025 13:28:43</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>15598</v>
+        <v>14433</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2313,14 +2337,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2334,49 +2358,49 @@
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-5.298454861111111</v>
+        <v>-7.561614583333333</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251849</v>
+        <v>251495</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" t="n">
-        <v>33.38333333333333</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>09-07-2025 07:09:46</t>
+          <t>11-07-2025 13:28:43</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09-07-2025 07:43:46</t>
+          <t>11-07-2025 14:01:43</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>09-07-2025 07:43:46</t>
+          <t>11-07-2025 14:01:43</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>09-07-2025 08:17:09</t>
+          <t>14-07-2025 07:14:04</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>4006</v>
+        <v>8681</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2394,26 +2418,19 @@
       <c r="M27" t="n">
         <v>70</v>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>40042 (esterno)</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>40042</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>25-06-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-14.34524884259259</v>
+        <v>-5.301435185185185</v>
       </c>
       <c r="S27" t="n">
         <v>4</v>
@@ -2421,7 +2438,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>252978</v>
+        <v>243569</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2429,33 +2446,33 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D28" t="n">
-        <v>23.3</v>
+        <v>21.675</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09-07-2025 08:17:09</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-07-2025 08:51:09</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09-07-2025 08:51:09</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>09-07-2025 09:14:27</t>
+          <t>08-07-2025 07:42:40</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2796</v>
+        <v>2601</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2481,11 +2498,11 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-23.38504050925926</v>
+        <v>-295.3213020833333</v>
       </c>
       <c r="S28" t="n">
         <v>2</v>
@@ -2493,7 +2510,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>252783</v>
+        <v>252244</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2501,33 +2518,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>11.95</v>
+        <v>107.575</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09-07-2025 09:14:27</t>
+          <t>08-07-2025 07:42:40</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-07-2025 09:50:27</t>
+          <t>08-07-2025 07:59:40</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09-07-2025 09:50:27</t>
+          <t>08-07-2025 07:59:40</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>09-07-2025 10:02:24</t>
+          <t>08-07-2025 09:47:15</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1434</v>
+        <v>12909</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2536,14 +2553,14 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2553,11 +2570,11 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0</v>
+        <v>-1.4078125</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -2565,7 +2582,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>252220</v>
+        <v>252047</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2573,33 +2590,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>80.51666666666667</v>
+        <v>70.88333333333334</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09-07-2025 10:02:24</t>
+          <t>08-07-2025 09:47:15</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-07-2025 10:21:24</t>
+          <t>08-07-2025 10:04:15</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09-07-2025 10:21:24</t>
+          <t>08-07-2025 10:04:15</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>09-07-2025 11:41:55</t>
+          <t>08-07-2025 11:15:08</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>9662</v>
+        <v>8506</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2608,14 +2625,14 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2625,19 +2642,19 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-23.48744791666667</v>
+        <v>-9.468842592592592</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252814</v>
+        <v>252144</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2645,33 +2662,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D31" t="n">
-        <v>50.08333333333334</v>
+        <v>54.13333333333333</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09-07-2025 11:41:55</t>
+          <t>08-07-2025 11:15:08</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-07-2025 12:17:55</t>
+          <t>08-07-2025 11:30:08</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09-07-2025 12:17:55</t>
+          <t>08-07-2025 11:30:08</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09-07-2025 13:08:00</t>
+          <t>08-07-2025 12:24:16</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>6010</v>
+        <v>6496</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2684,7 +2701,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>76</v>
@@ -2697,19 +2714,19 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>0</v>
+        <v>-9.516851851851852</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>252997</v>
+        <v>243529</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2717,33 +2734,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>40.01666666666667</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09-07-2025 13:08:00</t>
+          <t>08-07-2025 12:24:16</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09-07-2025 13:44:00</t>
+          <t>08-07-2025 12:43:16</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>09-07-2025 13:44:00</t>
+          <t>08-07-2025 12:43:16</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>09-07-2025 14:24:01</t>
+          <t>08-07-2025 14:53:15</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>4802</v>
+        <v>15598</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2752,14 +2769,14 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2769,11 +2786,11 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0</v>
+        <v>-4.6203125</v>
       </c>
       <c r="S32" t="n">
         <v>1</v>
@@ -2781,7 +2798,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>252785</v>
+        <v>252085</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2789,33 +2806,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>55.75</v>
+        <v>28.55</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09-07-2025 14:24:01</t>
+          <t>08-07-2025 14:53:15</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09-07-2025 14:58:01</t>
+          <t>09-07-2025 07:25:15</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>09-07-2025 14:58:01</t>
+          <t>09-07-2025 07:25:15</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>10-07-2025 07:53:46</t>
+          <t>09-07-2025 07:53:48</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>6690</v>
+        <v>3426</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2828,7 +2845,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2841,53 +2858,53 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>0</v>
+        <v>-21.32902777777778</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>252456</v>
+        <v>252347</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D34" t="n">
-        <v>144.4583333333333</v>
+        <v>92.28333333333333</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-07-2025 07:53:46</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>10-07-2025 08:10:46</t>
+          <t>08-07-2025 07:32:30</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10-07-2025 08:10:46</t>
+          <t>08-07-2025 07:32:30</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>10-07-2025 10:35:14</t>
+          <t>08-07-2025 09:04:47</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>17335</v>
+        <v>11074</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2896,11 +2913,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2913,19 +2930,19 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-0.4411342592592593</v>
+        <v>-0.3783217592592593</v>
       </c>
       <c r="S34" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252347</v>
+        <v>252220</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2933,33 +2950,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="D35" t="n">
-        <v>92.28333333333333</v>
+        <v>80.51666666666667</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 09:04:47</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>08-07-2025 07:32:30</t>
+          <t>08-07-2025 09:39:17</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08-07-2025 07:32:30</t>
+          <t>08-07-2025 09:39:17</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>08-07-2025 09:04:47</t>
+          <t>08-07-2025 10:59:48</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>11074</v>
+        <v>9662</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2968,11 +2985,11 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -2985,19 +3002,19 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-0.3783217592592593</v>
+        <v>-22.45819444444444</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251674</v>
+        <v>250284</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3005,33 +3022,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>54.5</v>
+        <v>38.5</v>
       </c>
       <c r="D36" t="n">
-        <v>147.125</v>
+        <v>146.35</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>08-07-2025 09:04:47</t>
+          <t>08-07-2025 10:59:48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>08-07-2025 09:59:17</t>
+          <t>08-07-2025 11:38:18</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08-07-2025 09:59:17</t>
+          <t>08-07-2025 11:38:18</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>08-07-2025 12:26:24</t>
+          <t>08-07-2025 14:04:39</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>17655</v>
+        <v>17562</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3040,11 +3057,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3057,19 +3074,19 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-1.51833912037037</v>
+        <v>-118.5865625</v>
       </c>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>250284</v>
+        <v>251674</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3080,30 +3097,30 @@
         <v>42.5</v>
       </c>
       <c r="D37" t="n">
-        <v>146.35</v>
+        <v>147.125</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>08-07-2025 12:26:24</t>
+          <t>08-07-2025 14:04:39</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>08-07-2025 13:08:54</t>
+          <t>08-07-2025 14:47:09</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>08-07-2025 13:08:54</t>
+          <t>08-07-2025 14:47:09</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>09-07-2025 07:35:15</t>
+          <t>09-07-2025 09:14:16</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>17562</v>
+        <v>17655</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3112,11 +3129,11 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3129,19 +3146,19 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-119.3161516203704</v>
+        <v>-2.384913194444445</v>
       </c>
       <c r="S37" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251231</v>
+        <v>252713</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3149,33 +3166,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>34.5</v>
+        <v>48.5</v>
       </c>
       <c r="D38" t="n">
-        <v>312.3083333333333</v>
+        <v>907.7666666666667</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-07-2025 07:35:15</t>
+          <t>09-07-2025 09:14:16</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-07-2025 08:09:45</t>
+          <t>09-07-2025 10:02:46</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09-07-2025 08:09:45</t>
+          <t>09-07-2025 10:02:46</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>09-07-2025 13:22:04</t>
+          <t>11-07-2025 09:10:32</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>37477</v>
+        <v>108932</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3184,35 +3201,28 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>40034 (esterno)</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>40034</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>18-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-6.556990740740741</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>1</v>
@@ -3220,7 +3230,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252277</v>
+        <v>251926</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3228,33 +3238,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>36.5</v>
+        <v>32.5</v>
       </c>
       <c r="D39" t="n">
-        <v>144.925</v>
+        <v>78.91666666666667</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09-07-2025 13:22:04</t>
+          <t>11-07-2025 09:10:32</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-07-2025 13:58:34</t>
+          <t>11-07-2025 09:43:02</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09-07-2025 13:58:34</t>
+          <t>11-07-2025 09:43:02</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>10-07-2025 08:23:29</t>
+          <t>11-07-2025 11:01:57</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>17391</v>
+        <v>9470</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3267,39 +3277,32 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>40024 (esterno)</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O39" t="n">
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>40024</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-20.34964699074074</v>
+        <v>-2.459693287037037</v>
       </c>
       <c r="S39" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>252549</v>
+        <v>251685</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3310,30 +3313,30 @@
         <v>34.5</v>
       </c>
       <c r="D40" t="n">
-        <v>92.59166666666667</v>
+        <v>98.75833333333334</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-07-2025 08:23:29</t>
+          <t>11-07-2025 11:01:57</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>10-07-2025 08:57:59</t>
+          <t>11-07-2025 11:36:27</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>10-07-2025 08:57:59</t>
+          <t>11-07-2025 11:36:27</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>10-07-2025 10:30:35</t>
+          <t>11-07-2025 13:15:13</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>11111</v>
+        <v>11851</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3346,7 +3349,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -3359,19 +3362,19 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>20-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252364</v>
+        <v>252157</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3379,33 +3382,33 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>32.5</v>
+        <v>36.5</v>
       </c>
       <c r="D41" t="n">
-        <v>94.55</v>
+        <v>396.825</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-07-2025 10:30:35</t>
+          <t>11-07-2025 13:15:13</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>10-07-2025 11:03:05</t>
+          <t>11-07-2025 13:51:43</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>10-07-2025 11:03:05</t>
+          <t>11-07-2025 13:51:43</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>10-07-2025 12:37:38</t>
+          <t>14-07-2025 12:28:32</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>11346</v>
+        <v>47619</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3418,7 +3421,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
@@ -3431,53 +3434,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-13.52613425925926</v>
+        <v>-26.51982060185185</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252144</v>
+        <v>252755</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="D42" t="n">
-        <v>54.13333333333333</v>
+        <v>109.575</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>14-07-2025 12:28:32</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>14-07-2025 13:09:02</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>14-07-2025 13:09:02</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>08-07-2025 08:34:08</t>
+          <t>14-07-2025 14:58:37</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>6496</v>
+        <v>13149</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3486,14 +3489,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3503,53 +3506,53 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-9.357037037037037</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252230</v>
+        <v>252899</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>35</v>
+        <v>32.5</v>
       </c>
       <c r="D43" t="n">
-        <v>63.125</v>
+        <v>180.5666666666667</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>08-07-2025 08:34:08</t>
+          <t>14-07-2025 14:58:37</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>08-07-2025 09:09:08</t>
+          <t>15-07-2025 07:31:07</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08-07-2025 09:09:08</t>
+          <t>15-07-2025 07:31:07</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>08-07-2025 10:12:15</t>
+          <t>15-07-2025 10:31:41</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>7575</v>
+        <v>21668</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3558,14 +3561,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
         <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3575,53 +3578,53 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>13-06-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-25.42517939814815</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>252286</v>
+        <v>252470</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>30</v>
+        <v>32.5</v>
       </c>
       <c r="D44" t="n">
-        <v>51.26666666666667</v>
+        <v>62.5</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>08-07-2025 10:12:15</t>
+          <t>15-07-2025 10:31:41</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>08-07-2025 10:42:15</t>
+          <t>15-07-2025 11:04:11</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08-07-2025 10:42:15</t>
+          <t>15-07-2025 11:04:11</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>08-07-2025 11:33:31</t>
+          <t>15-07-2025 12:06:41</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>6152</v>
+        <v>7500</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3637,26 +3640,21 @@
         <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>76</v>
-      </c>
-      <c r="N44" t="n">
-        <v>40032</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>40032</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
+        <v>-11.5046412037037</v>
       </c>
       <c r="S44" t="n">
         <v>4</v>
@@ -3664,41 +3662,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251632</v>
+        <v>252790</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>85</v>
+        <v>32.5</v>
       </c>
       <c r="D45" t="n">
-        <v>588.5083333333333</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>08-07-2025 11:33:31</t>
+          <t>15-07-2025 12:06:41</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>08-07-2025 12:58:31</t>
+          <t>15-07-2025 12:39:11</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08-07-2025 12:58:31</t>
+          <t>15-07-2025 12:39:11</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>09-07-2025 14:47:02</t>
+          <t>15-07-2025 12:51:17</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>70621</v>
+        <v>1453</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3707,11 +3705,11 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
@@ -3724,53 +3722,53 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>25-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-2.61599537037037</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252243</v>
+        <v>252467</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>85</v>
+        <v>30.5</v>
       </c>
       <c r="D46" t="n">
-        <v>96.70833333333333</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-07-2025 14:47:02</t>
+          <t>15-07-2025 12:51:17</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>10-07-2025 08:12:02</t>
+          <t>15-07-2025 13:21:47</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10-07-2025 08:12:02</t>
+          <t>15-07-2025 13:21:47</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>10-07-2025 09:48:44</t>
+          <t>15-07-2025 14:42:57</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>11605</v>
+        <v>9740</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3779,14 +3777,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M46" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3796,7 +3794,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
@@ -3808,41 +3806,41 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252713</v>
+        <v>252334</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>40</v>
+        <v>30.5</v>
       </c>
       <c r="D47" t="n">
-        <v>907.7666666666667</v>
+        <v>486.5916666666666</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-07-2025 09:48:44</t>
+          <t>15-07-2025 14:42:57</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>10-07-2025 10:28:44</t>
+          <t>16-07-2025 07:13:27</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10-07-2025 10:28:44</t>
+          <t>16-07-2025 07:13:27</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>14-07-2025 09:36:30</t>
+          <t>17-07-2025 07:20:03</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>108932</v>
+        <v>58391</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3851,7 +3849,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -3868,19 +3866,19 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>18-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0</v>
+        <v>-13.30559027777778</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>252334</v>
+        <v>252636</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3888,33 +3886,33 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
-        <v>486.5916666666666</v>
+        <v>11.275</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>14-07-2025 09:36:30</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>14-07-2025 10:21:30</t>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>14-07-2025 10:21:30</t>
+          <t>08-07-2025 07:30:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>15-07-2025 10:28:06</t>
+          <t>08-07-2025 07:41:16</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>58391</v>
+        <v>1353</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3927,7 +3925,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
@@ -3940,19 +3938,19 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-11.43618055555556</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>252470</v>
+        <v>252546</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3960,33 +3958,33 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D49" t="n">
-        <v>62.5</v>
+        <v>54.63333333333333</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>15-07-2025 10:28:06</t>
+          <t>08-07-2025 07:41:16</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>15-07-2025 10:58:06</t>
+          <t>08-07-2025 08:26:16</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>15-07-2025 10:58:06</t>
+          <t>08-07-2025 08:26:16</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>15-07-2025 12:00:36</t>
+          <t>08-07-2025 09:20:54</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>7500</v>
+        <v>6556</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3995,14 +3993,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M49" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4012,19 +4010,19 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-11.50041666666667</v>
+        <v>-7.389519675925926</v>
       </c>
       <c r="S49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>252157</v>
+        <v>252201</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4032,33 +4030,33 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D50" t="n">
-        <v>396.825</v>
+        <v>34.10833333333333</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15-07-2025 12:00:36</t>
+          <t>08-07-2025 09:20:54</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>15-07-2025 12:50:36</t>
+          <t>08-07-2025 09:55:54</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15-07-2025 12:50:36</t>
+          <t>08-07-2025 09:55:54</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>16-07-2025 11:27:25</t>
+          <t>08-07-2025 10:30:01</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>47619</v>
+        <v>4093</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4067,14 +4065,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -4084,53 +4082,53 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-28.47737847222222</v>
+        <v>-18.43751157407407</v>
       </c>
       <c r="S50" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>252201</v>
+        <v>252207</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D51" t="n">
-        <v>34.10833333333333</v>
+        <v>51.55</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 10:30:01</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>08-07-2025 11:05:01</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>08-07-2025 11:05:01</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>08-07-2025 07:53:06</t>
+          <t>08-07-2025 11:56:34</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>4093</v>
+        <v>6186</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4156,53 +4154,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-18.3285474537037</v>
+        <v>-12.49761574074074</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>243525</v>
+        <v>251798</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
-        <v>129.9833333333333</v>
+        <v>123.2916666666667</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>08-07-2025 07:53:06</t>
+          <t>08-07-2025 11:56:34</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>08-07-2025 08:12:06</t>
+          <t>08-07-2025 12:26:34</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08-07-2025 08:12:06</t>
+          <t>08-07-2025 12:26:34</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>08-07-2025 10:22:05</t>
+          <t>08-07-2025 14:29:51</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>15598</v>
+        <v>14795</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4215,7 +4213,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M52" t="n">
         <v>76</v>
@@ -4228,53 +4226,53 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-4.432008101851852</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>241783</v>
+        <v>252476</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D53" t="n">
-        <v>43.325</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>08-07-2025 10:22:05</t>
+          <t>08-07-2025 14:29:51</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>08-07-2025 10:37:05</t>
+          <t>09-07-2025 07:09:51</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08-07-2025 10:37:05</t>
+          <t>09-07-2025 07:09:51</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>08-07-2025 11:20:25</t>
+          <t>09-07-2025 08:22:12</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>5199</v>
+        <v>8681</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4283,14 +4281,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
         <v>3</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4300,53 +4298,53 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0</v>
+        <v>-2.34875</v>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>245623</v>
+        <v>252785</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D54" t="n">
-        <v>220.1583333333333</v>
+        <v>55.75</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>08-07-2025 11:20:25</t>
+          <t>09-07-2025 08:22:12</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>08-07-2025 11:52:25</t>
+          <t>09-07-2025 09:02:12</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08-07-2025 11:52:25</t>
+          <t>09-07-2025 09:02:12</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>09-07-2025 07:32:34</t>
+          <t>09-07-2025 09:57:57</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>26419</v>
+        <v>6690</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4355,14 +4353,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M54" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4372,53 +4370,53 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-165.3142881944445</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252071</v>
+        <v>251632</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D55" t="n">
-        <v>45.73333333333333</v>
+        <v>588.5083333333333</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 09:57:57</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 11:02:57</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-07-2025 11:02:57</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>08-07-2025 08:25:44</t>
+          <t>10-07-2025 12:51:27</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>5488</v>
+        <v>70621</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4427,14 +4425,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M55" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4444,53 +4442,53 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>12-06-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-26.3512037037037</v>
+        <v>-3.535734953703704</v>
       </c>
       <c r="S55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>244828</v>
+        <v>252063</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D56" t="n">
-        <v>43.35833333333333</v>
+        <v>79.94166666666666</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>08-07-2025 08:25:44</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>08-07-2025 09:00:44</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08-07-2025 09:00:44</t>
+          <t>08-07-2025 07:19:00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>08-07-2025 09:44:05</t>
+          <t>08-07-2025 08:38:56</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>5203</v>
+        <v>9593</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4499,14 +4497,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M56" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4516,11 +4514,11 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-1.405619212962963</v>
+        <v>-7.360376157407408</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
@@ -4528,41 +4526,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>252047</v>
+        <v>244828</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D57" t="n">
-        <v>70.88333333333334</v>
+        <v>43.35833333333333</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>08-07-2025 09:44:05</t>
+          <t>08-07-2025 08:38:56</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>08-07-2025 10:19:05</t>
+          <t>08-07-2025 09:10:56</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08-07-2025 10:19:05</t>
+          <t>08-07-2025 09:10:56</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>08-07-2025 11:29:58</t>
+          <t>08-07-2025 09:54:18</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>8506</v>
+        <v>5203</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4571,14 +4569,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4588,14 +4586,14 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-9.479149305555556</v>
+        <v>-1.412708333333333</v>
       </c>
       <c r="S57" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -4604,33 +4602,33 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D58" t="n">
         <v>84.95</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>08-07-2025 11:29:58</t>
+          <t>08-07-2025 09:54:18</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>08-07-2025 12:04:58</t>
+          <t>08-07-2025 10:09:18</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>08-07-2025 12:04:58</t>
+          <t>08-07-2025 10:09:18</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>08-07-2025 13:29:55</t>
+          <t>08-07-2025 11:34:15</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4664,7 +4662,7 @@
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-7.562447916666667</v>
+        <v>-7.482118055555556</v>
       </c>
       <c r="S58" t="n">
         <v>1</v>
@@ -4672,41 +4670,41 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>252476</v>
+        <v>245623</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D59" t="n">
-        <v>72.34166666666667</v>
+        <v>220.1583333333333</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>08-07-2025 13:29:55</t>
+          <t>08-07-2025 11:34:15</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>08-07-2025 14:04:55</t>
+          <t>08-07-2025 12:08:15</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>08-07-2025 14:04:55</t>
+          <t>08-07-2025 12:08:15</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>09-07-2025 07:17:16</t>
+          <t>09-07-2025 07:48:24</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>8681</v>
+        <v>26419</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4715,14 +4713,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4732,53 +4730,53 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>25-01-2025 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-2.303657407407407</v>
+        <v>-165.3252835648148</v>
       </c>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252244</v>
+        <v>252152</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D60" t="n">
-        <v>107.575</v>
+        <v>27.36666666666667</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-07-2025 07:17:16</t>
+          <t>09-07-2025 07:48:24</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>09-07-2025 07:52:16</t>
+          <t>09-07-2025 08:22:24</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>09-07-2025 07:52:16</t>
+          <t>09-07-2025 08:22:24</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>09-07-2025 09:39:50</t>
+          <t>09-07-2025 08:49:46</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>12909</v>
+        <v>3284</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4804,53 +4802,53 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-2.402667824074074</v>
+        <v>-19.36789930555556</v>
       </c>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>252636</v>
+        <v>252402</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D61" t="n">
-        <v>11.275</v>
+        <v>25.075</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-07-2025 09:39:50</t>
+          <t>09-07-2025 08:49:46</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>09-07-2025 10:14:50</t>
+          <t>09-07-2025 09:06:46</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>09-07-2025 10:14:50</t>
+          <t>09-07-2025 09:06:46</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>09-07-2025 10:26:07</t>
+          <t>09-07-2025 09:31:51</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1353</v>
+        <v>3009</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4859,14 +4857,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M61" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -4876,11 +4874,11 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0</v>
+        <v>-12.39711805555556</v>
       </c>
       <c r="S61" t="n">
         <v>7</v>
@@ -4888,41 +4886,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>252284</v>
+        <v>245089</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D62" t="n">
-        <v>51.26666666666667</v>
+        <v>1022.208333333333</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-07-2025 10:26:07</t>
+          <t>09-07-2025 09:31:51</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>09-07-2025 10:56:07</t>
+          <t>09-07-2025 09:48:51</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>09-07-2025 10:56:07</t>
+          <t>09-07-2025 09:48:51</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>09-07-2025 11:47:23</t>
+          <t>11-07-2025 10:51:03</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>6152</v>
+        <v>122665</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4931,41 +4929,36 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
         <v>4</v>
       </c>
       <c r="M62" t="n">
-        <v>70</v>
-      </c>
-      <c r="N62" t="n">
-        <v>40032</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>40032</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>02-07-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252207</v>
+        <v>252371</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4976,30 +4969,30 @@
         <v>35</v>
       </c>
       <c r="D63" t="n">
-        <v>51.55</v>
+        <v>50.04166666666666</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-07-2025 11:47:23</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>09-07-2025 12:22:23</t>
+          <t>08-07-2025 07:35:00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>09-07-2025 12:22:23</t>
+          <t>08-07-2025 07:35:00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>09-07-2025 13:13:56</t>
+          <t>08-07-2025 08:25:02</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>6186</v>
+        <v>6005</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5008,11 +5001,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M63" t="n">
         <v>76</v>
@@ -5025,11 +5018,11 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-13.55134259259259</v>
+        <v>-8.350723379629629</v>
       </c>
       <c r="S63" t="n">
         <v>1</v>
@@ -5037,7 +5030,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252350</v>
+        <v>251790</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5045,33 +5038,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D64" t="n">
-        <v>51.88333333333333</v>
+        <v>235.0583333333333</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-07-2025 13:13:56</t>
+          <t>08-07-2025 08:25:02</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>09-07-2025 13:48:56</t>
+          <t>08-07-2025 08:55:02</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>09-07-2025 13:48:56</t>
+          <t>08-07-2025 08:55:02</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>09-07-2025 14:40:49</t>
+          <t>08-07-2025 12:50:06</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>6226</v>
+        <v>28207</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5080,14 +5073,14 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M64" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5097,11 +5090,11 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-1.611678240740741</v>
+        <v>-8.534791666666667</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -5109,7 +5102,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251685</v>
+        <v>252652</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5117,33 +5110,33 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>98.75833333333334</v>
+        <v>186.0083333333333</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-07-2025 14:40:49</t>
+          <t>08-07-2025 12:50:06</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>10-07-2025 07:25:49</t>
+          <t>08-07-2025 13:30:06</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10-07-2025 07:25:49</t>
+          <t>08-07-2025 13:30:06</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>10-07-2025 09:04:34</t>
+          <t>09-07-2025 08:36:06</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>11851</v>
+        <v>22321</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5156,7 +5149,7 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5169,7 +5162,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
@@ -5181,7 +5174,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>252638</v>
+        <v>251849</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5189,33 +5182,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D66" t="n">
-        <v>61.49166666666667</v>
+        <v>33.38333333333333</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-07-2025 09:04:34</t>
+          <t>09-07-2025 08:36:06</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>10-07-2025 09:34:34</t>
+          <t>09-07-2025 09:11:06</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10-07-2025 09:34:34</t>
+          <t>09-07-2025 09:11:06</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>10-07-2025 10:36:04</t>
+          <t>09-07-2025 09:44:29</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>7379</v>
+        <v>4006</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5233,27 +5226,34 @@
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="O66" t="n">
-        <v>0</v>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>40042 (esterno)</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>40042</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>06-07-2025 00:00:00</t>
+          <t>25-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-4.441712962962963</v>
+        <v>-14.40589699074074</v>
       </c>
       <c r="S66" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>252547</v>
+        <v>252784</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5261,33 +5261,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D67" t="n">
-        <v>81.16666666666667</v>
+        <v>26.975</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-07-2025 10:36:04</t>
+          <t>09-07-2025 09:44:29</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>10-07-2025 11:21:04</t>
+          <t>09-07-2025 10:14:29</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10-07-2025 11:21:04</t>
+          <t>09-07-2025 10:14:29</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>10-07-2025 12:42:14</t>
+          <t>09-07-2025 10:41:28</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>9740</v>
+        <v>3237</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
@@ -5313,11 +5313,11 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-6.529328703703704</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
         <v>1</v>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>243569</v>
+        <v>252345</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D68" t="n">
-        <v>21.675</v>
+        <v>43.325</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -5345,21 +5345,21 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>08-07-2025 07:35:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>08-07-2025 07:35:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>08-07-2025 08:01:40</t>
+          <t>08-07-2025 08:18:19</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2601</v>
+        <v>5199</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5368,14 +5368,14 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
         <v>3</v>
       </c>
       <c r="M68" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -5385,19 +5385,19 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-295.3344965277778</v>
+        <v>-0.3460590277777778</v>
       </c>
       <c r="S68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>244023</v>
+        <v>243335</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5405,33 +5405,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D69" t="n">
-        <v>8.308333333333334</v>
+        <v>275.0333333333334</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-07-2025 08:01:40</t>
+          <t>08-07-2025 08:18:19</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-07-2025 08:46:40</t>
+          <t>08-07-2025 08:53:19</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>08-07-2025 08:46:40</t>
+          <t>08-07-2025 08:53:19</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>08-07-2025 08:54:59</t>
+          <t>08-07-2025 13:28:21</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>997</v>
+        <v>33004</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5440,14 +5440,14 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M69" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -5457,11 +5457,11 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>02-08-2024 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-281.3715162037037</v>
+        <v>-340.5613599537037</v>
       </c>
       <c r="S69" t="n">
         <v>1</v>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251919</v>
+        <v>252298</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5477,33 +5477,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D70" t="n">
-        <v>140.05</v>
+        <v>70.76666666666667</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-07-2025 08:54:59</t>
+          <t>08-07-2025 13:28:21</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-07-2025 09:39:59</t>
+          <t>08-07-2025 14:08:21</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08-07-2025 09:39:59</t>
+          <t>08-07-2025 14:08:21</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:02</t>
+          <t>09-07-2025 07:19:07</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>16806</v>
+        <v>8492</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5512,14 +5512,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M70" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -5529,19 +5529,19 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>23-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-22.50002314814815</v>
+        <v>-16.30494791666667</v>
       </c>
       <c r="S70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>252146</v>
+        <v>252284</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5552,30 +5552,30 @@
         <v>40</v>
       </c>
       <c r="D71" t="n">
-        <v>66.63333333333334</v>
+        <v>51.26666666666667</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:02</t>
+          <t>09-07-2025 07:19:07</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-07-2025 12:40:02</t>
+          <t>09-07-2025 07:59:07</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08-07-2025 12:40:02</t>
+          <t>09-07-2025 07:59:07</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>08-07-2025 13:46:40</t>
+          <t>09-07-2025 08:50:23</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>7996</v>
+        <v>6152</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5584,36 +5584,41 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
-        <v>76</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N71" t="n">
+        <v>40032</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>40032</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>02-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-9.574074074074074</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>252285</v>
+        <v>252814</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5621,33 +5626,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D72" t="n">
-        <v>46.14166666666667</v>
+        <v>50.08333333333334</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-07-2025 13:46:40</t>
+          <t>09-07-2025 08:50:23</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-07-2025 14:21:40</t>
+          <t>09-07-2025 09:35:23</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08-07-2025 14:21:40</t>
+          <t>09-07-2025 09:35:23</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>09-07-2025 07:07:48</t>
+          <t>09-07-2025 10:25:28</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>5537</v>
+        <v>6010</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5656,41 +5661,36 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
         <v>4</v>
       </c>
       <c r="M72" t="n">
-        <v>70</v>
-      </c>
-      <c r="N72" t="n">
-        <v>40032</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>40032</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>02-07-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>243335</v>
+        <v>252978</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5698,33 +5698,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D73" t="n">
-        <v>275.0333333333334</v>
+        <v>23.3</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-07-2025 07:07:48</t>
+          <t>09-07-2025 10:25:28</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>09-07-2025 07:52:48</t>
+          <t>09-07-2025 10:55:28</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>09-07-2025 07:52:48</t>
+          <t>09-07-2025 10:55:28</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>09-07-2025 12:27:50</t>
+          <t>09-07-2025 11:18:46</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>33004</v>
+        <v>2796</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5737,10 +5737,10 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M73" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -5750,19 +5750,19 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>02-08-2024 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-341.5193344907407</v>
+        <v>-23.47137152777778</v>
       </c>
       <c r="S73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>252665</v>
+        <v>243524</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5770,33 +5770,33 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D74" t="n">
-        <v>48.875</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-07-2025 12:27:50</t>
+          <t>09-07-2025 11:18:46</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>09-07-2025 13:07:50</t>
+          <t>09-07-2025 11:53:46</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>09-07-2025 13:07:50</t>
+          <t>09-07-2025 11:53:46</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>09-07-2025 13:56:43</t>
+          <t>09-07-2025 13:00:23</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>5865</v>
+        <v>7994</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5805,14 +5805,14 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -5822,19 +5822,19 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>0</v>
+        <v>-5.541938657407408</v>
       </c>
       <c r="S74" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>252784</v>
+        <v>252456</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -5842,33 +5842,33 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D75" t="n">
-        <v>26.975</v>
+        <v>144.4583333333333</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-07-2025 13:56:43</t>
+          <t>09-07-2025 13:00:23</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>09-07-2025 14:41:43</t>
+          <t>09-07-2025 13:40:23</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>09-07-2025 14:41:43</t>
+          <t>09-07-2025 13:40:23</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>10-07-2025 07:08:41</t>
+          <t>10-07-2025 08:04:51</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3237</v>
+        <v>17335</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -5894,14 +5894,14 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>0</v>
+        <v>-0.3367013888888889</v>
       </c>
       <c r="S75" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/output.xlsx
+++ b/PS-VRP/Dati_output/output.xlsx
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252146</v>
+        <v>252071</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>66.63333333333334</v>
+        <v>45.73333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -562,21 +562,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:23:38</t>
+          <t>08-07-2025 08:06:44</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>7996</v>
+        <v>5488</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>76</v>
@@ -602,19 +602,19 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>12-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-9.349745370370371</v>
+        <v>-26.33800925925926</v>
       </c>
       <c r="S2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252665</v>
+        <v>252286</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -622,33 +622,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>48.875</v>
+        <v>51.26666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:23:38</t>
+          <t>08-07-2025 08:06:44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:55:38</t>
+          <t>08-07-2025 08:23:44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:55:38</t>
+          <t>08-07-2025 08:23:44</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-07-2025 09:44:30</t>
+          <t>08-07-2025 09:15:00</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5865</v>
+        <v>6152</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -657,36 +657,41 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N3" t="n">
+        <v>40032</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>40032</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>02-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>252087</v>
+        <v>243529</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -697,30 +702,30 @@
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>35.5</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08-07-2025 09:44:30</t>
+          <t>08-07-2025 09:15:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-07-2025 10:01:30</t>
+          <t>08-07-2025 09:32:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-07-2025 10:01:30</t>
+          <t>08-07-2025 09:32:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-07-2025 10:37:00</t>
+          <t>08-07-2025 11:41:59</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>4260</v>
+        <v>15598</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -729,14 +734,14 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -746,19 +751,19 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-9.442366898148148</v>
+        <v>-4.487488425925926</v>
       </c>
       <c r="S4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>252285</v>
+        <v>241783</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -766,33 +771,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>46.14166666666667</v>
+        <v>43.325</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>08-07-2025 10:37:00</t>
+          <t>08-07-2025 11:41:59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-07-2025 10:54:00</t>
+          <t>08-07-2025 11:56:59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-07-2025 10:54:00</t>
+          <t>08-07-2025 11:56:59</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-07-2025 11:40:09</t>
+          <t>08-07-2025 12:40:18</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5537</v>
+        <v>5199</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -801,41 +806,36 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
-      </c>
-      <c r="N5" t="n">
-        <v>40032</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>40032</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>02-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>241783</v>
+        <v>243524</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -843,33 +843,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>43.325</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>08-07-2025 11:40:09</t>
+          <t>08-07-2025 12:40:18</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-07-2025 12:12:09</t>
+          <t>08-07-2025 12:55:18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-07-2025 12:12:09</t>
+          <t>08-07-2025 12:55:18</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-07-2025 12:55:28</t>
+          <t>08-07-2025 14:01:55</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5199</v>
+        <v>7994</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -895,11 +895,11 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0</v>
+        <v>-4.584670138888889</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252286</v>
+        <v>243525</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -915,33 +915,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>51.26666666666667</v>
+        <v>129.9833333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>08-07-2025 12:55:28</t>
+          <t>08-07-2025 14:01:55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-07-2025 13:12:28</t>
+          <t>08-07-2025 14:16:55</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08-07-2025 13:12:28</t>
+          <t>08-07-2025 14:16:55</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-07-2025 14:03:44</t>
+          <t>09-07-2025 08:26:54</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>6152</v>
+        <v>15598</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -950,41 +950,36 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>76</v>
       </c>
-      <c r="N7" t="n">
-        <v>40032</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>40032</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>02-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-5.352019675925926</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252723</v>
+        <v>252243</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -995,30 +990,30 @@
         <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>153.9583333333333</v>
+        <v>96.70833333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>08-07-2025 14:03:44</t>
+          <t>09-07-2025 08:26:54</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>08-07-2025 14:20:44</t>
+          <t>09-07-2025 08:43:54</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>08-07-2025 14:20:44</t>
+          <t>09-07-2025 08:43:54</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-07-2025 08:54:42</t>
+          <t>09-07-2025 10:20:37</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>18475</v>
+        <v>11605</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1031,7 +1026,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>76</v>
@@ -1044,7 +1039,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
@@ -1056,7 +1051,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>243525</v>
+        <v>252636</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1064,33 +1059,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>129.9833333333333</v>
+        <v>11.275</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-07-2025 08:54:42</t>
+          <t>09-07-2025 10:20:37</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-07-2025 09:13:42</t>
+          <t>09-07-2025 10:52:37</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09-07-2025 09:13:42</t>
+          <t>09-07-2025 10:52:37</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-07-2025 11:23:41</t>
+          <t>09-07-2025 11:03:53</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>15598</v>
+        <v>1353</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,14 +1094,14 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1116,19 +1111,19 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-5.474780092592592</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252999</v>
+        <v>252345</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1136,33 +1131,33 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>325.8416666666666</v>
+        <v>43.325</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-07-2025 11:23:41</t>
+          <t>09-07-2025 11:03:53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-07-2025 11:55:41</t>
+          <t>09-07-2025 11:22:53</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09-07-2025 11:55:41</t>
+          <t>09-07-2025 11:22:53</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10-07-2025 09:21:31</t>
+          <t>09-07-2025 12:06:13</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>39101</v>
+        <v>5199</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1171,11 +1166,11 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1188,19 +1183,19 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>06-08-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-1.50431712962963</v>
       </c>
       <c r="S10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>244023</v>
+        <v>252785</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1208,33 +1203,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>8.308333333333334</v>
+        <v>55.75</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-07-2025 09:21:31</t>
+          <t>09-07-2025 12:06:13</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10-07-2025 09:44:31</t>
+          <t>09-07-2025 12:27:13</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10-07-2025 09:44:31</t>
+          <t>09-07-2025 12:27:13</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10-07-2025 09:52:50</t>
+          <t>09-07-2025 13:22:58</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>997</v>
+        <v>6690</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1260,11 +1255,11 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-283.4116898148148</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1272,7 +1267,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252549</v>
+        <v>252665</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1280,33 +1275,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>92.59166666666667</v>
+        <v>48.875</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-07-2025 09:52:50</t>
+          <t>09-07-2025 13:22:58</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10-07-2025 10:13:50</t>
+          <t>09-07-2025 13:45:58</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10-07-2025 10:13:50</t>
+          <t>09-07-2025 13:45:58</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10-07-2025 11:46:25</t>
+          <t>09-07-2025 14:34:50</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>11111</v>
+        <v>5865</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1315,11 +1310,11 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1332,19 +1327,19 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>20-07-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252783</v>
+        <v>252085</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1352,33 +1347,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>11.95</v>
+        <v>28.55</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-07-2025 11:46:25</t>
+          <t>09-07-2025 14:34:50</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10-07-2025 12:07:25</t>
+          <t>09-07-2025 14:53:50</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10-07-2025 12:07:25</t>
+          <t>09-07-2025 14:53:50</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10-07-2025 12:19:22</t>
+          <t>10-07-2025 07:22:23</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1434</v>
+        <v>3426</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1391,7 +1386,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
@@ -1404,19 +1399,19 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-22.30721643518519</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252547</v>
+        <v>252783</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1424,33 +1419,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>81.16666666666667</v>
+        <v>11.95</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-07-2025 12:19:22</t>
+          <t>10-07-2025 07:22:23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10-07-2025 12:36:22</t>
+          <t>10-07-2025 07:41:23</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10-07-2025 12:36:22</t>
+          <t>10-07-2025 07:41:23</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>10-07-2025 13:57:32</t>
+          <t>10-07-2025 07:53:20</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>9740</v>
+        <v>1434</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1463,7 +1458,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1476,11 +1471,11 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-6.581626157407407</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -1488,41 +1483,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252638</v>
+        <v>252285</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D15" t="n">
-        <v>61.49166666666667</v>
+        <v>46.14166666666667</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-07-2025 13:57:32</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10-07-2025 14:20:32</t>
+          <t>08-07-2025 07:46:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10-07-2025 14:20:32</t>
+          <t>08-07-2025 07:46:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11-07-2025 07:22:02</t>
+          <t>08-07-2025 08:32:08</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>7379</v>
+        <v>5537</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1535,32 +1530,37 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
+      <c r="N15" t="n">
+        <v>40032</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>40032</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>06-07-2025 00:00:00</t>
+          <t>02-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-5.306967592592593</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252997</v>
+        <v>244023</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1568,33 +1568,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>40.01666666666667</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 08:32:08</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08-07-2025 07:46:00</t>
+          <t>08-07-2025 09:01:08</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08-07-2025 07:46:00</t>
+          <t>08-07-2025 09:01:08</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08-07-2025 08:26:01</t>
+          <t>08-07-2025 09:09:27</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>4802</v>
+        <v>997</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1620,11 +1620,11 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-281.3815625</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251919</v>
+        <v>243335</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1640,33 +1640,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D17" t="n">
-        <v>140.05</v>
+        <v>275.0333333333334</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>08-07-2025 08:26:01</t>
+          <t>08-07-2025 09:09:27</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>08-07-2025 08:53:01</t>
+          <t>08-07-2025 09:53:27</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08-07-2025 08:53:01</t>
+          <t>08-07-2025 09:53:27</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>08-07-2025 11:13:04</t>
+          <t>08-07-2025 14:28:29</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>16806</v>
+        <v>33004</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>152</v>
@@ -1692,11 +1692,11 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>02-08-2024 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-22.46740740740741</v>
+        <v>-340.6031134259259</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>252350</v>
+        <v>245623</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1712,33 +1712,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
-        <v>51.88333333333333</v>
+        <v>220.1583333333333</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>08-07-2025 11:13:04</t>
+          <t>08-07-2025 14:28:29</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>08-07-2025 11:55:04</t>
+          <t>08-07-2025 14:57:29</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08-07-2025 11:55:04</t>
+          <t>08-07-2025 14:57:29</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>08-07-2025 12:46:57</t>
+          <t>09-07-2025 10:37:38</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>6226</v>
+        <v>26419</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1747,14 +1747,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>25-01-2025 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.5326041666666667</v>
+        <v>-165.442806712963</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252364</v>
+        <v>252997</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1787,30 +1787,30 @@
         <v>29</v>
       </c>
       <c r="D19" t="n">
-        <v>94.55</v>
+        <v>40.01666666666667</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>08-07-2025 12:46:57</t>
+          <t>09-07-2025 10:37:38</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>08-07-2025 13:15:57</t>
+          <t>09-07-2025 11:06:38</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08-07-2025 13:15:57</t>
+          <t>09-07-2025 11:06:38</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>08-07-2025 14:50:30</t>
+          <t>09-07-2025 11:46:39</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>11346</v>
+        <v>4802</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1819,14 +1819,14 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1836,19 +1836,19 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-11.61840277777778</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251231</v>
+        <v>252686</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1856,33 +1856,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
-        <v>312.3083333333333</v>
+        <v>329.15</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>08-07-2025 14:50:30</t>
+          <t>09-07-2025 11:46:39</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-07-2025 07:19:30</t>
+          <t>09-07-2025 12:13:39</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09-07-2025 07:19:30</t>
+          <t>09-07-2025 12:13:39</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>09-07-2025 12:31:48</t>
+          <t>10-07-2025 09:42:48</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>37477</v>
+        <v>39498</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1891,35 +1891,28 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>40034 (esterno)</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>40034</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>21-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-6.522089120370371</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -1927,7 +1920,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252277</v>
+        <v>252476</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1935,33 +1928,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D21" t="n">
-        <v>144.925</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>09-07-2025 12:31:48</t>
+          <t>10-07-2025 09:42:48</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09-07-2025 13:02:48</t>
+          <t>10-07-2025 10:26:48</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>09-07-2025 13:02:48</t>
+          <t>10-07-2025 10:26:48</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>10-07-2025 07:27:44</t>
+          <t>10-07-2025 11:39:09</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>17391</v>
+        <v>8681</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1979,34 +1972,27 @@
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>40024 (esterno)</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>40024</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-20.31092592592593</v>
+        <v>-3.485520833333333</v>
       </c>
       <c r="S21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>252243</v>
+        <v>252087</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2014,33 +2000,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D22" t="n">
-        <v>96.70833333333333</v>
+        <v>35.5</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-07-2025 07:27:44</t>
+          <t>10-07-2025 11:39:09</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10-07-2025 08:09:44</t>
+          <t>10-07-2025 12:08:09</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10-07-2025 08:09:44</t>
+          <t>10-07-2025 12:08:09</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>10-07-2025 09:46:26</t>
+          <t>10-07-2025 12:43:39</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>11605</v>
+        <v>4260</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2049,14 +2035,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2066,19 +2052,19 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
+        <v>-11.5303125</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252230</v>
+        <v>252364</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2089,30 +2075,30 @@
         <v>27</v>
       </c>
       <c r="D23" t="n">
-        <v>63.125</v>
+        <v>94.55</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-07-2025 09:46:26</t>
+          <t>10-07-2025 12:43:39</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10-07-2025 10:13:26</t>
+          <t>10-07-2025 13:10:39</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10-07-2025 10:13:26</t>
+          <t>10-07-2025 13:10:39</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>10-07-2025 11:16:34</t>
+          <t>10-07-2025 14:45:12</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>7575</v>
+        <v>11346</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2121,14 +2107,14 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2138,19 +2124,19 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>13-06-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-27.46983796296296</v>
+        <v>-13.61472222222222</v>
       </c>
       <c r="S23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>252071</v>
+        <v>252547</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2158,33 +2144,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
-        <v>45.73333333333333</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-07-2025 11:16:34</t>
+          <t>10-07-2025 14:45:12</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10-07-2025 11:45:34</t>
+          <t>11-07-2025 07:12:12</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10-07-2025 11:45:34</t>
+          <t>11-07-2025 07:12:12</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>10-07-2025 12:31:18</t>
+          <t>11-07-2025 08:33:22</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>5488</v>
+        <v>9740</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2193,14 +2179,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
         <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2210,19 +2196,19 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>12-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-28.52173611111111</v>
+        <v>-7.356504629629629</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>252686</v>
+        <v>252456</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2230,33 +2216,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D25" t="n">
-        <v>329.15</v>
+        <v>144.4583333333333</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-07-2025 12:31:18</t>
+          <t>11-07-2025 08:33:22</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>10-07-2025 13:15:18</t>
+          <t>11-07-2025 09:06:22</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10-07-2025 13:15:18</t>
+          <t>11-07-2025 09:06:22</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>11-07-2025 10:44:27</t>
+          <t>11-07-2025 11:30:49</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>39498</v>
+        <v>17335</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2265,14 +2251,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2282,19 +2268,19 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0</v>
+        <v>-1.479739583333333</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>252336</v>
+        <v>251685</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2302,33 +2288,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D26" t="n">
-        <v>120.275</v>
+        <v>98.75833333333334</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-07-2025 10:44:27</t>
+          <t>11-07-2025 11:30:49</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>11-07-2025 11:28:27</t>
+          <t>11-07-2025 11:57:49</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>11-07-2025 11:28:27</t>
+          <t>11-07-2025 11:57:49</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>11-07-2025 13:28:43</t>
+          <t>11-07-2025 13:36:35</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>14433</v>
+        <v>11851</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2341,7 +2327,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2354,53 +2340,53 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-7.561614583333333</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251495</v>
+        <v>252546</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D27" t="n">
-        <v>72.34166666666667</v>
+        <v>54.63333333333333</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-07-2025 13:28:43</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>11-07-2025 14:01:43</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>11-07-2025 14:01:43</t>
+          <t>08-07-2025 07:21:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>14-07-2025 07:14:04</t>
+          <t>08-07-2025 08:15:38</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>8681</v>
+        <v>6556</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2409,14 +2395,14 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2426,19 +2412,19 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-5.301435185185185</v>
+        <v>-7.344189814814815</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>243569</v>
+        <v>252063</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2446,33 +2432,33 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>21.675</v>
+        <v>79.94166666666666</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 08:15:38</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>08-07-2025 08:30:38</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>08-07-2025 08:30:38</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>08-07-2025 07:42:40</t>
+          <t>08-07-2025 09:50:34</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2601</v>
+        <v>9593</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2481,7 +2467,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -2498,19 +2484,19 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-295.3213020833333</v>
+        <v>-7.410121527777778</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>252244</v>
+        <v>252784</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2518,33 +2504,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D29" t="n">
-        <v>107.575</v>
+        <v>26.975</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>08-07-2025 07:42:40</t>
+          <t>08-07-2025 09:50:34</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>08-07-2025 07:59:40</t>
+          <t>08-07-2025 10:26:34</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08-07-2025 07:59:40</t>
+          <t>08-07-2025 10:26:34</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>08-07-2025 09:47:15</t>
+          <t>08-07-2025 10:53:33</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>12909</v>
+        <v>3237</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2553,14 +2539,14 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2570,11 +2556,11 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-1.4078125</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -2582,7 +2568,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>252047</v>
+        <v>250284</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2590,33 +2576,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D30" t="n">
-        <v>70.88333333333334</v>
+        <v>146.35</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>08-07-2025 09:47:15</t>
+          <t>08-07-2025 10:53:33</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>08-07-2025 10:04:15</t>
+          <t>08-07-2025 11:12:33</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08-07-2025 10:04:15</t>
+          <t>08-07-2025 11:12:33</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>08-07-2025 11:15:08</t>
+          <t>08-07-2025 13:38:54</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>8506</v>
+        <v>17562</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2625,14 +2611,14 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M30" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2642,11 +2628,11 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-9.468842592592592</v>
+        <v>-118.5686805555556</v>
       </c>
       <c r="S30" t="n">
         <v>7</v>
@@ -2654,7 +2640,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252144</v>
+        <v>252220</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2662,33 +2648,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D31" t="n">
-        <v>54.13333333333333</v>
+        <v>80.51666666666667</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>08-07-2025 11:15:08</t>
+          <t>08-07-2025 13:38:54</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>08-07-2025 11:30:08</t>
+          <t>08-07-2025 14:01:54</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08-07-2025 11:30:08</t>
+          <t>08-07-2025 14:01:54</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>08-07-2025 12:24:16</t>
+          <t>09-07-2025 07:22:25</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>6496</v>
+        <v>9662</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2697,14 +2683,14 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2714,19 +2700,19 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-9.516851851851852</v>
+        <v>-23.30723379629629</v>
       </c>
       <c r="S31" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>243529</v>
+        <v>251849</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2734,33 +2720,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D32" t="n">
-        <v>129.9833333333333</v>
+        <v>33.38333333333333</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>08-07-2025 12:24:16</t>
+          <t>09-07-2025 07:22:25</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>08-07-2025 12:43:16</t>
+          <t>09-07-2025 07:39:25</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08-07-2025 12:43:16</t>
+          <t>09-07-2025 07:39:25</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>08-07-2025 14:53:15</t>
+          <t>09-07-2025 08:12:48</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>15598</v>
+        <v>4006</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2769,36 +2755,43 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
-        <v>76</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>40042 (esterno)</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>40042</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>25-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-4.6203125</v>
+        <v>-14.34222222222222</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>252085</v>
+        <v>252284</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2806,33 +2799,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D33" t="n">
-        <v>28.55</v>
+        <v>51.26666666666667</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>08-07-2025 14:53:15</t>
+          <t>09-07-2025 08:12:48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09-07-2025 07:25:15</t>
+          <t>09-07-2025 08:29:48</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>09-07-2025 07:25:15</t>
+          <t>09-07-2025 08:29:48</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>09-07-2025 07:53:48</t>
+          <t>09-07-2025 09:21:04</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>3426</v>
+        <v>6152</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2850,61 +2843,66 @@
       <c r="M33" t="n">
         <v>70</v>
       </c>
-      <c r="O33" t="n">
-        <v>0</v>
+      <c r="N33" t="n">
+        <v>40032</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>40032</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>02-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-21.32902777777778</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>252347</v>
+        <v>252230</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="D34" t="n">
-        <v>92.28333333333333</v>
+        <v>63.125</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-07-2025 09:21:04</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>08-07-2025 07:32:30</t>
+          <t>09-07-2025 09:53:04</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08-07-2025 07:32:30</t>
+          <t>09-07-2025 09:53:04</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>08-07-2025 09:04:47</t>
+          <t>09-07-2025 10:56:11</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>11074</v>
+        <v>7575</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2913,14 +2911,14 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2930,53 +2928,53 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>13-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-0.3783217592592593</v>
+        <v>-26.45568865740741</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252220</v>
+        <v>252244</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>80.51666666666667</v>
+        <v>107.575</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>08-07-2025 09:04:47</t>
+          <t>09-07-2025 10:56:11</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>08-07-2025 09:39:17</t>
+          <t>09-07-2025 11:13:11</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08-07-2025 09:39:17</t>
+          <t>09-07-2025 11:13:11</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>08-07-2025 10:59:48</t>
+          <t>09-07-2025 13:00:46</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>9662</v>
+        <v>12909</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2985,14 +2983,14 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
         <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -3002,53 +3000,53 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-22.45819444444444</v>
+        <v>-2.542199074074074</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>250284</v>
+        <v>252978</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>38.5</v>
+        <v>17</v>
       </c>
       <c r="D36" t="n">
-        <v>146.35</v>
+        <v>23.3</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>08-07-2025 10:59:48</t>
+          <t>09-07-2025 13:00:46</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>08-07-2025 11:38:18</t>
+          <t>09-07-2025 13:17:46</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08-07-2025 11:38:18</t>
+          <t>09-07-2025 13:17:46</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>08-07-2025 14:04:39</t>
+          <t>09-07-2025 13:41:04</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>17562</v>
+        <v>2796</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3057,14 +3055,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3074,53 +3072,53 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-118.5865625</v>
+        <v>-23.57018518518518</v>
       </c>
       <c r="S36" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251674</v>
+        <v>252152</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>42.5</v>
+        <v>17</v>
       </c>
       <c r="D37" t="n">
-        <v>147.125</v>
+        <v>27.36666666666667</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>08-07-2025 14:04:39</t>
+          <t>09-07-2025 13:41:04</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>08-07-2025 14:47:09</t>
+          <t>09-07-2025 13:58:04</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>08-07-2025 14:47:09</t>
+          <t>09-07-2025 13:58:04</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>09-07-2025 09:14:16</t>
+          <t>09-07-2025 14:25:26</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>17655</v>
+        <v>3284</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3129,14 +3127,14 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3146,11 +3144,11 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-2.384913194444445</v>
+        <v>-19.60099537037037</v>
       </c>
       <c r="S37" t="n">
         <v>4</v>
@@ -3158,41 +3156,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252713</v>
+        <v>245089</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>48.5</v>
+        <v>21</v>
       </c>
       <c r="D38" t="n">
-        <v>907.7666666666667</v>
+        <v>1022.208333333333</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-07-2025 09:14:16</t>
+          <t>09-07-2025 14:25:26</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-07-2025 10:02:46</t>
+          <t>09-07-2025 14:46:26</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09-07-2025 10:02:46</t>
+          <t>09-07-2025 14:46:26</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>11-07-2025 09:10:32</t>
+          <t>14-07-2025 07:48:38</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>108932</v>
+        <v>122665</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3201,14 +3199,14 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3218,7 +3216,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>18-07-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
@@ -3230,41 +3228,41 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251926</v>
+        <v>252638</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="D39" t="n">
-        <v>78.91666666666667</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-07-2025 09:10:32</t>
+          <t>14-07-2025 07:48:38</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>11-07-2025 09:43:02</t>
+          <t>14-07-2025 08:20:38</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>11-07-2025 09:43:02</t>
+          <t>14-07-2025 08:20:38</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>11-07-2025 11:01:57</t>
+          <t>14-07-2025 09:22:08</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>9470</v>
+        <v>7379</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3277,7 +3275,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3290,53 +3288,53 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>06-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-2.459693287037037</v>
+        <v>-8.39037037037037</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251685</v>
+        <v>251495</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>34.5</v>
+        <v>23</v>
       </c>
       <c r="D40" t="n">
-        <v>98.75833333333334</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-07-2025 11:01:57</t>
+          <t>14-07-2025 09:22:08</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>11-07-2025 11:36:27</t>
+          <t>14-07-2025 09:45:08</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11-07-2025 11:36:27</t>
+          <t>14-07-2025 09:45:08</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>11-07-2025 13:15:13</t>
+          <t>14-07-2025 10:57:28</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>11851</v>
+        <v>8681</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3349,7 +3347,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -3362,53 +3360,53 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
+        <v>-5.456579861111111</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252157</v>
+        <v>252470</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>36.5</v>
+        <v>17</v>
       </c>
       <c r="D41" t="n">
-        <v>396.825</v>
+        <v>62.5</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-07-2025 13:15:13</t>
+          <t>14-07-2025 10:57:28</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>11-07-2025 13:51:43</t>
+          <t>14-07-2025 11:14:28</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>11-07-2025 13:51:43</t>
+          <t>14-07-2025 11:14:28</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>14-07-2025 12:28:32</t>
+          <t>14-07-2025 12:16:58</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>47619</v>
+        <v>7500</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3421,7 +3419,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
@@ -3434,53 +3432,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-26.51982060185185</v>
+        <v>-10.51178819444444</v>
       </c>
       <c r="S41" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252755</v>
+        <v>252336</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>40.5</v>
+        <v>17</v>
       </c>
       <c r="D42" t="n">
-        <v>109.575</v>
+        <v>120.275</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>14-07-2025 12:28:32</t>
+          <t>14-07-2025 12:16:58</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>14-07-2025 13:09:02</t>
+          <t>14-07-2025 12:33:58</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>14-07-2025 13:09:02</t>
+          <t>14-07-2025 12:33:58</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>14-07-2025 14:58:37</t>
+          <t>14-07-2025 14:34:15</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>13149</v>
+        <v>14433</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3493,7 +3491,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3506,11 +3504,11 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
+        <v>-10.60711805555556</v>
       </c>
       <c r="S42" t="n">
         <v>2</v>
@@ -3518,41 +3516,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252899</v>
+        <v>251926</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D43" t="n">
-        <v>180.5666666666667</v>
+        <v>78.91666666666667</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>14-07-2025 14:58:37</t>
+          <t>14-07-2025 14:34:15</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>15-07-2025 07:31:07</t>
+          <t>14-07-2025 14:51:15</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15-07-2025 07:31:07</t>
+          <t>14-07-2025 14:51:15</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>15-07-2025 10:31:41</t>
+          <t>15-07-2025 08:10:10</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>21668</v>
+        <v>9470</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3565,7 +3563,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3578,53 +3576,53 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0</v>
+        <v>-6.340393518518519</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>252470</v>
+        <v>252790</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D44" t="n">
-        <v>62.5</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>15-07-2025 10:31:41</t>
+          <t>15-07-2025 08:10:10</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>15-07-2025 11:04:11</t>
+          <t>15-07-2025 08:27:10</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15-07-2025 11:04:11</t>
+          <t>15-07-2025 08:27:10</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>15-07-2025 12:06:41</t>
+          <t>15-07-2025 08:39:16</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>7500</v>
+        <v>1453</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3637,7 +3635,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
@@ -3650,53 +3648,53 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>25-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-11.5046412037037</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252790</v>
+        <v>252467</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>32.5</v>
+        <v>15</v>
       </c>
       <c r="D45" t="n">
-        <v>12.10833333333333</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>15-07-2025 12:06:41</t>
+          <t>15-07-2025 08:39:16</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>15-07-2025 12:39:11</t>
+          <t>15-07-2025 08:54:16</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>15-07-2025 12:39:11</t>
+          <t>15-07-2025 08:54:16</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>15-07-2025 12:51:17</t>
+          <t>15-07-2025 10:15:26</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1453</v>
+        <v>9740</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3722,53 +3720,53 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>25-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252467</v>
+        <v>252899</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>30.5</v>
+        <v>19</v>
       </c>
       <c r="D46" t="n">
-        <v>81.16666666666667</v>
+        <v>180.5666666666667</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>15-07-2025 12:51:17</t>
+          <t>15-07-2025 10:15:26</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>15-07-2025 13:21:47</t>
+          <t>15-07-2025 10:34:26</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>15-07-2025 13:21:47</t>
+          <t>15-07-2025 10:34:26</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>15-07-2025 14:42:57</t>
+          <t>15-07-2025 13:35:00</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>9740</v>
+        <v>21668</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3781,7 +3779,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
@@ -3794,19 +3792,19 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252334</v>
+        <v>252999</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3814,33 +3812,33 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
       <c r="D47" t="n">
-        <v>486.5916666666666</v>
+        <v>325.8416666666666</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15-07-2025 14:42:57</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>16-07-2025 07:13:27</t>
+          <t>08-07-2025 07:32:30</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>16-07-2025 07:13:27</t>
+          <t>08-07-2025 07:32:30</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>17-07-2025 07:20:03</t>
+          <t>08-07-2025 12:58:20</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>58391</v>
+        <v>39101</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3849,11 +3847,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
@@ -3866,53 +3864,53 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>06-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-13.30559027777778</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>252636</v>
+        <v>251674</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>30</v>
+        <v>54.5</v>
       </c>
       <c r="D48" t="n">
-        <v>11.275</v>
+        <v>147.125</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 12:58:20</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>08-07-2025 13:52:50</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08-07-2025 07:30:00</t>
+          <t>08-07-2025 13:52:50</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>08-07-2025 07:41:16</t>
+          <t>09-07-2025 08:19:58</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1353</v>
+        <v>17655</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3921,11 +3919,11 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
@@ -3938,53 +3936,53 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0</v>
+        <v>-2.347199074074074</v>
       </c>
       <c r="S48" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>252546</v>
+        <v>251632</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>45</v>
+        <v>30.5</v>
       </c>
       <c r="D49" t="n">
-        <v>54.63333333333333</v>
+        <v>588.5083333333333</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>08-07-2025 07:41:16</t>
+          <t>09-07-2025 08:19:58</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>08-07-2025 08:26:16</t>
+          <t>09-07-2025 08:50:28</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08-07-2025 08:26:16</t>
+          <t>09-07-2025 08:50:28</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>08-07-2025 09:20:54</t>
+          <t>10-07-2025 10:38:58</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>6556</v>
+        <v>70621</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3993,14 +3991,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M49" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4010,19 +4008,19 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-7.389519675925926</v>
+        <v>-3.443732638888889</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>252201</v>
+        <v>252207</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4030,33 +4028,33 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D50" t="n">
-        <v>34.10833333333333</v>
+        <v>51.55</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>08-07-2025 09:20:54</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>08-07-2025 09:55:54</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>08-07-2025 09:55:54</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>08-07-2025 10:30:01</t>
+          <t>08-07-2025 08:31:33</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>4093</v>
+        <v>6186</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4082,19 +4080,19 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-18.43751157407407</v>
+        <v>-12.35524305555556</v>
       </c>
       <c r="S50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>252207</v>
+        <v>251790</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4105,30 +4103,30 @@
         <v>35</v>
       </c>
       <c r="D51" t="n">
-        <v>51.55</v>
+        <v>235.0583333333333</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>08-07-2025 10:30:01</t>
+          <t>08-07-2025 08:31:33</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>08-07-2025 11:05:01</t>
+          <t>08-07-2025 09:06:33</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08-07-2025 11:05:01</t>
+          <t>08-07-2025 09:06:33</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>08-07-2025 11:56:34</t>
+          <t>08-07-2025 13:01:36</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>6186</v>
+        <v>28207</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4154,11 +4152,11 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-12.49761574074074</v>
+        <v>-8.542783564814815</v>
       </c>
       <c r="S51" t="n">
         <v>1</v>
@@ -4181,22 +4179,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>08-07-2025 11:56:34</t>
+          <t>08-07-2025 13:01:36</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>08-07-2025 12:26:34</t>
+          <t>08-07-2025 13:31:36</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08-07-2025 12:26:34</t>
+          <t>08-07-2025 13:31:36</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>08-07-2025 14:29:51</t>
+          <t>09-07-2025 07:34:54</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4238,7 +4236,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>252476</v>
+        <v>252047</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4246,33 +4244,33 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D53" t="n">
-        <v>72.34166666666667</v>
+        <v>70.88333333333334</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>08-07-2025 14:29:51</t>
+          <t>09-07-2025 07:34:54</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>09-07-2025 07:09:51</t>
+          <t>09-07-2025 08:04:54</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>09-07-2025 07:09:51</t>
+          <t>09-07-2025 08:04:54</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>09-07-2025 08:22:12</t>
+          <t>09-07-2025 09:15:47</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>8681</v>
+        <v>8506</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4281,14 +4279,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
         <v>3</v>
       </c>
       <c r="M53" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4298,19 +4296,19 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-2.34875</v>
+        <v>-10.38596064814815</v>
       </c>
       <c r="S53" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252785</v>
+        <v>252814</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4318,33 +4316,33 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D54" t="n">
-        <v>55.75</v>
+        <v>50.08333333333334</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-07-2025 08:22:12</t>
+          <t>09-07-2025 09:15:47</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>09-07-2025 09:02:12</t>
+          <t>09-07-2025 09:45:47</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>09-07-2025 09:02:12</t>
+          <t>09-07-2025 09:45:47</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>09-07-2025 09:57:57</t>
+          <t>09-07-2025 10:35:52</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>6690</v>
+        <v>6010</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4353,14 +4351,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4370,19 +4368,19 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251632</v>
+        <v>252713</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4390,33 +4388,33 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D55" t="n">
-        <v>588.5083333333333</v>
+        <v>907.7666666666667</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-07-2025 09:57:57</t>
+          <t>09-07-2025 10:35:52</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>09-07-2025 11:02:57</t>
+          <t>09-07-2025 11:15:52</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09-07-2025 11:02:57</t>
+          <t>09-07-2025 11:15:52</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>10-07-2025 12:51:27</t>
+          <t>11-07-2025 10:23:38</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>70621</v>
+        <v>108932</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4425,11 +4423,11 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4442,53 +4440,53 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>18-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-3.535734953703704</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>252063</v>
+        <v>252549</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D56" t="n">
-        <v>79.94166666666666</v>
+        <v>92.59166666666667</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>11-07-2025 10:23:38</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>11-07-2025 10:58:38</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08-07-2025 07:19:00</t>
+          <t>11-07-2025 10:58:38</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>08-07-2025 08:38:56</t>
+          <t>11-07-2025 12:31:13</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>9593</v>
+        <v>11111</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4497,14 +4495,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
         <v>3</v>
       </c>
       <c r="M56" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4514,53 +4512,53 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>20-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-7.360376157407408</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>244828</v>
+        <v>252755</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D57" t="n">
-        <v>43.35833333333333</v>
+        <v>109.575</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>08-07-2025 08:38:56</t>
+          <t>11-07-2025 12:31:13</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>08-07-2025 09:10:56</t>
+          <t>11-07-2025 13:01:13</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08-07-2025 09:10:56</t>
+          <t>11-07-2025 13:01:13</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>08-07-2025 09:54:18</t>
+          <t>11-07-2025 14:50:48</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>5203</v>
+        <v>13149</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4569,14 +4567,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
         <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4586,53 +4584,53 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-1.412708333333333</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>252237</v>
+        <v>252157</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D58" t="n">
-        <v>84.95</v>
+        <v>396.825</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>08-07-2025 09:54:18</t>
+          <t>11-07-2025 14:50:48</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>08-07-2025 10:09:18</t>
+          <t>14-07-2025 07:40:48</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>08-07-2025 10:09:18</t>
+          <t>14-07-2025 07:40:48</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>08-07-2025 11:34:15</t>
+          <t>14-07-2025 14:17:37</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>10194</v>
+        <v>47619</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4641,14 +4639,14 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M58" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -4658,53 +4656,53 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-7.482118055555556</v>
+        <v>-26.59557291666667</v>
       </c>
       <c r="S58" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>245623</v>
+        <v>252334</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D59" t="n">
-        <v>220.1583333333333</v>
+        <v>486.5916666666666</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>08-07-2025 11:34:15</t>
+          <t>14-07-2025 14:17:37</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>08-07-2025 12:08:15</t>
+          <t>15-07-2025 07:02:37</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>08-07-2025 12:08:15</t>
+          <t>15-07-2025 07:02:37</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>09-07-2025 07:48:24</t>
+          <t>16-07-2025 07:09:13</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>26419</v>
+        <v>58391</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4713,14 +4711,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M59" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4730,11 +4728,11 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-165.3252835648148</v>
+        <v>-12.29806712962963</v>
       </c>
       <c r="S59" t="n">
         <v>2</v>
@@ -4742,7 +4740,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252152</v>
+        <v>252371</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4750,33 +4748,33 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>27.36666666666667</v>
+        <v>50.04166666666666</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-07-2025 07:48:24</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>09-07-2025 08:22:24</t>
+          <t>08-07-2025 07:17:00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>09-07-2025 08:22:24</t>
+          <t>08-07-2025 07:17:00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>09-07-2025 08:49:46</t>
+          <t>08-07-2025 08:07:02</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>3284</v>
+        <v>6005</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4785,7 +4783,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -4802,14 +4800,14 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-19.36789930555556</v>
+        <v>-8.33822337962963</v>
       </c>
       <c r="S60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -4829,22 +4827,22 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-07-2025 08:49:46</t>
+          <t>08-07-2025 08:07:02</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>09-07-2025 09:06:46</t>
+          <t>08-07-2025 08:24:02</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>09-07-2025 09:06:46</t>
+          <t>08-07-2025 08:24:02</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>09-07-2025 09:31:51</t>
+          <t>08-07-2025 08:49:07</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -4878,7 +4876,7 @@
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-12.39711805555556</v>
+        <v>-11.36744212962963</v>
       </c>
       <c r="S61" t="n">
         <v>7</v>
@@ -4886,7 +4884,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>245089</v>
+        <v>252237</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4894,33 +4892,33 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D62" t="n">
-        <v>1022.208333333333</v>
+        <v>84.95</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-07-2025 09:31:51</t>
+          <t>08-07-2025 08:49:07</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>09-07-2025 09:48:51</t>
+          <t>08-07-2025 09:21:07</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>09-07-2025 09:48:51</t>
+          <t>08-07-2025 09:21:07</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>11-07-2025 10:51:03</t>
+          <t>08-07-2025 10:46:04</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>122665</v>
+        <v>10194</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4929,14 +4927,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
         <v>4</v>
       </c>
       <c r="M62" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -4946,11 +4944,11 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>0</v>
+        <v>-7.448657407407407</v>
       </c>
       <c r="S62" t="n">
         <v>1</v>
@@ -4958,41 +4956,41 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252371</v>
+        <v>251919</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D63" t="n">
-        <v>50.04166666666666</v>
+        <v>140.05</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-07-2025 10:46:04</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>08-07-2025 07:35:00</t>
+          <t>08-07-2025 11:18:04</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08-07-2025 07:35:00</t>
+          <t>08-07-2025 11:18:04</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>08-07-2025 08:25:02</t>
+          <t>08-07-2025 13:38:07</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>6005</v>
+        <v>16806</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5005,10 +5003,10 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -5018,11 +5016,11 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-8.350723379629629</v>
+        <v>-22.56813657407407</v>
       </c>
       <c r="S63" t="n">
         <v>1</v>
@@ -5030,7 +5028,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251790</v>
+        <v>252347</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5038,33 +5036,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D64" t="n">
-        <v>235.0583333333333</v>
+        <v>92.28333333333333</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-07-2025 08:25:02</t>
+          <t>08-07-2025 07:00:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>08-07-2025 08:55:02</t>
+          <t>08-07-2025 07:35:00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08-07-2025 08:55:02</t>
+          <t>08-07-2025 07:35:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>08-07-2025 12:50:06</t>
+          <t>08-07-2025 09:07:17</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>28207</v>
+        <v>11074</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5073,14 +5071,14 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5090,11 +5088,11 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-8.534791666666667</v>
+        <v>-0.3800578703703704</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -5102,7 +5100,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252652</v>
+        <v>243569</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5110,33 +5108,33 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D65" t="n">
-        <v>186.0083333333333</v>
+        <v>21.675</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-07-2025 12:50:06</t>
+          <t>08-07-2025 09:07:17</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>08-07-2025 13:30:06</t>
+          <t>08-07-2025 09:42:17</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>08-07-2025 13:30:06</t>
+          <t>08-07-2025 09:42:17</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>09-07-2025 08:36:06</t>
+          <t>08-07-2025 10:03:57</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>22321</v>
+        <v>2601</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5145,14 +5143,14 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
         <v>3</v>
       </c>
       <c r="M65" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -5162,19 +5160,19 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>0</v>
+        <v>-295.4194155092592</v>
       </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251849</v>
+        <v>252201</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5185,30 +5183,30 @@
         <v>35</v>
       </c>
       <c r="D66" t="n">
-        <v>33.38333333333333</v>
+        <v>34.10833333333333</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-07-2025 08:36:06</t>
+          <t>08-07-2025 10:03:57</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>09-07-2025 09:11:06</t>
+          <t>08-07-2025 10:38:57</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>09-07-2025 09:11:06</t>
+          <t>08-07-2025 10:38:57</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>09-07-2025 09:44:29</t>
+          <t>08-07-2025 11:13:04</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>4006</v>
+        <v>4093</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5217,43 +5215,36 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M66" t="n">
-        <v>70</v>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>40042 (esterno)</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>40042</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>25-06-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-14.40589699074074</v>
+        <v>-18.46740740740741</v>
       </c>
       <c r="S66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>252784</v>
+        <v>252723</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5261,33 +5252,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D67" t="n">
-        <v>26.975</v>
+        <v>153.9583333333333</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-07-2025 09:44:29</t>
+          <t>08-07-2025 11:13:04</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>09-07-2025 10:14:29</t>
+          <t>08-07-2025 11:48:04</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>09-07-2025 10:14:29</t>
+          <t>08-07-2025 11:48:04</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>09-07-2025 10:41:28</t>
+          <t>08-07-2025 14:22:01</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>3237</v>
+        <v>18475</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5296,14 +5287,14 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M67" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -5313,7 +5304,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>31-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
@@ -5325,7 +5316,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>252345</v>
+        <v>252144</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5333,10 +5324,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D68" t="n">
-        <v>43.325</v>
+        <v>54.13333333333333</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -5345,21 +5336,21 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08-07-2025 07:35:00</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08-07-2025 07:35:00</t>
+          <t>08-07-2025 07:40:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>08-07-2025 08:18:19</t>
+          <t>08-07-2025 08:34:08</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>5199</v>
+        <v>6496</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5368,14 +5359,14 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
         <v>3</v>
       </c>
       <c r="M68" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -5385,19 +5376,19 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-0.3460590277777778</v>
+        <v>-9.357037037037037</v>
       </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>243335</v>
+        <v>252146</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5405,33 +5396,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D69" t="n">
-        <v>275.0333333333334</v>
+        <v>66.63333333333334</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-07-2025 08:18:19</t>
+          <t>08-07-2025 08:34:08</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-07-2025 08:53:19</t>
+          <t>08-07-2025 08:59:08</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>08-07-2025 08:53:19</t>
+          <t>08-07-2025 08:59:08</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>08-07-2025 13:28:21</t>
+          <t>08-07-2025 10:05:46</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>33004</v>
+        <v>7996</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5440,14 +5431,14 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M69" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -5457,14 +5448,14 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>02-08-2024 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-340.5613599537037</v>
+        <v>-9.420671296296296</v>
       </c>
       <c r="S69" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -5484,22 +5475,22 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-07-2025 13:28:21</t>
+          <t>08-07-2025 10:05:46</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-07-2025 14:08:21</t>
+          <t>08-07-2025 10:45:46</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08-07-2025 14:08:21</t>
+          <t>08-07-2025 10:45:46</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>09-07-2025 07:19:07</t>
+          <t>08-07-2025 11:56:32</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5533,7 +5524,7 @@
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-16.30494791666667</v>
+        <v>-15.49759259259259</v>
       </c>
       <c r="S70" t="n">
         <v>4</v>
@@ -5541,7 +5532,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>252284</v>
+        <v>244828</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5552,30 +5543,30 @@
         <v>40</v>
       </c>
       <c r="D71" t="n">
-        <v>51.26666666666667</v>
+        <v>43.35833333333333</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-07-2025 07:19:07</t>
+          <t>08-07-2025 11:56:32</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>09-07-2025 07:59:07</t>
+          <t>08-07-2025 12:36:32</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>09-07-2025 07:59:07</t>
+          <t>08-07-2025 12:36:32</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>09-07-2025 08:50:23</t>
+          <t>08-07-2025 13:19:53</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>6152</v>
+        <v>5203</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5584,41 +5575,36 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
         <v>4</v>
       </c>
       <c r="M71" t="n">
-        <v>70</v>
-      </c>
-      <c r="N71" t="n">
-        <v>40032</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>40032</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>02-07-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>0</v>
+        <v>-1.555480324074074</v>
       </c>
       <c r="S71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>252814</v>
+        <v>251231</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5626,33 +5612,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D72" t="n">
-        <v>50.08333333333334</v>
+        <v>312.3083333333333</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-07-2025 08:50:23</t>
+          <t>08-07-2025 13:19:53</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>09-07-2025 09:35:23</t>
+          <t>08-07-2025 13:59:53</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>09-07-2025 09:35:23</t>
+          <t>08-07-2025 13:59:53</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>09-07-2025 10:25:28</t>
+          <t>09-07-2025 11:12:12</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>6010</v>
+        <v>37477</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5661,36 +5647,43 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M72" t="n">
-        <v>76</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>40034 (esterno)</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>40034</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>03-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>0</v>
+        <v>-6.466805555555555</v>
       </c>
       <c r="S72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>252978</v>
+        <v>252277</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5698,33 +5691,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D73" t="n">
-        <v>23.3</v>
+        <v>144.925</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-07-2025 10:25:28</t>
+          <t>09-07-2025 11:12:12</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>09-07-2025 10:55:28</t>
+          <t>09-07-2025 11:52:12</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>09-07-2025 10:55:28</t>
+          <t>09-07-2025 11:52:12</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>09-07-2025 11:18:46</t>
+          <t>09-07-2025 14:17:07</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2796</v>
+        <v>17391</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5733,36 +5726,43 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
         <v>3</v>
       </c>
       <c r="M73" t="n">
-        <v>76</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>40024 (esterno)</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>40024</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-23.47137152777778</v>
+        <v>-19.59522569444444</v>
       </c>
       <c r="S73" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>243524</v>
+        <v>252350</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5770,33 +5770,33 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D74" t="n">
-        <v>66.61666666666666</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-07-2025 11:18:46</t>
+          <t>09-07-2025 14:17:07</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>09-07-2025 11:53:46</t>
+          <t>09-07-2025 14:47:07</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>09-07-2025 11:53:46</t>
+          <t>09-07-2025 14:47:07</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>09-07-2025 13:00:23</t>
+          <t>10-07-2025 07:39:00</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>7994</v>
+        <v>6226</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5805,14 +5805,14 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M74" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -5822,11 +5822,11 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-5.541938657407408</v>
+        <v>-2.318755787037037</v>
       </c>
       <c r="S74" t="n">
         <v>1</v>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>252456</v>
+        <v>252652</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -5842,33 +5842,33 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D75" t="n">
-        <v>144.4583333333333</v>
+        <v>186.0083333333333</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-07-2025 13:00:23</t>
+          <t>10-07-2025 07:39:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>09-07-2025 13:40:23</t>
+          <t>10-07-2025 08:09:00</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>09-07-2025 13:40:23</t>
+          <t>10-07-2025 08:09:00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>10-07-2025 08:04:51</t>
+          <t>10-07-2025 11:15:01</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>17335</v>
+        <v>22321</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -5894,14 +5894,14 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-0.3367013888888889</v>
+        <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/output.xlsx
+++ b/PS-VRP/Dati_output/output.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S75"/>
+  <dimension ref="A1:S92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252071</v>
+        <v>253425</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -550,33 +550,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>45.73333333333333</v>
+        <v>146.35</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-07-2025 08:06:44</t>
+          <t>08-09-2025 09:43:21</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5488</v>
+        <v>17562</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -602,11 +602,11 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>12-06-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-26.33800925925926</v>
+        <v>-10.40510416666667</v>
       </c>
       <c r="S2" t="n">
         <v>2</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252286</v>
+        <v>252906</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -625,30 +625,30 @@
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>51.26666666666667</v>
+        <v>34.725</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:06:44</t>
+          <t>08-09-2025 09:43:21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:23:44</t>
+          <t>08-09-2025 10:00:21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-07-2025 08:23:44</t>
+          <t>08-09-2025 10:00:21</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-07-2025 09:15:00</t>
+          <t>08-09-2025 10:35:04</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>6152</v>
+        <v>4167</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -666,32 +666,27 @@
       <c r="M3" t="n">
         <v>76</v>
       </c>
-      <c r="N3" t="n">
-        <v>40032</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>40032</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>02-07-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
+        <v>-14.44102430555555</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>243529</v>
+        <v>250891</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -699,33 +694,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>129.9833333333333</v>
+        <v>77.49166666666666</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08-07-2025 09:15:00</t>
+          <t>08-09-2025 10:35:04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-07-2025 09:32:00</t>
+          <t>08-09-2025 11:07:04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-07-2025 09:32:00</t>
+          <t>08-09-2025 11:07:04</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-07-2025 11:41:59</t>
+          <t>08-09-2025 12:24:34</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>15598</v>
+        <v>9299</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -734,14 +729,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="N4" t="n">
+        <v>40299</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -751,19 +749,19 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>13-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-4.487488425925926</v>
+        <v>-0.5170601851851852</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>241783</v>
+        <v>253100</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -771,33 +769,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>43.325</v>
+        <v>47.35</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>08-07-2025 11:41:59</t>
+          <t>08-09-2025 12:24:34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-07-2025 11:56:59</t>
+          <t>08-09-2025 12:41:34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-07-2025 11:56:59</t>
+          <t>08-09-2025 12:41:34</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-07-2025 12:40:18</t>
+          <t>08-09-2025 13:28:55</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5199</v>
+        <v>5682</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -806,14 +804,14 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -823,19 +821,19 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-0.5617476851851851</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>243524</v>
+        <v>252995</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -843,33 +841,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>66.61666666666666</v>
+        <v>68.31666666666666</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>08-07-2025 12:40:18</t>
+          <t>08-09-2025 13:28:55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-07-2025 12:55:18</t>
+          <t>08-09-2025 14:00:55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-07-2025 12:55:18</t>
+          <t>08-09-2025 14:00:55</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-07-2025 14:01:55</t>
+          <t>09-09-2025 07:09:14</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>7994</v>
+        <v>8198</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -895,19 +893,19 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-4.584670138888889</v>
+        <v>-8.298078703703704</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>243525</v>
+        <v>252833</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -915,33 +913,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>129.9833333333333</v>
+        <v>74.78333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>08-07-2025 14:01:55</t>
+          <t>09-09-2025 07:09:14</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-07-2025 14:16:55</t>
+          <t>09-09-2025 07:43:14</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08-07-2025 14:16:55</t>
+          <t>09-09-2025 07:43:14</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09-07-2025 08:26:54</t>
+          <t>09-09-2025 08:58:01</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>15598</v>
+        <v>8974</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -950,14 +948,14 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -967,19 +965,19 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-5.352019675925926</v>
+        <v>-14.37362268518519</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252243</v>
+        <v>252939</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -987,33 +985,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>96.70833333333333</v>
+        <v>89.8</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09-07-2025 08:26:54</t>
+          <t>09-09-2025 08:58:01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-07-2025 08:43:54</t>
+          <t>09-09-2025 09:17:01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09-07-2025 08:43:54</t>
+          <t>09-09-2025 09:17:01</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-07-2025 10:20:37</t>
+          <t>09-09-2025 10:46:49</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>11605</v>
+        <v>10776</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1022,14 +1020,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1039,19 +1037,19 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
+        <v>-18.44917824074074</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252636</v>
+        <v>235572</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1059,33 +1057,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>11.275</v>
+        <v>82.98333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-07-2025 10:20:37</t>
+          <t>09-09-2025 10:46:49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-07-2025 10:52:37</t>
+          <t>09-09-2025 11:05:49</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09-07-2025 10:52:37</t>
+          <t>09-09-2025 11:05:49</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-07-2025 11:03:53</t>
+          <t>09-09-2025 12:28:48</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1353</v>
+        <v>9958</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1098,7 +1096,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1111,19 +1109,19 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>06-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-673.52</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252345</v>
+        <v>252815</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1131,33 +1129,33 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D10" t="n">
-        <v>43.325</v>
+        <v>242.9416666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-07-2025 11:03:53</t>
+          <t>09-09-2025 12:28:48</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-07-2025 11:22:53</t>
+          <t>09-09-2025 13:04:48</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09-07-2025 11:22:53</t>
+          <t>09-09-2025 13:04:48</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09-07-2025 12:06:13</t>
+          <t>10-09-2025 09:07:44</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>5199</v>
+        <v>29153</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1166,14 +1164,14 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1183,19 +1181,19 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.50431712962963</v>
+        <v>-5.380376157407407</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>252785</v>
+        <v>253372</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1203,33 +1201,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D11" t="n">
-        <v>55.75</v>
+        <v>103.775</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09-07-2025 12:06:13</t>
+          <t>10-09-2025 09:07:44</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-07-2025 12:27:13</t>
+          <t>10-09-2025 09:49:44</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09-07-2025 12:27:13</t>
+          <t>10-09-2025 09:49:44</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>09-07-2025 13:22:58</t>
+          <t>10-09-2025 11:33:31</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>6690</v>
+        <v>12453</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1238,11 +1236,11 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1255,7 +1253,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
@@ -1267,7 +1265,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252665</v>
+        <v>253361</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1275,33 +1273,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>48.875</v>
+        <v>76.70833333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09-07-2025 13:22:58</t>
+          <t>10-09-2025 11:33:31</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09-07-2025 13:45:58</t>
+          <t>10-09-2025 11:48:31</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>09-07-2025 13:45:58</t>
+          <t>10-09-2025 11:48:31</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>09-07-2025 14:34:50</t>
+          <t>10-09-2025 13:05:13</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>5865</v>
+        <v>9205</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1327,19 +1325,19 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252085</v>
+        <v>253375</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1347,33 +1345,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>28.55</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09-07-2025 14:34:50</t>
+          <t>10-09-2025 13:05:13</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09-07-2025 14:53:50</t>
+          <t>10-09-2025 13:20:13</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>09-07-2025 14:53:50</t>
+          <t>10-09-2025 13:20:13</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10-07-2025 07:22:23</t>
+          <t>10-09-2025 14:12:06</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3426</v>
+        <v>6226</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1382,11 +1380,11 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
@@ -1399,19 +1397,19 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-22.30721643518519</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252783</v>
+        <v>253247</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1422,30 +1420,30 @@
         <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>11.95</v>
+        <v>109.575</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-07-2025 07:22:23</t>
+          <t>10-09-2025 14:12:06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10-07-2025 07:41:23</t>
+          <t>10-09-2025 14:31:06</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10-07-2025 07:41:23</t>
+          <t>10-09-2025 14:31:06</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>10-07-2025 07:53:20</t>
+          <t>11-09-2025 08:20:41</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1434</v>
+        <v>13149</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1458,7 +1456,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1471,53 +1469,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-1.347696759259259</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252285</v>
+        <v>253332</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>46.14166666666667</v>
+        <v>184.825</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>11-09-2025 08:20:41</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>08-07-2025 07:46:00</t>
+          <t>11-09-2025 08:39:41</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08-07-2025 07:46:00</t>
+          <t>11-09-2025 08:39:41</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08-07-2025 08:32:08</t>
+          <t>11-09-2025 11:44:30</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5537</v>
+        <v>22179</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1526,41 +1524,36 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="N15" t="n">
-        <v>40032</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>40032</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>02-07-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-1.489241898148148</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>244023</v>
+        <v>252827</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1568,33 +1561,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
-        <v>8.308333333333334</v>
+        <v>410</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>08-07-2025 08:32:08</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08-07-2025 09:01:08</t>
+          <t>08-09-2025 07:27:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08-07-2025 09:01:08</t>
+          <t>08-09-2025 07:27:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08-07-2025 09:09:27</t>
+          <t>08-09-2025 14:17:00</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>997</v>
+        <v>49200</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1603,14 +1596,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1620,19 +1613,19 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>04-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-281.3815625</v>
+        <v>-4.595138888888889</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>243335</v>
+        <v>253710</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1640,33 +1633,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" t="n">
-        <v>275.0333333333334</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>08-07-2025 09:09:27</t>
+          <t>08-09-2025 14:17:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>08-07-2025 09:53:27</t>
+          <t>08-09-2025 14:59:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08-07-2025 09:53:27</t>
+          <t>08-09-2025 14:59:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>08-07-2025 14:28:29</t>
+          <t>09-09-2025 07:00:37</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>33004</v>
+        <v>194</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1675,36 +1668,36 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>70</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>10-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
         <v>4</v>
-      </c>
-      <c r="M17" t="n">
-        <v>152</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>02-08-2024 00:00:00</t>
-        </is>
-      </c>
-      <c r="R17" s="1" t="n">
-        <v>-340.6031134259259</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>245623</v>
+        <v>253260</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1712,33 +1705,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
-        <v>220.1583333333333</v>
+        <v>109.4083333333333</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>08-07-2025 14:28:29</t>
+          <t>09-09-2025 07:00:37</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>08-07-2025 14:57:29</t>
+          <t>09-09-2025 07:27:37</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08-07-2025 14:57:29</t>
+          <t>09-09-2025 07:27:37</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>09-07-2025 10:37:38</t>
+          <t>09-09-2025 09:17:01</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>26419</v>
+        <v>13129</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1747,14 +1740,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1764,19 +1757,19 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-165.442806712963</v>
+        <v>-15.38682291666667</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252997</v>
+        <v>253721</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1784,33 +1777,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
-        <v>40.01666666666667</v>
+        <v>39.39166666666667</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09-07-2025 10:37:38</t>
+          <t>09-09-2025 09:17:01</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-07-2025 11:06:38</t>
+          <t>09-09-2025 09:44:01</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09-07-2025 11:06:38</t>
+          <t>09-09-2025 09:44:01</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>09-07-2025 11:46:39</t>
+          <t>09-09-2025 10:23:25</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>4802</v>
+        <v>4727</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1819,14 +1812,14 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1836,7 +1829,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>08-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
@@ -1848,7 +1841,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252686</v>
+        <v>253095</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1859,30 +1852,30 @@
         <v>27</v>
       </c>
       <c r="D20" t="n">
-        <v>329.15</v>
+        <v>76.31666666666666</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09-07-2025 11:46:39</t>
+          <t>09-09-2025 10:23:25</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-07-2025 12:13:39</t>
+          <t>09-09-2025 10:50:25</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09-07-2025 12:13:39</t>
+          <t>09-09-2025 10:50:25</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10-07-2025 09:42:48</t>
+          <t>09-09-2025 12:06:44</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>39498</v>
+        <v>9158</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1891,14 +1884,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1908,53 +1901,53 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252476</v>
+        <v>253267</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>72.34166666666667</v>
+        <v>164.3666666666667</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-07-2025 09:42:48</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10-07-2025 10:26:48</t>
+          <t>05-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10-07-2025 10:26:48</t>
+          <t>05-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>10-07-2025 11:39:09</t>
+          <t>05-09-2025 10:01:22</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>8681</v>
+        <v>19724</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1967,7 +1960,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -1980,11 +1973,11 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-3.485520833333333</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>4</v>
@@ -1992,41 +1985,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>252087</v>
+        <v>253268</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>35.5</v>
+        <v>78.55833333333334</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-07-2025 11:39:09</t>
+          <t>05-09-2025 10:01:22</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10-07-2025 12:08:09</t>
+          <t>05-09-2025 10:16:22</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10-07-2025 12:08:09</t>
+          <t>05-09-2025 10:16:22</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>10-07-2025 12:43:39</t>
+          <t>05-09-2025 11:34:55</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>4260</v>
+        <v>9427</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2039,7 +2032,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -2052,53 +2045,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-11.5303125</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252364</v>
+        <v>253016</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D23" t="n">
-        <v>94.55</v>
+        <v>73.38333333333334</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-07-2025 12:43:39</t>
+          <t>05-09-2025 11:34:55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10-07-2025 13:10:39</t>
+          <t>05-09-2025 12:08:55</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10-07-2025 13:10:39</t>
+          <t>05-09-2025 12:08:55</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>10-07-2025 14:45:12</t>
+          <t>05-09-2025 13:22:18</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>11346</v>
+        <v>8806</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2107,70 +2100,75 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="N23" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>14-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-13.61472222222222</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>252547</v>
+        <v>253313</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
-        <v>81.16666666666667</v>
+        <v>100.0083333333333</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-07-2025 14:45:12</t>
+          <t>05-09-2025 13:22:18</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>11-07-2025 07:12:12</t>
+          <t>05-09-2025 13:56:18</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>11-07-2025 07:12:12</t>
+          <t>05-09-2025 13:56:18</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>11-07-2025 08:33:22</t>
+          <t>08-09-2025 07:36:19</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>9740</v>
+        <v>12001</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2179,14 +2177,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2196,11 +2194,11 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-7.356504629629629</v>
+        <v>-3.316886574074074</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
@@ -2208,41 +2206,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>252456</v>
+        <v>253284</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>144.4583333333333</v>
+        <v>56.99166666666667</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-07-2025 08:33:22</t>
+          <t>08-09-2025 07:36:19</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>11-07-2025 09:06:22</t>
+          <t>08-09-2025 07:51:19</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11-07-2025 09:06:22</t>
+          <t>08-09-2025 07:51:19</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>11-07-2025 11:30:49</t>
+          <t>08-09-2025 08:48:18</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>17335</v>
+        <v>6839</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2251,14 +2249,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2268,53 +2266,53 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>28-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.479739583333333</v>
+        <v>-11.36688078703704</v>
       </c>
       <c r="S25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251685</v>
+        <v>252664</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D26" t="n">
-        <v>98.75833333333334</v>
+        <v>365.975</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-07-2025 11:30:49</t>
+          <t>08-09-2025 08:48:18</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>11-07-2025 11:57:49</t>
+          <t>08-09-2025 09:22:18</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>11-07-2025 11:57:49</t>
+          <t>08-09-2025 09:22:18</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>11-07-2025 13:36:35</t>
+          <t>09-09-2025 07:28:17</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>11851</v>
+        <v>43917</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2323,36 +2321,43 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>40279 (esterno)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>40279</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0</v>
+        <v>-7.311307870370371</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252546</v>
+        <v>253686</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2363,30 +2368,30 @@
         <v>21</v>
       </c>
       <c r="D27" t="n">
-        <v>54.63333333333333</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-09-2025 07:28:17</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>09-09-2025 07:49:17</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08-07-2025 07:21:00</t>
+          <t>09-09-2025 07:49:17</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>08-07-2025 08:15:38</t>
+          <t>09-09-2025 08:33:31</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>6556</v>
+        <v>5308</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2395,14 +2400,14 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2412,11 +2417,11 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-7.344189814814815</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>
@@ -2424,7 +2429,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>252063</v>
+        <v>253374</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2432,33 +2437,33 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>79.94166666666666</v>
+        <v>59.60833333333333</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>08-07-2025 08:15:38</t>
+          <t>09-09-2025 08:33:31</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>08-07-2025 08:30:38</t>
+          <t>09-09-2025 08:50:31</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08-07-2025 08:30:38</t>
+          <t>09-09-2025 08:50:31</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>08-07-2025 09:50:34</t>
+          <t>09-09-2025 09:50:07</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>9593</v>
+        <v>7153</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2467,14 +2472,14 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2484,11 +2489,11 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-7.410121527777778</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -2496,7 +2501,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>252784</v>
+        <v>253687</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2504,33 +2509,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>26.975</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>08-07-2025 09:50:34</t>
+          <t>09-09-2025 09:50:07</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>08-07-2025 10:26:34</t>
+          <t>09-09-2025 10:07:07</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08-07-2025 10:26:34</t>
+          <t>09-09-2025 10:07:07</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>08-07-2025 10:53:33</t>
+          <t>09-09-2025 10:51:21</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>3237</v>
+        <v>5308</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2543,7 +2548,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2556,7 +2561,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
@@ -2568,7 +2573,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>250284</v>
+        <v>253659</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2576,33 +2581,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D30" t="n">
-        <v>146.35</v>
+        <v>323.75</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>08-07-2025 10:53:33</t>
+          <t>09-09-2025 10:51:21</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>08-07-2025 11:12:33</t>
+          <t>09-09-2025 11:06:21</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08-07-2025 11:12:33</t>
+          <t>09-09-2025 11:06:21</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>08-07-2025 13:38:54</t>
+          <t>10-09-2025 08:30:06</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>17562</v>
+        <v>38850</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2615,7 +2620,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2628,19 +2633,19 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-118.5686805555556</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252220</v>
+        <v>253401</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2648,33 +2653,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D31" t="n">
-        <v>80.51666666666667</v>
+        <v>22.81666666666667</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>08-07-2025 13:38:54</t>
+          <t>10-09-2025 08:30:06</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>08-07-2025 14:01:54</t>
+          <t>10-09-2025 08:49:06</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08-07-2025 14:01:54</t>
+          <t>10-09-2025 08:49:06</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09-07-2025 07:22:25</t>
+          <t>10-09-2025 09:11:55</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>9662</v>
+        <v>2738</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2687,7 +2692,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2700,19 +2705,19 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-23.30723379629629</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251849</v>
+        <v>253370</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2723,30 +2728,30 @@
         <v>17</v>
       </c>
       <c r="D32" t="n">
-        <v>33.38333333333333</v>
+        <v>207.5416666666667</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09-07-2025 07:22:25</t>
+          <t>10-09-2025 09:11:55</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09-07-2025 07:39:25</t>
+          <t>10-09-2025 09:28:55</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>09-07-2025 07:39:25</t>
+          <t>10-09-2025 09:28:55</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>09-07-2025 08:12:48</t>
+          <t>10-09-2025 12:56:28</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>4006</v>
+        <v>24905</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2755,43 +2760,36 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>40042 (esterno)</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O32" t="n">
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>40042</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>25-06-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-14.34222222222222</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>252284</v>
+        <v>253368</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2799,33 +2797,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>51.26666666666667</v>
+        <v>103.775</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09-07-2025 08:12:48</t>
+          <t>10-09-2025 12:56:28</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09-07-2025 08:29:48</t>
+          <t>10-09-2025 13:11:28</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>09-07-2025 08:29:48</t>
+          <t>10-09-2025 13:11:28</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>09-07-2025 09:21:04</t>
+          <t>10-09-2025 14:55:14</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>6152</v>
+        <v>12453</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2834,41 +2832,36 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
       </c>
-      <c r="N33" t="n">
-        <v>40032</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O33" t="n">
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>40032</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>02-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>252230</v>
+        <v>253371</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2876,33 +2869,33 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>63.125</v>
+        <v>107.7666666666667</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09-07-2025 09:21:04</t>
+          <t>10-09-2025 14:55:14</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-07-2025 09:53:04</t>
+          <t>11-09-2025 07:10:14</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>09-07-2025 09:53:04</t>
+          <t>11-09-2025 07:10:14</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>09-07-2025 10:56:11</t>
+          <t>11-09-2025 08:58:00</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>7575</v>
+        <v>12932</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2911,14 +2904,14 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2928,19 +2921,19 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>13-06-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-26.45568865740741</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252244</v>
+        <v>253376</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2948,33 +2941,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>107.575</v>
+        <v>179.6083333333333</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09-07-2025 10:56:11</t>
+          <t>11-09-2025 08:58:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09-07-2025 11:13:11</t>
+          <t>11-09-2025 09:13:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09-07-2025 11:13:11</t>
+          <t>11-09-2025 09:13:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>09-07-2025 13:00:46</t>
+          <t>11-09-2025 12:12:37</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>12909</v>
+        <v>21553</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2983,14 +2976,14 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -3000,11 +2993,11 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-2.542199074074074</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
@@ -3012,7 +3005,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>252978</v>
+        <v>253668</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3023,30 +3016,30 @@
         <v>17</v>
       </c>
       <c r="D36" t="n">
-        <v>23.3</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09-07-2025 13:00:46</t>
+          <t>11-09-2025 12:12:37</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-07-2025 13:17:46</t>
+          <t>11-09-2025 12:29:37</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09-07-2025 13:17:46</t>
+          <t>11-09-2025 12:29:37</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>09-07-2025 13:41:04</t>
+          <t>12-09-2025 07:39:29</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2796</v>
+        <v>22784</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3055,14 +3048,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M36" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3072,19 +3065,19 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-23.57018518518518</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252152</v>
+        <v>252741</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3092,33 +3085,33 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D37" t="n">
-        <v>27.36666666666667</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09-07-2025 13:41:04</t>
+          <t>12-09-2025 07:39:29</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-07-2025 13:58:04</t>
+          <t>12-09-2025 08:00:29</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09-07-2025 13:58:04</t>
+          <t>12-09-2025 08:00:29</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>09-07-2025 14:25:26</t>
+          <t>12-09-2025 09:01:58</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>3284</v>
+        <v>7379</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3127,14 +3120,14 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3144,19 +3137,19 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-19.60099537037037</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>245089</v>
+        <v>253261</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3164,33 +3157,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D38" t="n">
-        <v>1022.208333333333</v>
+        <v>18.85</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09-07-2025 14:25:26</t>
+          <t>12-09-2025 09:01:58</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-07-2025 14:46:26</t>
+          <t>12-09-2025 09:18:58</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09-07-2025 14:46:26</t>
+          <t>12-09-2025 09:18:58</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>14-07-2025 07:48:38</t>
+          <t>12-09-2025 09:37:49</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>122665</v>
+        <v>2262</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3199,14 +3192,14 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M38" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3216,19 +3209,19 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0</v>
+        <v>-18.40126736111111</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252638</v>
+        <v>253436</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3236,33 +3229,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D39" t="n">
-        <v>61.49166666666667</v>
+        <v>18.85</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>14-07-2025 07:48:38</t>
+          <t>12-09-2025 09:37:49</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>14-07-2025 08:20:38</t>
+          <t>12-09-2025 09:52:49</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>14-07-2025 08:20:38</t>
+          <t>12-09-2025 09:52:49</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>14-07-2025 09:22:08</t>
+          <t>12-09-2025 10:11:40</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>7379</v>
+        <v>2262</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3275,7 +3268,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3288,11 +3281,11 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>06-07-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-8.39037037037037</v>
+        <v>-2.424774305555556</v>
       </c>
       <c r="S39" t="n">
         <v>7</v>
@@ -3300,7 +3293,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251495</v>
+        <v>252529</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3308,33 +3301,33 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D40" t="n">
-        <v>72.34166666666667</v>
+        <v>68.08333333333333</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>14-07-2025 09:22:08</t>
+          <t>12-09-2025 10:11:40</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>14-07-2025 09:45:08</t>
+          <t>12-09-2025 10:47:40</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>14-07-2025 09:45:08</t>
+          <t>12-09-2025 10:47:40</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>14-07-2025 10:57:28</t>
+          <t>12-09-2025 11:55:45</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>8681</v>
+        <v>8170</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3343,14 +3336,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3360,19 +3353,19 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-5.456579861111111</v>
+        <v>-7.497054398148149</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252470</v>
+        <v>252274</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3380,33 +3373,33 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D41" t="n">
-        <v>62.5</v>
+        <v>173.4166666666667</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>14-07-2025 10:57:28</t>
+          <t>12-09-2025 11:55:45</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>14-07-2025 11:14:28</t>
+          <t>12-09-2025 12:14:45</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>14-07-2025 11:14:28</t>
+          <t>12-09-2025 12:14:45</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>14-07-2025 12:16:58</t>
+          <t>15-09-2025 07:08:10</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>7500</v>
+        <v>20810</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3415,14 +3408,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M41" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3432,19 +3425,19 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>09-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-10.51178819444444</v>
+        <v>-6.29734375</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252336</v>
+        <v>253244</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3452,33 +3445,33 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D42" t="n">
-        <v>120.275</v>
+        <v>166.5</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>14-07-2025 12:16:58</t>
+          <t>15-09-2025 07:08:10</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>14-07-2025 12:33:58</t>
+          <t>15-09-2025 07:40:10</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>14-07-2025 12:33:58</t>
+          <t>15-09-2025 07:40:10</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>14-07-2025 14:34:15</t>
+          <t>15-09-2025 10:26:40</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>14433</v>
+        <v>19980</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3491,7 +3484,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3504,11 +3497,11 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-10.60711805555556</v>
+        <v>-5.435190972222222</v>
       </c>
       <c r="S42" t="n">
         <v>2</v>
@@ -3516,7 +3509,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251926</v>
+        <v>253455</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3524,33 +3517,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D43" t="n">
-        <v>78.91666666666667</v>
+        <v>55.55833333333333</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>14-07-2025 14:34:15</t>
+          <t>15-09-2025 10:26:40</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>14-07-2025 14:51:15</t>
+          <t>15-09-2025 10:47:40</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>14-07-2025 14:51:15</t>
+          <t>15-09-2025 10:47:40</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>15-07-2025 08:10:10</t>
+          <t>15-09-2025 11:43:14</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>9470</v>
+        <v>6667</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3576,11 +3569,11 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-6.340393518518519</v>
+        <v>-7.488356481481482</v>
       </c>
       <c r="S43" t="n">
         <v>4</v>
@@ -3588,7 +3581,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>252790</v>
+        <v>253525</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3596,33 +3589,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D44" t="n">
-        <v>12.10833333333333</v>
+        <v>92.14166666666667</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>15-07-2025 08:10:10</t>
+          <t>15-09-2025 11:43:14</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>15-07-2025 08:27:10</t>
+          <t>15-09-2025 12:02:14</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15-07-2025 08:27:10</t>
+          <t>15-09-2025 12:02:14</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>15-07-2025 08:39:16</t>
+          <t>15-09-2025 13:34:22</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1453</v>
+        <v>11057</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3631,11 +3624,11 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
@@ -3648,7 +3641,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>25-07-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
@@ -3660,7 +3653,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252467</v>
+        <v>253367</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3671,30 +3664,30 @@
         <v>15</v>
       </c>
       <c r="D45" t="n">
-        <v>81.16666666666667</v>
+        <v>135.7</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>15-07-2025 08:39:16</t>
+          <t>15-09-2025 13:34:22</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>15-07-2025 08:54:16</t>
+          <t>15-09-2025 13:49:22</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>15-07-2025 08:54:16</t>
+          <t>15-09-2025 13:49:22</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>15-07-2025 10:15:26</t>
+          <t>16-09-2025 08:05:04</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>9740</v>
+        <v>16284</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3703,11 +3696,11 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
@@ -3720,7 +3713,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
@@ -3732,7 +3725,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252899</v>
+        <v>253377</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3740,33 +3733,33 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D46" t="n">
-        <v>180.5666666666667</v>
+        <v>127.7166666666667</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>15-07-2025 10:15:26</t>
+          <t>16-09-2025 08:05:04</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>15-07-2025 10:34:26</t>
+          <t>16-09-2025 08:20:04</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>15-07-2025 10:34:26</t>
+          <t>16-09-2025 08:20:04</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>15-07-2025 13:35:00</t>
+          <t>16-09-2025 10:27:47</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>21668</v>
+        <v>15326</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3775,11 +3768,11 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
@@ -3792,53 +3785,53 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252999</v>
+        <v>253549</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>32.5</v>
+        <v>23</v>
       </c>
       <c r="D47" t="n">
-        <v>325.8416666666666</v>
+        <v>163.6666666666667</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>16-09-2025 10:27:47</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>08-07-2025 07:32:30</t>
+          <t>16-09-2025 10:50:47</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08-07-2025 07:32:30</t>
+          <t>16-09-2025 10:50:47</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>08-07-2025 12:58:20</t>
+          <t>16-09-2025 13:34:27</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>39101</v>
+        <v>19640</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3847,11 +3840,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
@@ -3864,53 +3857,53 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>06-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251674</v>
+        <v>253295</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>54.5</v>
+        <v>17</v>
       </c>
       <c r="D48" t="n">
-        <v>147.125</v>
+        <v>230.075</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>08-07-2025 12:58:20</t>
+          <t>16-09-2025 13:34:27</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>08-07-2025 13:52:50</t>
+          <t>16-09-2025 13:51:27</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08-07-2025 13:52:50</t>
+          <t>16-09-2025 13:51:27</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>09-07-2025 08:19:58</t>
+          <t>17-09-2025 09:41:32</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>17655</v>
+        <v>27609</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3919,70 +3912,75 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
       </c>
-      <c r="O48" t="n">
-        <v>0</v>
+      <c r="N48" t="n">
+        <v>40274</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-2.347199074074074</v>
+        <v>-5.403842592592593</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251632</v>
+        <v>252216</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>30.5</v>
+        <v>25</v>
       </c>
       <c r="D49" t="n">
-        <v>588.5083333333333</v>
+        <v>141.8083333333333</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09-07-2025 08:19:58</t>
+          <t>17-09-2025 09:41:32</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>09-07-2025 08:50:28</t>
+          <t>17-09-2025 10:06:32</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09-07-2025 08:50:28</t>
+          <t>17-09-2025 10:06:32</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>10-07-2025 10:38:58</t>
+          <t>17-09-2025 12:28:20</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>70621</v>
+        <v>17017</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3991,11 +3989,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4008,53 +4006,53 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-3.443732638888889</v>
+        <v>-23.51968171296296</v>
       </c>
       <c r="S49" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>252207</v>
+        <v>244743</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D50" t="n">
-        <v>51.55</v>
+        <v>29.34166666666667</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>17-09-2025 12:28:20</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>17-09-2025 12:57:20</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>17-09-2025 12:57:20</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>08-07-2025 08:31:33</t>
+          <t>17-09-2025 13:26:41</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>6186</v>
+        <v>3521</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4063,14 +4061,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
         <v>3</v>
       </c>
       <c r="M50" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -4080,53 +4078,53 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-12.35524305555556</v>
+        <v>-23.56019675925926</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251790</v>
+        <v>253472</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D51" t="n">
-        <v>235.0583333333333</v>
+        <v>291.8</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>08-07-2025 08:31:33</t>
+          <t>17-09-2025 13:26:41</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>08-07-2025 09:06:33</t>
+          <t>17-09-2025 13:45:41</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08-07-2025 09:06:33</t>
+          <t>17-09-2025 13:45:41</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>08-07-2025 13:01:36</t>
+          <t>18-09-2025 10:37:29</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>28207</v>
+        <v>35016</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4135,14 +4133,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M51" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -4152,11 +4150,11 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>16-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-8.542783564814815</v>
+        <v>-2.442696759259259</v>
       </c>
       <c r="S51" t="n">
         <v>1</v>
@@ -4164,41 +4162,41 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251798</v>
+        <v>253528</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D52" t="n">
-        <v>123.2916666666667</v>
+        <v>119.175</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>08-07-2025 13:01:36</t>
+          <t>18-09-2025 10:37:29</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>08-07-2025 13:31:36</t>
+          <t>18-09-2025 10:56:29</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08-07-2025 13:31:36</t>
+          <t>18-09-2025 10:56:29</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>09-07-2025 07:34:54</t>
+          <t>18-09-2025 12:55:39</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>14795</v>
+        <v>14301</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4207,14 +4205,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M52" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4224,53 +4222,53 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>252047</v>
+        <v>253522</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>70.88333333333334</v>
+        <v>198.625</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-07-2025 07:34:54</t>
+          <t>18-09-2025 12:55:39</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>09-07-2025 08:04:54</t>
+          <t>18-09-2025 13:10:39</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>09-07-2025 08:04:54</t>
+          <t>18-09-2025 13:10:39</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>09-07-2025 09:15:47</t>
+          <t>19-09-2025 08:29:17</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>8506</v>
+        <v>23835</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4279,14 +4277,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
         <v>3</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4296,53 +4294,53 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-10.38596064814815</v>
+        <v>-7.353668981481482</v>
       </c>
       <c r="S53" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252814</v>
+        <v>252397</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D54" t="n">
-        <v>50.08333333333334</v>
+        <v>115.925</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-07-2025 09:15:47</t>
+          <t>19-09-2025 08:29:17</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>09-07-2025 09:45:47</t>
+          <t>19-09-2025 09:01:17</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>09-07-2025 09:45:47</t>
+          <t>19-09-2025 09:01:17</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>09-07-2025 10:35:52</t>
+          <t>19-09-2025 10:57:12</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>6010</v>
+        <v>13911</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4368,7 +4366,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
@@ -4380,41 +4378,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252713</v>
+        <v>252883</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>40</v>
+        <v>52.5</v>
       </c>
       <c r="D55" t="n">
-        <v>907.7666666666667</v>
+        <v>247.3083333333333</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-07-2025 10:35:52</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>09-07-2025 11:15:52</t>
+          <t>09-09-2025 07:52:30</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09-07-2025 11:15:52</t>
+          <t>09-09-2025 07:52:30</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>11-07-2025 10:23:38</t>
+          <t>09-09-2025 11:59:48</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>108932</v>
+        <v>29677</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4423,11 +4421,11 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4440,11 +4438,11 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>18-07-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
+        <v>-11.49986689814815</v>
       </c>
       <c r="S55" t="n">
         <v>1</v>
@@ -4452,7 +4450,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>252549</v>
+        <v>252002</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4460,33 +4458,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D56" t="n">
-        <v>92.59166666666667</v>
+        <v>55.675</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-07-2025 10:23:38</t>
+          <t>04-09-2025 12:00:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>11-07-2025 10:58:38</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>11-07-2025 10:58:38</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>11-07-2025 12:31:13</t>
+          <t>04-09-2025 13:50:40</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>11111</v>
+        <v>6681</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4499,24 +4497,31 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
         <v>70</v>
       </c>
-      <c r="O56" t="n">
-        <v>0</v>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>40307 (esterno)</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>40307</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>20-07-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
+        <v>-10.57685763888889</v>
       </c>
       <c r="S56" t="n">
         <v>4</v>
@@ -4524,7 +4529,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>252755</v>
+        <v>253140</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4532,33 +4537,33 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D57" t="n">
-        <v>109.575</v>
+        <v>55.83333333333334</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-07-2025 12:31:13</t>
+          <t>04-09-2025 13:50:40</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>11-07-2025 13:01:13</t>
+          <t>04-09-2025 14:30:40</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>11-07-2025 13:01:13</t>
+          <t>04-09-2025 14:30:40</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>11-07-2025 14:50:48</t>
+          <t>05-09-2025 07:26:30</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>13149</v>
+        <v>6700</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4567,14 +4572,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4584,19 +4589,19 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0</v>
+        <v>-10.31007523148148</v>
       </c>
       <c r="S57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>252157</v>
+        <v>253314</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4604,33 +4609,33 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
-        <v>396.825</v>
+        <v>43.40833333333333</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-07-2025 14:50:48</t>
+          <t>05-09-2025 07:26:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>14-07-2025 07:40:48</t>
+          <t>05-09-2025 07:56:30</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>14-07-2025 07:40:48</t>
+          <t>05-09-2025 07:56:30</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>14-07-2025 14:17:37</t>
+          <t>05-09-2025 08:39:55</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>47619</v>
+        <v>5209</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4639,36 +4644,41 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>70</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N58" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-26.59557291666667</v>
+        <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>252334</v>
+        <v>252679</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4676,33 +4686,33 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D59" t="n">
-        <v>486.5916666666666</v>
+        <v>60</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>14-07-2025 14:17:37</t>
+          <t>05-09-2025 08:39:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>15-07-2025 07:02:37</t>
+          <t>05-09-2025 09:09:55</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>15-07-2025 07:02:37</t>
+          <t>05-09-2025 09:09:55</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>16-07-2025 07:09:13</t>
+          <t>05-09-2025 10:09:55</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>58391</v>
+        <v>7200</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4711,70 +4721,75 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
         <v>5</v>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N59" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-12.29806712962963</v>
+        <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252371</v>
+        <v>252682</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D60" t="n">
-        <v>50.04166666666666</v>
+        <v>83.40833333333333</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>05-09-2025 10:09:55</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>05-09-2025 10:39:55</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>08-07-2025 07:17:00</t>
+          <t>05-09-2025 10:39:55</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>08-07-2025 08:07:02</t>
+          <t>05-09-2025 12:03:19</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>6005</v>
+        <v>10009</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4783,7 +4798,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -4792,61 +4807,66 @@
       <c r="M60" t="n">
         <v>76</v>
       </c>
-      <c r="O60" t="n">
-        <v>0</v>
+      <c r="N60" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-8.33822337962963</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>252402</v>
+        <v>253210</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D61" t="n">
-        <v>25.075</v>
+        <v>94.15833333333333</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>08-07-2025 08:07:02</t>
+          <t>05-09-2025 12:03:19</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>08-07-2025 08:24:02</t>
+          <t>05-09-2025 13:23:19</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>08-07-2025 08:24:02</t>
+          <t>05-09-2025 13:23:19</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>08-07-2025 08:49:07</t>
+          <t>05-09-2025 14:57:29</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>3009</v>
+        <v>11299</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4855,14 +4875,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M61" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -4872,53 +4892,53 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-11.36744212962963</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>252237</v>
+        <v>253208</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D62" t="n">
-        <v>84.95</v>
+        <v>104.2583333333333</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>08-07-2025 08:49:07</t>
+          <t>05-09-2025 14:57:29</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>08-07-2025 09:21:07</t>
+          <t>08-09-2025 07:22:29</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>08-07-2025 09:21:07</t>
+          <t>08-09-2025 07:22:29</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>08-07-2025 10:46:04</t>
+          <t>08-09-2025 09:06:44</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>10194</v>
+        <v>12511</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4927,14 +4947,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M62" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -4944,53 +4964,53 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-7.448657407407407</v>
+        <v>-3.379681712962963</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251919</v>
+        <v>252685</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D63" t="n">
-        <v>140.05</v>
+        <v>74.56666666666666</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>08-07-2025 10:46:04</t>
+          <t>08-09-2025 09:06:44</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>08-07-2025 11:18:04</t>
+          <t>08-09-2025 10:26:44</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08-07-2025 11:18:04</t>
+          <t>08-09-2025 10:26:44</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>08-07-2025 13:38:07</t>
+          <t>08-09-2025 11:41:18</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>16806</v>
+        <v>8948</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -4999,70 +5019,75 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M63" t="n">
-        <v>152</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N63" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-22.56813657407407</v>
+        <v>-0.4870196759259259</v>
       </c>
       <c r="S63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252347</v>
+        <v>253036</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D64" t="n">
-        <v>92.28333333333333</v>
+        <v>78.73333333333333</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>08-09-2025 11:41:18</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>08-07-2025 07:35:00</t>
+          <t>08-09-2025 12:11:18</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08-07-2025 07:35:00</t>
+          <t>08-09-2025 12:11:18</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>08-07-2025 09:07:17</t>
+          <t>08-09-2025 13:30:02</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>11074</v>
+        <v>9448</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5071,14 +5096,14 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>H7 ;R5</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M64" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5088,53 +5113,53 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-0.3800578703703704</v>
+        <v>-17.56252893518518</v>
       </c>
       <c r="S64" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>243569</v>
+        <v>253524</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D65" t="n">
-        <v>21.675</v>
+        <v>58.75833333333333</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-07-2025 09:07:17</t>
+          <t>08-09-2025 13:30:02</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>08-07-2025 09:42:17</t>
+          <t>08-09-2025 14:15:02</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>08-07-2025 09:42:17</t>
+          <t>08-09-2025 14:15:02</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>08-07-2025 10:03:57</t>
+          <t>09-09-2025 07:13:48</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2601</v>
+        <v>7051</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5143,14 +5168,14 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
         <v>3</v>
       </c>
       <c r="M65" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -5160,53 +5185,53 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-295.4194155092592</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>252201</v>
+        <v>253223</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D66" t="n">
-        <v>34.10833333333333</v>
+        <v>16.4</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>08-07-2025 10:03:57</t>
+          <t>09-09-2025 07:13:48</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>08-07-2025 10:38:57</t>
+          <t>09-09-2025 08:28:48</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>08-07-2025 10:38:57</t>
+          <t>09-09-2025 08:28:48</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>08-07-2025 11:13:04</t>
+          <t>09-09-2025 08:45:12</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>4093</v>
+        <v>1968</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5215,14 +5240,14 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="M66" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -5232,53 +5257,53 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-18.46740740740741</v>
+        <v>-8.364722222222222</v>
       </c>
       <c r="S66" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>252723</v>
+        <v>252601</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D67" t="n">
-        <v>153.9583333333333</v>
+        <v>51.20833333333334</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-07-2025 11:13:04</t>
+          <t>09-09-2025 08:45:12</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>08-07-2025 11:48:04</t>
+          <t>09-09-2025 09:15:12</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08-07-2025 11:48:04</t>
+          <t>09-09-2025 09:15:12</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>08-07-2025 14:22:01</t>
+          <t>09-09-2025 10:06:24</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>18475</v>
+        <v>6145</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5287,14 +5312,14 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M67" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -5304,53 +5329,53 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>252144</v>
+        <v>252582</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D68" t="n">
-        <v>54.13333333333333</v>
+        <v>46.08333333333334</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-07-2025 07:00:00</t>
+          <t>09-09-2025 10:06:24</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-09-2025 11:36:24</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08-07-2025 07:40:00</t>
+          <t>09-09-2025 11:36:24</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>08-07-2025 08:34:08</t>
+          <t>09-09-2025 12:22:29</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>6496</v>
+        <v>5530</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5368,61 +5393,66 @@
       <c r="M68" t="n">
         <v>76</v>
       </c>
-      <c r="O68" t="n">
-        <v>0</v>
+      <c r="N68" t="n">
+        <v>40290</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>40290</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>18-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-9.357037037037037</v>
+        <v>-1.515619212962963</v>
       </c>
       <c r="S68" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>252146</v>
+        <v>253359</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D69" t="n">
-        <v>66.63333333333334</v>
+        <v>134.0166666666667</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-07-2025 08:34:08</t>
+          <t>09-09-2025 12:22:29</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-07-2025 08:59:08</t>
+          <t>09-09-2025 13:07:29</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>08-07-2025 08:59:08</t>
+          <t>09-09-2025 13:07:29</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>08-07-2025 10:05:46</t>
+          <t>10-09-2025 07:21:30</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>7996</v>
+        <v>16082</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5431,14 +5461,14 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
         <v>3</v>
       </c>
       <c r="M69" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -5448,53 +5478,53 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-9.420671296296296</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>252298</v>
+        <v>253245</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D70" t="n">
-        <v>70.76666666666667</v>
+        <v>150.8333333333333</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-07-2025 10:05:46</t>
+          <t>10-09-2025 07:21:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-07-2025 10:45:46</t>
+          <t>10-09-2025 07:51:30</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08-07-2025 10:45:46</t>
+          <t>10-09-2025 07:51:30</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>08-07-2025 11:56:32</t>
+          <t>10-09-2025 10:22:20</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>8492</v>
+        <v>18100</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5503,14 +5533,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M70" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -5520,53 +5550,53 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-15.49759259259259</v>
+        <v>-0.432181712962963</v>
       </c>
       <c r="S70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>244828</v>
+        <v>253317</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D71" t="n">
-        <v>43.35833333333333</v>
+        <v>102.775</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-07-2025 11:56:32</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-07-2025 12:36:32</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08-07-2025 12:36:32</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>08-07-2025 13:19:53</t>
+          <t>08-09-2025 09:01:46</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>5203</v>
+        <v>12333</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5575,14 +5605,14 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M71" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -5592,11 +5622,11 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-1.555480324074074</v>
+        <v>-0.3762326388888889</v>
       </c>
       <c r="S71" t="n">
         <v>1</v>
@@ -5604,41 +5634,41 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251231</v>
+        <v>253318</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D72" t="n">
-        <v>312.3083333333333</v>
+        <v>51.55</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-07-2025 13:19:53</t>
+          <t>08-09-2025 09:01:46</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-07-2025 13:59:53</t>
+          <t>08-09-2025 09:16:46</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08-07-2025 13:59:53</t>
+          <t>08-09-2025 09:16:46</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>09-07-2025 11:12:12</t>
+          <t>08-09-2025 10:08:19</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>37477</v>
+        <v>6186</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5647,35 +5677,28 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M72" t="n">
-        <v>70</v>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>40034 (esterno)</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>40034</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-6.466805555555555</v>
+        <v>-0.4224479166666666</v>
       </c>
       <c r="S72" t="n">
         <v>1</v>
@@ -5683,41 +5706,41 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>252277</v>
+        <v>253249</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>144.925</v>
+        <v>57.75833333333333</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-07-2025 11:12:12</t>
+          <t>08-09-2025 10:08:19</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>09-07-2025 11:52:12</t>
+          <t>08-09-2025 10:23:19</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>09-07-2025 11:52:12</t>
+          <t>08-09-2025 10:23:19</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>09-07-2025 14:17:07</t>
+          <t>08-09-2025 11:21:05</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>17391</v>
+        <v>6931</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5726,77 +5749,70 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
         <v>3</v>
       </c>
       <c r="M73" t="n">
-        <v>70</v>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>40024 (esterno)</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>40024</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-19.59522569444444</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>252350</v>
+        <v>253706</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D74" t="n">
-        <v>51.88333333333333</v>
+        <v>311</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-07-2025 14:17:07</t>
+          <t>08-09-2025 11:21:05</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>09-07-2025 14:47:07</t>
+          <t>08-09-2025 11:46:05</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>09-07-2025 14:47:07</t>
+          <t>08-09-2025 11:46:05</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>10-07-2025 07:39:00</t>
+          <t>09-09-2025 08:57:05</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>6226</v>
+        <v>37320</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5805,14 +5821,14 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M74" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -5822,53 +5838,53 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>30-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-2.318755787037037</v>
+        <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>252652</v>
+        <v>252569</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D75" t="n">
-        <v>186.0083333333333</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-07-2025 07:39:00</t>
+          <t>09-09-2025 08:57:05</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>10-07-2025 08:09:00</t>
+          <t>09-09-2025 09:22:05</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10-07-2025 08:09:00</t>
+          <t>09-09-2025 09:22:05</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>10-07-2025 11:15:01</t>
+          <t>09-09-2025 09:31:40</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>22321</v>
+        <v>1150</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5877,14 +5893,14 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
         <v>3</v>
       </c>
       <c r="M75" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -5894,14 +5910,1258 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>0</v>
+        <v>-8.39699074074074</v>
       </c>
       <c r="S75" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>253409</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>19</v>
+      </c>
+      <c r="D76" t="n">
+        <v>27.18333333333333</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>09-09-2025 09:31:40</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>09-09-2025 09:50:40</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>09-09-2025 09:50:40</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:17:51</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>3262</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>3</v>
+      </c>
+      <c r="M76" t="n">
+        <v>76</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>29-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R76" s="1" t="n">
+        <v>-11.4290625</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>253194</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>15</v>
+      </c>
+      <c r="D77" t="n">
+        <v>199.0833333333333</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:17:51</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:32:51</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:32:51</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>09-09-2025 13:51:56</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>23890</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>3</v>
+      </c>
+      <c r="M77" t="n">
+        <v>76</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>20-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R77" s="1" t="n">
+        <v>-20.57773148148148</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>253602</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>R12</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>19</v>
+      </c>
+      <c r="D78" t="n">
+        <v>117.0833333333333</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>09-09-2025 13:51:56</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:10:56</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:10:56</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>10-09-2025 08:08:01</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>14050</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>5</v>
+      </c>
+      <c r="M78" t="n">
+        <v>76</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>10-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R78" s="1" t="n">
+        <v>-0.3389004629629629</v>
+      </c>
+      <c r="S78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>253246</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>35</v>
+      </c>
+      <c r="D79" t="n">
+        <v>194.25</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:35:00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:35:00</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:49:15</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>23310</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>4</v>
+      </c>
+      <c r="M79" t="n">
+        <v>70</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>10-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>253362</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>35</v>
+      </c>
+      <c r="D80" t="n">
+        <v>58.38333333333333</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:35:00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:35:00</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:33:23</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>7006</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>3</v>
+      </c>
+      <c r="M80" t="n">
+        <v>152</v>
+      </c>
+      <c r="N80" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>40295</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>15-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>252702</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>25</v>
+      </c>
+      <c r="D81" t="n">
+        <v>58.38333333333333</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:33:23</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:58:23</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:58:23</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>05-09-2025 09:56:46</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>7006</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>3</v>
+      </c>
+      <c r="M81" t="n">
+        <v>152</v>
+      </c>
+      <c r="N81" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>40295</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>04-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>253591</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>40</v>
+      </c>
+      <c r="D82" t="n">
+        <v>17.41666666666667</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>05-09-2025 09:56:46</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:36:46</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:36:46</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:54:11</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>2090</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>3</v>
+      </c>
+      <c r="M82" t="n">
+        <v>76</v>
+      </c>
+      <c r="N82" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>40295</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>24-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>250284</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>55</v>
+      </c>
+      <c r="D83" t="n">
+        <v>146.35</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:54:11</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>05-09-2025 11:49:11</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>05-09-2025 11:49:11</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:15:32</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>17562</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>8</v>
+      </c>
+      <c r="M83" t="n">
+        <v>70</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>12-03-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R83" s="1" t="n">
+        <v>-177.5941203703704</v>
+      </c>
+      <c r="S83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>253072</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>35</v>
+      </c>
+      <c r="D84" t="n">
+        <v>29.13333333333333</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:15:32</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:50:32</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:50:32</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:19:40</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>3496</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>6</v>
+      </c>
+      <c r="M84" t="n">
+        <v>70</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>18-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R84" s="1" t="n">
+        <v>-21.30532407407408</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>253278</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>25</v>
+      </c>
+      <c r="D85" t="n">
+        <v>28.425</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:19:40</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:44:40</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:44:40</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:13:05</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>3411</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>6</v>
+      </c>
+      <c r="M85" t="n">
+        <v>70</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>12-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>253259</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>45</v>
+      </c>
+      <c r="D86" t="n">
+        <v>69.23333333333333</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:13:05</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:58:05</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:58:05</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:07:19</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>8308</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>2</v>
+      </c>
+      <c r="M86" t="n">
+        <v>70</v>
+      </c>
+      <c r="N86" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>40295</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>25-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R86" s="1" t="n">
+        <v>-0.4217534722222222</v>
+      </c>
+      <c r="S86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>244023</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>45</v>
+      </c>
+      <c r="D87" t="n">
+        <v>8.308333333333334</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:07:19</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:52:19</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:52:19</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:00:38</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>997</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>6</v>
+      </c>
+      <c r="M87" t="n">
+        <v>70</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>30-09-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="R87" s="1" t="n">
+        <v>-343.4587731481482</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>252843</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>45</v>
+      </c>
+      <c r="D88" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:00:38</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:45:38</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:45:38</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:04:50</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>2304</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>9</v>
+      </c>
+      <c r="M88" t="n">
+        <v>76</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>30-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R88" s="1" t="n">
+        <v>-40.50335648148148</v>
+      </c>
+      <c r="S88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>243569</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>55</v>
+      </c>
+      <c r="D89" t="n">
+        <v>21.675</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:04:50</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:59:50</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:59:50</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>08-09-2025 13:21:30</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>2601</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>3</v>
+      </c>
+      <c r="M89" t="n">
+        <v>76</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>16-09-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="R89" s="1" t="n">
+        <v>-357.5566030092593</v>
+      </c>
+      <c r="S89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>253271</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>45</v>
+      </c>
+      <c r="D90" t="n">
+        <v>42.63333333333333</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>08-09-2025 13:21:30</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:06:30</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:06:30</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:49:08</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>5116</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>6</v>
+      </c>
+      <c r="M90" t="n">
+        <v>70</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>05-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R90" s="1" t="n">
+        <v>-3.617459490740741</v>
+      </c>
+      <c r="S90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>253527</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>40</v>
+      </c>
+      <c r="D91" t="n">
+        <v>67.48333333333333</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:49:08</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:29:08</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:29:08</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:36:37</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>8098</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>3</v>
+      </c>
+      <c r="M91" t="n">
+        <v>70</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>12-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>252980</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>17.075</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:17:04</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>2049</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>foglio</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>08-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R92" s="1" t="n">
+        <v>-0.3035243055555555</v>
+      </c>
+      <c r="S92" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/output.xlsx
+++ b/PS-VRP/Dati_output/output.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S92"/>
+  <dimension ref="A1:S94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253425</v>
+        <v>253409</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>146.35</v>
+        <v>27.18333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -572,11 +572,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-09-2025 09:43:21</t>
+          <t>08-09-2025 07:44:11</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>17562</v>
+        <v>3262</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>76</v>
@@ -606,15 +606,15 @@
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-10.40510416666667</v>
+        <v>-10.32234953703704</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252906</v>
+        <v>253284</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -625,30 +625,30 @@
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>34.725</v>
+        <v>56.99166666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08-09-2025 09:43:21</t>
+          <t>08-09-2025 07:44:11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-09-2025 10:00:21</t>
+          <t>08-09-2025 08:01:11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-09-2025 10:00:21</t>
+          <t>08-09-2025 08:01:11</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-09-2025 10:35:04</t>
+          <t>08-09-2025 08:58:10</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>4167</v>
+        <v>6839</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -674,19 +674,19 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>28-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-14.44102430555555</v>
+        <v>-11.37373263888889</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250891</v>
+        <v>243569</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -694,33 +694,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>77.49166666666666</v>
+        <v>21.675</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08-09-2025 10:35:04</t>
+          <t>08-09-2025 08:58:10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-09-2025 11:07:04</t>
+          <t>08-09-2025 09:15:10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-09-2025 11:07:04</t>
+          <t>08-09-2025 09:15:10</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-09-2025 12:24:34</t>
+          <t>08-09-2025 09:36:51</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>9299</v>
+        <v>2601</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -729,17 +729,14 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
-      </c>
-      <c r="N4" t="n">
-        <v>40299</v>
+        <v>76</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -749,19 +746,19 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>13-08-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.5170601851851852</v>
+        <v>-357.4005902777778</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>253100</v>
+        <v>253591</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -769,33 +766,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>47.35</v>
+        <v>17.41666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>08-09-2025 12:24:34</t>
+          <t>08-09-2025 09:36:51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-09-2025 12:41:34</t>
+          <t>08-09-2025 09:55:51</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-09-2025 12:41:34</t>
+          <t>08-09-2025 09:55:51</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-09-2025 13:28:55</t>
+          <t>08-09-2025 10:13:16</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5682</v>
+        <v>2090</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -804,28 +801,33 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N5" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.5617476851851851</v>
+        <v>-0.4258796296296296</v>
       </c>
       <c r="S5" t="n">
         <v>4</v>
@@ -833,7 +835,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252995</v>
+        <v>250891</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -841,33 +843,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>68.31666666666666</v>
+        <v>77.49166666666666</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>08-09-2025 13:28:55</t>
+          <t>08-09-2025 10:13:16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:55</t>
+          <t>08-09-2025 10:47:16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:55</t>
+          <t>08-09-2025 10:47:16</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>09-09-2025 07:09:14</t>
+          <t>08-09-2025 12:04:45</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8198</v>
+        <v>9299</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -876,14 +878,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -893,19 +895,19 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>13-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-8.298078703703704</v>
+        <v>-26.50330439814815</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252833</v>
+        <v>253710</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -913,33 +915,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>74.78333333333333</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09-09-2025 07:09:14</t>
+          <t>08-09-2025 12:04:45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-09-2025 07:43:14</t>
+          <t>08-09-2025 12:23:45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09-09-2025 07:43:14</t>
+          <t>08-09-2025 12:23:45</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09-09-2025 08:58:01</t>
+          <t>08-09-2025 12:25:22</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>8974</v>
+        <v>194</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -965,11 +967,11 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-14.37362268518519</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -977,7 +979,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252939</v>
+        <v>250284</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -985,33 +987,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>89.8</v>
+        <v>146.35</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09-09-2025 08:58:01</t>
+          <t>08-09-2025 12:25:22</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-09-2025 09:17:01</t>
+          <t>08-09-2025 12:50:22</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09-09-2025 09:17:01</t>
+          <t>08-09-2025 12:50:22</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-09-2025 10:46:49</t>
+          <t>09-09-2025 07:16:43</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10776</v>
+        <v>17562</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1024,7 +1026,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1037,11 +1039,11 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-18.44917824074074</v>
+        <v>-181.30328125</v>
       </c>
       <c r="S8" t="n">
         <v>7</v>
@@ -1049,7 +1051,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>235572</v>
+        <v>252939</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1057,33 +1059,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>82.98333333333333</v>
+        <v>89.8</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-09-2025 10:46:49</t>
+          <t>09-09-2025 07:16:43</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-09-2025 11:05:49</t>
+          <t>09-09-2025 07:41:43</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09-09-2025 11:05:49</t>
+          <t>09-09-2025 07:41:43</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-09-2025 12:28:48</t>
+          <t>09-09-2025 09:11:31</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>9958</v>
+        <v>10776</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1096,7 +1098,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1109,14 +1111,14 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>06-11-2023 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-673.52</v>
+        <v>-18.38300347222222</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1129,29 +1131,29 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
         <v>242.9416666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-09-2025 12:28:48</t>
+          <t>09-09-2025 09:11:31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-09-2025 13:04:48</t>
+          <t>09-09-2025 09:51:31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09-09-2025 13:04:48</t>
+          <t>09-09-2025 09:51:31</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10-09-2025 09:07:44</t>
+          <t>09-09-2025 13:54:28</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1185,7 +1187,7 @@
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-5.380376157407407</v>
+        <v>-4.579490740740741</v>
       </c>
       <c r="S10" t="n">
         <v>4</v>
@@ -1193,7 +1195,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>253372</v>
+        <v>253100</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1201,33 +1203,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D11" t="n">
-        <v>103.775</v>
+        <v>47.35</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-09-2025 09:07:44</t>
+          <t>09-09-2025 13:54:28</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10-09-2025 09:49:44</t>
+          <t>09-09-2025 14:32:28</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10-09-2025 09:49:44</t>
+          <t>09-09-2025 14:32:28</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10-09-2025 11:33:31</t>
+          <t>10-09-2025 07:19:49</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>12453</v>
+        <v>5682</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1236,11 +1238,11 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1253,19 +1255,19 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-2.305428240740741</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>253361</v>
+        <v>253246</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1276,30 +1278,30 @@
         <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>76.70833333333333</v>
+        <v>194.25</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-09-2025 11:33:31</t>
+          <t>10-09-2025 07:19:49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10-09-2025 11:48:31</t>
+          <t>10-09-2025 07:34:49</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10-09-2025 11:48:31</t>
+          <t>10-09-2025 07:34:49</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10-09-2025 13:05:13</t>
+          <t>10-09-2025 10:49:04</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>9205</v>
+        <v>23310</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1308,11 +1310,11 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1325,19 +1327,19 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-0.4507407407407407</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>253375</v>
+        <v>253374</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1345,33 +1347,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>51.88333333333333</v>
+        <v>59.60833333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-09-2025 13:05:13</t>
+          <t>10-09-2025 10:49:04</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10-09-2025 13:20:13</t>
+          <t>10-09-2025 11:10:04</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10-09-2025 13:20:13</t>
+          <t>10-09-2025 11:10:04</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10-09-2025 14:12:06</t>
+          <t>10-09-2025 12:09:40</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>6226</v>
+        <v>7153</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1380,11 +1382,11 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
@@ -1409,41 +1411,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>253247</v>
+        <v>252569</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>109.575</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-09-2025 14:12:06</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10-09-2025 14:31:06</t>
+          <t>08-09-2025 07:29:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10-09-2025 14:31:06</t>
+          <t>08-09-2025 07:29:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>11-09-2025 08:20:41</t>
+          <t>08-09-2025 07:38:35</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>13149</v>
+        <v>1150</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1452,14 +1454,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1469,53 +1471,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.347696759259259</v>
+        <v>-7.318460648148148</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>253332</v>
+        <v>253072</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D15" t="n">
-        <v>184.825</v>
+        <v>29.13333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-09-2025 08:20:41</t>
+          <t>08-09-2025 07:38:35</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>11-09-2025 08:39:41</t>
+          <t>08-09-2025 08:24:35</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11-09-2025 08:39:41</t>
+          <t>08-09-2025 08:24:35</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11-09-2025 11:44:30</t>
+          <t>08-09-2025 08:53:43</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>22179</v>
+        <v>3496</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1524,11 +1526,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1541,19 +1543,19 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>18-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.489241898148148</v>
+        <v>-21.37063657407407</v>
       </c>
       <c r="S15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252827</v>
+        <v>252833</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1561,33 +1563,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
-        <v>410</v>
+        <v>74.78333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>08-09-2025 08:53:43</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08-09-2025 07:27:00</t>
+          <t>08-09-2025 09:24:43</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08-09-2025 07:27:00</t>
+          <t>08-09-2025 09:24:43</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08-09-2025 14:17:00</t>
+          <t>08-09-2025 10:39:30</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>49200</v>
+        <v>8974</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1596,14 +1598,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1613,11 +1615,11 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>04-09-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-4.595138888888889</v>
+        <v>-13.44409722222222</v>
       </c>
       <c r="S16" t="n">
         <v>4</v>
@@ -1625,7 +1627,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>253710</v>
+        <v>253194</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1633,33 +1635,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D17" t="n">
-        <v>1.616666666666667</v>
+        <v>199.0833333333333</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>08-09-2025 14:17:00</t>
+          <t>08-09-2025 10:39:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>08-09-2025 14:59:00</t>
+          <t>08-09-2025 11:23:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08-09-2025 14:59:00</t>
+          <t>08-09-2025 11:23:30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:37</t>
+          <t>08-09-2025 14:42:35</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>194</v>
+        <v>23890</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1668,14 +1670,14 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1685,19 +1687,19 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>20-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-19.61290509259259</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>253260</v>
+        <v>235572</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1705,33 +1707,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D18" t="n">
-        <v>109.4083333333333</v>
+        <v>82.98333333333333</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:37</t>
+          <t>08-09-2025 14:42:35</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09-09-2025 07:27:37</t>
+          <t>09-09-2025 07:26:35</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>09-09-2025 07:27:37</t>
+          <t>09-09-2025 07:26:35</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>09-09-2025 09:17:01</t>
+          <t>09-09-2025 08:49:34</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>13129</v>
+        <v>9958</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1744,7 +1746,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1757,19 +1759,19 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>06-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-15.38682291666667</v>
+        <v>-673.3677546296296</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>253721</v>
+        <v>253278</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1780,30 +1782,30 @@
         <v>27</v>
       </c>
       <c r="D19" t="n">
-        <v>39.39166666666667</v>
+        <v>28.425</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09-09-2025 09:17:01</t>
+          <t>09-09-2025 08:49:34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-09-2025 09:44:01</t>
+          <t>09-09-2025 09:16:34</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09-09-2025 09:44:01</t>
+          <t>09-09-2025 09:16:34</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>09-09-2025 10:23:25</t>
+          <t>09-09-2025 09:44:59</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>4727</v>
+        <v>3411</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1816,7 +1818,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1829,14 +1831,14 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>08-10-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1845,33 +1847,33 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
         <v>76.31666666666666</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09-09-2025 10:23:25</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-09-2025 10:50:25</t>
+          <t>05-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09-09-2025 10:50:25</t>
+          <t>05-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>09-09-2025 12:06:44</t>
+          <t>05-09-2025 08:33:19</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1913,7 +1915,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>253267</v>
+        <v>252216</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1921,33 +1923,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D21" t="n">
-        <v>164.3666666666667</v>
+        <v>141.8083333333333</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>05-09-2025 08:33:19</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>05-09-2025 07:17:00</t>
+          <t>05-09-2025 09:04:19</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>05-09-2025 07:17:00</t>
+          <t>05-09-2025 09:04:19</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>05-09-2025 10:01:22</t>
+          <t>05-09-2025 11:26:07</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>19724</v>
+        <v>17017</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1960,11 +1962,14 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
+      <c r="N21" t="n">
+        <v>40299</v>
+      </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
@@ -1973,19 +1978,19 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>23-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>253268</v>
+        <v>253267</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1993,33 +1998,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D22" t="n">
-        <v>78.55833333333334</v>
+        <v>164.3666666666667</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>05-09-2025 10:01:22</t>
+          <t>05-09-2025 11:26:07</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>05-09-2025 10:16:22</t>
+          <t>05-09-2025 11:53:07</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>05-09-2025 10:16:22</t>
+          <t>05-09-2025 11:53:07</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>05-09-2025 11:34:55</t>
+          <t>05-09-2025 14:37:29</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>9427</v>
+        <v>19724</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2057,7 +2062,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>253016</v>
+        <v>253268</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2065,33 +2070,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>73.38333333333334</v>
+        <v>78.55833333333334</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>05-09-2025 11:34:55</t>
+          <t>05-09-2025 14:37:29</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>05-09-2025 12:08:55</t>
+          <t>05-09-2025 14:52:29</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05-09-2025 12:08:55</t>
+          <t>05-09-2025 14:52:29</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>05-09-2025 13:22:18</t>
+          <t>08-09-2025 08:11:03</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>8806</v>
+        <v>9427</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2100,41 +2105,36 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>152</v>
-      </c>
-      <c r="N23" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>14-08-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>253313</v>
+        <v>244023</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2142,33 +2142,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>100.0083333333333</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>05-09-2025 13:22:18</t>
+          <t>08-09-2025 08:11:03</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>05-09-2025 13:56:18</t>
+          <t>08-09-2025 08:30:03</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>05-09-2025 13:56:18</t>
+          <t>08-09-2025 08:30:03</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08-09-2025 07:36:19</t>
+          <t>08-09-2025 08:38:21</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>12001</v>
+        <v>997</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2177,14 +2177,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2194,11 +2194,11 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-3.316886574074074</v>
+        <v>-343.3599710648148</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>253284</v>
+        <v>253140</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2214,33 +2214,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D25" t="n">
-        <v>56.99166666666667</v>
+        <v>55.83333333333334</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>08-09-2025 07:36:19</t>
+          <t>08-09-2025 08:38:21</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>08-09-2025 07:51:19</t>
+          <t>08-09-2025 09:14:21</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08-09-2025 07:51:19</t>
+          <t>08-09-2025 09:14:21</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08-09-2025 08:48:18</t>
+          <t>08-09-2025 10:10:11</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>6839</v>
+        <v>6700</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>76</v>
@@ -2266,11 +2266,11 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>28-08-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-11.36688078703704</v>
+        <v>-13.42374421296296</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>252664</v>
+        <v>253259</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2286,33 +2286,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
-        <v>365.975</v>
+        <v>69.23333333333333</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>08-09-2025 08:48:18</t>
+          <t>08-09-2025 10:10:11</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>08-09-2025 09:22:18</t>
+          <t>08-09-2025 10:42:11</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08-09-2025 09:22:18</t>
+          <t>08-09-2025 10:42:11</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>09-09-2025 07:28:17</t>
+          <t>08-09-2025 11:51:25</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>43917</v>
+        <v>8308</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2330,10 +2330,8 @@
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>40279 (esterno)</t>
-        </is>
+      <c r="N26" t="n">
+        <v>40295</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2341,15 +2339,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>40279</v>
+        <v>40295</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-7.311307870370371</v>
+        <v>-0.4940451388888889</v>
       </c>
       <c r="S26" t="n">
         <v>7</v>
@@ -2357,7 +2355,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>253686</v>
+        <v>252664</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2365,33 +2363,33 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>44.23333333333333</v>
+        <v>365.975</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>09-09-2025 07:28:17</t>
+          <t>08-09-2025 11:51:25</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09-09-2025 07:49:17</t>
+          <t>08-09-2025 12:08:25</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>09-09-2025 07:49:17</t>
+          <t>08-09-2025 12:08:25</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>09-09-2025 08:33:31</t>
+          <t>09-09-2025 10:14:24</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>5308</v>
+        <v>43917</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2400,36 +2398,43 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
-      <c r="O27" t="n">
-        <v>0</v>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>40279 (esterno)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>40279</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-7.426666666666667</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>253374</v>
+        <v>253271</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2437,33 +2442,33 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D28" t="n">
-        <v>59.60833333333333</v>
+        <v>42.63333333333333</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09-09-2025 08:33:31</t>
+          <t>09-09-2025 10:14:24</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-09-2025 08:50:31</t>
+          <t>09-09-2025 10:37:24</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09-09-2025 08:50:31</t>
+          <t>09-09-2025 10:37:24</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>09-09-2025 09:50:07</t>
+          <t>09-09-2025 11:20:02</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>7153</v>
+        <v>5116</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2476,7 +2481,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2489,14 +2494,14 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-4.47224537037037</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -2516,22 +2521,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09-09-2025 09:50:07</t>
+          <t>09-09-2025 11:20:02</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-09-2025 10:07:07</t>
+          <t>09-09-2025 11:37:02</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09-09-2025 10:07:07</t>
+          <t>09-09-2025 11:37:02</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>09-09-2025 10:51:21</t>
+          <t>09-09-2025 12:21:16</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2588,22 +2593,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09-09-2025 10:51:21</t>
+          <t>09-09-2025 12:21:16</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-09-2025 11:06:21</t>
+          <t>09-09-2025 12:36:16</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09-09-2025 11:06:21</t>
+          <t>09-09-2025 12:36:16</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>10-09-2025 08:30:06</t>
+          <t>10-09-2025 10:00:01</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2645,7 +2650,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>253401</v>
+        <v>253686</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2653,33 +2658,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D31" t="n">
-        <v>22.81666666666667</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-09-2025 08:30:06</t>
+          <t>10-09-2025 10:00:01</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10-09-2025 08:49:06</t>
+          <t>10-09-2025 10:15:01</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10-09-2025 08:49:06</t>
+          <t>10-09-2025 10:15:01</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>10-09-2025 09:11:55</t>
+          <t>10-09-2025 10:59:15</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2738</v>
+        <v>5308</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2692,7 +2697,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2712,12 +2717,12 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>253370</v>
+        <v>253401</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2725,33 +2730,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>207.5416666666667</v>
+        <v>22.81666666666667</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-09-2025 09:11:55</t>
+          <t>10-09-2025 10:59:15</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>10-09-2025 09:28:55</t>
+          <t>10-09-2025 11:18:15</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10-09-2025 09:28:55</t>
+          <t>10-09-2025 11:18:15</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>10-09-2025 12:56:28</t>
+          <t>10-09-2025 11:41:04</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>24905</v>
+        <v>2738</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2760,11 +2765,11 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2777,19 +2782,19 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>253368</v>
+        <v>253370</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2797,33 +2802,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D33" t="n">
-        <v>103.775</v>
+        <v>207.5416666666667</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-09-2025 12:56:28</t>
+          <t>10-09-2025 11:41:04</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>10-09-2025 13:11:28</t>
+          <t>10-09-2025 11:58:04</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10-09-2025 13:11:28</t>
+          <t>10-09-2025 11:58:04</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>10-09-2025 14:55:14</t>
+          <t>11-09-2025 07:25:36</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>12453</v>
+        <v>24905</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2861,7 +2866,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>253371</v>
+        <v>253368</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2872,30 +2877,30 @@
         <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>107.7666666666667</v>
+        <v>103.775</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-09-2025 14:55:14</t>
+          <t>11-09-2025 07:25:36</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>11-09-2025 07:10:14</t>
+          <t>11-09-2025 07:40:36</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>11-09-2025 07:10:14</t>
+          <t>11-09-2025 07:40:36</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>11-09-2025 08:58:00</t>
+          <t>11-09-2025 09:24:23</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>12932</v>
+        <v>12453</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2933,7 +2938,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>253376</v>
+        <v>253371</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2944,30 +2949,30 @@
         <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>179.6083333333333</v>
+        <v>107.7666666666667</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-09-2025 08:58:00</t>
+          <t>11-09-2025 09:24:23</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>11-09-2025 09:13:00</t>
+          <t>11-09-2025 09:39:23</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>11-09-2025 09:13:00</t>
+          <t>11-09-2025 09:39:23</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>11-09-2025 12:12:37</t>
+          <t>11-09-2025 11:27:09</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>21553</v>
+        <v>12932</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3005,7 +3010,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>253668</v>
+        <v>253376</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3013,33 +3018,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
-        <v>189.8666666666667</v>
+        <v>179.6083333333333</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-09-2025 12:12:37</t>
+          <t>11-09-2025 11:27:09</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>11-09-2025 12:29:37</t>
+          <t>11-09-2025 11:42:09</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>11-09-2025 12:29:37</t>
+          <t>11-09-2025 11:42:09</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>12-09-2025 07:39:29</t>
+          <t>11-09-2025 14:41:45</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>22784</v>
+        <v>21553</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3065,14 +3070,14 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>26-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3092,22 +3097,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12-09-2025 07:39:29</t>
+          <t>11-09-2025 14:41:45</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>12-09-2025 08:00:29</t>
+          <t>12-09-2025 07:02:45</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>12-09-2025 08:00:29</t>
+          <t>12-09-2025 07:02:45</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>12-09-2025 09:01:58</t>
+          <t>12-09-2025 08:04:15</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3149,7 +3154,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>253261</v>
+        <v>252397</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3157,33 +3162,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D38" t="n">
-        <v>18.85</v>
+        <v>115.925</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12-09-2025 09:01:58</t>
+          <t>12-09-2025 08:04:15</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>12-09-2025 09:18:58</t>
+          <t>12-09-2025 08:36:15</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>12-09-2025 09:18:58</t>
+          <t>12-09-2025 08:36:15</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>12-09-2025 09:37:49</t>
+          <t>12-09-2025 10:32:10</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2262</v>
+        <v>13911</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3192,14 +3197,14 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3209,19 +3214,19 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-18.40126736111111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>253436</v>
+        <v>253295</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3229,33 +3234,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D39" t="n">
-        <v>18.85</v>
+        <v>230.075</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12-09-2025 09:37:49</t>
+          <t>12-09-2025 10:32:10</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>12-09-2025 09:52:49</t>
+          <t>12-09-2025 11:04:10</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>12-09-2025 09:52:49</t>
+          <t>12-09-2025 11:04:10</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>12-09-2025 10:11:40</t>
+          <t>12-09-2025 14:54:15</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2262</v>
+        <v>27609</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3268,32 +3273,37 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
       </c>
-      <c r="O39" t="n">
-        <v>0</v>
+      <c r="N39" t="n">
+        <v>40274</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-2.424774305555556</v>
+        <v>-0.6210069444444445</v>
       </c>
       <c r="S39" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>252529</v>
+        <v>253549</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3301,33 +3311,33 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D40" t="n">
-        <v>68.08333333333333</v>
+        <v>163.6666666666667</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>12-09-2025 10:11:40</t>
+          <t>12-09-2025 14:54:15</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>12-09-2025 10:47:40</t>
+          <t>15-09-2025 07:11:15</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>12-09-2025 10:47:40</t>
+          <t>15-09-2025 07:11:15</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>12-09-2025 11:55:45</t>
+          <t>15-09-2025 09:54:55</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>8170</v>
+        <v>19640</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3336,14 +3346,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M40" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3353,11 +3363,11 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-7.497054398148149</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>2</v>
@@ -3365,7 +3375,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252274</v>
+        <v>253525</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3373,33 +3383,33 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D41" t="n">
-        <v>173.4166666666667</v>
+        <v>92.14166666666667</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>12-09-2025 11:55:45</t>
+          <t>15-09-2025 09:54:55</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>12-09-2025 12:14:45</t>
+          <t>15-09-2025 10:17:55</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>12-09-2025 12:14:45</t>
+          <t>15-09-2025 10:17:55</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>15-09-2025 07:08:10</t>
+          <t>15-09-2025 11:50:03</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>20810</v>
+        <v>11057</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3408,14 +3418,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3425,11 +3435,11 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>09-09-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-6.29734375</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>2</v>
@@ -3437,7 +3447,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>253244</v>
+        <v>253377</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3445,33 +3455,33 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D42" t="n">
-        <v>166.5</v>
+        <v>127.7166666666667</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>15-09-2025 07:08:10</t>
+          <t>15-09-2025 11:50:03</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>15-09-2025 07:40:10</t>
+          <t>15-09-2025 12:05:03</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15-09-2025 07:40:10</t>
+          <t>15-09-2025 12:05:03</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>15-09-2025 10:26:40</t>
+          <t>15-09-2025 14:12:46</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>19980</v>
+        <v>15326</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3480,11 +3490,11 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3497,19 +3507,19 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-5.435190972222222</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>253455</v>
+        <v>253472</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3520,30 +3530,30 @@
         <v>21</v>
       </c>
       <c r="D43" t="n">
-        <v>55.55833333333333</v>
+        <v>291.8</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>15-09-2025 10:26:40</t>
+          <t>15-09-2025 14:12:46</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>15-09-2025 10:47:40</t>
+          <t>15-09-2025 14:33:46</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15-09-2025 10:47:40</t>
+          <t>15-09-2025 14:33:46</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>15-09-2025 11:43:14</t>
+          <t>16-09-2025 11:25:34</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>6667</v>
+        <v>35016</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3556,7 +3566,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3569,19 +3579,19 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>16-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-7.488356481481482</v>
+        <v>-0.47609375</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>253525</v>
+        <v>252274</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3589,33 +3599,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D44" t="n">
-        <v>92.14166666666667</v>
+        <v>173.4166666666667</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>15-09-2025 11:43:14</t>
+          <t>16-09-2025 11:25:34</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>15-09-2025 12:02:14</t>
+          <t>16-09-2025 12:03:34</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15-09-2025 12:02:14</t>
+          <t>16-09-2025 12:03:34</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>15-09-2025 13:34:22</t>
+          <t>16-09-2025 14:56:59</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>11057</v>
+        <v>20810</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3624,14 +3634,14 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M44" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3641,11 +3651,11 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>26-09-2025 00:00:00</t>
+          <t>09-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
+        <v>-7.62291087962963</v>
       </c>
       <c r="S44" t="n">
         <v>2</v>
@@ -3653,7 +3663,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>253367</v>
+        <v>253602</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3661,33 +3671,33 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D45" t="n">
-        <v>135.7</v>
+        <v>117.0833333333333</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>15-09-2025 13:34:22</t>
+          <t>16-09-2025 14:56:59</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>15-09-2025 13:49:22</t>
+          <t>17-09-2025 07:19:59</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>15-09-2025 13:49:22</t>
+          <t>17-09-2025 07:19:59</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>16-09-2025 08:05:04</t>
+          <t>17-09-2025 09:17:04</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>16284</v>
+        <v>14050</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3696,14 +3706,14 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3713,53 +3723,53 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0</v>
+        <v>-7.386857638888888</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>253377</v>
+        <v>253527</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>15</v>
+        <v>34.5</v>
       </c>
       <c r="D46" t="n">
-        <v>127.7166666666667</v>
+        <v>67.48333333333333</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>16-09-2025 08:05:04</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>16-09-2025 08:20:04</t>
+          <t>09-09-2025 07:34:30</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>16-09-2025 08:20:04</t>
+          <t>09-09-2025 07:34:30</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>16-09-2025 10:27:47</t>
+          <t>09-09-2025 08:41:59</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>15326</v>
+        <v>8098</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3768,11 +3778,11 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
@@ -3785,7 +3795,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
@@ -3797,41 +3807,41 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>253549</v>
+        <v>252002</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D47" t="n">
-        <v>163.6666666666667</v>
+        <v>55.675</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>16-09-2025 10:27:47</t>
+          <t>04-09-2025 12:00:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>16-09-2025 10:50:47</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>16-09-2025 10:50:47</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>16-09-2025 13:34:27</t>
+          <t>04-09-2025 13:50:40</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>19640</v>
+        <v>6681</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3844,66 +3854,73 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
       </c>
-      <c r="O47" t="n">
-        <v>0</v>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>40307 (esterno)</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>40307</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0</v>
+        <v>-10.57685763888889</v>
       </c>
       <c r="S47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>253295</v>
+        <v>252883</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D48" t="n">
-        <v>230.075</v>
+        <v>247.3083333333333</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>16-09-2025 13:34:27</t>
+          <t>04-09-2025 13:50:40</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>16-09-2025 13:51:27</t>
+          <t>04-09-2025 14:55:40</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>16-09-2025 13:51:27</t>
+          <t>04-09-2025 14:55:40</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>17-09-2025 09:41:32</t>
+          <t>05-09-2025 11:02:59</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>27609</v>
+        <v>29677</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3912,25 +3929,20 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
       </c>
-      <c r="N48" t="n">
-        <v>40274</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>40274</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -3938,49 +3950,49 @@
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-5.403842592592593</v>
+        <v>-7.460405092592593</v>
       </c>
       <c r="S48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>252216</v>
+        <v>252682</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D49" t="n">
-        <v>141.8083333333333</v>
+        <v>83.40833333333333</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>17-09-2025 09:41:32</t>
+          <t>05-09-2025 11:02:59</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>17-09-2025 10:06:32</t>
+          <t>05-09-2025 12:17:59</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>17-09-2025 10:06:32</t>
+          <t>05-09-2025 12:17:59</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>17-09-2025 12:28:20</t>
+          <t>05-09-2025 13:41:23</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>17017</v>
+        <v>10009</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3989,70 +4001,75 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>70</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N49" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-23.51968171296296</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>244743</v>
+        <v>252582</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
-        <v>29.34166666666667</v>
+        <v>46.08333333333334</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>17-09-2025 12:28:20</t>
+          <t>05-09-2025 13:41:23</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>17-09-2025 12:57:20</t>
+          <t>05-09-2025 14:11:23</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>17-09-2025 12:57:20</t>
+          <t>05-09-2025 14:11:23</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>17-09-2025 13:26:41</t>
+          <t>05-09-2025 14:57:28</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>3521</v>
+        <v>5530</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4061,70 +4078,75 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
         <v>3</v>
       </c>
       <c r="M50" t="n">
-        <v>70</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N50" t="n">
+        <v>40290</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>40290</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>18-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-23.56019675925926</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>253472</v>
+        <v>252685</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D51" t="n">
-        <v>291.8</v>
+        <v>74.56666666666666</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>17-09-2025 13:26:41</t>
+          <t>05-09-2025 14:57:28</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>17-09-2025 13:45:41</t>
+          <t>08-09-2025 07:27:28</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>17-09-2025 13:45:41</t>
+          <t>08-09-2025 07:27:28</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>18-09-2025 10:37:29</t>
+          <t>08-09-2025 08:42:02</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>35016</v>
+        <v>8948</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4133,70 +4155,75 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>70</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N51" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>16-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-2.442696759259259</v>
+        <v>-0.3625289351851852</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>253528</v>
+        <v>252843</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D52" t="n">
-        <v>119.175</v>
+        <v>19.2</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>18-09-2025 10:37:29</t>
+          <t>08-09-2025 08:42:02</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>18-09-2025 10:56:29</t>
+          <t>08-09-2025 09:32:02</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>18-09-2025 10:56:29</t>
+          <t>08-09-2025 09:32:02</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>18-09-2025 12:55:39</t>
+          <t>08-09-2025 09:51:14</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>14301</v>
+        <v>2304</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4205,14 +4232,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4222,53 +4249,53 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>30-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0</v>
+        <v>-40.41058449074074</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>253522</v>
+        <v>253208</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D53" t="n">
-        <v>198.625</v>
+        <v>104.2583333333333</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>18-09-2025 12:55:39</t>
+          <t>08-09-2025 09:51:14</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>18-09-2025 13:10:39</t>
+          <t>08-09-2025 10:46:14</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>18-09-2025 13:10:39</t>
+          <t>08-09-2025 10:46:14</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>19-09-2025 08:29:17</t>
+          <t>08-09-2025 12:30:30</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>23835</v>
+        <v>12511</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4277,11 +4304,11 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
@@ -4294,53 +4321,53 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-7.353668981481482</v>
+        <v>-3.521180555555556</v>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252397</v>
+        <v>253210</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D54" t="n">
-        <v>115.925</v>
+        <v>94.15833333333333</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>19-09-2025 08:29:17</t>
+          <t>08-09-2025 12:30:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>19-09-2025 09:01:17</t>
+          <t>08-09-2025 12:55:30</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>19-09-2025 09:01:17</t>
+          <t>08-09-2025 12:55:30</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>19-09-2025 10:57:12</t>
+          <t>08-09-2025 14:29:39</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>13911</v>
+        <v>11299</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4349,14 +4376,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M54" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4366,53 +4393,53 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252883</v>
+        <v>253223</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>52.5</v>
+        <v>85</v>
       </c>
       <c r="D55" t="n">
-        <v>247.3083333333333</v>
+        <v>16.4</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>08-09-2025 14:29:39</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>09-09-2025 07:52:30</t>
+          <t>09-09-2025 07:54:39</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09-09-2025 07:52:30</t>
+          <t>09-09-2025 07:54:39</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>09-09-2025 11:59:48</t>
+          <t>09-09-2025 08:11:03</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>29677</v>
+        <v>1968</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4425,7 +4452,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4438,19 +4465,19 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-11.49986689814815</v>
+        <v>-8.341012731481481</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>252002</v>
+        <v>252601</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4458,33 +4485,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D56" t="n">
-        <v>55.675</v>
+        <v>51.20833333333334</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>04-09-2025 12:00:00</t>
+          <t>09-09-2025 08:11:03</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>09-09-2025 08:41:03</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>09-09-2025 08:41:03</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>04-09-2025 13:50:40</t>
+          <t>09-09-2025 09:32:16</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>6681</v>
+        <v>6145</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4493,43 +4520,36 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M56" t="n">
         <v>70</v>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>40307 (esterno)</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O56" t="n">
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>40307</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-10.57685763888889</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>253140</v>
+        <v>253314</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4537,33 +4557,33 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D57" t="n">
-        <v>55.83333333333334</v>
+        <v>43.40833333333333</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>04-09-2025 13:50:40</t>
+          <t>09-09-2025 09:32:16</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>04-09-2025 14:30:40</t>
+          <t>09-09-2025 10:57:16</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>04-09-2025 14:30:40</t>
+          <t>09-09-2025 10:57:16</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>05-09-2025 07:26:30</t>
+          <t>09-09-2025 11:40:40</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>6700</v>
+        <v>5209</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4576,66 +4596,71 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
         <v>76</v>
       </c>
-      <c r="O57" t="n">
-        <v>0</v>
+      <c r="N57" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-10.31007523148148</v>
+        <v>-1.486579861111111</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>253314</v>
+        <v>252906</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D58" t="n">
-        <v>43.40833333333333</v>
+        <v>34.725</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>05-09-2025 07:26:30</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>05-09-2025 07:56:30</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>05-09-2025 07:56:30</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>05-09-2025 08:39:55</t>
+          <t>08-09-2025 07:51:43</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>5209</v>
+        <v>4167</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4653,66 +4678,61 @@
       <c r="M58" t="n">
         <v>76</v>
       </c>
-      <c r="N58" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0</v>
+        <v>-14.32758680555555</v>
       </c>
       <c r="S58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>252679</v>
+        <v>252995</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D59" t="n">
-        <v>60</v>
+        <v>68.31666666666666</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>05-09-2025 08:39:55</t>
+          <t>08-09-2025 07:51:43</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>05-09-2025 09:09:55</t>
+          <t>08-09-2025 08:08:43</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>05-09-2025 09:09:55</t>
+          <t>08-09-2025 08:08:43</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>05-09-2025 10:09:55</t>
+          <t>08-09-2025 09:17:02</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>7200</v>
+        <v>8198</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4725,21 +4745,16 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M59" t="n">
         <v>76</v>
       </c>
-      <c r="N59" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -4747,49 +4762,49 @@
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
+        <v>-7.386834490740741</v>
       </c>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252682</v>
+        <v>253318</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D60" t="n">
-        <v>83.40833333333333</v>
+        <v>51.55</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>05-09-2025 10:09:55</t>
+          <t>08-09-2025 09:17:02</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>05-09-2025 10:39:55</t>
+          <t>08-09-2025 09:36:02</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>05-09-2025 10:39:55</t>
+          <t>08-09-2025 09:36:02</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>05-09-2025 12:03:19</t>
+          <t>08-09-2025 10:27:35</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>10009</v>
+        <v>6186</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4802,71 +4817,66 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
         <v>76</v>
       </c>
-      <c r="N60" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O60" t="n">
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-0.4358275462962963</v>
       </c>
       <c r="S60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>253210</v>
+        <v>253317</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>94.15833333333333</v>
+        <v>102.775</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>05-09-2025 12:03:19</t>
+          <t>08-09-2025 10:27:35</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>05-09-2025 13:23:19</t>
+          <t>08-09-2025 10:42:35</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>05-09-2025 13:23:19</t>
+          <t>08-09-2025 10:42:35</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>05-09-2025 14:57:29</t>
+          <t>08-09-2025 12:25:22</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>11299</v>
+        <v>12333</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4875,14 +4885,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -4892,53 +4902,53 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0</v>
+        <v>-0.5176157407407408</v>
       </c>
       <c r="S61" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>253208</v>
+        <v>253249</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D62" t="n">
-        <v>104.2583333333333</v>
+        <v>57.75833333333333</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>05-09-2025 14:57:29</t>
+          <t>08-09-2025 12:25:22</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>08-09-2025 07:22:29</t>
+          <t>08-09-2025 12:40:22</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>08-09-2025 07:22:29</t>
+          <t>08-09-2025 12:40:22</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>08-09-2025 09:06:44</t>
+          <t>08-09-2025 13:38:07</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>12511</v>
+        <v>6931</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4947,14 +4957,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -4964,53 +4974,53 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-3.379681712962963</v>
+        <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252685</v>
+        <v>253313</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D63" t="n">
-        <v>74.56666666666666</v>
+        <v>100.0083333333333</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>08-09-2025 09:06:44</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>08-09-2025 10:26:44</t>
+          <t>09-09-2025 07:30:00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08-09-2025 10:26:44</t>
+          <t>09-09-2025 07:30:00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>08-09-2025 11:41:18</t>
+          <t>09-09-2025 09:10:00</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>8948</v>
+        <v>12001</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5028,66 +5038,61 @@
       <c r="M63" t="n">
         <v>76</v>
       </c>
-      <c r="N63" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O63" t="n">
+        <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-0.4870196759259259</v>
+        <v>-4.381950231481482</v>
       </c>
       <c r="S63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>253036</v>
+        <v>244743</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D64" t="n">
-        <v>78.73333333333333</v>
+        <v>29.34166666666667</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>08-09-2025 11:41:18</t>
+          <t>09-09-2025 09:10:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>08-09-2025 12:11:18</t>
+          <t>09-09-2025 09:45:00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08-09-2025 12:11:18</t>
+          <t>09-09-2025 09:45:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>08-09-2025 13:30:02</t>
+          <t>09-09-2025 10:14:21</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>9448</v>
+        <v>3521</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5096,14 +5101,14 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
         <v>3</v>
       </c>
       <c r="M64" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5113,11 +5118,11 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-17.56252893518518</v>
+        <v>-15.42663194444444</v>
       </c>
       <c r="S64" t="n">
         <v>7</v>
@@ -5125,41 +5130,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>253524</v>
+        <v>253361</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D65" t="n">
-        <v>58.75833333333333</v>
+        <v>76.70833333333333</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>08-09-2025 13:30:02</t>
+          <t>09-09-2025 10:14:21</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>08-09-2025 14:15:02</t>
+          <t>09-09-2025 10:44:21</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>08-09-2025 14:15:02</t>
+          <t>09-09-2025 10:44:21</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>09-09-2025 07:13:48</t>
+          <t>09-09-2025 12:01:03</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>7051</v>
+        <v>9205</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5168,11 +5173,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5185,7 +5190,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
@@ -5197,41 +5202,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>253223</v>
+        <v>253375</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D66" t="n">
-        <v>16.4</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-09-2025 07:13:48</t>
+          <t>09-09-2025 12:01:03</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>09-09-2025 08:28:48</t>
+          <t>09-09-2025 12:26:03</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>09-09-2025 08:28:48</t>
+          <t>09-09-2025 12:26:03</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>09-09-2025 08:45:12</t>
+          <t>09-09-2025 13:17:56</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1968</v>
+        <v>6226</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5240,11 +5245,11 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5257,53 +5262,53 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-8.364722222222222</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>252601</v>
+        <v>253372</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D67" t="n">
-        <v>51.20833333333334</v>
+        <v>103.775</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-09-2025 08:45:12</t>
+          <t>09-09-2025 13:17:56</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>09-09-2025 09:15:12</t>
+          <t>09-09-2025 13:42:56</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>09-09-2025 09:15:12</t>
+          <t>09-09-2025 13:42:56</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>09-09-2025 10:06:24</t>
+          <t>10-09-2025 07:26:43</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>6145</v>
+        <v>12453</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5312,11 +5317,11 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
@@ -5329,53 +5334,53 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>252582</v>
+        <v>253332</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D68" t="n">
-        <v>46.08333333333334</v>
+        <v>184.825</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-09-2025 10:06:24</t>
+          <t>10-09-2025 07:26:43</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>09-09-2025 11:36:24</t>
+          <t>10-09-2025 07:56:43</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>09-09-2025 11:36:24</t>
+          <t>10-09-2025 07:56:43</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>09-09-2025 12:22:29</t>
+          <t>10-09-2025 11:01:32</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>5530</v>
+        <v>22179</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5384,75 +5389,70 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M68" t="n">
-        <v>76</v>
-      </c>
-      <c r="N68" t="n">
-        <v>40290</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>40290</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>18-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-1.515619212962963</v>
+        <v>-0.4594039351851852</v>
       </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>253359</v>
+        <v>253247</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D69" t="n">
-        <v>134.0166666666667</v>
+        <v>109.575</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-09-2025 12:22:29</t>
+          <t>10-09-2025 11:01:32</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>09-09-2025 13:07:29</t>
+          <t>10-09-2025 11:36:32</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>09-09-2025 13:07:29</t>
+          <t>10-09-2025 11:36:32</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>10-09-2025 07:21:30</t>
+          <t>10-09-2025 13:26:07</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>16082</v>
+        <v>13149</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5478,53 +5478,53 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>0</v>
+        <v>-0.5598032407407407</v>
       </c>
       <c r="S69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>253245</v>
+        <v>253522</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>30</v>
       </c>
       <c r="D70" t="n">
-        <v>150.8333333333333</v>
+        <v>198.625</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-09-2025 07:21:30</t>
+          <t>10-09-2025 13:26:07</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>10-09-2025 07:51:30</t>
+          <t>10-09-2025 13:56:07</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>10-09-2025 07:51:30</t>
+          <t>10-09-2025 13:56:07</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>10-09-2025 10:22:20</t>
+          <t>11-09-2025 09:14:44</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>18100</v>
+        <v>23835</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
@@ -5550,53 +5550,53 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-0.432181712962963</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>253317</v>
+        <v>253245</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D71" t="n">
-        <v>102.775</v>
+        <v>150.8333333333333</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>11-09-2025 09:14:44</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-09-2025 07:19:00</t>
+          <t>11-09-2025 09:44:44</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08-09-2025 07:19:00</t>
+          <t>11-09-2025 09:44:44</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>08-09-2025 09:01:46</t>
+          <t>11-09-2025 12:15:34</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>12333</v>
+        <v>18100</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5605,14 +5605,14 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -5622,53 +5622,53 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-0.3762326388888889</v>
+        <v>-1.510815972222222</v>
       </c>
       <c r="S71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>253318</v>
+        <v>253436</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D72" t="n">
-        <v>51.55</v>
+        <v>18.85</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-09-2025 09:01:46</t>
+          <t>11-09-2025 12:15:34</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-09-2025 09:16:46</t>
+          <t>11-09-2025 12:50:34</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08-09-2025 09:16:46</t>
+          <t>11-09-2025 12:50:34</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>08-09-2025 10:08:19</t>
+          <t>11-09-2025 13:09:25</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>6186</v>
+        <v>2262</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5677,14 +5677,14 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M72" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -5694,53 +5694,53 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-0.4224479166666666</v>
+        <v>-1.548211805555556</v>
       </c>
       <c r="S72" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>253249</v>
+        <v>253261</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>57.75833333333333</v>
+        <v>18.85</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-09-2025 10:08:19</t>
+          <t>11-09-2025 13:09:25</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>08-09-2025 10:23:19</t>
+          <t>11-09-2025 13:34:25</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08-09-2025 10:23:19</t>
+          <t>11-09-2025 13:34:25</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>08-09-2025 11:21:05</t>
+          <t>11-09-2025 13:53:16</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>6931</v>
+        <v>2262</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5749,14 +5749,14 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M73" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -5766,53 +5766,53 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>0</v>
+        <v>-17.57866319444445</v>
       </c>
       <c r="S73" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>253706</v>
+        <v>253036</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D74" t="n">
-        <v>311</v>
+        <v>78.73333333333333</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-09-2025 11:21:05</t>
+          <t>11-09-2025 13:53:16</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>08-09-2025 11:46:05</t>
+          <t>11-09-2025 14:38:16</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08-09-2025 11:46:05</t>
+          <t>11-09-2025 14:38:16</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>09-09-2025 08:57:05</t>
+          <t>12-09-2025 07:57:00</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>37320</v>
+        <v>9448</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5821,11 +5821,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>H7 ;R5</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
         <v>76</v>
@@ -5838,11 +5838,11 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>30-09-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>0</v>
+        <v>-21.33125578703704</v>
       </c>
       <c r="S74" t="n">
         <v>7</v>
@@ -5850,41 +5850,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>252569</v>
+        <v>252529</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D75" t="n">
-        <v>9.583333333333334</v>
+        <v>68.08333333333333</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-09-2025 08:57:05</t>
+          <t>12-09-2025 07:57:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>09-09-2025 09:22:05</t>
+          <t>12-09-2025 08:32:00</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>09-09-2025 09:22:05</t>
+          <t>12-09-2025 08:32:00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>09-09-2025 09:31:40</t>
+          <t>12-09-2025 09:40:05</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1150</v>
+        <v>8170</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5910,53 +5910,53 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-8.39699074074074</v>
+        <v>-7.402841435185185</v>
       </c>
       <c r="S75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>253409</v>
+        <v>253668</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D76" t="n">
-        <v>27.18333333333333</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-09-2025 09:31:40</t>
+          <t>12-09-2025 09:40:05</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>09-09-2025 09:50:40</t>
+          <t>12-09-2025 10:15:05</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>09-09-2025 09:50:40</t>
+          <t>12-09-2025 10:15:05</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>09-09-2025 10:17:51</t>
+          <t>12-09-2025 13:24:57</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3262</v>
+        <v>22784</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -5965,14 +5965,14 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M76" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -5982,53 +5982,53 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>-11.4290625</v>
+        <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>253194</v>
+        <v>253455</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D77" t="n">
-        <v>199.0833333333333</v>
+        <v>55.55833333333333</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-09-2025 10:17:51</t>
+          <t>12-09-2025 13:24:57</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>09-09-2025 10:32:51</t>
+          <t>12-09-2025 13:59:57</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>09-09-2025 10:32:51</t>
+          <t>12-09-2025 13:59:57</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>09-09-2025 13:51:56</t>
+          <t>12-09-2025 14:55:31</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>23890</v>
+        <v>6667</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6037,14 +6037,14 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M77" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -6054,53 +6054,53 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>20-08-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>-20.57773148148148</v>
+        <v>-4.621886574074074</v>
       </c>
       <c r="S77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>253602</v>
+        <v>253392</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D78" t="n">
-        <v>117.0833333333333</v>
+        <v>129.3833333333333</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-09-2025 13:51:56</t>
+          <t>12-09-2025 14:55:31</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>09-09-2025 14:10:56</t>
+          <t>15-09-2025 07:25:31</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>09-09-2025 14:10:56</t>
+          <t>15-09-2025 07:25:31</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>10-09-2025 08:08:01</t>
+          <t>15-09-2025 09:34:54</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>14050</v>
+        <v>15526</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6109,14 +6109,14 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M78" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -6126,19 +6126,19 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
-        <v>-0.3389004629629629</v>
+        <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>253246</v>
+        <v>253244</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -6146,33 +6146,33 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D79" t="n">
-        <v>194.25</v>
+        <v>166.5</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>15-09-2025 09:34:54</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>09-09-2025 07:35:00</t>
+          <t>15-09-2025 10:04:54</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>09-09-2025 07:35:00</t>
+          <t>15-09-2025 10:04:54</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>09-09-2025 10:49:15</t>
+          <t>15-09-2025 12:51:24</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>23310</v>
+        <v>19980</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>0</v>
+        <v>-5.535694444444444</v>
       </c>
       <c r="S79" t="n">
         <v>2</v>
@@ -6210,41 +6210,41 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>253362</v>
+        <v>253528</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D80" t="n">
-        <v>58.38333333333333</v>
+        <v>119.175</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>15-09-2025 12:51:24</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>05-09-2025 07:35:00</t>
+          <t>15-09-2025 13:21:24</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>05-09-2025 07:35:00</t>
+          <t>15-09-2025 13:21:24</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>05-09-2025 08:33:23</t>
+          <t>16-09-2025 07:20:34</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>7006</v>
+        <v>14301</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6253,75 +6253,70 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
         <v>3</v>
       </c>
       <c r="M80" t="n">
-        <v>152</v>
-      </c>
-      <c r="N80" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>15-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>252702</v>
+        <v>253367</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D81" t="n">
-        <v>58.38333333333333</v>
+        <v>135.7</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>05-09-2025 08:33:23</t>
+          <t>16-09-2025 07:20:34</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>05-09-2025 08:58:23</t>
+          <t>16-09-2025 07:50:34</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>05-09-2025 08:58:23</t>
+          <t>16-09-2025 07:50:34</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>05-09-2025 09:56:46</t>
+          <t>16-09-2025 10:06:16</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>7006</v>
+        <v>16284</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6330,75 +6325,70 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M81" t="n">
-        <v>152</v>
-      </c>
-      <c r="N81" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>04-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>253591</v>
+        <v>253393</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D82" t="n">
-        <v>17.41666666666667</v>
+        <v>77.63333333333334</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>05-09-2025 09:56:46</t>
+          <t>16-09-2025 10:06:16</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>05-09-2025 10:36:46</t>
+          <t>16-09-2025 10:36:16</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>05-09-2025 10:36:46</t>
+          <t>16-09-2025 10:36:16</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>05-09-2025 10:54:11</t>
+          <t>16-09-2025 11:53:54</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2090</v>
+        <v>9316</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6407,41 +6397,36 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L82" t="n">
         <v>3</v>
       </c>
       <c r="M82" t="n">
-        <v>76</v>
-      </c>
-      <c r="N82" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>250284</v>
+        <v>253016</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -6449,33 +6434,33 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D83" t="n">
-        <v>146.35</v>
+        <v>73.38333333333334</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>05-09-2025 10:54:11</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>05-09-2025 11:49:11</t>
+          <t>05-09-2025 07:30:00</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>05-09-2025 11:49:11</t>
+          <t>05-09-2025 07:30:00</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>05-09-2025 14:15:32</t>
+          <t>05-09-2025 08:43:23</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>17562</v>
+        <v>8806</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6484,36 +6469,41 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M83" t="n">
-        <v>70</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="N83" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>14-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>-177.5941203703704</v>
+        <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>253072</v>
+        <v>253425</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -6521,33 +6511,33 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D84" t="n">
-        <v>29.13333333333333</v>
+        <v>146.35</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>05-09-2025 14:15:32</t>
+          <t>05-09-2025 08:43:23</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>05-09-2025 14:50:32</t>
+          <t>05-09-2025 09:28:23</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>05-09-2025 14:50:32</t>
+          <t>05-09-2025 09:28:23</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>08-09-2025 07:19:40</t>
+          <t>05-09-2025 11:54:44</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>3496</v>
+        <v>17562</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6556,14 +6546,14 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M84" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -6573,11 +6563,11 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>18-08-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
-        <v>-21.30532407407408</v>
+        <v>-7.496342592592592</v>
       </c>
       <c r="S84" t="n">
         <v>2</v>
@@ -6585,7 +6575,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>253278</v>
+        <v>252702</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -6593,33 +6583,33 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D85" t="n">
-        <v>28.425</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>08-09-2025 07:19:40</t>
+          <t>05-09-2025 11:54:44</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>08-09-2025 07:44:40</t>
+          <t>05-09-2025 12:34:44</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>08-09-2025 07:44:40</t>
+          <t>05-09-2025 12:34:44</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>08-09-2025 08:13:05</t>
+          <t>05-09-2025 13:33:07</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>3411</v>
+        <v>7006</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6628,24 +6618,29 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M85" t="n">
-        <v>70</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="N85" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P85" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>04-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
@@ -6657,7 +6652,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>253259</v>
+        <v>252827</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -6665,33 +6660,33 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D86" t="n">
-        <v>69.23333333333333</v>
+        <v>410</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>08-09-2025 08:13:05</t>
+          <t>05-09-2025 13:33:07</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>08-09-2025 08:58:05</t>
+          <t>05-09-2025 14:08:07</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>08-09-2025 08:58:05</t>
+          <t>05-09-2025 14:08:07</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>08-09-2025 10:07:19</t>
+          <t>08-09-2025 12:58:07</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>8308</v>
+        <v>49200</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6700,41 +6695,36 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
         <v>2</v>
       </c>
       <c r="M86" t="n">
-        <v>70</v>
-      </c>
-      <c r="N86" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>04-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
-        <v>-0.4217534722222222</v>
+        <v>-4.540358796296296</v>
       </c>
       <c r="S86" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>244023</v>
+        <v>252679</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -6742,33 +6732,33 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D87" t="n">
-        <v>8.308333333333334</v>
+        <v>60</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>08-09-2025 10:07:19</t>
+          <t>08-09-2025 12:58:07</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>08-09-2025 10:52:19</t>
+          <t>08-09-2025 13:38:07</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>08-09-2025 10:52:19</t>
+          <t>08-09-2025 13:38:07</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>08-09-2025 11:00:38</t>
+          <t>08-09-2025 14:38:07</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>997</v>
+        <v>7200</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6777,36 +6767,41 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M87" t="n">
-        <v>70</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N87" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
-        <v>-343.4587731481482</v>
+        <v>-0.6098032407407408</v>
       </c>
       <c r="S87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>252843</v>
+        <v>253706</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -6814,33 +6809,33 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D88" t="n">
-        <v>19.2</v>
+        <v>311</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>08-09-2025 11:00:38</t>
+          <t>08-09-2025 14:38:07</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>08-09-2025 11:45:38</t>
+          <t>09-09-2025 07:18:07</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>08-09-2025 11:45:38</t>
+          <t>09-09-2025 07:18:07</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>08-09-2025 12:04:50</t>
+          <t>09-09-2025 12:29:07</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>2304</v>
+        <v>37320</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -6849,11 +6844,11 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M88" t="n">
         <v>76</v>
@@ -6866,19 +6861,19 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>30-07-2025 00:00:00</t>
+          <t>30-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R88" s="1" t="n">
-        <v>-40.50335648148148</v>
+        <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>243569</v>
+        <v>253362</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -6889,30 +6884,30 @@
         <v>55</v>
       </c>
       <c r="D89" t="n">
-        <v>21.675</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>08-09-2025 12:04:50</t>
+          <t>09-09-2025 12:29:07</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>08-09-2025 12:59:50</t>
+          <t>09-09-2025 13:24:07</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>08-09-2025 12:59:50</t>
+          <t>09-09-2025 13:24:07</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>08-09-2025 13:21:30</t>
+          <t>09-09-2025 14:22:30</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>2601</v>
+        <v>7006</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -6928,21 +6923,26 @@
         <v>3</v>
       </c>
       <c r="M89" t="n">
-        <v>76</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="N89" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>15-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R89" s="1" t="n">
-        <v>-357.5566030092593</v>
+        <v>-1.598958333333333</v>
       </c>
       <c r="S89" t="n">
         <v>2</v>
@@ -6950,7 +6950,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>253271</v>
+        <v>253524</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -6958,33 +6958,33 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D90" t="n">
-        <v>42.63333333333333</v>
+        <v>58.75833333333333</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>08-09-2025 13:21:30</t>
+          <t>09-09-2025 14:22:30</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>08-09-2025 14:06:30</t>
+          <t>10-09-2025 07:02:30</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>08-09-2025 14:06:30</t>
+          <t>10-09-2025 07:02:30</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>08-09-2025 14:49:08</t>
+          <t>10-09-2025 08:01:15</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>5116</v>
+        <v>7051</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M90" t="n">
         <v>70</v>
@@ -7010,19 +7010,19 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R90" s="1" t="n">
-        <v>-3.617459490740741</v>
+        <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>253527</v>
+        <v>253260</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -7030,33 +7030,33 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D91" t="n">
-        <v>67.48333333333333</v>
+        <v>109.4083333333333</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>08-09-2025 14:49:08</t>
+          <t>10-09-2025 08:01:15</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>09-09-2025 07:29:08</t>
+          <t>10-09-2025 08:31:15</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>09-09-2025 07:29:08</t>
+          <t>10-09-2025 08:31:15</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>09-09-2025 08:36:37</t>
+          <t>10-09-2025 10:20:40</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>8098</v>
+        <v>13129</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M91" t="n">
         <v>70</v>
@@ -7082,85 +7082,229 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R91" s="1" t="n">
-        <v>0</v>
+        <v>-16.43101851851852</v>
       </c>
       <c r="S91" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
+        <v>253359</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>30</v>
+      </c>
+      <c r="D92" t="n">
+        <v>134.0166666666667</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>10-09-2025 10:20:40</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>10-09-2025 10:50:40</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>10-09-2025 10:50:40</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>10-09-2025 13:04:41</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>16082</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>3</v>
+      </c>
+      <c r="M92" t="n">
+        <v>70</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>11-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>253721</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>35</v>
+      </c>
+      <c r="D93" t="n">
+        <v>39.39166666666667</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>10-09-2025 13:04:41</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>10-09-2025 13:39:41</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>10-09-2025 13:39:41</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:19:04</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>4727</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>3</v>
+      </c>
+      <c r="M93" t="n">
+        <v>70</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>08-10-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
         <v>252980</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>T3</t>
         </is>
       </c>
-      <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="n">
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
         <v>17.075</v>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>08-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>08-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>08-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>08-09-2025 07:17:04</t>
         </is>
       </c>
-      <c r="I92" t="n">
+      <c r="I94" t="n">
         <v>2049</v>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>foglio</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>T3</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q92" t="inlineStr">
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="inlineStr">
         <is>
           <t>08-09-2025 00:00:00</t>
         </is>
       </c>
-      <c r="R92" s="1" t="n">
+      <c r="R94" s="1" t="n">
         <v>-0.3035243055555555</v>
       </c>
-      <c r="S92" t="n">
+      <c r="S94" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/output.xlsx
+++ b/PS-VRP/Dati_output/output.xlsx
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253409</v>
+        <v>253425</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>27.18333333333333</v>
+        <v>146.35</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -572,11 +572,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:44:11</t>
+          <t>08-09-2025 09:43:21</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>3262</v>
+        <v>17562</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>76</v>
@@ -606,15 +606,15 @@
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-10.32234953703704</v>
+        <v>-10.40510416666667</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>253284</v>
+        <v>252833</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -622,33 +622,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>56.99166666666667</v>
+        <v>74.78333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08-09-2025 07:44:11</t>
+          <t>08-09-2025 09:43:21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:01:11</t>
+          <t>08-09-2025 10:17:21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:01:11</t>
+          <t>08-09-2025 10:17:21</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:58:10</t>
+          <t>08-09-2025 11:32:08</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>6839</v>
+        <v>8974</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -657,36 +657,36 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>70</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>26-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>-13.48064814814815</v>
+      </c>
+      <c r="S3" t="n">
         <v>4</v>
-      </c>
-      <c r="M3" t="n">
-        <v>76</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>28-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R3" s="1" t="n">
-        <v>-11.37373263888889</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>243569</v>
+        <v>250891</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -694,33 +694,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>21.675</v>
+        <v>77.49166666666666</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08-09-2025 08:58:10</t>
+          <t>08-09-2025 11:32:08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-09-2025 09:15:10</t>
+          <t>08-09-2025 11:51:08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-09-2025 09:15:10</t>
+          <t>08-09-2025 11:51:08</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-09-2025 09:36:51</t>
+          <t>08-09-2025 13:08:37</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2601</v>
+        <v>9299</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -729,14 +729,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="N4" t="n">
+        <v>40299</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -746,19 +749,19 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>13-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-357.4005902777778</v>
+        <v>-0.54765625</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>253591</v>
+        <v>253527</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -769,30 +772,30 @@
         <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>17.41666666666667</v>
+        <v>67.48333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>08-09-2025 09:36:51</t>
+          <t>08-09-2025 13:08:37</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-09-2025 09:55:51</t>
+          <t>08-09-2025 13:27:37</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-09-2025 09:55:51</t>
+          <t>08-09-2025 13:27:37</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-09-2025 10:13:16</t>
+          <t>08-09-2025 14:35:06</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2090</v>
+        <v>8098</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -801,41 +804,36 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
-      </c>
-      <c r="N5" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.4258796296296296</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>250891</v>
+        <v>253706</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -843,33 +841,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>77.49166666666666</v>
+        <v>311</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>08-09-2025 10:13:16</t>
+          <t>08-09-2025 14:35:06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-09-2025 10:47:16</t>
+          <t>09-09-2025 07:15:06</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-09-2025 10:47:16</t>
+          <t>09-09-2025 07:15:06</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-09-2025 12:04:45</t>
+          <t>09-09-2025 12:26:06</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>9299</v>
+        <v>37320</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -878,14 +876,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -895,19 +893,19 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>13-08-2025 00:00:00</t>
+          <t>30-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-26.50330439814815</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>253710</v>
+        <v>252815</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -915,33 +913,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>1.616666666666667</v>
+        <v>242.9416666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>08-09-2025 12:04:45</t>
+          <t>09-09-2025 12:26:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-09-2025 12:23:45</t>
+          <t>09-09-2025 12:55:06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08-09-2025 12:23:45</t>
+          <t>09-09-2025 12:55:06</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-09-2025 12:25:22</t>
+          <t>10-09-2025 08:58:03</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>194</v>
+        <v>29153</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -950,14 +948,14 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -967,11 +965,11 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-5.373645833333334</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -979,7 +977,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>250284</v>
+        <v>253194</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -990,30 +988,30 @@
         <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>146.35</v>
+        <v>199.0833333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>08-09-2025 12:25:22</t>
+          <t>10-09-2025 08:58:03</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>08-09-2025 12:50:22</t>
+          <t>10-09-2025 09:23:03</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>08-09-2025 12:50:22</t>
+          <t>10-09-2025 09:23:03</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-09-2025 07:16:43</t>
+          <t>10-09-2025 12:42:08</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>17562</v>
+        <v>23890</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1022,14 +1020,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1039,19 +1037,19 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>20-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-181.30328125</v>
+        <v>-21.52925925925926</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252939</v>
+        <v>253260</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1059,33 +1057,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>89.8</v>
+        <v>109.4083333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09-09-2025 07:16:43</t>
+          <t>10-09-2025 12:42:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-09-2025 07:41:43</t>
+          <t>10-09-2025 13:14:08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09-09-2025 07:41:43</t>
+          <t>10-09-2025 13:14:08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-09-2025 09:11:31</t>
+          <t>11-09-2025 07:03:32</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>10776</v>
+        <v>13129</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1098,7 +1096,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1111,11 +1109,11 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-18.38300347222222</v>
+        <v>-17.29412615740741</v>
       </c>
       <c r="S9" t="n">
         <v>7</v>
@@ -1123,7 +1121,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252815</v>
+        <v>253721</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1131,33 +1129,33 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>242.9416666666667</v>
+        <v>39.39166666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09-09-2025 09:11:31</t>
+          <t>11-09-2025 07:03:32</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-09-2025 09:51:31</t>
+          <t>11-09-2025 07:20:32</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09-09-2025 09:51:31</t>
+          <t>11-09-2025 07:20:32</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09-09-2025 13:54:28</t>
+          <t>11-09-2025 07:59:56</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>29153</v>
+        <v>4727</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1166,14 +1164,14 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1183,53 +1181,53 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>08-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-4.579490740740741</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>253100</v>
+        <v>252827</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
-        <v>47.35</v>
+        <v>410</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09-09-2025 13:54:28</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-09-2025 14:32:28</t>
+          <t>08-09-2025 07:27:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09-09-2025 14:32:28</t>
+          <t>08-09-2025 07:27:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10-09-2025 07:19:49</t>
+          <t>08-09-2025 14:17:00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>5682</v>
+        <v>49200</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1238,14 +1236,14 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1255,11 +1253,11 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>04-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-2.305428240740741</v>
+        <v>-4.595138888888889</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -1267,41 +1265,41 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>253246</v>
+        <v>253016</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
-        <v>194.25</v>
+        <v>73.38333333333334</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-09-2025 07:19:49</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10-09-2025 07:34:49</t>
+          <t>05-09-2025 07:32:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10-09-2025 07:34:49</t>
+          <t>05-09-2025 07:32:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10-09-2025 10:49:04</t>
+          <t>05-09-2025 08:45:23</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>23310</v>
+        <v>8806</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1310,28 +1308,33 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="N12" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>14-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.4507407407407407</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>2</v>
@@ -1339,41 +1342,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>253374</v>
+        <v>253409</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D13" t="n">
-        <v>59.60833333333333</v>
+        <v>27.18333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-09-2025 10:49:04</t>
+          <t>05-09-2025 08:45:23</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10-09-2025 11:10:04</t>
+          <t>05-09-2025 09:17:23</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10-09-2025 11:10:04</t>
+          <t>05-09-2025 09:17:23</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10-09-2025 12:09:40</t>
+          <t>05-09-2025 09:44:34</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>7153</v>
+        <v>3262</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1382,14 +1385,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1399,11 +1402,11 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-7.405949074074074</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -1411,41 +1414,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252569</v>
+        <v>250284</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D14" t="n">
-        <v>9.583333333333334</v>
+        <v>146.35</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>05-09-2025 09:44:34</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>08-09-2025 07:29:00</t>
+          <t>05-09-2025 10:24:34</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08-09-2025 07:29:00</t>
+          <t>05-09-2025 10:24:34</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>08-09-2025 07:38:35</t>
+          <t>05-09-2025 12:50:55</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1150</v>
+        <v>17562</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1454,14 +1457,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1471,53 +1474,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-7.318460648148148</v>
+        <v>-177.5353587962963</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>253072</v>
+        <v>252664</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
-        <v>29.13333333333333</v>
+        <v>365.975</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>08-09-2025 07:38:35</t>
+          <t>05-09-2025 12:50:55</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>08-09-2025 08:24:35</t>
+          <t>05-09-2025 13:17:55</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08-09-2025 08:24:35</t>
+          <t>05-09-2025 13:17:55</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08-09-2025 08:53:43</t>
+          <t>08-09-2025 11:23:53</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3496</v>
+        <v>43917</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1526,70 +1529,77 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>40279 (esterno)</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>40279</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18-08-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-21.37063657407407</v>
+        <v>-6.474924768518519</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252833</v>
+        <v>253710</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>74.78333333333333</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>08-09-2025 08:53:43</t>
+          <t>08-09-2025 11:23:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08-09-2025 09:24:43</t>
+          <t>08-09-2025 11:40:53</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08-09-2025 09:24:43</t>
+          <t>08-09-2025 11:40:53</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08-09-2025 10:39:30</t>
+          <t>08-09-2025 11:42:30</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>8974</v>
+        <v>194</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1615,11 +1625,11 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-13.44409722222222</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>4</v>
@@ -1627,41 +1637,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>253194</v>
+        <v>252216</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
-        <v>199.0833333333333</v>
+        <v>141.8083333333333</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>08-09-2025 10:39:30</t>
+          <t>08-09-2025 11:42:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>08-09-2025 11:23:30</t>
+          <t>08-09-2025 12:11:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08-09-2025 11:23:30</t>
+          <t>08-09-2025 12:11:30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>08-09-2025 14:42:35</t>
+          <t>08-09-2025 14:33:19</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>23890</v>
+        <v>17017</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1670,14 +1680,14 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1687,14 +1697,14 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>20-08-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-19.61290509259259</v>
+        <v>-14.60646990740741</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1703,33 +1713,33 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D18" t="n">
         <v>82.98333333333333</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>08-09-2025 14:42:35</t>
+          <t>08-09-2025 14:33:19</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09-09-2025 07:26:35</t>
+          <t>08-09-2025 14:58:19</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>09-09-2025 07:26:35</t>
+          <t>08-09-2025 14:58:19</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>09-09-2025 08:49:34</t>
+          <t>09-09-2025 08:21:18</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1763,7 +1773,7 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-673.3677546296296</v>
+        <v>-673.348125</v>
       </c>
       <c r="S18" t="n">
         <v>4</v>
@@ -1771,41 +1781,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>253278</v>
+        <v>244023</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>28.425</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>09-09-2025 08:49:34</t>
+          <t>09-09-2025 08:21:18</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-09-2025 09:16:34</t>
+          <t>09-09-2025 08:38:18</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09-09-2025 09:16:34</t>
+          <t>09-09-2025 08:38:18</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>09-09-2025 09:44:59</t>
+          <t>09-09-2025 08:46:36</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3411</v>
+        <v>997</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1831,19 +1841,19 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-344.3657002314815</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>253095</v>
+        <v>253374</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1851,33 +1861,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>76.31666666666666</v>
+        <v>59.60833333333333</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>09-09-2025 08:46:36</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>05-09-2025 07:17:00</t>
+          <t>09-09-2025 09:05:36</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>05-09-2025 07:17:00</t>
+          <t>09-09-2025 09:05:36</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>05-09-2025 08:33:19</t>
+          <t>09-09-2025 10:05:13</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>9158</v>
+        <v>7153</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1886,11 +1896,11 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1903,19 +1913,19 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252216</v>
+        <v>253524</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1923,33 +1933,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>141.8083333333333</v>
+        <v>58.75833333333333</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>05-09-2025 08:33:19</t>
+          <t>09-09-2025 10:05:13</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>05-09-2025 09:04:19</t>
+          <t>09-09-2025 10:22:13</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>05-09-2025 09:04:19</t>
+          <t>09-09-2025 10:22:13</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>05-09-2025 11:26:07</t>
+          <t>09-09-2025 11:20:58</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>17017</v>
+        <v>7051</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1962,14 +1972,11 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="N21" t="n">
-        <v>40299</v>
-      </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
@@ -1978,19 +1985,19 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>253267</v>
+        <v>253095</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1998,33 +2005,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>164.3666666666667</v>
+        <v>76.31666666666666</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>05-09-2025 11:26:07</t>
+          <t>09-09-2025 11:20:58</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>05-09-2025 11:53:07</t>
+          <t>09-09-2025 11:37:58</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>05-09-2025 11:53:07</t>
+          <t>09-09-2025 11:37:58</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>05-09-2025 14:37:29</t>
+          <t>09-09-2025 12:54:17</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>19724</v>
+        <v>9158</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2033,11 +2040,11 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -2050,19 +2057,19 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>23-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>253268</v>
+        <v>252939</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2070,33 +2077,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>78.55833333333334</v>
+        <v>89.8</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>05-09-2025 14:37:29</t>
+          <t>09-09-2025 12:54:17</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>05-09-2025 14:52:29</t>
+          <t>09-09-2025 13:11:17</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05-09-2025 14:52:29</t>
+          <t>09-09-2025 13:11:17</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>08-09-2025 08:11:03</t>
+          <t>09-09-2025 14:41:05</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>9427</v>
+        <v>10776</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2109,7 +2116,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -2122,19 +2129,19 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>23-09-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
+        <v>-18.61186921296296</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>244023</v>
+        <v>252843</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2142,33 +2149,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D24" t="n">
-        <v>8.308333333333334</v>
+        <v>19.2</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>08-09-2025 08:11:03</t>
+          <t>09-09-2025 14:41:05</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>08-09-2025 08:30:03</t>
+          <t>10-09-2025 07:23:05</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08-09-2025 08:30:03</t>
+          <t>10-09-2025 07:23:05</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08-09-2025 08:38:21</t>
+          <t>10-09-2025 07:42:17</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>997</v>
+        <v>2304</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2177,14 +2184,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2194,19 +2201,19 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>30-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-343.3599710648148</v>
+        <v>-42.32103587962963</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>253140</v>
+        <v>253687</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2214,33 +2221,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D25" t="n">
-        <v>55.83333333333334</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>08-09-2025 08:38:21</t>
+          <t>10-09-2025 07:42:17</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>08-09-2025 09:14:21</t>
+          <t>10-09-2025 08:20:17</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08-09-2025 09:14:21</t>
+          <t>10-09-2025 08:20:17</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08-09-2025 10:10:11</t>
+          <t>10-09-2025 09:04:31</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>6700</v>
+        <v>5308</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2249,14 +2256,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2266,11 +2273,11 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-13.42374421296296</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -2278,7 +2285,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>253259</v>
+        <v>253686</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2286,33 +2293,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>69.23333333333333</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>08-09-2025 10:10:11</t>
+          <t>10-09-2025 09:04:31</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>08-09-2025 10:42:11</t>
+          <t>10-09-2025 09:19:31</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08-09-2025 10:42:11</t>
+          <t>10-09-2025 09:19:31</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08-09-2025 11:51:25</t>
+          <t>10-09-2025 10:03:45</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>8308</v>
+        <v>5308</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2321,41 +2328,36 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="N26" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-0.4940451388888889</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252664</v>
+        <v>253659</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2363,33 +2365,33 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>365.975</v>
+        <v>323.75</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>08-09-2025 11:51:25</t>
+          <t>10-09-2025 10:03:45</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>08-09-2025 12:08:25</t>
+          <t>10-09-2025 10:18:45</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08-09-2025 12:08:25</t>
+          <t>10-09-2025 10:18:45</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>09-09-2025 10:14:24</t>
+          <t>11-09-2025 07:42:30</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>43917</v>
+        <v>38850</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2398,43 +2400,36 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>40279 (esterno)</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>40279</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-7.426666666666667</v>
+        <v>-0.3211863425925926</v>
       </c>
       <c r="S27" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>253271</v>
+        <v>253332</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2442,33 +2437,33 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D28" t="n">
-        <v>42.63333333333333</v>
+        <v>184.825</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09-09-2025 10:14:24</t>
+          <t>11-09-2025 07:42:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-09-2025 10:37:24</t>
+          <t>11-09-2025 08:03:30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09-09-2025 10:37:24</t>
+          <t>11-09-2025 08:03:30</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>09-09-2025 11:20:02</t>
+          <t>11-09-2025 11:08:20</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>5116</v>
+        <v>22179</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2477,11 +2472,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2494,19 +2489,19 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-4.47224537037037</v>
+        <v>-1.46412037037037</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>253687</v>
+        <v>253668</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2514,33 +2509,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>44.23333333333333</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09-09-2025 11:20:02</t>
+          <t>11-09-2025 11:08:20</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-09-2025 11:37:02</t>
+          <t>11-09-2025 11:23:20</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09-09-2025 11:37:02</t>
+          <t>11-09-2025 11:23:20</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>09-09-2025 12:21:16</t>
+          <t>11-09-2025 14:33:12</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5308</v>
+        <v>22784</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2549,11 +2544,11 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2566,19 +2561,19 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>253659</v>
+        <v>253455</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2586,33 +2581,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D30" t="n">
-        <v>323.75</v>
+        <v>55.55833333333333</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09-09-2025 12:21:16</t>
+          <t>11-09-2025 14:33:12</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-09-2025 12:36:16</t>
+          <t>11-09-2025 14:52:12</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09-09-2025 12:36:16</t>
+          <t>11-09-2025 14:52:12</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>10-09-2025 10:00:01</t>
+          <t>12-09-2025 07:47:45</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>38850</v>
+        <v>6667</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2625,7 +2620,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2638,19 +2633,19 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-4.324832175925926</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>253686</v>
+        <v>253370</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2658,33 +2653,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D31" t="n">
-        <v>44.23333333333333</v>
+        <v>207.5416666666667</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-09-2025 10:00:01</t>
+          <t>12-09-2025 07:47:45</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10-09-2025 10:15:01</t>
+          <t>12-09-2025 08:06:45</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10-09-2025 10:15:01</t>
+          <t>12-09-2025 08:06:45</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>10-09-2025 10:59:15</t>
+          <t>12-09-2025 11:34:18</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>5308</v>
+        <v>24905</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2693,11 +2688,11 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2710,7 +2705,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
@@ -2722,7 +2717,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>253401</v>
+        <v>253377</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2730,33 +2725,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D32" t="n">
-        <v>22.81666666666667</v>
+        <v>127.7166666666667</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-09-2025 10:59:15</t>
+          <t>12-09-2025 11:34:18</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>10-09-2025 11:18:15</t>
+          <t>12-09-2025 11:49:18</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10-09-2025 11:18:15</t>
+          <t>12-09-2025 11:49:18</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>10-09-2025 11:41:04</t>
+          <t>12-09-2025 13:57:01</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2738</v>
+        <v>15326</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2765,11 +2760,11 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2782,19 +2777,19 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>253370</v>
+        <v>253368</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2802,33 +2797,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>207.5416666666667</v>
+        <v>103.775</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-09-2025 11:41:04</t>
+          <t>12-09-2025 13:57:01</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>10-09-2025 11:58:04</t>
+          <t>12-09-2025 14:12:01</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10-09-2025 11:58:04</t>
+          <t>12-09-2025 14:12:01</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>11-09-2025 07:25:36</t>
+          <t>15-09-2025 07:55:47</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>24905</v>
+        <v>12453</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2866,7 +2861,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>253368</v>
+        <v>253367</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2877,30 +2872,30 @@
         <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>103.775</v>
+        <v>135.7</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-09-2025 07:25:36</t>
+          <t>15-09-2025 07:55:47</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>11-09-2025 07:40:36</t>
+          <t>15-09-2025 08:10:47</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>11-09-2025 07:40:36</t>
+          <t>15-09-2025 08:10:47</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>11-09-2025 09:24:23</t>
+          <t>15-09-2025 10:26:29</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>12453</v>
+        <v>16284</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2938,7 +2933,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>253371</v>
+        <v>253376</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2949,30 +2944,30 @@
         <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>107.7666666666667</v>
+        <v>179.6083333333333</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-09-2025 09:24:23</t>
+          <t>15-09-2025 10:26:29</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>11-09-2025 09:39:23</t>
+          <t>15-09-2025 10:41:29</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>11-09-2025 09:39:23</t>
+          <t>15-09-2025 10:41:29</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>11-09-2025 11:27:09</t>
+          <t>15-09-2025 13:41:06</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>12932</v>
+        <v>21553</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3010,7 +3005,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>253376</v>
+        <v>253525</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3021,30 +3016,30 @@
         <v>15</v>
       </c>
       <c r="D36" t="n">
-        <v>179.6083333333333</v>
+        <v>92.14166666666667</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-09-2025 11:27:09</t>
+          <t>15-09-2025 13:41:06</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>11-09-2025 11:42:09</t>
+          <t>15-09-2025 13:56:06</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>11-09-2025 11:42:09</t>
+          <t>15-09-2025 13:56:06</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>11-09-2025 14:41:45</t>
+          <t>16-09-2025 07:28:14</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>21553</v>
+        <v>11057</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3070,19 +3065,19 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252741</v>
+        <v>253528</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3090,33 +3085,33 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D37" t="n">
-        <v>61.49166666666667</v>
+        <v>119.175</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-09-2025 14:41:45</t>
+          <t>16-09-2025 07:28:14</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>12-09-2025 07:02:45</t>
+          <t>16-09-2025 07:45:14</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>12-09-2025 07:02:45</t>
+          <t>16-09-2025 07:45:14</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>12-09-2025 08:04:15</t>
+          <t>16-09-2025 09:44:25</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>7379</v>
+        <v>14301</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3129,7 +3124,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3142,19 +3137,19 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252397</v>
+        <v>253522</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3162,33 +3157,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D38" t="n">
-        <v>115.925</v>
+        <v>198.625</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12-09-2025 08:04:15</t>
+          <t>16-09-2025 09:44:25</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>12-09-2025 08:36:15</t>
+          <t>16-09-2025 09:59:25</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>12-09-2025 08:36:15</t>
+          <t>16-09-2025 09:59:25</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>12-09-2025 10:32:10</t>
+          <t>16-09-2025 13:18:02</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>13911</v>
+        <v>23835</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3197,14 +3192,14 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3214,53 +3209,53 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0</v>
+        <v>-4.554195601851852</v>
       </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>253295</v>
+        <v>253223</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>32</v>
+        <v>54.5</v>
       </c>
       <c r="D39" t="n">
-        <v>230.075</v>
+        <v>16.4</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12-09-2025 10:32:10</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>12-09-2025 11:04:10</t>
+          <t>09-09-2025 07:54:30</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>12-09-2025 11:04:10</t>
+          <t>09-09-2025 07:54:30</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>12-09-2025 14:54:15</t>
+          <t>09-09-2025 08:10:54</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>27609</v>
+        <v>1968</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3269,75 +3264,70 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
       </c>
-      <c r="N39" t="n">
-        <v>40274</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O39" t="n">
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>40274</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-0.6210069444444445</v>
+        <v>-8.340902777777778</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>253549</v>
+        <v>252569</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D40" t="n">
-        <v>163.6666666666667</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>12-09-2025 14:54:15</t>
+          <t>04-09-2025 12:00:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>15-09-2025 07:11:15</t>
+          <t>04-09-2025 12:50:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>15-09-2025 07:11:15</t>
+          <t>04-09-2025 12:50:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>15-09-2025 09:54:55</t>
+          <t>04-09-2025 12:59:35</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>19640</v>
+        <v>1150</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3346,14 +3336,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3363,53 +3353,53 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
+        <v>-3.541377314814815</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>253525</v>
+        <v>253140</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D41" t="n">
-        <v>92.14166666666667</v>
+        <v>55.83333333333334</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>15-09-2025 09:54:55</t>
+          <t>04-09-2025 12:59:35</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>15-09-2025 10:17:55</t>
+          <t>04-09-2025 13:34:35</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>15-09-2025 10:17:55</t>
+          <t>04-09-2025 13:34:35</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>15-09-2025 11:50:03</t>
+          <t>04-09-2025 14:30:25</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>11057</v>
+        <v>6700</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3418,14 +3408,14 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3435,53 +3425,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>26-09-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>0</v>
+        <v>-9.604456018518519</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>253377</v>
+        <v>252682</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
-        <v>127.7166666666667</v>
+        <v>83.40833333333333</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>15-09-2025 11:50:03</t>
+          <t>04-09-2025 14:30:25</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>15-09-2025 12:05:03</t>
+          <t>05-09-2025 07:00:25</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15-09-2025 12:05:03</t>
+          <t>05-09-2025 07:00:25</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>15-09-2025 14:12:46</t>
+          <t>05-09-2025 08:23:49</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>15326</v>
+        <v>10009</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3490,70 +3480,75 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N42" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>253472</v>
+        <v>252679</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
-        <v>291.8</v>
+        <v>60</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>15-09-2025 14:12:46</t>
+          <t>05-09-2025 08:23:49</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>15-09-2025 14:33:46</t>
+          <t>05-09-2025 08:53:49</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15-09-2025 14:33:46</t>
+          <t>05-09-2025 08:53:49</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>16-09-2025 11:25:34</t>
+          <t>05-09-2025 09:53:49</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>35016</v>
+        <v>7200</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3562,70 +3557,75 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
         <v>5</v>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N43" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>16-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-0.47609375</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>252274</v>
+        <v>252685</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
-        <v>173.4166666666667</v>
+        <v>74.56666666666666</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>16-09-2025 11:25:34</t>
+          <t>05-09-2025 09:53:49</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>16-09-2025 12:03:34</t>
+          <t>05-09-2025 10:23:49</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>16-09-2025 12:03:34</t>
+          <t>05-09-2025 10:23:49</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>16-09-2025 14:56:59</t>
+          <t>05-09-2025 11:38:23</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>20810</v>
+        <v>8948</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3638,66 +3638,71 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
         <v>76</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
+      <c r="N44" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>09-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-7.62291087962963</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>253602</v>
+        <v>253314</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D45" t="n">
-        <v>117.0833333333333</v>
+        <v>43.40833333333333</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>16-09-2025 14:56:59</t>
+          <t>05-09-2025 11:38:23</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>17-09-2025 07:19:59</t>
+          <t>05-09-2025 12:18:23</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>17-09-2025 07:19:59</t>
+          <t>05-09-2025 12:18:23</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>17-09-2025 09:17:04</t>
+          <t>05-09-2025 13:01:48</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>14050</v>
+        <v>5209</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3710,66 +3715,71 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
         <v>76</v>
       </c>
-      <c r="O45" t="n">
-        <v>0</v>
+      <c r="N45" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-7.386857638888888</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>253527</v>
+        <v>252582</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>34.5</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
-        <v>67.48333333333333</v>
+        <v>46.08333333333334</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>05-09-2025 13:01:48</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>09-09-2025 07:34:30</t>
+          <t>05-09-2025 13:31:48</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09-09-2025 07:34:30</t>
+          <t>05-09-2025 13:31:48</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>09-09-2025 08:41:59</t>
+          <t>05-09-2025 14:17:53</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>8098</v>
+        <v>5530</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3778,24 +3788,29 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
         <v>3</v>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N46" t="n">
+        <v>40290</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>40290</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>18-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
@@ -3815,29 +3830,29 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D47" t="n">
         <v>55.675</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>04-09-2025 12:00:00</t>
+          <t>05-09-2025 14:17:53</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>05-09-2025 14:57:53</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>05-09-2025 14:57:53</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>04-09-2025 13:50:40</t>
+          <t>08-09-2025 07:53:33</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3878,7 +3893,7 @@
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-10.57685763888889</v>
+        <v>-14.3288599537037</v>
       </c>
       <c r="S47" t="n">
         <v>4</v>
@@ -3886,7 +3901,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>252883</v>
+        <v>253036</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3894,33 +3909,33 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D48" t="n">
-        <v>247.3083333333333</v>
+        <v>78.73333333333333</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>04-09-2025 13:50:40</t>
+          <t>08-09-2025 07:53:33</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>04-09-2025 14:55:40</t>
+          <t>08-09-2025 08:33:33</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>04-09-2025 14:55:40</t>
+          <t>08-09-2025 08:33:33</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>05-09-2025 11:02:59</t>
+          <t>08-09-2025 09:52:17</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>29677</v>
+        <v>9448</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3929,14 +3944,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>H7 ;R5</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M48" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3946,19 +3961,19 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-7.460405092592593</v>
+        <v>-17.41131365740741</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>252682</v>
+        <v>252601</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3966,33 +3981,33 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D49" t="n">
-        <v>83.40833333333333</v>
+        <v>51.20833333333334</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>05-09-2025 11:02:59</t>
+          <t>08-09-2025 09:52:17</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>05-09-2025 12:17:59</t>
+          <t>08-09-2025 11:22:17</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>05-09-2025 12:17:59</t>
+          <t>08-09-2025 11:22:17</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>05-09-2025 13:41:23</t>
+          <t>08-09-2025 12:13:30</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>10009</v>
+        <v>6145</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4001,41 +4016,36 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M49" t="n">
-        <v>76</v>
-      </c>
-      <c r="N49" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>252582</v>
+        <v>253210</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4046,30 +4056,30 @@
         <v>30</v>
       </c>
       <c r="D50" t="n">
-        <v>46.08333333333334</v>
+        <v>94.15833333333333</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>05-09-2025 13:41:23</t>
+          <t>08-09-2025 12:13:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>05-09-2025 14:11:23</t>
+          <t>08-09-2025 12:43:30</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>05-09-2025 14:11:23</t>
+          <t>08-09-2025 12:43:30</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>05-09-2025 14:57:28</t>
+          <t>08-09-2025 14:17:39</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>5530</v>
+        <v>11299</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4078,41 +4088,36 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="M50" t="n">
-        <v>76</v>
-      </c>
-      <c r="N50" t="n">
-        <v>40290</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>40290</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>18-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>252685</v>
+        <v>253208</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4120,33 +4125,33 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D51" t="n">
-        <v>74.56666666666666</v>
+        <v>104.2583333333333</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>05-09-2025 14:57:28</t>
+          <t>08-09-2025 14:17:39</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>08-09-2025 07:27:28</t>
+          <t>08-09-2025 14:42:39</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08-09-2025 07:27:28</t>
+          <t>08-09-2025 14:42:39</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>08-09-2025 08:42:02</t>
+          <t>09-09-2025 08:26:55</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>8948</v>
+        <v>12511</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4155,41 +4160,36 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M51" t="n">
-        <v>76</v>
-      </c>
-      <c r="N51" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-0.3625289351851852</v>
+        <v>-4.352025462962963</v>
       </c>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>252843</v>
+        <v>252883</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4197,33 +4197,33 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
-        <v>19.2</v>
+        <v>247.3083333333333</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>08-09-2025 08:42:02</t>
+          <t>09-09-2025 08:26:55</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>08-09-2025 09:32:02</t>
+          <t>09-09-2025 08:56:55</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08-09-2025 09:32:02</t>
+          <t>09-09-2025 08:56:55</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>08-09-2025 09:51:14</t>
+          <t>09-09-2025 13:04:13</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2304</v>
+        <v>29677</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4232,14 +4232,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M52" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4249,53 +4249,53 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30-07-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-40.41058449074074</v>
+        <v>-11.54460069444444</v>
       </c>
       <c r="S52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>253208</v>
+        <v>252906</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>104.2583333333333</v>
+        <v>34.725</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>08-09-2025 09:51:14</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>08-09-2025 10:46:14</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08-09-2025 10:46:14</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>08-09-2025 12:30:30</t>
+          <t>08-09-2025 07:51:43</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>12511</v>
+        <v>4167</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4304,14 +4304,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4321,53 +4321,53 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-3.521180555555556</v>
+        <v>-14.32758680555555</v>
       </c>
       <c r="S53" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>253210</v>
+        <v>243569</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D54" t="n">
-        <v>94.15833333333333</v>
+        <v>21.675</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>08-09-2025 12:30:30</t>
+          <t>08-09-2025 07:51:43</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>08-09-2025 12:55:30</t>
+          <t>08-09-2025 08:08:43</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08-09-2025 12:55:30</t>
+          <t>08-09-2025 08:08:43</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>08-09-2025 14:29:39</t>
+          <t>08-09-2025 08:30:24</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>11299</v>
+        <v>2601</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4376,14 +4376,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M54" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4393,53 +4393,53 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0</v>
+        <v>-357.3544444444444</v>
       </c>
       <c r="S54" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>253223</v>
+        <v>253318</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="D55" t="n">
-        <v>16.4</v>
+        <v>51.55</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>08-09-2025 14:29:39</t>
+          <t>08-09-2025 08:30:24</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>09-09-2025 07:54:39</t>
+          <t>08-09-2025 08:49:24</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09-09-2025 07:54:39</t>
+          <t>08-09-2025 08:49:24</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>09-09-2025 08:11:03</t>
+          <t>08-09-2025 09:40:57</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1968</v>
+        <v>6186</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4448,14 +4448,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4465,53 +4465,53 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-8.341012731481481</v>
+        <v>-0.4034375</v>
       </c>
       <c r="S55" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>252601</v>
+        <v>253317</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D56" t="n">
-        <v>51.20833333333334</v>
+        <v>102.775</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-09-2025 08:11:03</t>
+          <t>08-09-2025 09:40:57</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>09-09-2025 08:41:03</t>
+          <t>08-09-2025 09:55:57</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>09-09-2025 08:41:03</t>
+          <t>08-09-2025 09:55:57</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>09-09-2025 09:32:16</t>
+          <t>08-09-2025 11:38:43</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>6145</v>
+        <v>12333</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4520,14 +4520,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4537,53 +4537,53 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
+        <v>-0.4852256944444445</v>
       </c>
       <c r="S56" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>253314</v>
+        <v>253249</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>43.40833333333333</v>
+        <v>57.75833333333333</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-09-2025 09:32:16</t>
+          <t>08-09-2025 11:38:43</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>09-09-2025 10:57:16</t>
+          <t>08-09-2025 11:53:43</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>09-09-2025 10:57:16</t>
+          <t>08-09-2025 11:53:43</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>09-09-2025 11:40:40</t>
+          <t>08-09-2025 12:51:29</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>5209</v>
+        <v>6931</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4596,37 +4596,32 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
         <v>76</v>
       </c>
-      <c r="N57" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O57" t="n">
+        <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-1.486579861111111</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>252906</v>
+        <v>253284</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4637,30 +4632,30 @@
         <v>17</v>
       </c>
       <c r="D58" t="n">
-        <v>34.725</v>
+        <v>56.99166666666667</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>08-09-2025 12:51:29</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>08-09-2025 07:17:00</t>
+          <t>08-09-2025 13:08:29</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>08-09-2025 07:17:00</t>
+          <t>08-09-2025 13:08:29</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>08-09-2025 07:51:43</t>
+          <t>08-09-2025 14:05:28</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>4167</v>
+        <v>6839</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4686,19 +4681,19 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>28-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-14.32758680555555</v>
+        <v>-11.58713541666667</v>
       </c>
       <c r="S58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>252995</v>
+        <v>253313</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4706,33 +4701,33 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>68.31666666666666</v>
+        <v>100.0083333333333</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>08-09-2025 07:51:43</t>
+          <t>08-09-2025 14:05:28</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>08-09-2025 08:08:43</t>
+          <t>08-09-2025 14:20:28</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>08-09-2025 08:08:43</t>
+          <t>08-09-2025 14:20:28</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>08-09-2025 09:17:02</t>
+          <t>09-09-2025 08:00:29</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>8198</v>
+        <v>12001</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4745,7 +4740,7 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
         <v>76</v>
@@ -4758,53 +4753,53 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-7.386834490740741</v>
+        <v>-4.333668981481481</v>
       </c>
       <c r="S59" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>253318</v>
+        <v>252529</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D60" t="n">
-        <v>51.55</v>
+        <v>68.08333333333333</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>08-09-2025 09:17:02</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>08-09-2025 09:36:02</t>
+          <t>09-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>08-09-2025 09:36:02</t>
+          <t>09-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>08-09-2025 10:27:35</t>
+          <t>09-09-2025 08:43:05</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>6186</v>
+        <v>8170</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4830,53 +4825,53 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-0.4358275462962963</v>
+        <v>-4.363252314814815</v>
       </c>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>253317</v>
+        <v>253375</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D61" t="n">
-        <v>102.775</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>08-09-2025 10:27:35</t>
+          <t>09-09-2025 08:43:05</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>08-09-2025 10:42:35</t>
+          <t>09-09-2025 09:18:05</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>08-09-2025 10:42:35</t>
+          <t>09-09-2025 09:18:05</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>08-09-2025 12:25:22</t>
+          <t>09-09-2025 10:09:58</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>12333</v>
+        <v>6226</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4885,14 +4880,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -4902,11 +4897,11 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-0.5176157407407408</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
         <v>1</v>
@@ -4914,41 +4909,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>253249</v>
+        <v>253359</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>57.75833333333333</v>
+        <v>134.0166666666667</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>08-09-2025 12:25:22</t>
+          <t>09-09-2025 10:09:58</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>08-09-2025 12:40:22</t>
+          <t>09-09-2025 10:39:58</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>08-09-2025 12:40:22</t>
+          <t>09-09-2025 10:39:58</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>08-09-2025 13:38:07</t>
+          <t>09-09-2025 12:53:59</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>6931</v>
+        <v>16082</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4957,14 +4952,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
         <v>3</v>
       </c>
       <c r="M62" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -4986,7 +4981,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>253313</v>
+        <v>253278</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4994,33 +4989,33 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D63" t="n">
-        <v>100.0083333333333</v>
+        <v>28.425</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>09-09-2025 12:53:59</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>09-09-2025 07:30:00</t>
+          <t>09-09-2025 13:33:59</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>09-09-2025 07:30:00</t>
+          <t>09-09-2025 13:33:59</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>09-09-2025 09:10:00</t>
+          <t>09-09-2025 14:02:24</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>12001</v>
+        <v>3411</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5029,14 +5024,14 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M63" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -5046,19 +5041,19 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-4.381950231481482</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>244743</v>
+        <v>253602</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5069,30 +5064,30 @@
         <v>35</v>
       </c>
       <c r="D64" t="n">
-        <v>29.34166666666667</v>
+        <v>117.0833333333333</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-09-2025 09:10:00</t>
+          <t>09-09-2025 14:02:24</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>09-09-2025 09:45:00</t>
+          <t>09-09-2025 14:37:24</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>09-09-2025 09:45:00</t>
+          <t>09-09-2025 14:37:24</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>09-09-2025 10:14:21</t>
+          <t>10-09-2025 08:34:29</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3521</v>
+        <v>14050</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5101,14 +5096,14 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M64" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5118,11 +5113,11 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-15.42663194444444</v>
+        <v>-0.3572858796296297</v>
       </c>
       <c r="S64" t="n">
         <v>7</v>
@@ -5130,7 +5125,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>253361</v>
+        <v>253401</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5138,33 +5133,33 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>76.70833333333333</v>
+        <v>22.81666666666667</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-09-2025 10:14:21</t>
+          <t>10-09-2025 08:34:29</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>09-09-2025 10:44:21</t>
+          <t>10-09-2025 09:14:29</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>09-09-2025 10:44:21</t>
+          <t>10-09-2025 09:14:29</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>09-09-2025 12:01:03</t>
+          <t>10-09-2025 09:37:18</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>9205</v>
+        <v>2738</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5173,11 +5168,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5190,19 +5185,19 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>253375</v>
+        <v>253247</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5210,33 +5205,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D66" t="n">
-        <v>51.88333333333333</v>
+        <v>109.575</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-09-2025 12:01:03</t>
+          <t>10-09-2025 09:37:18</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>09-09-2025 12:26:03</t>
+          <t>10-09-2025 10:07:18</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>09-09-2025 12:26:03</t>
+          <t>10-09-2025 10:07:18</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>09-09-2025 13:17:56</t>
+          <t>10-09-2025 11:56:53</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>6226</v>
+        <v>13149</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5245,11 +5240,11 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5262,19 +5257,19 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>0</v>
+        <v>-0.4978356481481481</v>
       </c>
       <c r="S66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>253372</v>
+        <v>253245</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5282,33 +5277,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D67" t="n">
-        <v>103.775</v>
+        <v>150.8333333333333</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-09-2025 13:17:56</t>
+          <t>10-09-2025 11:56:53</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>09-09-2025 13:42:56</t>
+          <t>10-09-2025 12:36:53</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>09-09-2025 13:42:56</t>
+          <t>10-09-2025 12:36:53</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>10-09-2025 07:26:43</t>
+          <t>11-09-2025 07:07:43</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>12453</v>
+        <v>18100</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5317,11 +5312,11 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
@@ -5334,19 +5329,19 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
+        <v>-1.297025462962963</v>
       </c>
       <c r="S67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>253332</v>
+        <v>244743</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5357,30 +5352,30 @@
         <v>30</v>
       </c>
       <c r="D68" t="n">
-        <v>184.825</v>
+        <v>29.34166666666667</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-09-2025 07:26:43</t>
+          <t>11-09-2025 07:07:43</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>10-09-2025 07:56:43</t>
+          <t>11-09-2025 07:37:43</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10-09-2025 07:56:43</t>
+          <t>11-09-2025 07:37:43</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>10-09-2025 11:01:32</t>
+          <t>11-09-2025 08:07:03</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>22179</v>
+        <v>3521</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5389,11 +5384,11 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
@@ -5406,11 +5401,11 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-0.4594039351851852</v>
+        <v>-17.3382349537037</v>
       </c>
       <c r="S68" t="n">
         <v>7</v>
@@ -5418,7 +5413,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>253247</v>
+        <v>253261</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5426,33 +5421,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D69" t="n">
-        <v>109.575</v>
+        <v>18.85</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-09-2025 11:01:32</t>
+          <t>11-09-2025 08:07:03</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>10-09-2025 11:36:32</t>
+          <t>11-09-2025 08:47:03</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>10-09-2025 11:36:32</t>
+          <t>11-09-2025 08:47:03</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>10-09-2025 13:26:07</t>
+          <t>11-09-2025 09:05:54</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>13149</v>
+        <v>2262</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5465,7 +5460,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5478,19 +5473,19 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-0.5598032407407407</v>
+        <v>-17.37910300925926</v>
       </c>
       <c r="S69" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>253522</v>
+        <v>253436</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5498,33 +5493,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D70" t="n">
-        <v>198.625</v>
+        <v>18.85</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-09-2025 13:26:07</t>
+          <t>11-09-2025 09:05:54</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>10-09-2025 13:56:07</t>
+          <t>11-09-2025 09:30:54</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>10-09-2025 13:56:07</t>
+          <t>11-09-2025 09:30:54</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>11-09-2025 09:14:44</t>
+          <t>11-09-2025 09:49:45</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>23835</v>
+        <v>2262</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5537,7 +5532,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
@@ -5550,19 +5545,19 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>0</v>
+        <v>-1.409554398148148</v>
       </c>
       <c r="S70" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>253245</v>
+        <v>253372</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5570,33 +5565,33 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D71" t="n">
-        <v>150.8333333333333</v>
+        <v>103.775</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-09-2025 09:14:44</t>
+          <t>11-09-2025 09:49:45</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>11-09-2025 09:44:44</t>
+          <t>11-09-2025 10:34:45</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>11-09-2025 09:44:44</t>
+          <t>11-09-2025 10:34:45</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>11-09-2025 12:15:34</t>
+          <t>11-09-2025 12:18:32</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>18100</v>
+        <v>12453</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5605,11 +5600,11 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
@@ -5622,19 +5617,19 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-1.510815972222222</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>253436</v>
+        <v>253371</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5642,33 +5637,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D72" t="n">
-        <v>18.85</v>
+        <v>107.7666666666667</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-09-2025 12:15:34</t>
+          <t>11-09-2025 12:18:32</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>11-09-2025 12:50:34</t>
+          <t>11-09-2025 12:43:32</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>11-09-2025 12:50:34</t>
+          <t>11-09-2025 12:43:32</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>11-09-2025 13:09:25</t>
+          <t>11-09-2025 14:31:18</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2262</v>
+        <v>12932</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5677,11 +5672,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5694,19 +5689,19 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-1.548211805555556</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>253261</v>
+        <v>252741</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5714,33 +5709,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D73" t="n">
-        <v>18.85</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-09-2025 13:09:25</t>
+          <t>11-09-2025 14:31:18</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>11-09-2025 13:34:25</t>
+          <t>12-09-2025 07:11:18</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>11-09-2025 13:34:25</t>
+          <t>12-09-2025 07:11:18</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>11-09-2025 13:53:16</t>
+          <t>12-09-2025 08:12:47</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2262</v>
+        <v>7379</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5753,7 +5748,7 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -5766,11 +5761,11 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-17.57866319444445</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
         <v>7</v>
@@ -5778,7 +5773,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>253036</v>
+        <v>253295</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5789,30 +5784,30 @@
         <v>45</v>
       </c>
       <c r="D74" t="n">
-        <v>78.73333333333333</v>
+        <v>230.075</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-09-2025 13:53:16</t>
+          <t>12-09-2025 08:12:47</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>11-09-2025 14:38:16</t>
+          <t>12-09-2025 08:57:47</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>11-09-2025 14:38:16</t>
+          <t>12-09-2025 08:57:47</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>12-09-2025 07:57:00</t>
+          <t>12-09-2025 12:47:52</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>9448</v>
+        <v>27609</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5821,36 +5816,41 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M74" t="n">
-        <v>76</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N74" t="n">
+        <v>40274</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-21.33125578703704</v>
+        <v>-0.5332407407407408</v>
       </c>
       <c r="S74" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>252529</v>
+        <v>252274</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -5858,33 +5858,33 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D75" t="n">
-        <v>68.08333333333333</v>
+        <v>173.4166666666667</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>12-09-2025 07:57:00</t>
+          <t>12-09-2025 12:47:52</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>12-09-2025 08:32:00</t>
+          <t>12-09-2025 13:37:52</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>12-09-2025 08:32:00</t>
+          <t>12-09-2025 13:37:52</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>12-09-2025 09:40:05</t>
+          <t>15-09-2025 08:31:17</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>8170</v>
+        <v>20810</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M75" t="n">
         <v>76</v>
@@ -5910,11 +5910,11 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>09-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-7.402841435185185</v>
+        <v>-6.35505787037037</v>
       </c>
       <c r="S75" t="n">
         <v>2</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>253668</v>
+        <v>252397</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -5930,33 +5930,33 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D76" t="n">
-        <v>189.8666666666667</v>
+        <v>115.925</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>12-09-2025 09:40:05</t>
+          <t>15-09-2025 08:31:17</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>12-09-2025 10:15:05</t>
+          <t>15-09-2025 09:01:17</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>12-09-2025 10:15:05</t>
+          <t>15-09-2025 09:01:17</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>12-09-2025 13:24:57</t>
+          <t>15-09-2025 10:57:12</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>22784</v>
+        <v>13911</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -5965,36 +5965,36 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
+        <v>4</v>
+      </c>
+      <c r="M76" t="n">
+        <v>76</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="R76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
         <v>2</v>
-      </c>
-      <c r="M76" t="n">
-        <v>70</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>26-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="R76" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S76" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>253455</v>
+        <v>253244</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -6002,33 +6002,33 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D77" t="n">
-        <v>55.55833333333333</v>
+        <v>166.5</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>12-09-2025 13:24:57</t>
+          <t>15-09-2025 10:57:12</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>12-09-2025 13:59:57</t>
+          <t>15-09-2025 11:42:12</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>12-09-2025 13:59:57</t>
+          <t>15-09-2025 11:42:12</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>12-09-2025 14:55:31</t>
+          <t>15-09-2025 14:28:42</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>6667</v>
+        <v>19980</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6054,19 +6054,19 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>-4.621886574074074</v>
+        <v>-5.603269675925926</v>
       </c>
       <c r="S77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>253392</v>
+        <v>253549</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -6074,33 +6074,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D78" t="n">
-        <v>129.3833333333333</v>
+        <v>163.6666666666667</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>12-09-2025 14:55:31</t>
+          <t>15-09-2025 14:28:42</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>15-09-2025 07:25:31</t>
+          <t>16-09-2025 07:03:42</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>15-09-2025 07:25:31</t>
+          <t>16-09-2025 07:03:42</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>15-09-2025 09:34:54</t>
+          <t>16-09-2025 09:47:22</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>15526</v>
+        <v>19640</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6109,11 +6109,11 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M78" t="n">
         <v>70</v>
@@ -6126,19 +6126,19 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>19-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>253244</v>
+        <v>253393</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -6146,33 +6146,33 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D79" t="n">
-        <v>166.5</v>
+        <v>77.63333333333334</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>15-09-2025 09:34:54</t>
+          <t>16-09-2025 09:47:22</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>15-09-2025 10:04:54</t>
+          <t>16-09-2025 10:27:22</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>15-09-2025 10:04:54</t>
+          <t>16-09-2025 10:27:22</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>15-09-2025 12:51:24</t>
+          <t>16-09-2025 11:45:00</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>19980</v>
+        <v>9316</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6181,11 +6181,11 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
@@ -6198,19 +6198,19 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>-5.535694444444444</v>
+        <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>253528</v>
+        <v>253392</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -6218,33 +6218,33 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D80" t="n">
-        <v>119.175</v>
+        <v>129.3833333333333</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>15-09-2025 12:51:24</t>
+          <t>16-09-2025 11:45:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>15-09-2025 13:21:24</t>
+          <t>16-09-2025 12:10:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>15-09-2025 13:21:24</t>
+          <t>16-09-2025 12:10:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>16-09-2025 07:20:34</t>
+          <t>16-09-2025 14:19:23</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>14301</v>
+        <v>15526</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
@@ -6282,7 +6282,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>253367</v>
+        <v>253472</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -6290,33 +6290,33 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D81" t="n">
-        <v>135.7</v>
+        <v>291.8</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>16-09-2025 07:20:34</t>
+          <t>16-09-2025 14:19:23</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>16-09-2025 07:50:34</t>
+          <t>16-09-2025 14:54:23</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>16-09-2025 07:50:34</t>
+          <t>16-09-2025 14:54:23</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>16-09-2025 10:06:16</t>
+          <t>17-09-2025 11:46:11</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>16284</v>
+        <v>35016</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6325,11 +6325,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M81" t="n">
         <v>70</v>
@@ -6342,11 +6342,11 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>16-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>0</v>
+        <v>-1.49041087962963</v>
       </c>
       <c r="S81" t="n">
         <v>1</v>
@@ -6354,41 +6354,41 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>253393</v>
+        <v>253362</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D82" t="n">
-        <v>77.63333333333334</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>16-09-2025 10:06:16</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>16-09-2025 10:36:16</t>
+          <t>05-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>16-09-2025 10:36:16</t>
+          <t>05-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>16-09-2025 11:53:54</t>
+          <t>05-09-2025 08:33:23</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>9316</v>
+        <v>7006</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6397,36 +6397,41 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
         <v>3</v>
       </c>
       <c r="M82" t="n">
-        <v>70</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="N82" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>19-09-2025 00:00:00</t>
+          <t>15-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>253016</v>
+        <v>252702</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -6434,33 +6439,33 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D83" t="n">
-        <v>73.38333333333334</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>05-09-2025 08:33:23</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>05-09-2025 07:30:00</t>
+          <t>05-09-2025 08:58:23</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>05-09-2025 07:30:00</t>
+          <t>05-09-2025 08:58:23</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>05-09-2025 08:43:23</t>
+          <t>05-09-2025 09:56:46</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>8806</v>
+        <v>7006</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6473,7 +6478,7 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M83" t="n">
         <v>152</v>
@@ -6491,7 +6496,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>14-08-2025 00:00:00</t>
+          <t>04-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
@@ -6503,7 +6508,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>253425</v>
+        <v>253591</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -6511,33 +6516,33 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D84" t="n">
-        <v>146.35</v>
+        <v>17.41666666666667</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>05-09-2025 08:43:23</t>
+          <t>05-09-2025 09:56:46</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>05-09-2025 09:28:23</t>
+          <t>05-09-2025 10:36:46</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>05-09-2025 09:28:23</t>
+          <t>05-09-2025 10:36:46</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>05-09-2025 11:54:44</t>
+          <t>05-09-2025 10:54:11</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>17562</v>
+        <v>2090</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6546,36 +6551,41 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M84" t="n">
         <v>76</v>
       </c>
-      <c r="O84" t="n">
-        <v>0</v>
+      <c r="N84" t="n">
+        <v>40295</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P84" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
-        <v>-7.496342592592592</v>
+        <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>252702</v>
+        <v>252995</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -6583,33 +6593,33 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D85" t="n">
-        <v>58.38333333333333</v>
+        <v>68.31666666666666</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>05-09-2025 11:54:44</t>
+          <t>05-09-2025 10:54:11</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>05-09-2025 12:34:44</t>
+          <t>05-09-2025 11:29:11</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>05-09-2025 12:34:44</t>
+          <t>05-09-2025 11:29:11</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>05-09-2025 13:33:07</t>
+          <t>05-09-2025 12:37:30</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>7006</v>
+        <v>8198</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6618,41 +6628,36 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
         <v>3</v>
       </c>
       <c r="M85" t="n">
-        <v>152</v>
-      </c>
-      <c r="N85" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>04-08-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
-        <v>0</v>
+        <v>-4.526041666666667</v>
       </c>
       <c r="S85" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>252827</v>
+        <v>253100</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -6663,30 +6668,30 @@
         <v>35</v>
       </c>
       <c r="D86" t="n">
-        <v>410</v>
+        <v>47.35</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>05-09-2025 13:33:07</t>
+          <t>05-09-2025 12:37:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>05-09-2025 14:08:07</t>
+          <t>05-09-2025 13:12:30</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>05-09-2025 14:08:07</t>
+          <t>05-09-2025 13:12:30</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>08-09-2025 12:58:07</t>
+          <t>05-09-2025 13:59:51</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>49200</v>
+        <v>5682</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6695,14 +6700,14 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M86" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -6712,11 +6717,11 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>04-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
-        <v>-4.540358796296296</v>
+        <v>0</v>
       </c>
       <c r="S86" t="n">
         <v>4</v>
@@ -6724,7 +6729,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>252679</v>
+        <v>253259</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -6732,33 +6737,33 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D87" t="n">
-        <v>60</v>
+        <v>69.23333333333333</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>08-09-2025 12:58:07</t>
+          <t>05-09-2025 13:59:51</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>08-09-2025 13:38:07</t>
+          <t>05-09-2025 14:34:51</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>08-09-2025 13:38:07</t>
+          <t>05-09-2025 14:34:51</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>08-09-2025 14:38:07</t>
+          <t>08-09-2025 07:44:05</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>7200</v>
+        <v>8308</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6767,14 +6772,14 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M87" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N87" t="n">
         <v>40295</v>
@@ -6789,19 +6794,19 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
-        <v>-0.6098032407407408</v>
+        <v>-0.3222800925925926</v>
       </c>
       <c r="S87" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>253706</v>
+        <v>253361</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -6809,33 +6814,33 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D88" t="n">
-        <v>311</v>
+        <v>76.70833333333333</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>08-09-2025 14:38:07</t>
+          <t>08-09-2025 07:44:05</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>09-09-2025 07:18:07</t>
+          <t>08-09-2025 08:14:05</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>09-09-2025 07:18:07</t>
+          <t>08-09-2025 08:14:05</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>09-09-2025 12:29:07</t>
+          <t>08-09-2025 09:30:47</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>37320</v>
+        <v>9205</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -6844,14 +6849,14 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M88" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
@@ -6861,19 +6866,19 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>30-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R88" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>253362</v>
+        <v>253267</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -6881,33 +6886,33 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D89" t="n">
-        <v>58.38333333333333</v>
+        <v>164.3666666666667</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>09-09-2025 12:29:07</t>
+          <t>08-09-2025 09:30:47</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>09-09-2025 13:24:07</t>
+          <t>08-09-2025 10:05:47</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>09-09-2025 13:24:07</t>
+          <t>08-09-2025 10:05:47</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>09-09-2025 14:22:30</t>
+          <t>08-09-2025 12:50:09</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>7006</v>
+        <v>19724</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -6916,41 +6921,36 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M89" t="n">
-        <v>152</v>
-      </c>
-      <c r="N89" t="n">
-        <v>40295</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>15-09-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R89" s="1" t="n">
-        <v>-1.598958333333333</v>
+        <v>0</v>
       </c>
       <c r="S89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>253524</v>
+        <v>253268</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -6958,33 +6958,33 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D90" t="n">
-        <v>58.75833333333333</v>
+        <v>78.55833333333334</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>09-09-2025 14:22:30</t>
+          <t>08-09-2025 12:50:09</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>10-09-2025 07:02:30</t>
+          <t>08-09-2025 13:15:09</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>10-09-2025 07:02:30</t>
+          <t>08-09-2025 13:15:09</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>10-09-2025 08:01:15</t>
+          <t>08-09-2025 14:33:43</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>7051</v>
+        <v>9427</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M90" t="n">
         <v>70</v>
@@ -7010,19 +7010,19 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R90" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>253260</v>
+        <v>253271</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -7030,33 +7030,33 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D91" t="n">
-        <v>109.4083333333333</v>
+        <v>42.63333333333333</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>10-09-2025 08:01:15</t>
+          <t>08-09-2025 14:33:43</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>10-09-2025 08:31:15</t>
+          <t>09-09-2025 07:08:43</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>10-09-2025 08:31:15</t>
+          <t>09-09-2025 07:08:43</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>10-09-2025 10:20:40</t>
+          <t>09-09-2025 07:51:21</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>13129</v>
+        <v>5116</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M91" t="n">
         <v>70</v>
@@ -7082,19 +7082,19 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R91" s="1" t="n">
-        <v>-16.43101851851852</v>
+        <v>-4.327326388888889</v>
       </c>
       <c r="S91" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>253359</v>
+        <v>253072</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -7102,33 +7102,33 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D92" t="n">
-        <v>134.0166666666667</v>
+        <v>29.13333333333333</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>10-09-2025 10:20:40</t>
+          <t>09-09-2025 07:51:21</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>10-09-2025 10:50:40</t>
+          <t>09-09-2025 08:16:21</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>10-09-2025 10:50:40</t>
+          <t>09-09-2025 08:16:21</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>10-09-2025 13:04:41</t>
+          <t>09-09-2025 08:45:29</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>16082</v>
+        <v>3496</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M92" t="n">
         <v>70</v>
@@ -7154,19 +7154,19 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>18-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="R92" s="1" t="n">
-        <v>0</v>
+        <v>-22.36491898148148</v>
       </c>
       <c r="S92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>253721</v>
+        <v>253246</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -7177,30 +7177,30 @@
         <v>35</v>
       </c>
       <c r="D93" t="n">
-        <v>39.39166666666667</v>
+        <v>194.25</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>10-09-2025 13:04:41</t>
+          <t>09-09-2025 08:45:29</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>10-09-2025 13:39:41</t>
+          <t>09-09-2025 09:20:29</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10-09-2025 13:39:41</t>
+          <t>09-09-2025 09:20:29</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>10-09-2025 14:19:04</t>
+          <t>09-09-2025 12:34:44</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>4727</v>
+        <v>23310</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M93" t="n">
         <v>70</v>
@@ -7226,14 +7226,14 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>08-10-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="R93" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">

--- a/PS-VRP/Dati_output/output.xlsx
+++ b/PS-VRP/Dati_output/output.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T72"/>
+  <dimension ref="A1:T92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253194</v>
+        <v>253425</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -551,14 +551,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>199.0833333333333</v>
+        <v>146.35</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -577,11 +577,11 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>08-09-2025 10:36:05</t>
+          <t>08-09-2025 09:43:21</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>23890</v>
+        <v>17562</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
         <v>76</v>
@@ -607,19 +607,19 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>20-08-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-19.44172453703704</v>
+        <v>-10.40510416666667</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>243569</v>
+        <v>253318</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -628,37 +628,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>26-09-2024 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>19</v>
       </c>
       <c r="E3" t="n">
-        <v>21.675</v>
+        <v>51.55</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-09-2025 10:36:05</t>
+          <t>08-09-2025 09:43:21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-09-2025 10:55:05</t>
+          <t>08-09-2025 10:02:21</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-09-2025 10:55:05</t>
+          <t>08-09-2025 10:02:21</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>08-09-2025 11:16:45</t>
+          <t>08-09-2025 10:53:54</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2601</v>
+        <v>6186</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -684,19 +684,19 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-357.4699710648148</v>
+        <v>-0.4540972222222222</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>244023</v>
+        <v>252906</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -705,37 +705,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17-09-2024 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>8.308333333333334</v>
+        <v>34.725</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-09-2025 11:16:45</t>
+          <t>08-09-2025 10:53:54</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-09-2025 11:52:45</t>
+          <t>08-09-2025 11:10:54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-09-2025 11:52:45</t>
+          <t>08-09-2025 11:10:54</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>08-09-2025 12:01:04</t>
+          <t>08-09-2025 11:45:37</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>997</v>
+        <v>4167</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -744,14 +744,14 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -761,19 +761,19 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-343.5007407407408</v>
+        <v>-14.49001736111111</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>253710</v>
+        <v>250891</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -786,33 +786,33 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n">
-        <v>1.616666666666667</v>
+        <v>77.49166666666666</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-09-2025 12:01:04</t>
+          <t>08-09-2025 11:45:37</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-09-2025 12:22:04</t>
+          <t>08-09-2025 12:17:37</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-09-2025 12:22:04</t>
+          <t>08-09-2025 12:17:37</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>08-09-2025 12:23:41</t>
+          <t>08-09-2025 13:35:07</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>194</v>
+        <v>9299</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5" t="n">
         <v>70</v>
@@ -838,11 +838,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>13-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0</v>
+        <v>-26.56605324074074</v>
       </c>
       <c r="T5" t="n">
         <v>4</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252833</v>
+        <v>253278</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -859,37 +859,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
-        <v>74.78333333333333</v>
+        <v>28.425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-09-2025 12:23:41</t>
+          <t>08-09-2025 13:35:07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-09-2025 12:42:41</t>
+          <t>08-09-2025 13:52:07</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-09-2025 12:42:41</t>
+          <t>08-09-2025 13:52:07</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>08-09-2025 13:57:28</t>
+          <t>08-09-2025 14:20:32</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>8974</v>
+        <v>3411</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N6" t="n">
         <v>70</v>
@@ -915,19 +915,19 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-13.58157407407407</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252939</v>
+        <v>253710</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -936,37 +936,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>89.8</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-09-2025 13:57:28</t>
+          <t>08-09-2025 14:20:32</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08-09-2025 14:16:28</t>
+          <t>08-09-2025 14:41:32</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-09-2025 14:16:28</t>
+          <t>08-09-2025 14:41:32</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>09-09-2025 07:46:16</t>
+          <t>08-09-2025 14:43:09</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>10776</v>
+        <v>194</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -992,14 +992,14 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-18.3237962962963</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1024,22 +1024,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-09-2025 07:46:16</t>
+          <t>08-09-2025 14:43:09</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09-09-2025 08:03:16</t>
+          <t>09-09-2025 07:00:09</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-09-2025 08:03:16</t>
+          <t>09-09-2025 07:00:09</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>09-09-2025 08:50:37</t>
+          <t>09-09-2025 07:47:30</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-1.368483796296296</v>
+        <v>-1.324658564814815</v>
       </c>
       <c r="T8" t="n">
         <v>4</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>250891</v>
+        <v>252833</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1090,37 +1090,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>77.49166666666666</v>
+        <v>74.78333333333333</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-09-2025 08:50:37</t>
+          <t>09-09-2025 07:47:30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09-09-2025 09:07:37</t>
+          <t>09-09-2025 08:04:30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-09-2025 09:07:37</t>
+          <t>09-09-2025 08:04:30</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>09-09-2025 10:25:06</t>
+          <t>09-09-2025 09:19:17</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>9299</v>
+        <v>8974</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
         <v>70</v>
@@ -1146,11 +1146,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>13-08-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-27.43410300925926</v>
+        <v>-14.38839699074074</v>
       </c>
       <c r="T9" t="n">
         <v>4</v>
@@ -1158,11 +1158,11 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>253268</v>
+        <v>253317</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1171,33 +1171,33 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E10" t="n">
-        <v>78.55833333333334</v>
+        <v>102.775</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-09-2025 10:25:06</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09-09-2025 10:42:06</t>
+          <t>08-09-2025 07:29:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09-09-2025 10:42:06</t>
+          <t>08-09-2025 07:29:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>09-09-2025 12:00:40</t>
+          <t>08-09-2025 09:11:46</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>9427</v>
+        <v>12333</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1206,14 +1206,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1223,23 +1223,23 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>23-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0</v>
+        <v>-0.3831770833333333</v>
       </c>
       <c r="T10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>253267</v>
+        <v>253259</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1248,33 +1248,33 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>164.3666666666667</v>
+        <v>69.23333333333333</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-09-2025 12:00:40</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09-09-2025 12:15:40</t>
+          <t>05-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>09-09-2025 12:15:40</t>
+          <t>05-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10-09-2025 07:00:02</t>
+          <t>05-09-2025 08:26:14</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>19724</v>
+        <v>8308</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1283,75 +1283,80 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
         <v>70</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
+      <c r="O11" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>23-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>253524</v>
+        <v>253591</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E12" t="n">
-        <v>58.75833333333333</v>
+        <v>17.41666666666667</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10-09-2025 07:00:02</t>
+          <t>05-09-2025 08:26:14</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10-09-2025 07:17:02</t>
+          <t>05-09-2025 08:58:14</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10-09-2025 07:17:02</t>
+          <t>05-09-2025 08:58:14</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10-09-2025 08:15:47</t>
+          <t>05-09-2025 09:15:39</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>7051</v>
+        <v>2090</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1360,75 +1365,80 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="n">
-        <v>70</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O12" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>253246</v>
+        <v>253314</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>17</v>
       </c>
       <c r="E13" t="n">
-        <v>194.25</v>
+        <v>43.40833333333333</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10-09-2025 08:15:47</t>
+          <t>05-09-2025 09:15:39</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10-09-2025 08:32:47</t>
+          <t>05-09-2025 09:32:39</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10-09-2025 08:32:47</t>
+          <t>05-09-2025 09:32:39</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10-09-2025 11:47:02</t>
+          <t>05-09-2025 10:16:03</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>23310</v>
+        <v>5209</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1437,40 +1447,45 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>70</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O13" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-0.4910011574074074</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>253375</v>
+        <v>252702</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1479,33 +1494,33 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>51.88333333333333</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10-09-2025 11:47:02</t>
+          <t>05-09-2025 10:16:03</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10-09-2025 12:06:02</t>
+          <t>05-09-2025 10:48:03</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>10-09-2025 12:06:02</t>
+          <t>05-09-2025 10:48:03</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10-09-2025 12:57:55</t>
+          <t>05-09-2025 11:46:26</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>6226</v>
+        <v>7006</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1514,75 +1529,80 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>152</v>
+      </c>
+      <c r="O14" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>40295</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>04-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
         <v>2</v>
-      </c>
-      <c r="N14" t="n">
-        <v>70</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>25-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>253361</v>
+        <v>253362</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>76.70833333333333</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10-09-2025 12:57:55</t>
+          <t>05-09-2025 11:46:26</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10-09-2025 13:12:55</t>
+          <t>05-09-2025 12:01:26</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10-09-2025 13:12:55</t>
+          <t>05-09-2025 12:01:26</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>10-09-2025 14:29:38</t>
+          <t>05-09-2025 12:59:49</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>9205</v>
+        <v>7006</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1591,75 +1611,80 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>152</v>
+      </c>
+      <c r="O15" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>40295</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>15-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
         <v>2</v>
-      </c>
-      <c r="N15" t="n">
-        <v>70</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>11-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>253372</v>
+        <v>252843</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E16" t="n">
-        <v>103.775</v>
+        <v>19.2</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10-09-2025 14:29:38</t>
+          <t>05-09-2025 12:59:49</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10-09-2025 14:44:38</t>
+          <t>05-09-2025 13:41:49</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>10-09-2025 14:44:38</t>
+          <t>05-09-2025 13:41:49</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>11-09-2025 08:28:24</t>
+          <t>05-09-2025 14:01:01</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>12453</v>
+        <v>2304</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1668,75 +1693,75 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M16" t="n">
+        <v>9</v>
+      </c>
+      <c r="N16" t="n">
+        <v>76</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>30-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>-37.58404513888889</v>
+      </c>
+      <c r="T16" t="n">
         <v>2</v>
-      </c>
-      <c r="N16" t="n">
-        <v>70</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>25-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>253370</v>
+        <v>252682</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>207.5416666666667</v>
+        <v>83.40833333333333</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>11-09-2025 08:28:24</t>
+          <t>05-09-2025 14:01:01</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>11-09-2025 08:43:24</t>
+          <t>05-09-2025 14:26:01</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11-09-2025 08:43:24</t>
+          <t>05-09-2025 14:26:01</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>11-09-2025 12:10:57</t>
+          <t>08-09-2025 07:49:26</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>24905</v>
+        <v>10009</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1745,75 +1770,80 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>70</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O17" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0</v>
+        <v>-0.3259953703703704</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>253368</v>
+        <v>252939</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E18" t="n">
-        <v>103.775</v>
+        <v>89.8</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>11-09-2025 12:10:57</t>
+          <t>08-09-2025 07:49:26</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11-09-2025 12:25:57</t>
+          <t>08-09-2025 08:21:26</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>11-09-2025 12:25:57</t>
+          <t>08-09-2025 08:21:26</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>11-09-2025 14:09:43</t>
+          <t>08-09-2025 09:51:14</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>12453</v>
+        <v>10776</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1822,11 +1852,11 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
         <v>70</v>
@@ -1839,58 +1869,58 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
-        <v>0</v>
+        <v>-17.4105787037037</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>253409</v>
+        <v>253268</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E19" t="n">
-        <v>27.18333333333333</v>
+        <v>78.55833333333334</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>08-09-2025 09:51:14</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08-09-2025 07:29:00</t>
+          <t>08-09-2025 10:08:14</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>08-09-2025 07:29:00</t>
+          <t>08-09-2025 10:08:14</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>08-09-2025 07:56:11</t>
+          <t>08-09-2025 11:26:47</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>3262</v>
+        <v>9427</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1899,14 +1929,14 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1916,23 +1946,23 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-10.33068287037037</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252569</v>
+        <v>253267</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1941,33 +1971,33 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>9.583333333333334</v>
+        <v>164.3666666666667</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>08-09-2025 07:56:11</t>
+          <t>08-09-2025 11:26:47</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08-09-2025 08:25:11</t>
+          <t>08-09-2025 11:41:47</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>08-09-2025 08:25:11</t>
+          <t>08-09-2025 11:41:47</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>08-09-2025 08:34:46</t>
+          <t>08-09-2025 14:26:09</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1150</v>
+        <v>19724</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1976,14 +2006,14 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1993,23 +2023,23 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-7.357476851851852</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252827</v>
+        <v>253072</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2018,33 +2048,33 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E21" t="n">
-        <v>410</v>
+        <v>29.13333333333333</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>08-09-2025 08:34:46</t>
+          <t>08-09-2025 14:26:09</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08-09-2025 09:01:46</t>
+          <t>08-09-2025 14:45:09</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>08-09-2025 09:01:46</t>
+          <t>08-09-2025 14:45:09</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>09-09-2025 07:51:46</t>
+          <t>09-09-2025 07:14:17</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>49200</v>
+        <v>3496</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2053,75 +2083,75 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N21" t="n">
+        <v>70</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>18-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>-22.30159143518518</v>
+      </c>
+      <c r="T21" t="n">
         <v>2</v>
-      </c>
-      <c r="N21" t="n">
-        <v>76</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>04-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S21" s="1" t="n">
-        <v>-5.327615740740741</v>
-      </c>
-      <c r="T21" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>252995</v>
+        <v>253271</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E22" t="n">
-        <v>68.31666666666666</v>
+        <v>42.63333333333333</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>09-09-2025 07:51:46</t>
+          <t>09-09-2025 07:14:17</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>09-09-2025 08:18:46</t>
+          <t>09-09-2025 07:29:17</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>09-09-2025 08:18:46</t>
+          <t>09-09-2025 07:29:17</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>09-09-2025 09:27:05</t>
+          <t>09-09-2025 08:11:55</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>8198</v>
+        <v>5116</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2130,14 +2160,14 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N22" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2147,23 +2177,23 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-8.39380787037037</v>
+        <v>-4.341614583333333</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>253271</v>
+        <v>253659</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2172,33 +2202,33 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E23" t="n">
-        <v>42.63333333333333</v>
+        <v>323.75</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>09-09-2025 09:27:05</t>
+          <t>09-09-2025 08:11:55</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>09-09-2025 10:13:05</t>
+          <t>09-09-2025 08:28:55</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>09-09-2025 10:13:05</t>
+          <t>09-09-2025 08:28:55</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>09-09-2025 10:55:43</t>
+          <t>09-09-2025 13:52:40</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>5116</v>
+        <v>38850</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2211,7 +2241,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N23" t="n">
         <v>70</v>
@@ -2224,58 +2254,58 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-4.455358796296296</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>253527</v>
+        <v>253687</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E24" t="n">
-        <v>67.48333333333333</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>09-09-2025 10:55:43</t>
+          <t>09-09-2025 13:52:40</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>09-09-2025 11:26:43</t>
+          <t>09-09-2025 14:07:40</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>09-09-2025 11:26:43</t>
+          <t>09-09-2025 14:07:40</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>09-09-2025 12:34:12</t>
+          <t>09-09-2025 14:51:54</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>8098</v>
+        <v>5308</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2288,7 +2318,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N24" t="n">
         <v>70</v>
@@ -2313,46 +2343,46 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>253095</v>
+        <v>253245</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E25" t="n">
-        <v>76.31666666666666</v>
+        <v>150.8333333333333</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>09-09-2025 12:34:12</t>
+          <t>09-09-2025 14:51:54</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>09-09-2025 13:01:12</t>
+          <t>10-09-2025 07:08:54</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>09-09-2025 13:01:12</t>
+          <t>10-09-2025 07:08:54</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>09-09-2025 14:17:31</t>
+          <t>10-09-2025 09:39:44</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>9158</v>
+        <v>18100</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2361,11 +2391,11 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N25" t="n">
         <v>70</v>
@@ -2378,58 +2408,58 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
-        <v>0</v>
+        <v>-0.4025983796296296</v>
       </c>
       <c r="T25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>253721</v>
+        <v>253368</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E26" t="n">
-        <v>39.39166666666667</v>
+        <v>103.775</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>09-09-2025 14:17:31</t>
+          <t>10-09-2025 09:39:44</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>09-09-2025 14:44:31</t>
+          <t>10-09-2025 09:58:44</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>09-09-2025 14:44:31</t>
+          <t>10-09-2025 09:58:44</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>10-09-2025 07:23:54</t>
+          <t>10-09-2025 11:42:31</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>4727</v>
+        <v>12453</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2438,11 +2468,11 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
         <v>70</v>
@@ -2455,7 +2485,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>08-10-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
@@ -2467,46 +2497,46 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>253359</v>
+        <v>253370</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E27" t="n">
-        <v>134.0166666666667</v>
+        <v>207.5416666666667</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>10-09-2025 07:23:54</t>
+          <t>10-09-2025 11:42:31</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10-09-2025 07:52:54</t>
+          <t>10-09-2025 11:57:31</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>10-09-2025 07:52:54</t>
+          <t>10-09-2025 11:57:31</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>10-09-2025 10:06:55</t>
+          <t>11-09-2025 07:25:03</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>16082</v>
+        <v>24905</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2515,11 +2545,11 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N27" t="n">
         <v>70</v>
@@ -2532,7 +2562,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -2544,46 +2574,46 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>253332</v>
+        <v>253371</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E28" t="n">
-        <v>184.825</v>
+        <v>107.7666666666667</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>10-09-2025 10:06:55</t>
+          <t>11-09-2025 07:25:03</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10-09-2025 10:33:55</t>
+          <t>11-09-2025 07:40:03</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>10-09-2025 10:33:55</t>
+          <t>11-09-2025 07:40:03</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>10-09-2025 13:38:45</t>
+          <t>11-09-2025 09:27:49</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>22179</v>
+        <v>12932</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2609,58 +2639,58 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-0.5685763888888888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>253245</v>
+        <v>253376</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>150.8333333333333</v>
+        <v>179.6083333333333</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10-09-2025 13:38:45</t>
+          <t>11-09-2025 09:27:49</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10-09-2025 14:07:45</t>
+          <t>11-09-2025 09:42:49</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>10-09-2025 14:07:45</t>
+          <t>11-09-2025 09:42:49</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>11-09-2025 08:38:35</t>
+          <t>11-09-2025 12:42:26</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>18100</v>
+        <v>21553</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2669,11 +2699,11 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N29" t="n">
         <v>70</v>
@@ -2686,19 +2716,19 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-1.360127314814815</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>253259</v>
+        <v>253436</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2707,37 +2737,37 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E30" t="n">
-        <v>69.23333333333333</v>
+        <v>18.85</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>11-09-2025 12:42:26</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>05-09-2025 07:17:00</t>
+          <t>11-09-2025 13:05:26</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>05-09-2025 07:17:00</t>
+          <t>11-09-2025 13:05:26</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>05-09-2025 08:26:14</t>
+          <t>11-09-2025 13:24:17</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>8308</v>
+        <v>2262</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2746,33 +2776,28 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N30" t="n">
         <v>70</v>
       </c>
-      <c r="O30" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P30" t="n">
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
-        <v>0</v>
+        <v>-1.558530092592593</v>
       </c>
       <c r="T30" t="n">
         <v>7</v>
@@ -2780,7 +2805,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>253313</v>
+        <v>253261</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2789,37 +2814,37 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E31" t="n">
-        <v>100.0083333333333</v>
+        <v>18.85</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>05-09-2025 08:26:14</t>
+          <t>11-09-2025 13:24:17</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>05-09-2025 09:00:14</t>
+          <t>11-09-2025 13:39:17</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>05-09-2025 09:00:14</t>
+          <t>11-09-2025 13:39:17</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>05-09-2025 10:40:14</t>
+          <t>11-09-2025 13:58:08</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>12001</v>
+        <v>2262</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2828,14 +2853,14 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N31" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -2845,19 +2870,19 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-0.4446122685185185</v>
+        <v>-17.58203703703704</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>252843</v>
+        <v>244743</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2866,37 +2891,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E32" t="n">
-        <v>19.2</v>
+        <v>29.34166666666667</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>05-09-2025 10:40:14</t>
+          <t>11-09-2025 13:58:08</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>05-09-2025 11:05:14</t>
+          <t>11-09-2025 14:19:08</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>05-09-2025 11:05:14</t>
+          <t>11-09-2025 14:19:08</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>05-09-2025 11:24:26</t>
+          <t>11-09-2025 14:48:28</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>2304</v>
+        <v>3521</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2905,14 +2930,14 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N32" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -2922,19 +2947,19 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>30-07-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-37.47530671296296</v>
+        <v>-17.61699652777778</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>253591</v>
+        <v>253668</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2943,37 +2968,37 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E33" t="n">
-        <v>17.41666666666667</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>05-09-2025 11:24:26</t>
+          <t>11-09-2025 14:48:28</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>05-09-2025 11:51:26</t>
+          <t>12-09-2025 07:05:28</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>05-09-2025 11:51:26</t>
+          <t>12-09-2025 07:05:28</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>05-09-2025 12:08:51</t>
+          <t>12-09-2025 10:15:20</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>2090</v>
+        <v>22784</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2982,41 +3007,36 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N33" t="n">
-        <v>76</v>
-      </c>
-      <c r="O33" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>253374</v>
+        <v>253295</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -3025,37 +3045,37 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E34" t="n">
-        <v>59.60833333333333</v>
+        <v>230.075</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>05-09-2025 12:08:51</t>
+          <t>12-09-2025 10:15:20</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>05-09-2025 12:40:51</t>
+          <t>12-09-2025 10:36:20</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>05-09-2025 12:40:51</t>
+          <t>12-09-2025 10:36:20</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>05-09-2025 13:40:28</t>
+          <t>12-09-2025 14:26:25</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>7153</v>
+        <v>27609</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3068,32 +3088,37 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="n">
         <v>70</v>
       </c>
-      <c r="P34" t="n">
-        <v>0</v>
+      <c r="O34" t="n">
+        <v>40274</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0</v>
+        <v>-0.6016782407407407</v>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252664</v>
+        <v>253522</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3102,37 +3127,37 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>19</v>
       </c>
       <c r="E35" t="n">
-        <v>365.975</v>
+        <v>198.625</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>05-09-2025 13:40:28</t>
+          <t>12-09-2025 14:26:25</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>05-09-2025 13:59:28</t>
+          <t>12-09-2025 14:45:25</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>05-09-2025 13:59:28</t>
+          <t>12-09-2025 14:45:25</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>08-09-2025 12:05:26</t>
+          <t>15-09-2025 10:04:02</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>43917</v>
+        <v>23835</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3141,43 +3166,36 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N35" t="n">
         <v>70</v>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>40279 (esterno)</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P35" t="n">
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>40279</v>
+        <v>0</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-6.503778935185185</v>
+        <v>-3.419473379629629</v>
       </c>
       <c r="T35" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>253706</v>
+        <v>253374</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3186,37 +3204,37 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E36" t="n">
-        <v>311</v>
+        <v>59.60833333333333</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>08-09-2025 12:05:26</t>
+          <t>15-09-2025 10:04:02</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08-09-2025 12:47:26</t>
+          <t>15-09-2025 10:21:02</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>08-09-2025 12:47:26</t>
+          <t>15-09-2025 10:21:02</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>09-09-2025 09:58:26</t>
+          <t>15-09-2025 11:20:39</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>37320</v>
+        <v>7153</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3225,14 +3243,14 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>8</v>
+        